--- a/AP_OCT_A.xlsx
+++ b/AP_OCT_A.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\VIstas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA0CF5-1F26-4581-B869-1C42D68C455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA559C4-504A-48B1-8961-636B8FC7E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4770" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="DB (2)" sheetId="7" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="262">
   <si>
     <t>PNM</t>
   </si>
@@ -853,10 +853,7 @@
     <t>accum.</t>
   </si>
   <si>
-    <t>Montly Report</t>
-  </si>
-  <si>
-    <t>NRC-IMP</t>
+    <t>NRC Plan</t>
   </si>
 </sst>
 </file>
@@ -871,7 +868,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,6 +1069,13 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1893,7 +1897,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="355">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2228,14 +2232,14 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2263,9 +2267,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2553,6 +2554,10 @@
     <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2840,6 +2845,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44505,6 +44513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128A008-A5E3-4248-98DE-77B8D6767B1D}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:X79"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="91" zoomScaleNormal="78" workbookViewId="0">
@@ -44528,7 +44537,7 @@
     <row r="1" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="2" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="3" spans="2:24" ht="34.5">
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="171" t="s">
         <v>0</v>
       </c>
     </row>
@@ -44575,11 +44584,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="257" t="s">
+      <c r="V8" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="258"/>
-      <c r="X8" s="259"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="260"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -44638,9 +44647,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="260"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="262"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="263"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -44666,10 +44675,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.47982216142270862</v>
       </c>
-      <c r="V10" s="263" t="s">
+      <c r="V10" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="264"/>
+      <c r="W10" s="265"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -44698,20 +44707,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="265" t="str">
+      <c r="V11" s="266" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
-        <v>NRC Plan FY25-FY26, signed in Q1 FY25</v>
-      </c>
-      <c r="W11" s="266"/>
-      <c r="X11" s="269" t="str">
+        <v>NRC Plan</v>
+      </c>
+      <c r="W11" s="267"/>
+      <c r="X11" s="270" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="267"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="270"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="271"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -44791,142 +44800,145 @@
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="271" t="s">
+      <c r="C24" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="272"/>
-      <c r="E24" s="272"/>
-      <c r="F24" s="272"/>
-      <c r="G24" s="272"/>
-      <c r="H24" s="273"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="274"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="257" t="s">
+      <c r="J24" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="258"/>
-      <c r="L24" s="258"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="259"/>
+      <c r="K24" s="259"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="260"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="257" t="s">
+      <c r="Q24" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="258"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="258"/>
-      <c r="W24" s="259"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="259"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="278" t="s">
+      <c r="C25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279" t="s">
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="280"/>
+      <c r="H25" s="281"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="278" t="s">
+      <c r="J25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="279"/>
-      <c r="L25" s="279"/>
-      <c r="M25" s="279"/>
-      <c r="N25" s="279" t="s">
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="280"/>
+      <c r="O25" s="281"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="281" t="s">
+      <c r="Q25" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="282"/>
-      <c r="S25" s="282"/>
-      <c r="T25" s="282"/>
-      <c r="U25" s="283"/>
-      <c r="V25" s="284" t="s">
+      <c r="R25" s="283"/>
+      <c r="S25" s="283"/>
+      <c r="T25" s="283"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="285"/>
+      <c r="W25" s="286"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="286" t="str">
+      <c r="C26" s="287" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
-        <v>Montly Report</v>
-      </c>
-      <c r="D26" s="287"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="290">
+        <v>&gt; All Channels (Phisicals and Digitals)
+&gt; Per model
+&gt; Per month FCST (1 week before starting N month)
+&gt; Per month Results (1 week after N month closure)</v>
+      </c>
+      <c r="D26" s="288"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="291">
         <v>1</v>
       </c>
-      <c r="H26" s="291"/>
+      <c r="H26" s="292"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="294" t="s">
+      <c r="J26" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="295"/>
-      <c r="L26" s="295"/>
-      <c r="M26" s="295"/>
-      <c r="N26" s="298" t="s">
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="299"/>
+      <c r="O26" s="300"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="302" t="s">
+      <c r="Q26" s="303" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="303"/>
-      <c r="S26" s="303"/>
-      <c r="T26" s="303"/>
-      <c r="U26" s="303"/>
-      <c r="V26" s="274" t="s">
+      <c r="R26" s="304"/>
+      <c r="S26" s="304"/>
+      <c r="T26" s="304"/>
+      <c r="U26" s="304"/>
+      <c r="V26" s="275" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="275"/>
+      <c r="W26" s="276"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="287"/>
-      <c r="G27" s="290"/>
-      <c r="H27" s="291"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="291"/>
+      <c r="H27" s="292"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="297"/>
-      <c r="L27" s="297"/>
-      <c r="M27" s="297"/>
-      <c r="N27" s="300"/>
-      <c r="O27" s="301"/>
+      <c r="J27" s="297"/>
+      <c r="K27" s="298"/>
+      <c r="L27" s="298"/>
+      <c r="M27" s="298"/>
+      <c r="N27" s="301"/>
+      <c r="O27" s="302"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="302"/>
-      <c r="R27" s="303"/>
-      <c r="S27" s="303"/>
-      <c r="T27" s="303"/>
-      <c r="U27" s="303"/>
-      <c r="V27" s="274"/>
-      <c r="W27" s="275"/>
+      <c r="Q27" s="303"/>
+      <c r="R27" s="304"/>
+      <c r="S27" s="304"/>
+      <c r="T27" s="304"/>
+      <c r="U27" s="304"/>
+      <c r="V27" s="275"/>
+      <c r="W27" s="276"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="291"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="292"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -44935,23 +44947,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="302"/>
-      <c r="R28" s="303"/>
-      <c r="S28" s="303"/>
-      <c r="T28" s="303"/>
-      <c r="U28" s="303"/>
-      <c r="V28" s="274"/>
-      <c r="W28" s="275"/>
+      <c r="Q28" s="303"/>
+      <c r="R28" s="304"/>
+      <c r="S28" s="304"/>
+      <c r="T28" s="304"/>
+      <c r="U28" s="304"/>
+      <c r="V28" s="275"/>
+      <c r="W28" s="276"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="289"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="292"/>
-      <c r="H29" s="293"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="294"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -44960,154 +44972,154 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="304"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="305"/>
-      <c r="T29" s="305"/>
-      <c r="U29" s="305"/>
-      <c r="V29" s="276"/>
-      <c r="W29" s="277"/>
+      <c r="Q29" s="305"/>
+      <c r="R29" s="306"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="306"/>
+      <c r="V29" s="277"/>
+      <c r="W29" s="278"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="183"/>
-      <c r="D34" s="183" t="s">
+      <c r="C34" s="182"/>
+      <c r="D34" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="183" t="s">
+      <c r="E34" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="183" t="s">
+      <c r="F34" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="183" t="s">
+      <c r="G34" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="183" t="s">
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="183" t="s">
+      <c r="L34" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="183" t="s">
+      <c r="M34" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="183" t="s">
+      <c r="N34" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="183"/>
-      <c r="P34" s="183"/>
-      <c r="Q34" s="183" t="s">
+      <c r="O34" s="182"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="R34" s="183" t="s">
+      <c r="R34" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="S34" s="183" t="s">
+      <c r="S34" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="183" t="s">
+      <c r="T34" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="U34" s="183"/>
-      <c r="V34" s="190">
+      <c r="U34" s="182"/>
+      <c r="V34" s="189">
         <v>0.9151999999999999</v>
       </c>
-      <c r="W34" s="190">
+      <c r="W34" s="189">
         <f>IF(V34&gt;=100%,0%,100%-V34)</f>
         <v>8.4800000000000098E-2</v>
       </c>
-      <c r="X34" s="183"/>
+      <c r="X34" s="182"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="183" t="s">
+      <c r="C35" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="191">
+      <c r="D35" s="190">
         <v>1710206</v>
       </c>
-      <c r="E35" s="191">
+      <c r="E35" s="190">
         <v>1426757</v>
       </c>
-      <c r="F35" s="192">
+      <c r="F35" s="191">
         <f>E35/D35</f>
         <v>0.83426031717816451</v>
       </c>
-      <c r="G35" s="189">
+      <c r="G35" s="188">
         <f>IF(F35&gt;=100%,0%,100%-F35)</f>
         <v>0.16573968282183549</v>
       </c>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183" t="s">
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="193">
+      <c r="K35" s="192">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AK2,FALSE)</f>
         <v>0.77</v>
       </c>
-      <c r="L35" s="193">
+      <c r="L35" s="192">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AL2,FALSE)</f>
         <v>0.76</v>
       </c>
-      <c r="M35" s="189">
+      <c r="M35" s="188">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AM2,FALSE)</f>
         <v>0.98701298701298701</v>
       </c>
-      <c r="N35" s="189">
+      <c r="N35" s="188">
         <f>IF(M35&gt;=100%,0%,100%-M35)</f>
         <v>1.2987012987012991E-2</v>
       </c>
-      <c r="O35" s="183"/>
-      <c r="P35" s="183" t="s">
+      <c r="O35" s="182"/>
+      <c r="P35" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="194">
+      <c r="Q35" s="193">
         <v>906</v>
       </c>
-      <c r="R35" s="194">
+      <c r="R35" s="193">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AP2,FALSE)</f>
         <v>1146</v>
       </c>
-      <c r="S35" s="195">
+      <c r="S35" s="194">
         <f>R35/Q35</f>
         <v>1.2649006622516556</v>
       </c>
-      <c r="T35" s="189">
+      <c r="T35" s="188">
         <f>IF(S35&gt;=100%,0%,100%-S35)</f>
         <v>0</v>
       </c>
-      <c r="U35" s="183"/>
-      <c r="V35" s="183"/>
-      <c r="W35" s="183"/>
-      <c r="X35" s="183"/>
+      <c r="U35" s="182"/>
+      <c r="V35" s="182"/>
+      <c r="W35" s="182"/>
+      <c r="X35" s="182"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="183"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="183"/>
-      <c r="P36" s="183"/>
-      <c r="Q36" s="183"/>
-      <c r="R36" s="183"/>
-      <c r="S36" s="183"/>
-      <c r="T36" s="183"/>
-      <c r="U36" s="183"/>
-      <c r="V36" s="183"/>
-      <c r="W36" s="183"/>
-      <c r="X36" s="183"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="182"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="182"/>
+      <c r="O36" s="182"/>
+      <c r="P36" s="182"/>
+      <c r="Q36" s="182"/>
+      <c r="R36" s="182"/>
+      <c r="S36" s="182"/>
+      <c r="T36" s="182"/>
+      <c r="U36" s="182"/>
+      <c r="V36" s="182"/>
+      <c r="W36" s="182"/>
+      <c r="X36" s="182"/>
     </row>
     <row r="56" spans="5:9">
       <c r="F56" t="s">
@@ -45206,13 +45218,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6297A176-F782-4785-918D-672BC0916BAF}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:BG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="63" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BF7" sqref="BF7"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -45423,186 +45436,183 @@
       </c>
     </row>
     <row r="3" spans="2:59">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="163" t="s">
+      <c r="C3" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="D3" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="184" t="s">
+      <c r="F3" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="185" t="s">
+      <c r="G3" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="163" t="s">
+      <c r="I3" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="163" t="s">
+      <c r="L3" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="163" t="s">
+      <c r="M3" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="184" t="s">
+      <c r="N3" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="185" t="s">
+      <c r="O3" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="163" t="s">
+      <c r="P3" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="163" t="s">
+      <c r="Q3" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="184" t="s">
+      <c r="R3" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="185" t="s">
+      <c r="S3" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="163" t="s">
+      <c r="T3" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="163" t="s">
+      <c r="U3" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="184" t="s">
+      <c r="V3" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="185" t="s">
+      <c r="W3" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="163" t="s">
+      <c r="X3" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="184" t="s">
+      <c r="Y3" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="185" t="s">
+      <c r="Z3" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="163" t="s">
+      <c r="AA3" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="184" t="s">
+      <c r="AB3" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="185" t="s">
+      <c r="AC3" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="163" t="s">
+      <c r="AD3" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="184" t="s">
+      <c r="AE3" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="185" t="s">
+      <c r="AF3" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="163" t="s">
+      <c r="AG3" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="163" t="s">
+      <c r="AH3" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="184" t="s">
+      <c r="AI3" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="185" t="s">
+      <c r="AJ3" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="163" t="s">
+      <c r="AK3" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="AL3" s="163" t="s">
+      <c r="AL3" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="AM3" s="184" t="s">
+      <c r="AM3" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="AN3" s="185" t="s">
+      <c r="AN3" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="163" t="s">
+      <c r="AO3" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="163" t="s">
+      <c r="AP3" s="162" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="184" t="s">
+      <c r="AQ3" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="185" t="s">
+      <c r="AR3" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="163" t="s">
+      <c r="AS3" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" s="163" t="s">
+      <c r="AT3" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="AU3" s="163" t="s">
+      <c r="AU3" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="AV3" s="163" t="s">
+      <c r="AV3" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="AW3" s="163" t="s">
+      <c r="AW3" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="163" t="s">
+      <c r="AX3" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="AY3" s="163" t="s">
+      <c r="AY3" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="AZ3" s="163" t="s">
+      <c r="AZ3" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="BA3" s="163" t="s">
+      <c r="BA3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" s="163" t="s">
+      <c r="BB3" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="BC3" s="163" t="s">
+      <c r="BC3" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="BD3" s="163" t="s">
+      <c r="BD3" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="BE3" s="163" t="s">
+      <c r="BE3" s="162" t="s">
         <v>81</v>
-      </c>
-      <c r="BF3" s="163" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="4" spans="2:59" ht="35.450000000000003" customHeight="1">
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="212">
+      <c r="D4" s="211">
         <v>0.78</v>
       </c>
       <c r="E4" s="150">
@@ -45617,7 +45627,7 @@
         <f>IF(F4&gt;=100%,6%,F4*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H4" s="212">
+      <c r="H4" s="211">
         <v>0.92</v>
       </c>
       <c r="I4" s="151">
@@ -45632,27 +45642,27 @@
         <f>IF(J4&gt;=100%,6%,J4*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L4" s="152" t="s">
-        <v>84</v>
+      <c r="L4" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M4" s="148" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="153">
+      <c r="N4" s="152">
         <v>0.1</v>
       </c>
       <c r="O4" s="150">
         <f>IF(N4&gt;=100%,5%,N4*5%/100%)</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="P4" s="153">
+      <c r="P4" s="152">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="154">
+      <c r="Q4" s="153">
         <f>AZ4+BD4</f>
         <v>0.857187139561707</v>
       </c>
-      <c r="R4" s="154">
+      <c r="R4" s="153">
         <f>Q4/P4</f>
         <v>0.95243015506856332</v>
       </c>
@@ -45660,14 +45670,14 @@
         <f>IF(R4&gt;=100%,4%,R4*4%/100%)</f>
         <v>3.8097206202742533E-2</v>
       </c>
-      <c r="T4" s="155">
+      <c r="T4" s="154">
         <v>0.69</v>
       </c>
       <c r="U4" s="151">
         <f>VLOOKUP(C4,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.6284187647165369</v>
       </c>
-      <c r="V4" s="154">
+      <c r="V4" s="153">
         <f>U4/T4</f>
         <v>0.91075183292251727</v>
       </c>
@@ -45675,8 +45685,8 @@
         <f>IF(V4&gt;=100%,4%,V4*4%/100%)</f>
         <v>3.6430073316900694E-2</v>
       </c>
-      <c r="X4" s="156" t="s">
-        <v>261</v>
+      <c r="X4" s="155" t="s">
+        <v>86</v>
       </c>
       <c r="Y4" s="150">
         <f>VLOOKUP(C4,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -45689,7 +45699,7 @@
       <c r="AA4" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="AB4" s="153">
+      <c r="AB4" s="152">
         <v>0.5</v>
       </c>
       <c r="AC4" s="151">
@@ -45699,17 +45709,17 @@
       <c r="AD4" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" s="153">
+      <c r="AE4" s="152">
         <v>0.75</v>
       </c>
       <c r="AF4" s="151">
         <f>IF(AE4&gt;=100%,7%,AE4*7%/100%)</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="AG4" s="157">
+      <c r="AG4" s="156">
         <v>22300000</v>
       </c>
-      <c r="AH4" s="157">
+      <c r="AH4" s="156">
         <f>VLOOKUP(C4,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>11072189</v>
       </c>
@@ -45721,10 +45731,10 @@
         <f t="shared" ref="AJ4:AJ6" si="0">IF(AI4&gt;=100%,20%,AI4*20%/100%)</f>
         <v>9.9302143497757844E-2</v>
       </c>
-      <c r="AK4" s="159">
+      <c r="AK4" s="158">
         <v>1</v>
       </c>
-      <c r="AL4" s="160">
+      <c r="AL4" s="159">
         <f>VLOOKUP(C4,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.04</v>
       </c>
@@ -45736,10 +45746,10 @@
         <f t="shared" ref="AN4:AN6" si="1">IF(AM4&gt;=100%,10%,AM4*10%/100%)</f>
         <v>0.1</v>
       </c>
-      <c r="AO4" s="161">
+      <c r="AO4" s="160">
         <v>13201</v>
       </c>
-      <c r="AP4" s="161">
+      <c r="AP4" s="160">
         <f>VLOOKUP(C4,WB!$B$3:$O$35,WB!$O$2,FALSE)</f>
         <v>7883</v>
       </c>
@@ -45757,51 +45767,48 @@
       <c r="AT4" s="149">
         <v>0.41</v>
       </c>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="153">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="152">
         <v>0.9</v>
       </c>
       <c r="AX4" s="151">
         <f>VLOOKUP(C4,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.98448729184925499</v>
       </c>
-      <c r="AY4" s="154">
+      <c r="AY4" s="153">
         <f>AX4/AW4</f>
         <v>1.0938747687213943</v>
       </c>
-      <c r="AZ4" s="154">
+      <c r="AZ4" s="153">
         <f>IF(AND(BC4&lt;100%,AY4&gt;=100%),45%,AY4*45%/100%)</f>
         <v>0.45</v>
       </c>
-      <c r="BA4" s="153">
+      <c r="BA4" s="152">
         <v>0.9</v>
       </c>
       <c r="BB4" s="151">
         <f>VLOOKUP(C4,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.81437427912341409</v>
       </c>
-      <c r="BC4" s="154">
+      <c r="BC4" s="153">
         <f>BB4/BA4</f>
         <v>0.90486031013712676</v>
       </c>
-      <c r="BD4" s="162">
+      <c r="BD4" s="161">
         <f>IF(AND(AY4&lt;100%,BC4&gt;=100%),45%,BC4*45%/100%)</f>
         <v>0.40718713956170705</v>
       </c>
-      <c r="BE4" s="154">
+      <c r="BE4" s="153">
         <f>AR4+AN4+AJ4+W4+S4+K4+G4+AF4+AC4+Z4+O4</f>
         <v>0.6704749422962436</v>
       </c>
-      <c r="BF4" s="154">
-        <v>0.3</v>
-      </c>
     </row>
     <row r="5" spans="2:59" ht="36" customHeight="1">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="169" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="145">
@@ -45834,8 +45841,8 @@
         <f>IF(J5&gt;=100%,6%,J5*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L5" s="140" t="s">
-        <v>84</v>
+      <c r="L5" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M5" s="80" t="s">
         <v>90</v>
@@ -45850,11 +45857,11 @@
       <c r="P5" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q5" s="141">
+      <c r="Q5" s="140">
         <f t="shared" ref="Q5:Q22" si="6">AZ5+BD5</f>
         <v>0.83333333333333326</v>
       </c>
-      <c r="R5" s="141">
+      <c r="R5" s="140">
         <f t="shared" ref="R5:R22" si="7">Q5/P5</f>
         <v>0.92592592592592582</v>
       </c>
@@ -45862,14 +45869,14 @@
         <f>IF(R5&gt;=100%,4%,R5*4%/100%)</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="T5" s="142">
+      <c r="T5" s="141">
         <v>0.5</v>
       </c>
       <c r="U5" s="151">
         <f>VLOOKUP(C5,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.46404995539696697</v>
       </c>
-      <c r="V5" s="141">
+      <c r="V5" s="140">
         <f t="shared" ref="V5:V22" si="8">U5/T5</f>
         <v>0.92809991079393395</v>
       </c>
@@ -45877,8 +45884,8 @@
         <f t="shared" ref="W5:W6" si="9">IF(V5&gt;=100%,4%,V5*4%/100%)</f>
         <v>3.7123996431757358E-2</v>
       </c>
-      <c r="X5" s="156" t="s">
-        <v>261</v>
+      <c r="X5" s="155" t="s">
+        <v>86</v>
       </c>
       <c r="Y5" s="138">
         <f>VLOOKUP(C5,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -45901,7 +45908,7 @@
       <c r="AD5" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="153">
+      <c r="AE5" s="152">
         <v>0.75</v>
       </c>
       <c r="AF5" s="139">
@@ -45911,7 +45918,7 @@
       <c r="AG5" s="10">
         <v>3200000</v>
       </c>
-      <c r="AH5" s="157">
+      <c r="AH5" s="156">
         <f>VLOOKUP(C5,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1360596</v>
       </c>
@@ -45926,7 +45933,7 @@
       <c r="AK5" s="143">
         <v>0.86</v>
       </c>
-      <c r="AL5" s="160">
+      <c r="AL5" s="159">
         <f>VLOOKUP(C5,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.86</v>
       </c>
@@ -45960,7 +45967,7 @@
         <v>0.35</v>
       </c>
       <c r="AU5" s="78"/>
-      <c r="AV5" s="78"/>
+      <c r="AV5" s="257"/>
       <c r="AW5" s="81">
         <v>0.9</v>
       </c>
@@ -45972,7 +45979,7 @@
         <f>AX5/AW5</f>
         <v>1.0723514211886305</v>
       </c>
-      <c r="AZ5" s="141">
+      <c r="AZ5" s="140">
         <f t="shared" ref="AZ5:AZ22" si="16">IF(AND(BC5&lt;100%,AY5&gt;=100%),45%,AY5*45%/100%)</f>
         <v>0.45</v>
       </c>
@@ -45983,7 +45990,7 @@
         <f>VLOOKUP(C5,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.76666666666666661</v>
       </c>
-      <c r="BC5" s="141">
+      <c r="BC5" s="140">
         <f t="shared" ref="BC5:BC22" si="17">BB5/BA5</f>
         <v>0.85185185185185175</v>
       </c>
@@ -45991,18 +45998,17 @@
         <f t="shared" ref="BD5:BD22" si="18">IF(AND(AY5&lt;100%,BC5&gt;=100%),45%,BC5*45%/100%)</f>
         <v>0.3833333333333333</v>
       </c>
-      <c r="BE5" s="141">
+      <c r="BE5" s="140">
         <f t="shared" ref="BE5:BE6" si="19">AR5+AN5+AJ5+W5+S5+K5+G5+AF5+AC5+Z5+O5</f>
         <v>0.65170771298317443</v>
       </c>
-      <c r="BF5" s="141"/>
       <c r="BG5" s="73"/>
     </row>
     <row r="6" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="169" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="145">
@@ -46035,8 +46041,8 @@
         <f>IF(J6&gt;=100%,6%,J6*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L6" s="140" t="s">
-        <v>84</v>
+      <c r="L6" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M6" s="80" t="s">
         <v>85</v>
@@ -46051,11 +46057,11 @@
       <c r="P6" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q6" s="141">
+      <c r="Q6" s="140">
         <f t="shared" si="6"/>
         <v>0.99423830437684346</v>
       </c>
-      <c r="R6" s="141">
+      <c r="R6" s="140">
         <f t="shared" si="7"/>
         <v>1.1047092270853816</v>
       </c>
@@ -46063,14 +46069,14 @@
         <f>IF(R6&gt;=100%,4%,R6*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="T6" s="142">
+      <c r="T6" s="141">
         <v>0.56000000000000005</v>
       </c>
       <c r="U6" s="151">
         <f>VLOOKUP(C6,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.5916310323762981</v>
       </c>
-      <c r="V6" s="141">
+      <c r="V6" s="140">
         <f t="shared" si="8"/>
         <v>1.0564839863862465</v>
       </c>
@@ -46078,8 +46084,8 @@
         <f t="shared" si="9"/>
         <v>0.04</v>
       </c>
-      <c r="X6" s="156" t="s">
-        <v>261</v>
+      <c r="X6" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y6" s="138">
         <f>VLOOKUP(C6,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46102,7 +46108,7 @@
       <c r="AD6" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE6" s="153">
+      <c r="AE6" s="152">
         <v>0.75</v>
       </c>
       <c r="AF6" s="139">
@@ -46112,7 +46118,7 @@
       <c r="AG6" s="10">
         <v>6300000</v>
       </c>
-      <c r="AH6" s="157">
+      <c r="AH6" s="156">
         <f>VLOOKUP(C6,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>4097809</v>
       </c>
@@ -46127,7 +46133,7 @@
       <c r="AK6" s="143">
         <v>1.32</v>
       </c>
-      <c r="AL6" s="160">
+      <c r="AL6" s="159">
         <f>VLOOKUP(C6,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.33</v>
       </c>
@@ -46169,11 +46175,11 @@
         <f>VLOOKUP(C6,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.98931623931623935</v>
       </c>
-      <c r="AY6" s="141">
+      <c r="AY6" s="140">
         <f t="shared" ref="AY6:AY22" si="20">AX6/AW6</f>
         <v>1.0992402659069327</v>
       </c>
-      <c r="AZ6" s="141">
+      <c r="AZ6" s="140">
         <f t="shared" si="16"/>
         <v>0.49465811965811973</v>
       </c>
@@ -46184,7 +46190,7 @@
         <f>VLOOKUP(C6,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.99916036943744757</v>
       </c>
-      <c r="BC6" s="141">
+      <c r="BC6" s="140">
         <f t="shared" si="17"/>
         <v>1.1101781882638306</v>
       </c>
@@ -46192,20 +46198,17 @@
         <f t="shared" si="18"/>
         <v>0.49958018471872379</v>
       </c>
-      <c r="BE6" s="141">
+      <c r="BE6" s="140">
         <f t="shared" si="19"/>
         <v>0.69821391018348777</v>
-      </c>
-      <c r="BF6" s="141">
-        <v>0.7</v>
       </c>
       <c r="BG6" s="4"/>
     </row>
     <row r="7" spans="2:59" ht="43.35" customHeight="1">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="169" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="145">
@@ -46238,8 +46241,8 @@
         <f>IF(J7&gt;=100%,6%,J7*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L7" s="140" t="s">
-        <v>93</v>
+      <c r="L7" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M7" s="80" t="s">
         <v>85</v>
@@ -46254,11 +46257,11 @@
       <c r="P7" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="141">
+      <c r="Q7" s="140">
         <f t="shared" si="6"/>
         <v>0.9343902789761287</v>
       </c>
-      <c r="R7" s="141">
+      <c r="R7" s="140">
         <f t="shared" si="7"/>
         <v>1.0382114210845874</v>
       </c>
@@ -46266,14 +46269,14 @@
         <f>IF(R7&gt;=100%,4%,R7*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="T7" s="142">
+      <c r="T7" s="141">
         <v>0.55000000000000004</v>
       </c>
       <c r="U7" s="151">
         <f>VLOOKUP(C7,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.68019559902200488</v>
       </c>
-      <c r="V7" s="141">
+      <c r="V7" s="140">
         <f t="shared" si="8"/>
         <v>1.2367192709490997</v>
       </c>
@@ -46281,8 +46284,8 @@
         <f>IF(V7&gt;=100%,4%,V7*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="X7" s="156" t="s">
-        <v>261</v>
+      <c r="X7" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y7" s="138">
         <f>VLOOKUP(C7,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46305,7 +46308,7 @@
       <c r="AD7" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="153">
+      <c r="AE7" s="152">
         <v>0.75</v>
       </c>
       <c r="AF7" s="139">
@@ -46315,7 +46318,7 @@
       <c r="AG7" s="10">
         <v>4600000</v>
       </c>
-      <c r="AH7" s="157">
+      <c r="AH7" s="156">
         <f>VLOOKUP(C7,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>2441588</v>
       </c>
@@ -46330,7 +46333,7 @@
       <c r="AK7" s="143">
         <v>1.04</v>
       </c>
-      <c r="AL7" s="160">
+      <c r="AL7" s="159">
         <f>VLOOKUP(C7,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.04</v>
       </c>
@@ -46372,11 +46375,11 @@
         <f>VLOOKUP(C7,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="AY7" s="141">
+      <c r="AY7" s="140">
         <f t="shared" si="20"/>
         <v>1.0185185185185184</v>
       </c>
-      <c r="AZ7" s="141">
+      <c r="AZ7" s="140">
         <f t="shared" si="16"/>
         <v>0.45833333333333326</v>
       </c>
@@ -46387,7 +46390,7 @@
         <f>VLOOKUP(C7,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.95211389128559099</v>
       </c>
-      <c r="BC7" s="141">
+      <c r="BC7" s="140">
         <f t="shared" si="17"/>
         <v>1.0579043236506567</v>
       </c>
@@ -46395,20 +46398,17 @@
         <f t="shared" si="18"/>
         <v>0.47605694564279549</v>
       </c>
-      <c r="BE7" s="141">
+      <c r="BE7" s="140">
         <f>AR7+AN7+AJ7+W7+S7+K7+G7+AF7+AC7+Z7+O7</f>
         <v>0.65931314285714293</v>
-      </c>
-      <c r="BF7" s="141" t="s">
-        <v>107</v>
       </c>
       <c r="BG7" s="4"/>
     </row>
     <row r="8" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B8" s="165" t="s">
+      <c r="B8" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="169" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="145">
@@ -46441,8 +46441,8 @@
         <f t="shared" ref="K8:K12" si="22">IF(J8&gt;=100%,6%,J8*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L8" s="140" t="s">
-        <v>84</v>
+      <c r="L8" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M8" s="80" t="s">
         <v>85</v>
@@ -46457,11 +46457,11 @@
       <c r="P8" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q8" s="141">
+      <c r="Q8" s="140">
         <f t="shared" si="6"/>
         <v>0.97982216142270862</v>
       </c>
-      <c r="R8" s="141">
+      <c r="R8" s="140">
         <f t="shared" si="7"/>
         <v>1.0886912904696762</v>
       </c>
@@ -46469,14 +46469,14 @@
         <f t="shared" ref="S8:S12" si="23">IF(R8&gt;=100%,4%,R8*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="T8" s="142">
+      <c r="T8" s="141">
         <v>0.66</v>
       </c>
       <c r="U8" s="151">
         <f>VLOOKUP(C8,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.73817034700315454</v>
       </c>
-      <c r="V8" s="141">
+      <c r="V8" s="140">
         <f t="shared" si="8"/>
         <v>1.1184399197017492</v>
       </c>
@@ -46484,8 +46484,8 @@
         <f t="shared" ref="W8:W15" si="24">IF(V8&gt;=100%,4%,V8*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="X8" s="156" t="s">
-        <v>261</v>
+      <c r="X8" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y8" s="138">
         <f>VLOOKUP(C8,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46508,7 +46508,7 @@
       <c r="AD8" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="153">
+      <c r="AE8" s="152">
         <v>0.75</v>
       </c>
       <c r="AF8" s="139">
@@ -46518,7 +46518,7 @@
       <c r="AG8" s="10">
         <v>5130381</v>
       </c>
-      <c r="AH8" s="157">
+      <c r="AH8" s="156">
         <f>VLOOKUP(C8,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>2215566</v>
       </c>
@@ -46533,7 +46533,7 @@
       <c r="AK8" s="143">
         <v>0.77</v>
       </c>
-      <c r="AL8" s="160">
+      <c r="AL8" s="159">
         <f>VLOOKUP(C8,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.76</v>
       </c>
@@ -46575,11 +46575,11 @@
         <f>VLOOKUP(C8,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.95964432284541723</v>
       </c>
-      <c r="AY8" s="141">
+      <c r="AY8" s="140">
         <f t="shared" si="20"/>
         <v>1.0662714698282414</v>
       </c>
-      <c r="AZ8" s="141">
+      <c r="AZ8" s="140">
         <f t="shared" si="16"/>
         <v>0.47982216142270862</v>
       </c>
@@ -46590,7 +46590,7 @@
         <f>VLOOKUP(C8,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BC8" s="141">
+      <c r="BC8" s="140">
         <f t="shared" si="17"/>
         <v>1.1111111111111112</v>
       </c>
@@ -46598,20 +46598,17 @@
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="BE8" s="141">
+      <c r="BE8" s="140">
         <f t="shared" ref="BE8:BE17" si="28">AR8+AN8+AJ8+W8+S8+K8+G8+AF8+AC8+Z8+O8</f>
         <v>0.61480249539154896</v>
-      </c>
-      <c r="BF8" s="141">
-        <v>0.8</v>
       </c>
       <c r="BG8" s="4"/>
     </row>
     <row r="9" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B9" s="165" t="s">
+      <c r="B9" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="169" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="145">
@@ -46644,8 +46641,8 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L9" s="140" t="s">
-        <v>84</v>
+      <c r="L9" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M9" s="80" t="s">
         <v>85</v>
@@ -46660,11 +46657,11 @@
       <c r="P9" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q9" s="141">
+      <c r="Q9" s="140">
         <f t="shared" si="6"/>
         <v>0.89956487341772151</v>
       </c>
-      <c r="R9" s="141">
+      <c r="R9" s="140">
         <f t="shared" si="7"/>
         <v>0.99951652601969054</v>
       </c>
@@ -46672,14 +46669,14 @@
         <f t="shared" si="23"/>
         <v>3.9980661040787624E-2</v>
       </c>
-      <c r="T9" s="142">
+      <c r="T9" s="141">
         <v>0.45</v>
       </c>
       <c r="U9" s="151">
         <f>VLOOKUP(C9,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.41526297696803027</v>
       </c>
-      <c r="V9" s="141">
+      <c r="V9" s="140">
         <f t="shared" si="8"/>
         <v>0.92280661548451171</v>
       </c>
@@ -46687,8 +46684,8 @@
         <f t="shared" si="24"/>
         <v>3.6912264619380471E-2</v>
       </c>
-      <c r="X9" s="156" t="s">
-        <v>261</v>
+      <c r="X9" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y9" s="138">
         <f>VLOOKUP(C9,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46711,7 +46708,7 @@
       <c r="AD9" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" s="153">
+      <c r="AE9" s="152">
         <v>0.75</v>
       </c>
       <c r="AF9" s="139">
@@ -46721,7 +46718,7 @@
       <c r="AG9" s="10">
         <v>2730000</v>
       </c>
-      <c r="AH9" s="157">
+      <c r="AH9" s="156">
         <f>VLOOKUP(C9,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1638459</v>
       </c>
@@ -46736,7 +46733,7 @@
       <c r="AK9" s="143">
         <v>0.85</v>
       </c>
-      <c r="AL9" s="160">
+      <c r="AL9" s="159">
         <f>VLOOKUP(C9,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.85</v>
       </c>
@@ -46778,11 +46775,11 @@
         <f>VLOOKUP(C9,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.90604575163398693</v>
       </c>
-      <c r="AY9" s="141">
+      <c r="AY9" s="140">
         <f t="shared" si="20"/>
         <v>1.006717501815541</v>
       </c>
-      <c r="AZ9" s="141">
+      <c r="AZ9" s="140">
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
@@ -46793,7 +46790,7 @@
         <f>VLOOKUP(C9,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.899129746835443</v>
       </c>
-      <c r="BC9" s="141">
+      <c r="BC9" s="140">
         <f t="shared" si="17"/>
         <v>0.99903305203938109</v>
       </c>
@@ -46801,20 +46798,17 @@
         <f t="shared" si="18"/>
         <v>0.4495648734177215</v>
       </c>
-      <c r="BE9" s="141">
+      <c r="BE9" s="140">
         <f t="shared" si="28"/>
         <v>0.62979018839743095</v>
-      </c>
-      <c r="BF9" s="141">
-        <v>0.4</v>
       </c>
       <c r="BG9" s="4"/>
     </row>
     <row r="10" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="169" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="145">
@@ -46847,8 +46841,8 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L10" s="140" t="s">
-        <v>84</v>
+      <c r="L10" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M10" s="80" t="s">
         <v>85</v>
@@ -46863,11 +46857,11 @@
       <c r="P10" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q10" s="141">
+      <c r="Q10" s="140">
         <f t="shared" si="6"/>
         <v>0.9611750154607297</v>
       </c>
-      <c r="R10" s="141">
+      <c r="R10" s="140">
         <f t="shared" si="7"/>
         <v>1.0679722394008107</v>
       </c>
@@ -46875,14 +46869,14 @@
         <f t="shared" si="23"/>
         <v>0.04</v>
       </c>
-      <c r="T10" s="142">
+      <c r="T10" s="141">
         <v>0.67</v>
       </c>
       <c r="U10" s="151">
         <f>VLOOKUP(C10,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.54865424430641818</v>
       </c>
-      <c r="V10" s="141">
+      <c r="V10" s="140">
         <f t="shared" si="8"/>
         <v>0.81888693180062411</v>
       </c>
@@ -46890,8 +46884,8 @@
         <f t="shared" si="24"/>
         <v>3.2755477272024963E-2</v>
       </c>
-      <c r="X10" s="156" t="s">
-        <v>261</v>
+      <c r="X10" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y10" s="138">
         <f>VLOOKUP(C10,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46914,7 +46908,7 @@
       <c r="AD10" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE10" s="153">
+      <c r="AE10" s="152">
         <v>0.75</v>
       </c>
       <c r="AF10" s="139">
@@ -46924,7 +46918,7 @@
       <c r="AG10" s="10">
         <v>2582000</v>
       </c>
-      <c r="AH10" s="157">
+      <c r="AH10" s="156">
         <f>VLOOKUP(C10,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1482874</v>
       </c>
@@ -46939,7 +46933,7 @@
       <c r="AK10" s="143">
         <v>1.02</v>
       </c>
-      <c r="AL10" s="160">
+      <c r="AL10" s="159">
         <f>VLOOKUP(C10,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.94</v>
       </c>
@@ -46981,11 +46975,11 @@
         <f>VLOOKUP(C10,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.96969696969696972</v>
       </c>
-      <c r="AY10" s="141">
+      <c r="AY10" s="140">
         <f t="shared" si="20"/>
         <v>1.0774410774410774</v>
       </c>
-      <c r="AZ10" s="141">
+      <c r="AZ10" s="140">
         <f t="shared" si="16"/>
         <v>0.48484848484848486</v>
       </c>
@@ -46996,7 +46990,7 @@
         <f>VLOOKUP(C10,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.95265306122448978</v>
       </c>
-      <c r="BC10" s="141">
+      <c r="BC10" s="140">
         <f t="shared" si="17"/>
         <v>1.0585034013605441</v>
       </c>
@@ -47004,20 +46998,17 @@
         <f t="shared" si="18"/>
         <v>0.47632653061224484</v>
       </c>
-      <c r="BE10" s="141">
+      <c r="BE10" s="140">
         <f t="shared" si="28"/>
         <v>0.63988560967862951</v>
-      </c>
-      <c r="BF10" s="141">
-        <v>0.2</v>
       </c>
       <c r="BG10" s="4"/>
     </row>
     <row r="11" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="169" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="145">
@@ -47050,8 +47041,8 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L11" s="140" t="s">
-        <v>84</v>
+      <c r="L11" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M11" s="80" t="s">
         <v>85</v>
@@ -47066,11 +47057,11 @@
       <c r="P11" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q11" s="141">
+      <c r="Q11" s="140">
         <f t="shared" si="6"/>
         <v>0.98637602179836514</v>
       </c>
-      <c r="R11" s="141">
+      <c r="R11" s="140">
         <f t="shared" si="7"/>
         <v>1.0959733575537389</v>
       </c>
@@ -47078,14 +47069,14 @@
         <f t="shared" si="23"/>
         <v>0.04</v>
       </c>
-      <c r="T11" s="142">
+      <c r="T11" s="141">
         <v>0.62</v>
       </c>
       <c r="U11" s="151">
         <f>VLOOKUP(C11,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.47816593886462883</v>
       </c>
-      <c r="V11" s="141">
+      <c r="V11" s="140">
         <f t="shared" si="8"/>
         <v>0.77123538526553037</v>
       </c>
@@ -47093,8 +47084,8 @@
         <f t="shared" si="24"/>
         <v>3.0849415410621216E-2</v>
       </c>
-      <c r="X11" s="156" t="s">
-        <v>261</v>
+      <c r="X11" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y11" s="138">
         <f>VLOOKUP(C11,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47117,7 +47108,7 @@
       <c r="AD11" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="153">
+      <c r="AE11" s="152">
         <v>0.75</v>
       </c>
       <c r="AF11" s="139">
@@ -47127,7 +47118,7 @@
       <c r="AG11" s="10">
         <v>2642000</v>
       </c>
-      <c r="AH11" s="157">
+      <c r="AH11" s="156">
         <f>VLOOKUP(C11,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1604426</v>
       </c>
@@ -47142,7 +47133,7 @@
       <c r="AK11" s="143">
         <v>1.17</v>
       </c>
-      <c r="AL11" s="160">
+      <c r="AL11" s="159">
         <f>VLOOKUP(C11,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.19</v>
       </c>
@@ -47184,11 +47175,11 @@
         <f>VLOOKUP(C11,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AY11" s="141">
+      <c r="AY11" s="140">
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AZ11" s="141">
+      <c r="AZ11" s="140">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
@@ -47199,7 +47190,7 @@
         <f>VLOOKUP(C11,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.97275204359673029</v>
       </c>
-      <c r="BC11" s="141">
+      <c r="BC11" s="140">
         <f t="shared" si="17"/>
         <v>1.0808356039963669</v>
       </c>
@@ -47207,20 +47198,17 @@
         <f t="shared" si="18"/>
         <v>0.48637602179836514</v>
       </c>
-      <c r="BE11" s="141">
+      <c r="BE11" s="140">
         <f t="shared" si="28"/>
         <v>0.66980133833672806</v>
-      </c>
-      <c r="BF11" s="141">
-        <v>0.2</v>
       </c>
       <c r="BG11" s="4"/>
     </row>
     <row r="12" spans="2:59" ht="42.6" customHeight="1">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="169" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="145">
@@ -47253,8 +47241,8 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L12" s="140" t="s">
-        <v>84</v>
+      <c r="L12" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M12" s="80" t="s">
         <v>85</v>
@@ -47269,11 +47257,11 @@
       <c r="P12" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q12" s="141">
+      <c r="Q12" s="140">
         <f t="shared" si="6"/>
         <v>0.86049671977507036</v>
       </c>
-      <c r="R12" s="141">
+      <c r="R12" s="140">
         <f t="shared" si="7"/>
         <v>0.95610746641674482</v>
       </c>
@@ -47281,14 +47269,14 @@
         <f t="shared" si="23"/>
         <v>3.8244298656669791E-2</v>
       </c>
-      <c r="T12" s="142">
+      <c r="T12" s="141">
         <v>0.75</v>
       </c>
       <c r="U12" s="151">
         <f>VLOOKUP(C12,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.54455445544554459</v>
       </c>
-      <c r="V12" s="141">
+      <c r="V12" s="140">
         <f t="shared" si="8"/>
         <v>0.72607260726072609</v>
       </c>
@@ -47296,8 +47284,8 @@
         <f t="shared" si="24"/>
         <v>2.9042904290429043E-2</v>
       </c>
-      <c r="X12" s="156" t="s">
-        <v>261</v>
+      <c r="X12" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y12" s="138">
         <f>VLOOKUP(C12,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47320,7 +47308,7 @@
       <c r="AD12" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE12" s="153">
+      <c r="AE12" s="152">
         <v>0.75</v>
       </c>
       <c r="AF12" s="139">
@@ -47330,7 +47318,7 @@
       <c r="AG12" s="10">
         <v>1142000</v>
       </c>
-      <c r="AH12" s="157">
+      <c r="AH12" s="156">
         <f>VLOOKUP(C12,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>579421</v>
       </c>
@@ -47345,7 +47333,7 @@
       <c r="AK12" s="143">
         <v>0.9</v>
       </c>
-      <c r="AL12" s="160">
+      <c r="AL12" s="159">
         <f>VLOOKUP(C12,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.08</v>
       </c>
@@ -47387,11 +47375,11 @@
         <f>VLOOKUP(C12,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AY12" s="141">
+      <c r="AY12" s="140">
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AZ12" s="141">
+      <c r="AZ12" s="140">
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
@@ -47402,7 +47390,7 @@
         <f>VLOOKUP(C12,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.82099343955014059</v>
       </c>
-      <c r="BC12" s="141">
+      <c r="BC12" s="140">
         <f t="shared" si="17"/>
         <v>0.91221493283348953</v>
       </c>
@@ -47410,20 +47398,17 @@
         <f t="shared" si="18"/>
         <v>0.4104967197750703</v>
       </c>
-      <c r="BE12" s="141">
+      <c r="BE12" s="140">
         <f t="shared" si="28"/>
         <v>0.62440949534513046</v>
-      </c>
-      <c r="BF12" s="141">
-        <v>0.9</v>
       </c>
       <c r="BG12" s="4"/>
     </row>
     <row r="13" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="170" t="s">
+      <c r="C13" s="169" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="145">
@@ -47456,8 +47441,8 @@
         <f>IF(J13&gt;=100%,6%,J13*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L13" s="140" t="s">
-        <v>84</v>
+      <c r="L13" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M13" s="80" t="s">
         <v>85</v>
@@ -47472,11 +47457,11 @@
       <c r="P13" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q13" s="141">
+      <c r="Q13" s="140">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R13" s="141">
+      <c r="R13" s="256">
         <f t="shared" si="7"/>
         <v>1.1111111111111112</v>
       </c>
@@ -47484,14 +47469,14 @@
         <f t="shared" ref="S13:S15" si="29">IF(R13&gt;=100%,4%,R13*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="T13" s="142">
+      <c r="T13" s="141">
         <v>0.74</v>
       </c>
       <c r="U13" s="151">
         <f>VLOOKUP(C13,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.73988439306358378</v>
       </c>
-      <c r="V13" s="141">
+      <c r="V13" s="140">
         <f t="shared" si="8"/>
         <v>0.99984377441024841</v>
       </c>
@@ -47499,8 +47484,8 @@
         <f>IF(V13&gt;=100%,4%,V13*4%/100%)</f>
         <v>3.9993750976409941E-2</v>
       </c>
-      <c r="X13" s="156" t="s">
-        <v>261</v>
+      <c r="X13" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y13" s="138">
         <f>VLOOKUP(C13,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47523,7 +47508,7 @@
       <c r="AD13" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE13" s="153">
+      <c r="AE13" s="152">
         <v>0.75</v>
       </c>
       <c r="AF13" s="139">
@@ -47533,7 +47518,7 @@
       <c r="AG13" s="10">
         <v>3400000</v>
       </c>
-      <c r="AH13" s="157">
+      <c r="AH13" s="156">
         <f>VLOOKUP(C13,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1760989</v>
       </c>
@@ -47548,7 +47533,7 @@
       <c r="AK13" s="143">
         <v>1.48</v>
       </c>
-      <c r="AL13" s="160">
+      <c r="AL13" s="159">
         <f>VLOOKUP(C13,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.44</v>
       </c>
@@ -47590,11 +47575,11 @@
         <f>VLOOKUP(C13,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AY13" s="141">
+      <c r="AY13" s="140">
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AZ13" s="141">
+      <c r="AZ13" s="140">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
@@ -47605,7 +47590,7 @@
         <f>VLOOKUP(C13,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BC13" s="141">
+      <c r="BC13" s="140">
         <f t="shared" si="17"/>
         <v>1.1111111111111112</v>
       </c>
@@ -47613,20 +47598,17 @@
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="BE13" s="141">
+      <c r="BE13" s="140">
         <f t="shared" si="28"/>
         <v>0.63514641893577961</v>
-      </c>
-      <c r="BF13" s="141">
-        <v>0.7</v>
       </c>
       <c r="BG13" s="4"/>
     </row>
     <row r="14" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="169" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="145">
@@ -47659,8 +47641,8 @@
         <f>IF(J14&gt;=100%,6%,J14*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L14" s="140" t="s">
-        <v>84</v>
+      <c r="L14" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M14" s="80" t="s">
         <v>85</v>
@@ -47675,11 +47657,11 @@
       <c r="P14" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q14" s="141">
+      <c r="Q14" s="140">
         <f t="shared" si="6"/>
         <v>0.86935483870967745</v>
       </c>
-      <c r="R14" s="141">
+      <c r="R14" s="140">
         <f t="shared" si="7"/>
         <v>0.96594982078853042</v>
       </c>
@@ -47694,7 +47676,7 @@
         <f>VLOOKUP(C14,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.54352941176470593</v>
       </c>
-      <c r="V14" s="141">
+      <c r="V14" s="140">
         <f t="shared" si="8"/>
         <v>0.76553438276719143</v>
       </c>
@@ -47702,8 +47684,8 @@
         <f t="shared" si="24"/>
         <v>3.0621375310687659E-2</v>
       </c>
-      <c r="X14" s="156" t="s">
-        <v>261</v>
+      <c r="X14" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y14" s="138">
         <f>VLOOKUP(C14,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47713,17 +47695,17 @@
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA14" s="171" t="s">
+      <c r="AA14" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="171" t="s">
+      <c r="AB14" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AC14" s="171"/>
+      <c r="AC14" s="170"/>
       <c r="AD14" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE14" s="153">
+      <c r="AE14" s="152">
         <v>0.75</v>
       </c>
       <c r="AF14" s="139">
@@ -47733,7 +47715,7 @@
       <c r="AG14" s="10">
         <v>2360000</v>
       </c>
-      <c r="AH14" s="157">
+      <c r="AH14" s="156">
         <f>VLOOKUP(C14,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1705808</v>
       </c>
@@ -47748,7 +47730,7 @@
       <c r="AK14" s="143">
         <v>1.39</v>
       </c>
-      <c r="AL14" s="160">
+      <c r="AL14" s="159">
         <f>VLOOKUP(C14,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.37</v>
       </c>
@@ -47790,11 +47772,11 @@
         <f>VLOOKUP(C14,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.94</v>
       </c>
-      <c r="AY14" s="141">
+      <c r="AY14" s="140">
         <f t="shared" si="20"/>
         <v>1.0444444444444443</v>
       </c>
-      <c r="AZ14" s="141">
+      <c r="AZ14" s="140">
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
@@ -47805,7 +47787,7 @@
         <f>VLOOKUP(C14,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.83870967741935487</v>
       </c>
-      <c r="BC14" s="141">
+      <c r="BC14" s="140">
         <f t="shared" si="17"/>
         <v>0.93189964157706096</v>
       </c>
@@ -47813,20 +47795,17 @@
         <f t="shared" si="18"/>
         <v>0.41935483870967744</v>
       </c>
-      <c r="BE14" s="141">
+      <c r="BE14" s="140">
         <f>AR14+AN14+AJ14+W14+S14+K14+G14+AF14+AC14+Z14+O14</f>
         <v>0.68300551922136554</v>
-      </c>
-      <c r="BF14" s="141">
-        <v>0.3</v>
       </c>
       <c r="BG14" s="4"/>
     </row>
     <row r="15" spans="2:59" ht="40.700000000000003" customHeight="1">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="169" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="145">
@@ -47859,8 +47838,8 @@
         <f>IF(J15&gt;=100%,6%,J15*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L15" s="140" t="s">
-        <v>84</v>
+      <c r="L15" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M15" s="80" t="s">
         <v>85</v>
@@ -47875,11 +47854,11 @@
       <c r="P15" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q15" s="141">
+      <c r="Q15" s="140">
         <f t="shared" si="6"/>
         <v>0.88478260869565217</v>
       </c>
-      <c r="R15" s="141">
+      <c r="R15" s="140">
         <f t="shared" si="7"/>
         <v>0.98309178743961345</v>
       </c>
@@ -47887,14 +47866,14 @@
         <f t="shared" si="29"/>
         <v>3.9323671497584541E-2</v>
       </c>
-      <c r="T15" s="142">
+      <c r="T15" s="141">
         <v>0.74</v>
       </c>
       <c r="U15" s="151">
         <f>VLOOKUP(C15,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.70674486803519065</v>
       </c>
-      <c r="V15" s="141">
+      <c r="V15" s="140">
         <f t="shared" si="8"/>
         <v>0.9550606324799874</v>
       </c>
@@ -47902,8 +47881,8 @@
         <f t="shared" si="24"/>
         <v>3.8202425299199497E-2</v>
       </c>
-      <c r="X15" s="156" t="s">
-        <v>261</v>
+      <c r="X15" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y15" s="138">
         <f>VLOOKUP(C15,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47913,17 +47892,17 @@
         <f t="shared" si="10"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AA15" s="171" t="s">
+      <c r="AA15" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" s="171" t="s">
+      <c r="AB15" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" s="171"/>
+      <c r="AC15" s="170"/>
       <c r="AD15" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE15" s="153">
+      <c r="AE15" s="152">
         <v>0.75</v>
       </c>
       <c r="AF15" s="139">
@@ -47933,7 +47912,7 @@
       <c r="AG15" s="10">
         <v>4850000</v>
       </c>
-      <c r="AH15" s="157">
+      <c r="AH15" s="156">
         <f>VLOOKUP(C15,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>2167868</v>
       </c>
@@ -47948,7 +47927,7 @@
       <c r="AK15" s="143">
         <v>1.27</v>
       </c>
-      <c r="AL15" s="160">
+      <c r="AL15" s="159">
         <f>VLOOKUP(C15,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.56</v>
       </c>
@@ -47990,11 +47969,11 @@
         <f>VLOOKUP(C15,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.86956521739130432</v>
       </c>
-      <c r="AY15" s="141">
+      <c r="AY15" s="140">
         <f t="shared" si="20"/>
         <v>0.96618357487922701</v>
       </c>
-      <c r="AZ15" s="141">
+      <c r="AZ15" s="140">
         <f t="shared" si="16"/>
         <v>0.43478260869565216</v>
       </c>
@@ -48005,7 +47984,7 @@
         <f>VLOOKUP(C15,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.93508936970837253</v>
       </c>
-      <c r="BC15" s="141">
+      <c r="BC15" s="140">
         <f t="shared" si="17"/>
         <v>1.0389881885648584</v>
       </c>
@@ -48013,17 +47992,16 @@
         <f t="shared" si="18"/>
         <v>0.45</v>
       </c>
-      <c r="BE15" s="141">
+      <c r="BE15" s="140">
         <f t="shared" si="28"/>
         <v>0.61531401970131105</v>
       </c>
-      <c r="BF15" s="141"/>
     </row>
     <row r="16" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="169" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="145">
@@ -48056,8 +48034,8 @@
         <f>IF(J16&gt;=100%,6%,J16*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L16" s="140" t="s">
-        <v>84</v>
+      <c r="L16" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M16" s="80" t="s">
         <v>85</v>
@@ -48072,11 +48050,11 @@
       <c r="P16" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q16" s="141">
+      <c r="Q16" s="140">
         <f t="shared" si="6"/>
         <v>0.96190959878110727</v>
       </c>
-      <c r="R16" s="141">
+      <c r="R16" s="140">
         <f t="shared" si="7"/>
         <v>1.0687884430901191</v>
       </c>
@@ -48084,14 +48062,14 @@
         <f>IF(R16&gt;=100%,4%,R16*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="T16" s="142">
+      <c r="T16" s="141">
         <v>0.68</v>
       </c>
       <c r="U16" s="151">
         <f>VLOOKUP(C16,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.55658436213991769</v>
       </c>
-      <c r="V16" s="141">
+      <c r="V16" s="140">
         <f t="shared" si="8"/>
         <v>0.81850641491164355</v>
       </c>
@@ -48099,8 +48077,8 @@
         <f>IF(V16&gt;=100%,4%,V16*4%/100%)</f>
         <v>3.274025659646574E-2</v>
       </c>
-      <c r="X16" s="156" t="s">
-        <v>261</v>
+      <c r="X16" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y16" s="138">
         <f>VLOOKUP(C16,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -48110,17 +48088,17 @@
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA16" s="171" t="s">
+      <c r="AA16" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AB16" s="171" t="s">
+      <c r="AB16" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" s="171"/>
+      <c r="AC16" s="170"/>
       <c r="AD16" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE16" s="153">
+      <c r="AE16" s="152">
         <v>0.75</v>
       </c>
       <c r="AF16" s="139">
@@ -48130,7 +48108,7 @@
       <c r="AG16" s="10">
         <v>2153000</v>
       </c>
-      <c r="AH16" s="157">
+      <c r="AH16" s="156">
         <f>VLOOKUP(C16,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>862181</v>
       </c>
@@ -48145,7 +48123,7 @@
       <c r="AK16" s="143">
         <v>0.84</v>
       </c>
-      <c r="AL16" s="160">
+      <c r="AL16" s="159">
         <f>VLOOKUP(C16,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.81</v>
       </c>
@@ -48187,11 +48165,11 @@
         <f>VLOOKUP(C16,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AY16" s="141">
+      <c r="AY16" s="140">
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AZ16" s="141">
+      <c r="AZ16" s="140">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
@@ -48202,7 +48180,7 @@
         <f>VLOOKUP(C16,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.92381919756221431</v>
       </c>
-      <c r="BC16" s="141">
+      <c r="BC16" s="140">
         <f t="shared" si="17"/>
         <v>1.0264657750691271</v>
       </c>
@@ -48210,19 +48188,16 @@
         <f t="shared" si="18"/>
         <v>0.46190959878110721</v>
       </c>
-      <c r="BE16" s="141">
+      <c r="BE16" s="140">
         <f t="shared" si="28"/>
         <v>0.64253268395545149</v>
       </c>
-      <c r="BF16" s="141">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="17" spans="2:58" ht="42" customHeight="1">
-      <c r="B17" s="167" t="s">
+    <row r="17" spans="2:57" ht="42" customHeight="1">
+      <c r="B17" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="170" t="s">
+      <c r="C17" s="169" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="145">
@@ -48255,8 +48230,8 @@
         <f>IF(J17&gt;=100%,6%,J17*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L17" s="140" t="s">
-        <v>84</v>
+      <c r="L17" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M17" s="80" t="s">
         <v>85</v>
@@ -48271,11 +48246,11 @@
       <c r="P17" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q17" s="141">
+      <c r="Q17" s="140">
         <f t="shared" si="6"/>
         <v>0.79826012810269886</v>
       </c>
-      <c r="R17" s="141">
+      <c r="R17" s="140">
         <f t="shared" si="7"/>
         <v>0.88695569789188755</v>
       </c>
@@ -48283,14 +48258,14 @@
         <f>IF(R17&gt;=100%,4%,R17*4%/100%)</f>
         <v>3.5478227915675502E-2</v>
       </c>
-      <c r="T17" s="142">
+      <c r="T17" s="141">
         <v>0.53</v>
       </c>
       <c r="U17" s="151">
         <f>VLOOKUP(C17,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="141">
+      <c r="V17" s="140">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -48298,8 +48273,8 @@
         <f>IF(V17&gt;=100%,4%,V17*4%/100%)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="156" t="s">
-        <v>261</v>
+      <c r="X17" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y17" s="138">
         <f>VLOOKUP(C17,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -48309,17 +48284,17 @@
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA17" s="171" t="s">
+      <c r="AA17" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AB17" s="171" t="s">
+      <c r="AB17" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AC17" s="171"/>
+      <c r="AC17" s="170"/>
       <c r="AD17" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE17" s="153">
+      <c r="AE17" s="152">
         <v>0.75</v>
       </c>
       <c r="AF17" s="139">
@@ -48329,7 +48304,7 @@
       <c r="AG17" s="10">
         <v>700000</v>
       </c>
-      <c r="AH17" s="157">
+      <c r="AH17" s="156">
         <f>VLOOKUP(C17,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>219059</v>
       </c>
@@ -48344,7 +48319,7 @@
       <c r="AK17" s="143">
         <v>1.03</v>
       </c>
-      <c r="AL17" s="160">
+      <c r="AL17" s="159">
         <f>VLOOKUP(C17,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0</v>
       </c>
@@ -48386,11 +48361,11 @@
         <f>VLOOKUP(C17,WB!$B$42:$U$73,WB!$I$40,FALSE)</f>
         <v>0.95218855218855225</v>
       </c>
-      <c r="AY17" s="141">
+      <c r="AY17" s="140">
         <f t="shared" si="20"/>
         <v>1.0579872802095025</v>
       </c>
-      <c r="AZ17" s="141">
+      <c r="AZ17" s="140">
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
@@ -48401,7 +48376,7 @@
         <f>VLOOKUP(C17,WB!$B$42:$U$73,WB!$H$40,FALSE)</f>
         <v>0.6965202562053977</v>
       </c>
-      <c r="BC17" s="141">
+      <c r="BC17" s="140">
         <f t="shared" si="17"/>
         <v>0.77391139578377521</v>
       </c>
@@ -48409,19 +48384,16 @@
         <f t="shared" si="18"/>
         <v>0.34826012810269885</v>
       </c>
-      <c r="BE17" s="141">
+      <c r="BE17" s="140">
         <f t="shared" si="28"/>
         <v>0.49421666560564514</v>
       </c>
-      <c r="BF17" s="141">
-        <v>0.65</v>
-      </c>
     </row>
-    <row r="18" spans="2:58" ht="58.35" customHeight="1">
-      <c r="B18" s="167" t="s">
+    <row r="18" spans="2:57" ht="58.35" customHeight="1">
+      <c r="B18" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="169" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="146" t="s">
@@ -48448,8 +48420,8 @@
       <c r="K18" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="140" t="s">
-        <v>84</v>
+      <c r="L18" s="354" t="s">
+        <v>261</v>
       </c>
       <c r="M18" s="80" t="s">
         <v>85</v>
@@ -48464,11 +48436,11 @@
       <c r="P18" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q18" s="141">
+      <c r="Q18" s="140">
         <f t="shared" si="6"/>
         <v>0.52876084485888086</v>
       </c>
-      <c r="R18" s="141">
+      <c r="R18" s="140">
         <f t="shared" si="7"/>
         <v>0.58751204984320093</v>
       </c>
@@ -48476,14 +48448,14 @@
         <f>IF(R18&gt;=100%,5%,R18*5%/100%)</f>
         <v>2.9375602492160049E-2</v>
       </c>
-      <c r="T18" s="142">
+      <c r="T18" s="141">
         <v>0.63</v>
       </c>
       <c r="U18" s="151">
         <f>VLOOKUP(C18,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.37886597938144329</v>
       </c>
-      <c r="V18" s="141">
+      <c r="V18" s="140">
         <f t="shared" si="8"/>
         <v>0.60137457044673537</v>
       </c>
@@ -48491,8 +48463,8 @@
         <f>IF(V18&gt;=100%,5%,V18*5%/100%)</f>
         <v>3.006872852233677E-2</v>
       </c>
-      <c r="X18" s="156" t="s">
-        <v>261</v>
+      <c r="X18" s="142" t="s">
+        <v>86</v>
       </c>
       <c r="Y18" s="138">
         <f>VLOOKUP(C18,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -48502,17 +48474,17 @@
         <f t="shared" si="10"/>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="AA18" s="171" t="s">
+      <c r="AA18" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AB18" s="171" t="s">
+      <c r="AB18" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="AC18" s="171"/>
+      <c r="AC18" s="170"/>
       <c r="AD18" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="AE18" s="153">
+      <c r="AE18" s="152">
         <v>0.75</v>
       </c>
       <c r="AF18" s="139">
@@ -48522,7 +48494,7 @@
       <c r="AG18" s="10">
         <v>100000</v>
       </c>
-      <c r="AH18" s="157">
+      <c r="AH18" s="156">
         <f>VLOOKUP(C18,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>55143</v>
       </c>
@@ -48537,7 +48509,7 @@
       <c r="AK18" s="143">
         <v>2.02</v>
       </c>
-      <c r="AL18" s="160">
+      <c r="AL18" s="159">
         <f>VLOOKUP(C18,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0</v>
       </c>
@@ -48579,11 +48551,11 @@
         <f>VLOOKUP(C18,WB!$B$42:$U$73,WB!$I$40,FALSE)</f>
         <v>0.75800865800865802</v>
       </c>
-      <c r="AY18" s="141">
+      <c r="AY18" s="140">
         <f t="shared" si="20"/>
         <v>0.84223184223184222</v>
       </c>
-      <c r="AZ18" s="141">
+      <c r="AZ18" s="140">
         <f t="shared" si="16"/>
         <v>0.37900432900432901</v>
       </c>
@@ -48594,7 +48566,7 @@
         <f>VLOOKUP(C18,WB!$B$42:$U$73,WB!$H$40,FALSE)</f>
         <v>0.29951303170910376</v>
       </c>
-      <c r="BC18" s="141">
+      <c r="BC18" s="140">
         <f t="shared" si="17"/>
         <v>0.3327922574545597</v>
       </c>
@@ -48602,19 +48574,16 @@
         <f t="shared" si="18"/>
         <v>0.14975651585455188</v>
       </c>
-      <c r="BE18" s="141">
+      <c r="BE18" s="140">
         <f>AR18+AN18+AJ18+W18+S18+AF18+Z18+O18</f>
         <v>0.44824522724091193</v>
       </c>
-      <c r="BF18" s="141">
-        <v>0.95</v>
-      </c>
     </row>
-    <row r="19" spans="2:58">
-      <c r="B19" s="168" t="s">
+    <row r="19" spans="2:57">
+      <c r="B19" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="169" t="s">
         <v>109</v>
       </c>
       <c r="D19" s="146" t="s">
@@ -48646,42 +48615,42 @@
       <c r="P19" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q19" s="141">
+      <c r="Q19" s="140">
         <f t="shared" si="6"/>
         <v>1.7793594306049823E-3</v>
       </c>
-      <c r="R19" s="141">
+      <c r="R19" s="140">
         <f t="shared" si="7"/>
         <v>1.9770660340055358E-3</v>
       </c>
-      <c r="S19" s="141"/>
-      <c r="T19" s="142">
+      <c r="S19" s="140"/>
+      <c r="T19" s="141">
         <v>0.75</v>
       </c>
       <c r="U19" s="139" t="e">
         <f>VLOOKUP(C19,Sheet2!$B$38:$D$52,Sheet2!$D$37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V19" s="141" t="e">
+      <c r="V19" s="140" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="W19" s="141"/>
+      <c r="W19" s="140"/>
       <c r="X19" s="147" t="s">
         <v>101</v>
       </c>
       <c r="Y19" s="80"/>
       <c r="Z19" s="80"/>
-      <c r="AA19" s="171"/>
-      <c r="AB19" s="171"/>
-      <c r="AC19" s="171"/>
+      <c r="AA19" s="170"/>
+      <c r="AB19" s="170"/>
+      <c r="AC19" s="170"/>
       <c r="AD19" s="78"/>
       <c r="AE19" s="78"/>
       <c r="AF19" s="78"/>
       <c r="AG19" s="10">
         <v>597149</v>
       </c>
-      <c r="AH19" s="157">
+      <c r="AH19" s="156">
         <f>VLOOKUP(C19,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>290483</v>
       </c>
@@ -48693,7 +48662,7 @@
       <c r="AK19" s="143">
         <v>0.51</v>
       </c>
-      <c r="AL19" s="160" t="str">
+      <c r="AL19" s="159" t="str">
         <f>VLOOKUP(C19,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -48729,7 +48698,7 @@
         <f>VLOOKUP(C19,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AY19" s="141">
+      <c r="AY19" s="140">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -48744,7 +48713,7 @@
         <f>VLOOKUP(C19,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>3.5587188612099642E-3</v>
       </c>
-      <c r="BC19" s="141">
+      <c r="BC19" s="140">
         <f t="shared" si="17"/>
         <v>3.9541320680110716E-3</v>
       </c>
@@ -48753,13 +48722,12 @@
         <v>1.7793594306049823E-3</v>
       </c>
       <c r="BE19" s="78"/>
-      <c r="BF19" s="78"/>
     </row>
-    <row r="20" spans="2:58">
-      <c r="B20" s="168" t="s">
+    <row r="20" spans="2:57">
+      <c r="B20" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="169" t="s">
         <v>110</v>
       </c>
       <c r="D20" s="146" t="s">
@@ -48791,42 +48759,42 @@
       <c r="P20" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q20" s="141">
+      <c r="Q20" s="140">
         <f t="shared" si="6"/>
         <v>0.86891891891891893</v>
       </c>
-      <c r="R20" s="141">
+      <c r="R20" s="140">
         <f t="shared" si="7"/>
         <v>0.96546546546546541</v>
       </c>
-      <c r="S20" s="141"/>
-      <c r="T20" s="142">
+      <c r="S20" s="140"/>
+      <c r="T20" s="141">
         <v>0.71</v>
       </c>
       <c r="U20" s="139" t="e">
         <f>VLOOKUP(C20,Sheet2!$B$38:$D$52,Sheet2!$D$37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V20" s="141" t="e">
+      <c r="V20" s="140" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="W20" s="141"/>
+      <c r="W20" s="140"/>
       <c r="X20" s="147" t="s">
         <v>101</v>
       </c>
       <c r="Y20" s="80"/>
       <c r="Z20" s="80"/>
-      <c r="AA20" s="171"/>
-      <c r="AB20" s="171"/>
-      <c r="AC20" s="171"/>
+      <c r="AA20" s="170"/>
+      <c r="AB20" s="170"/>
+      <c r="AC20" s="170"/>
       <c r="AD20" s="78"/>
       <c r="AE20" s="78"/>
       <c r="AF20" s="78"/>
       <c r="AG20" s="10">
         <v>320320</v>
       </c>
-      <c r="AH20" s="157">
+      <c r="AH20" s="156">
         <f>VLOOKUP(C20,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>168353</v>
       </c>
@@ -48838,7 +48806,7 @@
       <c r="AK20" s="143">
         <v>0.6</v>
       </c>
-      <c r="AL20" s="160" t="str">
+      <c r="AL20" s="159" t="str">
         <f>VLOOKUP(C20,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -48875,7 +48843,7 @@
         <f>VLOOKUP(C20,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AY20" s="141">
+      <c r="AY20" s="140">
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
@@ -48890,7 +48858,7 @@
         <f>VLOOKUP(C20,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.83783783783783783</v>
       </c>
-      <c r="BC20" s="141">
+      <c r="BC20" s="140">
         <f t="shared" si="17"/>
         <v>0.93093093093093093</v>
       </c>
@@ -48899,13 +48867,12 @@
         <v>0.41891891891891891</v>
       </c>
       <c r="BE20" s="78"/>
-      <c r="BF20" s="78"/>
     </row>
-    <row r="21" spans="2:58">
-      <c r="B21" s="168" t="s">
+    <row r="21" spans="2:57">
+      <c r="B21" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
       <c r="D21" s="146" t="s">
@@ -48937,42 +48904,42 @@
       <c r="P21" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q21" s="141">
+      <c r="Q21" s="140">
         <f t="shared" si="6"/>
         <v>0.26775956284153007</v>
       </c>
-      <c r="R21" s="141">
+      <c r="R21" s="140">
         <f t="shared" si="7"/>
         <v>0.29751062537947787</v>
       </c>
-      <c r="S21" s="141"/>
-      <c r="T21" s="142">
+      <c r="S21" s="140"/>
+      <c r="T21" s="141">
         <v>0.75</v>
       </c>
       <c r="U21" s="139" t="e">
         <f>VLOOKUP(C21,Sheet2!$B$38:$D$52,Sheet2!$D$37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V21" s="141" t="e">
+      <c r="V21" s="140" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="W21" s="141"/>
+      <c r="W21" s="140"/>
       <c r="X21" s="147" t="s">
         <v>101</v>
       </c>
       <c r="Y21" s="80"/>
       <c r="Z21" s="80"/>
-      <c r="AA21" s="171"/>
-      <c r="AB21" s="171"/>
-      <c r="AC21" s="171"/>
+      <c r="AA21" s="170"/>
+      <c r="AB21" s="170"/>
+      <c r="AC21" s="170"/>
       <c r="AD21" s="78"/>
       <c r="AE21" s="78"/>
       <c r="AF21" s="78"/>
       <c r="AG21" s="10">
         <v>113417</v>
       </c>
-      <c r="AH21" s="157">
+      <c r="AH21" s="156">
         <f>VLOOKUP(C21,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>53204</v>
       </c>
@@ -48984,7 +48951,7 @@
       <c r="AK21" s="143">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AL21" s="160" t="str">
+      <c r="AL21" s="159" t="str">
         <f>VLOOKUP(C21,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -49021,7 +48988,7 @@
         <f>VLOOKUP(C21,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="AY21" s="141">
+      <c r="AY21" s="140">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -49036,7 +49003,7 @@
         <f>VLOOKUP(C21,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.53551912568306015</v>
       </c>
-      <c r="BC21" s="141">
+      <c r="BC21" s="140">
         <f t="shared" si="17"/>
         <v>0.59502125075895573</v>
       </c>
@@ -49045,13 +49012,12 @@
         <v>0.26775956284153007</v>
       </c>
       <c r="BE21" s="78"/>
-      <c r="BF21" s="78"/>
     </row>
-    <row r="22" spans="2:58">
-      <c r="B22" s="168" t="s">
+    <row r="22" spans="2:57">
+      <c r="B22" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="169" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="146" t="s">
@@ -49083,42 +49049,42 @@
       <c r="P22" s="81">
         <v>0.9</v>
       </c>
-      <c r="Q22" s="141">
+      <c r="Q22" s="140">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R22" s="141">
+      <c r="R22" s="140">
         <f t="shared" si="7"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="S22" s="141"/>
-      <c r="T22" s="142">
+      <c r="S22" s="140"/>
+      <c r="T22" s="141">
         <v>0.56999999999999995</v>
       </c>
       <c r="U22" s="139" t="e">
         <f>VLOOKUP(C22,Sheet2!$B$38:$D$52,Sheet2!$D$37,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V22" s="141" t="e">
+      <c r="V22" s="140" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="W22" s="141"/>
+      <c r="W22" s="140"/>
       <c r="X22" s="147" t="s">
         <v>101</v>
       </c>
       <c r="Y22" s="80"/>
       <c r="Z22" s="80"/>
-      <c r="AA22" s="171"/>
-      <c r="AB22" s="171"/>
-      <c r="AC22" s="171"/>
+      <c r="AA22" s="170"/>
+      <c r="AB22" s="170"/>
+      <c r="AC22" s="170"/>
       <c r="AD22" s="78"/>
       <c r="AE22" s="78"/>
       <c r="AF22" s="78"/>
       <c r="AG22" s="10">
         <v>266933</v>
       </c>
-      <c r="AH22" s="157">
+      <c r="AH22" s="156">
         <f>VLOOKUP(C22,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>177187</v>
       </c>
@@ -49130,7 +49096,7 @@
       <c r="AK22" s="143">
         <v>0.59</v>
       </c>
-      <c r="AL22" s="160" t="str">
+      <c r="AL22" s="159" t="str">
         <f>VLOOKUP(C22,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -49167,7 +49133,7 @@
         <f>VLOOKUP(C22,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="AY22" s="141">
+      <c r="AY22" s="140">
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
@@ -49182,7 +49148,7 @@
         <f>VLOOKUP(C22,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="BC22" s="141">
+      <c r="BC22" s="140">
         <f t="shared" si="17"/>
         <v>1.1111111111111112</v>
       </c>
@@ -49191,7 +49157,6 @@
         <v>0.5</v>
       </c>
       <c r="BE22" s="78"/>
-      <c r="BF22" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -49204,6 +49169,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE15896-2E00-4F2C-A710-3C0ECFDA3A4E}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="B7:BC25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -49264,191 +49230,191 @@
     <row r="7" spans="2:55" ht="28.7" customHeight="1"/>
     <row r="8" spans="2:55" ht="17.45" customHeight="1" thickBot="1"/>
     <row r="9" spans="2:55" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="F9" s="306" t="s">
+      <c r="F9" s="307" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="307"/>
-      <c r="H9" s="307"/>
-      <c r="I9" s="307"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="307"/>
-      <c r="L9" s="307"/>
-      <c r="M9" s="307"/>
-      <c r="N9" s="307"/>
-      <c r="O9" s="307"/>
-      <c r="P9" s="307"/>
-      <c r="Q9" s="307"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="307"/>
-      <c r="T9" s="307"/>
-      <c r="U9" s="307"/>
-      <c r="V9" s="307"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="308"/>
-      <c r="Z9" s="309" t="s">
+      <c r="G9" s="308"/>
+      <c r="H9" s="308"/>
+      <c r="I9" s="308"/>
+      <c r="J9" s="308"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="308"/>
+      <c r="N9" s="308"/>
+      <c r="O9" s="308"/>
+      <c r="P9" s="308"/>
+      <c r="Q9" s="308"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="308"/>
+      <c r="V9" s="308"/>
+      <c r="W9" s="308"/>
+      <c r="X9" s="308"/>
+      <c r="Y9" s="309"/>
+      <c r="Z9" s="310" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="310"/>
-      <c r="AB9" s="310"/>
-      <c r="AC9" s="310"/>
-      <c r="AD9" s="310"/>
-      <c r="AE9" s="310"/>
-      <c r="AF9" s="310"/>
-      <c r="AG9" s="310"/>
-      <c r="AH9" s="311"/>
-      <c r="AI9" s="312" t="s">
+      <c r="AA9" s="311"/>
+      <c r="AB9" s="311"/>
+      <c r="AC9" s="311"/>
+      <c r="AD9" s="311"/>
+      <c r="AE9" s="311"/>
+      <c r="AF9" s="311"/>
+      <c r="AG9" s="311"/>
+      <c r="AH9" s="312"/>
+      <c r="AI9" s="313" t="s">
         <v>115</v>
       </c>
-      <c r="AJ9" s="313"/>
-      <c r="AK9" s="313"/>
-      <c r="AL9" s="313"/>
-      <c r="AM9" s="313"/>
-      <c r="AN9" s="313"/>
-      <c r="AO9" s="313"/>
-      <c r="AP9" s="313"/>
-      <c r="AQ9" s="313"/>
-      <c r="AR9" s="313"/>
-      <c r="AS9" s="313"/>
-      <c r="AT9" s="314"/>
+      <c r="AJ9" s="314"/>
+      <c r="AK9" s="314"/>
+      <c r="AL9" s="314"/>
+      <c r="AM9" s="314"/>
+      <c r="AN9" s="314"/>
+      <c r="AO9" s="314"/>
+      <c r="AP9" s="314"/>
+      <c r="AQ9" s="314"/>
+      <c r="AR9" s="314"/>
+      <c r="AS9" s="314"/>
+      <c r="AT9" s="315"/>
     </row>
     <row r="10" spans="2:55" ht="30.75" thickBot="1">
-      <c r="B10" s="225" t="s">
+      <c r="B10" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="226" t="s">
+      <c r="D10" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="227" t="s">
+      <c r="E10" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="245" t="s">
+      <c r="F10" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="246" t="s">
+      <c r="G10" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="246" t="s">
+      <c r="H10" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="246" t="s">
+      <c r="I10" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="246" t="s">
+      <c r="J10" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="246" t="s">
+      <c r="K10" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="246" t="s">
+      <c r="L10" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="246" t="s">
+      <c r="M10" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="247" t="s">
+      <c r="N10" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="246" t="s">
+      <c r="O10" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="246" t="s">
+      <c r="P10" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="246" t="s">
+      <c r="Q10" s="245" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="247" t="s">
+      <c r="R10" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="246" t="s">
+      <c r="S10" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="246" t="s">
+      <c r="T10" s="245" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="246" t="s">
+      <c r="U10" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="247" t="s">
+      <c r="V10" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="246" t="s">
+      <c r="W10" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="246" t="s">
+      <c r="X10" s="245" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="248" t="s">
+      <c r="Y10" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="252" t="s">
+      <c r="Z10" s="251" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="253" t="s">
+      <c r="AA10" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" s="253" t="s">
+      <c r="AB10" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="AC10" s="254" t="s">
+      <c r="AC10" s="253" t="s">
         <v>55</v>
       </c>
-      <c r="AD10" s="253" t="s">
+      <c r="AD10" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="253" t="s">
+      <c r="AE10" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="AF10" s="253" t="s">
+      <c r="AF10" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="253" t="s">
+      <c r="AG10" s="252" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="255" t="s">
+      <c r="AH10" s="254" t="s">
         <v>59</v>
       </c>
-      <c r="AI10" s="249" t="s">
+      <c r="AI10" s="248" t="s">
         <v>60</v>
       </c>
-      <c r="AJ10" s="250" t="s">
+      <c r="AJ10" s="249" t="s">
         <v>61</v>
       </c>
-      <c r="AK10" s="250" t="s">
+      <c r="AK10" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="AL10" s="250" t="s">
+      <c r="AL10" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="AM10" s="250" t="s">
+      <c r="AM10" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AN10" s="250" t="s">
+      <c r="AN10" s="249" t="s">
         <v>64</v>
       </c>
-      <c r="AO10" s="250" t="s">
+      <c r="AO10" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="AP10" s="250" t="s">
+      <c r="AP10" s="249" t="s">
         <v>66</v>
       </c>
-      <c r="AQ10" s="250" t="s">
+      <c r="AQ10" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="AR10" s="250" t="s">
+      <c r="AR10" s="249" t="s">
         <v>68</v>
       </c>
-      <c r="AS10" s="250" t="s">
+      <c r="AS10" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="AT10" s="251" t="s">
+      <c r="AT10" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="AU10" s="215" t="s">
+      <c r="AU10" s="214" t="s">
         <v>9</v>
       </c>
       <c r="AV10" s="148" t="s">
@@ -49469,15 +49435,15 @@
       <c r="BA10" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="BB10" s="216" t="s">
+      <c r="BB10" s="215" t="s">
         <v>80</v>
       </c>
-      <c r="BC10" s="237" t="s">
+      <c r="BC10" s="236" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:55" ht="84" hidden="1">
-      <c r="B11" s="228" t="s">
+      <c r="B11" s="227" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="80" t="s">
@@ -49486,10 +49452,10 @@
       <c r="D11" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="220" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="223">
+      <c r="F11" s="222">
         <v>0.78</v>
       </c>
       <c r="G11" s="86">
@@ -49549,7 +49515,7 @@
       <c r="Y11" s="125">
         <v>3.4151553095033725E-2</v>
       </c>
-      <c r="Z11" s="210" t="s">
+      <c r="Z11" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA11" s="89">
@@ -49576,7 +49542,7 @@
       <c r="AH11" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI11" s="176">
+      <c r="AI11" s="175">
         <v>22300000</v>
       </c>
       <c r="AJ11" s="80">
@@ -49612,7 +49578,7 @@
       <c r="AT11" s="125">
         <v>0.12044542080145443</v>
       </c>
-      <c r="AU11" s="199">
+      <c r="AU11" s="198">
         <v>0.9</v>
       </c>
       <c r="AV11" s="89">
@@ -49636,12 +49602,12 @@
       <c r="BB11" s="86">
         <v>0.42031490015360984</v>
       </c>
-      <c r="BC11" s="238">
+      <c r="BC11" s="237">
         <v>0.54120496347979752</v>
       </c>
     </row>
     <row r="12" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="227" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="80" t="s">
@@ -49650,10 +49616,10 @@
       <c r="D12" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="220" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="223">
+      <c r="F12" s="222">
         <v>0.82</v>
       </c>
       <c r="G12" s="86">
@@ -49713,7 +49679,7 @@
       <c r="Y12" s="125">
         <v>3.0287243532560213E-2</v>
       </c>
-      <c r="Z12" s="210" t="s">
+      <c r="Z12" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA12" s="89">
@@ -49740,7 +49706,7 @@
       <c r="AH12" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI12" s="176">
+      <c r="AI12" s="175">
         <v>3200000</v>
       </c>
       <c r="AJ12" s="80">
@@ -49776,7 +49742,7 @@
       <c r="AT12" s="125">
         <v>0.13715228665723717</v>
       </c>
-      <c r="AU12" s="199">
+      <c r="AU12" s="198">
         <v>0.9</v>
       </c>
       <c r="AV12" s="89">
@@ -49797,15 +49763,15 @@
       <c r="BA12" s="89">
         <v>0</v>
       </c>
-      <c r="BB12" s="218">
+      <c r="BB12" s="217">
         <v>0</v>
       </c>
-      <c r="BC12" s="239">
+      <c r="BC12" s="238">
         <v>0.50589246768979734</v>
       </c>
     </row>
     <row r="13" spans="2:55" ht="84" hidden="1">
-      <c r="B13" s="228" t="s">
+      <c r="B13" s="227" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="80" t="s">
@@ -49814,10 +49780,10 @@
       <c r="D13" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="221" t="s">
+      <c r="E13" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="223">
+      <c r="F13" s="222">
         <v>0.92</v>
       </c>
       <c r="G13" s="86">
@@ -49877,7 +49843,7 @@
       <c r="Y13" s="125">
         <v>3.6696046775460331E-2</v>
       </c>
-      <c r="Z13" s="210" t="s">
+      <c r="Z13" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA13" s="89">
@@ -49904,7 +49870,7 @@
       <c r="AH13" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI13" s="176">
+      <c r="AI13" s="175">
         <v>6300000</v>
       </c>
       <c r="AJ13" s="80">
@@ -49940,7 +49906,7 @@
       <c r="AT13" s="125">
         <v>0.12916372867014525</v>
       </c>
-      <c r="AU13" s="199">
+      <c r="AU13" s="198">
         <v>0.9</v>
       </c>
       <c r="AV13" s="89">
@@ -49964,12 +49930,12 @@
       <c r="BB13" s="86">
         <v>0.5</v>
       </c>
-      <c r="BC13" s="240">
+      <c r="BC13" s="239">
         <v>0.58386672782655791</v>
       </c>
     </row>
     <row r="14" spans="2:55" ht="84" hidden="1">
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="227" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="80" t="s">
@@ -49978,10 +49944,10 @@
       <c r="D14" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="221" t="s">
+      <c r="E14" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="223">
+      <c r="F14" s="222">
         <v>0.85</v>
       </c>
       <c r="G14" s="86">
@@ -50041,7 +50007,7 @@
       <c r="Y14" s="125">
         <v>0.04</v>
       </c>
-      <c r="Z14" s="210" t="s">
+      <c r="Z14" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA14" s="89">
@@ -50068,7 +50034,7 @@
       <c r="AH14" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI14" s="176">
+      <c r="AI14" s="175">
         <v>4600000</v>
       </c>
       <c r="AJ14" s="80">
@@ -50104,7 +50070,7 @@
       <c r="AT14" s="125">
         <v>0.11468571428571428</v>
       </c>
-      <c r="AU14" s="199">
+      <c r="AU14" s="198">
         <v>0.9</v>
       </c>
       <c r="AV14" s="89">
@@ -50128,12 +50094,12 @@
       <c r="BB14" s="86">
         <v>0.47809110629067247</v>
       </c>
-      <c r="BC14" s="241">
+      <c r="BC14" s="240">
         <v>0.54951762732919252</v>
       </c>
     </row>
     <row r="15" spans="2:55" ht="84" hidden="1">
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="227" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -50142,10 +50108,10 @@
       <c r="D15" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="221" t="s">
+      <c r="E15" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="223">
+      <c r="F15" s="222">
         <v>0.86</v>
       </c>
       <c r="G15" s="86">
@@ -50205,7 +50171,7 @@
       <c r="Y15" s="125">
         <v>0.04</v>
       </c>
-      <c r="Z15" s="210" t="s">
+      <c r="Z15" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA15" s="89">
@@ -50232,7 +50198,7 @@
       <c r="AH15" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI15" s="176">
+      <c r="AI15" s="175">
         <v>5130381</v>
       </c>
       <c r="AJ15" s="80">
@@ -50268,7 +50234,7 @@
       <c r="AT15" s="125">
         <v>8.6538461538461522E-2</v>
       </c>
-      <c r="AU15" s="199">
+      <c r="AU15" s="198">
         <v>0.9</v>
       </c>
       <c r="AV15" s="89">
@@ -50292,12 +50258,12 @@
       <c r="BB15" s="86">
         <v>0.5</v>
       </c>
-      <c r="BC15" s="242">
+      <c r="BC15" s="241">
         <v>0.50965838528291629</v>
       </c>
     </row>
     <row r="16" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="227" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="80" t="s">
@@ -50306,10 +50272,10 @@
       <c r="D16" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="221" t="s">
+      <c r="E16" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="223">
+      <c r="F16" s="222">
         <v>0.94</v>
       </c>
       <c r="G16" s="86">
@@ -50369,7 +50335,7 @@
       <c r="Y16" s="125">
         <v>3.570528245674344E-2</v>
       </c>
-      <c r="Z16" s="210" t="s">
+      <c r="Z16" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA16" s="89">
@@ -50396,7 +50362,7 @@
       <c r="AH16" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI16" s="176">
+      <c r="AI16" s="175">
         <v>2730000</v>
       </c>
       <c r="AJ16" s="80">
@@ -50432,7 +50398,7 @@
       <c r="AT16" s="125">
         <v>8.4272727272727263E-2</v>
       </c>
-      <c r="AU16" s="199">
+      <c r="AU16" s="198">
         <v>0.9</v>
       </c>
       <c r="AV16" s="89">
@@ -50453,15 +50419,15 @@
       <c r="BA16" s="89">
         <v>1.007097897415294</v>
       </c>
-      <c r="BB16" s="218">
+      <c r="BB16" s="217">
         <v>0.45319405383688233</v>
       </c>
-      <c r="BC16" s="239">
+      <c r="BC16" s="238">
         <v>0.53127134306280399</v>
       </c>
     </row>
     <row r="17" spans="2:55" ht="84">
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="80" t="s">
@@ -50470,10 +50436,10 @@
       <c r="D17" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="221" t="s">
+      <c r="E17" s="220" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="223">
+      <c r="F17" s="222">
         <v>0.7</v>
       </c>
       <c r="G17" s="86">
@@ -50533,7 +50499,7 @@
       <c r="Y17" s="125">
         <v>3.0654182503630913E-2</v>
       </c>
-      <c r="Z17" s="210" t="s">
+      <c r="Z17" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA17" s="89">
@@ -50560,7 +50526,7 @@
       <c r="AH17" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI17" s="176">
+      <c r="AI17" s="175">
         <v>2582000</v>
       </c>
       <c r="AJ17" s="80">
@@ -50596,7 +50562,7 @@
       <c r="AT17" s="125">
         <v>0.10431034482758621</v>
       </c>
-      <c r="AU17" s="199">
+      <c r="AU17" s="198">
         <v>0.9</v>
       </c>
       <c r="AV17" s="89">
@@ -50620,12 +50586,12 @@
       <c r="BB17" s="86">
         <v>0.49499545040946313</v>
       </c>
-      <c r="BC17" s="240">
+      <c r="BC17" s="239">
         <v>0.52614363153680321</v>
       </c>
     </row>
     <row r="18" spans="2:55" ht="84">
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="80" t="s">
@@ -50634,10 +50600,10 @@
       <c r="D18" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="221" t="s">
+      <c r="E18" s="220" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="223">
+      <c r="F18" s="222">
         <v>0.7</v>
       </c>
       <c r="G18" s="86">
@@ -50697,7 +50663,7 @@
       <c r="Y18" s="125">
         <v>2.9440766305113397E-2</v>
       </c>
-      <c r="Z18" s="210" t="s">
+      <c r="Z18" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA18" s="89">
@@ -50724,7 +50690,7 @@
       <c r="AH18" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI18" s="176">
+      <c r="AI18" s="175">
         <v>2642000</v>
       </c>
       <c r="AJ18" s="80">
@@ -50760,7 +50726,7 @@
       <c r="AT18" s="125">
         <v>0.11164122137404579</v>
       </c>
-      <c r="AU18" s="199">
+      <c r="AU18" s="198">
         <v>0.9</v>
       </c>
       <c r="AV18" s="89">
@@ -50784,12 +50750,12 @@
       <c r="BB18" s="86">
         <v>0.48887122416534173</v>
       </c>
-      <c r="BC18" s="241">
+      <c r="BC18" s="240">
         <v>0.54837886234121169</v>
       </c>
     </row>
     <row r="19" spans="2:55" ht="84">
-      <c r="B19" s="229" t="s">
+      <c r="B19" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="80" t="s">
@@ -50798,10 +50764,10 @@
       <c r="D19" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="221" t="s">
+      <c r="E19" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="223">
+      <c r="F19" s="222">
         <v>0.7</v>
       </c>
       <c r="G19" s="86">
@@ -50861,7 +50827,7 @@
       <c r="Y19" s="125">
         <v>2.561056105610561E-2</v>
       </c>
-      <c r="Z19" s="210" t="s">
+      <c r="Z19" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA19" s="89">
@@ -50888,7 +50854,7 @@
       <c r="AH19" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI19" s="176">
+      <c r="AI19" s="175">
         <v>1142000</v>
       </c>
       <c r="AJ19" s="80">
@@ -50924,7 +50890,7 @@
       <c r="AT19" s="125">
         <v>0.1097285067873303</v>
       </c>
-      <c r="AU19" s="199">
+      <c r="AU19" s="198">
         <v>0.9</v>
       </c>
       <c r="AV19" s="89">
@@ -50948,12 +50914,12 @@
       <c r="BB19" s="86">
         <v>0.46445497630331756</v>
       </c>
-      <c r="BC19" s="242">
+      <c r="BC19" s="241">
         <v>0.52357394400055368</v>
       </c>
     </row>
     <row r="20" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="80" t="s">
@@ -50962,10 +50928,10 @@
       <c r="D20" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="221" t="s">
+      <c r="E20" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="223">
+      <c r="F20" s="222">
         <v>0.7</v>
       </c>
       <c r="G20" s="86">
@@ -51025,7 +50991,7 @@
       <c r="Y20" s="125">
         <v>3.718169036088112E-2</v>
       </c>
-      <c r="Z20" s="210" t="s">
+      <c r="Z20" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA20" s="89">
@@ -51052,7 +51018,7 @@
       <c r="AH20" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI20" s="176">
+      <c r="AI20" s="175">
         <v>3400000</v>
       </c>
       <c r="AJ20" s="80">
@@ -51088,7 +51054,7 @@
       <c r="AT20" s="125">
         <v>9.0376569037656909E-2</v>
       </c>
-      <c r="AU20" s="199">
+      <c r="AU20" s="198">
         <v>0.9</v>
       </c>
       <c r="AV20" s="89">
@@ -51109,15 +51075,15 @@
       <c r="BA20" s="89">
         <v>1.1111111111111112</v>
       </c>
-      <c r="BB20" s="218">
+      <c r="BB20" s="217">
         <v>0.5</v>
       </c>
-      <c r="BC20" s="239">
+      <c r="BC20" s="238">
         <v>0.53743349787230588</v>
       </c>
     </row>
     <row r="21" spans="2:55" ht="84" hidden="1">
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="80" t="s">
@@ -51126,10 +51092,10 @@
       <c r="D21" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="221" t="s">
+      <c r="E21" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="223">
+      <c r="F21" s="222">
         <v>0.75</v>
       </c>
       <c r="G21" s="86">
@@ -51189,7 +51155,7 @@
       <c r="Y21" s="125">
         <v>2.5318972659486332E-2</v>
       </c>
-      <c r="Z21" s="210" t="s">
+      <c r="Z21" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="89">
@@ -51216,7 +51182,7 @@
       <c r="AH21" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI21" s="176">
+      <c r="AI21" s="175">
         <v>2360000</v>
       </c>
       <c r="AJ21" s="80">
@@ -51252,7 +51218,7 @@
       <c r="AT21" s="125">
         <v>0.10099999999999999</v>
       </c>
-      <c r="AU21" s="199">
+      <c r="AU21" s="198">
         <v>0.9</v>
       </c>
       <c r="AV21" s="89">
@@ -51276,12 +51242,12 @@
       <c r="BB21" s="86">
         <v>0.44749403341288785</v>
       </c>
-      <c r="BC21" s="238">
+      <c r="BC21" s="237">
         <v>0.56551442541196417</v>
       </c>
     </row>
     <row r="22" spans="2:55" ht="84" hidden="1">
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -51290,10 +51256,10 @@
       <c r="D22" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="221" t="s">
+      <c r="E22" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="223">
+      <c r="F22" s="222">
         <v>0.84</v>
       </c>
       <c r="G22" s="86">
@@ -51353,7 +51319,7 @@
       <c r="Y22" s="125">
         <v>3.6300229848616944E-2</v>
       </c>
-      <c r="Z22" s="210" t="s">
+      <c r="Z22" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA22" s="89">
@@ -51380,7 +51346,7 @@
       <c r="AH22" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI22" s="176">
+      <c r="AI22" s="175">
         <v>4850000</v>
       </c>
       <c r="AJ22" s="80">
@@ -51416,7 +51382,7 @@
       <c r="AT22" s="125">
         <v>8.5956521739130431E-2</v>
       </c>
-      <c r="AU22" s="199">
+      <c r="AU22" s="198">
         <v>0.9</v>
       </c>
       <c r="AV22" s="89">
@@ -51437,15 +51403,15 @@
       <c r="BA22" s="89">
         <v>1.0991034261927632</v>
       </c>
-      <c r="BB22" s="218">
+      <c r="BB22" s="217">
         <v>0.45</v>
       </c>
-      <c r="BC22" s="243">
+      <c r="BC22" s="242">
         <v>0.50410799557400165</v>
       </c>
     </row>
     <row r="23" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B23" s="229" t="s">
+      <c r="B23" s="228" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="80" t="s">
@@ -51454,10 +51420,10 @@
       <c r="D23" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="221" t="s">
+      <c r="E23" s="220" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="223">
+      <c r="F23" s="222">
         <v>0.85</v>
       </c>
       <c r="G23" s="86">
@@ -51517,7 +51483,7 @@
       <c r="Y23" s="125">
         <v>3.0622125393367221E-2</v>
       </c>
-      <c r="Z23" s="210" t="s">
+      <c r="Z23" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA23" s="89">
@@ -51544,7 +51510,7 @@
       <c r="AH23" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI23" s="176">
+      <c r="AI23" s="175">
         <v>2153000</v>
       </c>
       <c r="AJ23" s="80">
@@ -51580,7 +51546,7 @@
       <c r="AT23" s="125">
         <v>0.11972727272727272</v>
       </c>
-      <c r="AU23" s="199">
+      <c r="AU23" s="198">
         <v>0.9</v>
       </c>
       <c r="AV23" s="89">
@@ -51601,15 +51567,15 @@
       <c r="BA23" s="89">
         <v>1.0740953475014359</v>
       </c>
-      <c r="BB23" s="218">
+      <c r="BB23" s="217">
         <v>0.48334290637564614</v>
       </c>
-      <c r="BC23" s="244">
+      <c r="BC23" s="243">
         <v>0.54589441393467575</v>
       </c>
     </row>
     <row r="24" spans="2:55" ht="84">
-      <c r="B24" s="230" t="s">
+      <c r="B24" s="229" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="80" t="s">
@@ -51618,10 +51584,10 @@
       <c r="D24" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="221" t="s">
+      <c r="E24" s="220" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="223">
+      <c r="F24" s="222">
         <v>0.7</v>
       </c>
       <c r="G24" s="86">
@@ -51681,7 +51647,7 @@
       <c r="Y24" s="125">
         <v>0</v>
       </c>
-      <c r="Z24" s="210" t="s">
+      <c r="Z24" s="209" t="s">
         <v>86</v>
       </c>
       <c r="AA24" s="89">
@@ -51708,7 +51674,7 @@
       <c r="AH24" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI24" s="176">
+      <c r="AI24" s="175">
         <v>700000</v>
       </c>
       <c r="AJ24" s="80">
@@ -51744,7 +51710,7 @@
       <c r="AT24" s="125">
         <v>0.16099290780141842</v>
       </c>
-      <c r="AU24" s="199">
+      <c r="AU24" s="198">
         <v>0.9</v>
       </c>
       <c r="AV24" s="89">
@@ -51768,24 +51734,24 @@
       <c r="BB24" s="86">
         <v>0.36092198529840736</v>
       </c>
-      <c r="BC24" s="240">
+      <c r="BC24" s="239">
         <v>0.40865388492579208</v>
       </c>
     </row>
     <row r="25" spans="2:55" ht="84.75" thickBot="1">
-      <c r="B25" s="231" t="s">
+      <c r="B25" s="230" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="217" t="s">
+      <c r="C25" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="217" t="s">
+      <c r="D25" s="216" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="222" t="s">
+      <c r="E25" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="177" t="s">
+      <c r="F25" s="176" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="122" t="s">
@@ -51809,7 +51775,7 @@
       <c r="M25" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="205" t="s">
+      <c r="N25" s="204" t="s">
         <v>84</v>
       </c>
       <c r="O25" s="122" t="s">
@@ -51836,16 +51802,16 @@
       <c r="V25" s="135">
         <v>0.63</v>
       </c>
-      <c r="W25" s="224">
+      <c r="W25" s="223">
         <v>0.32989690721649484</v>
       </c>
-      <c r="X25" s="224">
+      <c r="X25" s="223">
         <v>0.52364588447062677</v>
       </c>
       <c r="Y25" s="126">
         <v>2.6182294223531341E-2</v>
       </c>
-      <c r="Z25" s="211" t="s">
+      <c r="Z25" s="210" t="s">
         <v>86</v>
       </c>
       <c r="AA25" s="135">
@@ -51872,16 +51838,16 @@
       <c r="AH25" s="105">
         <v>0.05</v>
       </c>
-      <c r="AI25" s="177">
+      <c r="AI25" s="176">
         <v>100000</v>
       </c>
       <c r="AJ25" s="122">
         <v>32719</v>
       </c>
-      <c r="AK25" s="224">
+      <c r="AK25" s="223">
         <v>0.32718999999999998</v>
       </c>
-      <c r="AL25" s="224">
+      <c r="AL25" s="223">
         <v>8.1797499999999995E-2</v>
       </c>
       <c r="AM25" s="122">
@@ -51890,10 +51856,10 @@
       <c r="AN25" s="122">
         <v>0</v>
       </c>
-      <c r="AO25" s="224">
+      <c r="AO25" s="223">
         <v>0</v>
       </c>
-      <c r="AP25" s="224">
+      <c r="AP25" s="223">
         <v>0</v>
       </c>
       <c r="AQ25" s="122">
@@ -51902,37 +51868,37 @@
       <c r="AR25" s="122">
         <v>234</v>
       </c>
-      <c r="AS25" s="224">
+      <c r="AS25" s="223">
         <v>0.31536388140161725</v>
       </c>
       <c r="AT25" s="126">
         <v>0.11037735849056603</v>
       </c>
-      <c r="AU25" s="236">
+      <c r="AU25" s="235">
         <v>0.9</v>
       </c>
-      <c r="AV25" s="219">
+      <c r="AV25" s="218">
         <v>0.77417027417027418</v>
       </c>
-      <c r="AW25" s="219">
+      <c r="AW25" s="218">
         <v>0.86018919352252687</v>
       </c>
-      <c r="AX25" s="220">
+      <c r="AX25" s="219">
         <v>0.38708513708513709</v>
       </c>
-      <c r="AY25" s="219">
+      <c r="AY25" s="218">
         <v>0.9</v>
       </c>
-      <c r="AZ25" s="219">
+      <c r="AZ25" s="218">
         <v>0.30126741292242004</v>
       </c>
-      <c r="BA25" s="219">
+      <c r="BA25" s="218">
         <v>0.33474156991380005</v>
       </c>
-      <c r="BB25" s="220">
+      <c r="BB25" s="219">
         <v>0.15063370646121002</v>
       </c>
-      <c r="BC25" s="242">
+      <c r="BC25" s="241">
         <v>0.3182304218000056</v>
       </c>
     </row>
@@ -51959,6 +51925,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24333818-1369-4C73-85C2-580ED64BFD1E}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="B1:X35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="78" workbookViewId="0">
@@ -51981,7 +51948,7 @@
     <row r="1" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="2" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="3" spans="2:24" ht="34.5">
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="171" t="s">
         <v>99</v>
       </c>
     </row>
@@ -52028,11 +51995,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="257" t="s">
+      <c r="V8" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="258"/>
-      <c r="X8" s="259"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="260"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -52092,9 +52059,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>1.5622558975159073E-4</v>
       </c>
-      <c r="V9" s="260"/>
-      <c r="W9" s="261"/>
-      <c r="X9" s="262"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="263"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -52120,10 +52087,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V10" s="263" t="s">
+      <c r="V10" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="264"/>
+      <c r="W10" s="265"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -52152,20 +52119,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="265" t="str">
+      <c r="V11" s="266" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
-        <v>NRC Plan FY25-FY26, signed in Q1 FY25</v>
-      </c>
-      <c r="W11" s="266"/>
-      <c r="X11" s="331" t="str">
+        <v>NRC Plan</v>
+      </c>
+      <c r="W11" s="267"/>
+      <c r="X11" s="332" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="267"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="332"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="333"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -52238,158 +52205,161 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V17" s="177">
+      <c r="V17" s="176">
         <v>2</v>
       </c>
       <c r="W17" s="122">
         <v>0</v>
       </c>
-      <c r="X17" s="175">
+      <c r="X17" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="271" t="s">
+      <c r="C24" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="272"/>
-      <c r="E24" s="272"/>
-      <c r="F24" s="272"/>
-      <c r="G24" s="272"/>
-      <c r="H24" s="273"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="274"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="257" t="s">
+      <c r="J24" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="258"/>
-      <c r="L24" s="258"/>
-      <c r="M24" s="258"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="259"/>
+      <c r="K24" s="259"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="260"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="257" t="s">
+      <c r="Q24" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="258"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="258"/>
-      <c r="U24" s="258"/>
-      <c r="V24" s="258"/>
-      <c r="W24" s="259"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="259"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="278" t="s">
+      <c r="C25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279" t="s">
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="280"/>
+      <c r="H25" s="281"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="278" t="s">
+      <c r="J25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="279"/>
-      <c r="L25" s="279"/>
-      <c r="M25" s="279"/>
-      <c r="N25" s="279" t="s">
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="280"/>
+      <c r="O25" s="281"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="281" t="s">
+      <c r="Q25" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="282"/>
-      <c r="S25" s="282"/>
-      <c r="T25" s="282"/>
-      <c r="U25" s="283"/>
-      <c r="V25" s="284" t="s">
+      <c r="R25" s="283"/>
+      <c r="S25" s="283"/>
+      <c r="T25" s="283"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="285"/>
+      <c r="W25" s="286"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="286" t="str">
+      <c r="C26" s="287" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
-        <v>Montly Report</v>
-      </c>
-      <c r="D26" s="287"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="323">
+        <v>&gt; All Channels (Phisicals and Digitals)
+&gt; Per model
+&gt; Per month FCST (1 week before starting N month)
+&gt; Per month Results (1 week after N month closure)</v>
+      </c>
+      <c r="D26" s="288"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="324">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!Y2,FALSE)</f>
         <v>0.6</v>
       </c>
-      <c r="H26" s="324"/>
+      <c r="H26" s="325"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="294" t="s">
+      <c r="J26" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="295"/>
-      <c r="L26" s="295"/>
-      <c r="M26" s="295"/>
-      <c r="N26" s="327" t="str">
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="328" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AA2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="O26" s="328"/>
+      <c r="O26" s="329"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="315" t="s">
+      <c r="Q26" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="316"/>
-      <c r="S26" s="316"/>
-      <c r="T26" s="316"/>
-      <c r="U26" s="316"/>
-      <c r="V26" s="319" t="str">
+      <c r="R26" s="317"/>
+      <c r="S26" s="317"/>
+      <c r="T26" s="317"/>
+      <c r="U26" s="317"/>
+      <c r="V26" s="320" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AD2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="W26" s="320"/>
+      <c r="W26" s="321"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="287"/>
-      <c r="E27" s="287"/>
-      <c r="F27" s="287"/>
-      <c r="G27" s="323"/>
-      <c r="H27" s="324"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="324"/>
+      <c r="H27" s="325"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="296"/>
-      <c r="K27" s="297"/>
-      <c r="L27" s="297"/>
-      <c r="M27" s="297"/>
-      <c r="N27" s="329"/>
-      <c r="O27" s="330"/>
+      <c r="J27" s="297"/>
+      <c r="K27" s="298"/>
+      <c r="L27" s="298"/>
+      <c r="M27" s="298"/>
+      <c r="N27" s="330"/>
+      <c r="O27" s="331"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="315"/>
-      <c r="R27" s="316"/>
-      <c r="S27" s="316"/>
-      <c r="T27" s="316"/>
-      <c r="U27" s="316"/>
-      <c r="V27" s="319"/>
-      <c r="W27" s="320"/>
+      <c r="Q27" s="316"/>
+      <c r="R27" s="317"/>
+      <c r="S27" s="317"/>
+      <c r="T27" s="317"/>
+      <c r="U27" s="317"/>
+      <c r="V27" s="320"/>
+      <c r="W27" s="321"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="287"/>
-      <c r="E28" s="287"/>
-      <c r="F28" s="287"/>
-      <c r="G28" s="323"/>
-      <c r="H28" s="324"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="324"/>
+      <c r="H28" s="325"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -52398,23 +52368,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="315"/>
-      <c r="R28" s="316"/>
-      <c r="S28" s="316"/>
-      <c r="T28" s="316"/>
-      <c r="U28" s="316"/>
-      <c r="V28" s="319"/>
-      <c r="W28" s="320"/>
+      <c r="Q28" s="316"/>
+      <c r="R28" s="317"/>
+      <c r="S28" s="317"/>
+      <c r="T28" s="317"/>
+      <c r="U28" s="317"/>
+      <c r="V28" s="320"/>
+      <c r="W28" s="321"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="289"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="289"/>
-      <c r="G29" s="325"/>
-      <c r="H29" s="326"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="327"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -52423,13 +52393,13 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="317"/>
-      <c r="R29" s="318"/>
-      <c r="S29" s="318"/>
-      <c r="T29" s="318"/>
-      <c r="U29" s="318"/>
-      <c r="V29" s="321"/>
-      <c r="W29" s="322"/>
+      <c r="Q29" s="318"/>
+      <c r="R29" s="319"/>
+      <c r="S29" s="319"/>
+      <c r="T29" s="319"/>
+      <c r="U29" s="319"/>
+      <c r="V29" s="322"/>
+      <c r="W29" s="323"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:23">
@@ -52578,6 +52548,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48B7798-A350-4BE2-94B9-AE166F3EB9F1}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="B1:AW181"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="92" zoomScaleNormal="78" workbookViewId="0">
@@ -52956,34 +52927,34 @@
         <f>SUM(AG4:AJ4)</f>
         <v>0.5</v>
       </c>
-      <c r="AN4" s="213" t="s">
+      <c r="AN4" s="212" t="s">
         <v>155</v>
       </c>
-      <c r="AO4" s="213" t="s">
+      <c r="AO4" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="AP4" s="213" t="s">
+      <c r="AP4" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="AQ4" s="213" t="s">
+      <c r="AQ4" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="AR4" s="213" t="s">
+      <c r="AR4" s="212" t="s">
         <v>159</v>
       </c>
-      <c r="AS4" s="213" t="s">
+      <c r="AS4" s="212" t="s">
         <v>160</v>
       </c>
-      <c r="AT4" s="213" t="s">
+      <c r="AT4" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="AU4" s="213" t="s">
+      <c r="AU4" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="AV4" s="213" t="s">
+      <c r="AV4" s="212" t="s">
         <v>163</v>
       </c>
-      <c r="AW4" s="213" t="s">
+      <c r="AW4" s="212" t="s">
         <v>164</v>
       </c>
     </row>
@@ -53091,34 +53062,34 @@
       <c r="AM5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="213" t="s">
+      <c r="AN5" s="212" t="s">
         <v>165</v>
       </c>
-      <c r="AO5" s="213" t="s">
+      <c r="AO5" s="212" t="s">
         <v>166</v>
       </c>
-      <c r="AP5" s="213" t="s">
+      <c r="AP5" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="AQ5" s="213" t="s">
+      <c r="AQ5" s="212" t="s">
         <v>168</v>
       </c>
-      <c r="AR5" s="213" t="s">
+      <c r="AR5" s="212" t="s">
         <v>169</v>
       </c>
-      <c r="AS5" s="213" t="s">
+      <c r="AS5" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="AT5" s="213" t="s">
+      <c r="AT5" s="212" t="s">
         <v>171</v>
       </c>
-      <c r="AU5" s="213" t="s">
+      <c r="AU5" s="212" t="s">
         <v>172</v>
       </c>
-      <c r="AV5" s="213" t="s">
+      <c r="AV5" s="212" t="s">
         <v>173</v>
       </c>
-      <c r="AW5" s="213" t="s">
+      <c r="AW5" s="212" t="s">
         <v>174</v>
       </c>
     </row>
@@ -55175,7 +55146,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="Q22" s="178">
+      <c r="Q22" s="177">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -56592,55 +56563,55 @@
       </c>
     </row>
     <row r="38" spans="2:37">
-      <c r="C38" s="256">
+      <c r="C38" s="255">
         <f>SUM(C4:C35)</f>
         <v>3994</v>
       </c>
-      <c r="D38" s="256">
+      <c r="D38" s="255">
         <f t="shared" ref="D38:N38" si="9">SUM(D4:D35)</f>
         <v>3867</v>
       </c>
-      <c r="E38" s="256">
+      <c r="E38" s="255">
         <f t="shared" si="9"/>
         <v>4062</v>
       </c>
-      <c r="F38" s="256">
+      <c r="F38" s="255">
         <f t="shared" si="9"/>
         <v>3915</v>
       </c>
-      <c r="G38" s="256">
+      <c r="G38" s="255">
         <f t="shared" si="9"/>
         <v>3653</v>
       </c>
-      <c r="H38" s="256">
+      <c r="H38" s="255">
         <f t="shared" si="9"/>
         <v>4196</v>
       </c>
-      <c r="I38" s="256">
+      <c r="I38" s="255">
         <f t="shared" si="9"/>
         <v>3839</v>
       </c>
-      <c r="J38" s="256">
+      <c r="J38" s="255">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="256">
+      <c r="K38" s="255">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L38" s="256">
+      <c r="L38" s="255">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M38" s="256">
+      <c r="M38" s="255">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N38" s="256">
+      <c r="N38" s="255">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O38" s="209">
+      <c r="O38" s="208">
         <f>SUM(O4:O35)</f>
         <v>27526</v>
       </c>
@@ -56713,42 +56684,42 @@
       </c>
     </row>
     <row r="41" spans="2:37">
-      <c r="D41" s="333" t="s">
+      <c r="D41" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="333"/>
-      <c r="F41" s="333" t="s">
+      <c r="E41" s="334"/>
+      <c r="F41" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="333"/>
-      <c r="H41" s="333" t="s">
+      <c r="G41" s="334"/>
+      <c r="H41" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="333"/>
-      <c r="J41" s="333" t="s">
+      <c r="I41" s="334"/>
+      <c r="J41" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="K41" s="333"/>
-      <c r="L41" s="333" t="s">
+      <c r="K41" s="334"/>
+      <c r="L41" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="M41" s="333"/>
-      <c r="N41" s="333" t="s">
+      <c r="M41" s="334"/>
+      <c r="N41" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="O41" s="333"/>
-      <c r="P41" s="333" t="s">
+      <c r="O41" s="334"/>
+      <c r="P41" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="Q41" s="333"/>
-      <c r="R41" s="333" t="s">
+      <c r="Q41" s="334"/>
+      <c r="R41" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="S41" s="333"/>
-      <c r="T41" s="333" t="s">
+      <c r="S41" s="334"/>
+      <c r="T41" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="U41" s="333"/>
+      <c r="U41" s="334"/>
     </row>
     <row r="42" spans="2:37">
       <c r="B42" s="82" t="s">
@@ -56825,19 +56796,19 @@
       <c r="E43" s="86">
         <v>1</v>
       </c>
-      <c r="F43" s="208">
+      <c r="F43" s="207">
         <v>0.43529411764705883</v>
       </c>
       <c r="G43" s="86">
         <v>1</v>
       </c>
-      <c r="H43" s="208">
+      <c r="H43" s="207">
         <v>0.23270440251572327</v>
       </c>
       <c r="I43" s="86">
         <v>1</v>
       </c>
-      <c r="J43" s="208">
+      <c r="J43" s="207">
         <v>0.23270440251572327</v>
       </c>
       <c r="K43" s="86">
@@ -56857,19 +56828,19 @@
       <c r="E44" s="86">
         <v>1</v>
       </c>
-      <c r="F44" s="208">
+      <c r="F44" s="207">
         <v>0.83783783783783783</v>
       </c>
       <c r="G44" s="86">
         <v>1</v>
       </c>
-      <c r="H44" s="208">
+      <c r="H44" s="207">
         <v>0.83783783783783783</v>
       </c>
       <c r="I44" s="86">
         <v>1</v>
       </c>
-      <c r="J44" s="208">
+      <c r="J44" s="207">
         <v>0.83783783783783783</v>
       </c>
       <c r="K44" s="86">
@@ -56889,19 +56860,19 @@
       <c r="E45" s="86">
         <v>1</v>
       </c>
-      <c r="F45" s="208">
+      <c r="F45" s="207">
         <v>0.34163701067615659</v>
       </c>
       <c r="G45" s="86">
         <v>1</v>
       </c>
-      <c r="H45" s="208">
+      <c r="H45" s="207">
         <v>0.34163701067615659</v>
       </c>
       <c r="I45" s="86">
         <v>1</v>
       </c>
-      <c r="J45" s="208">
+      <c r="J45" s="207">
         <v>0.34163701067615659</v>
       </c>
       <c r="K45" s="86">
@@ -56921,19 +56892,19 @@
       <c r="E46" s="86">
         <v>0.42857142857142855</v>
       </c>
-      <c r="F46" s="208">
+      <c r="F46" s="207">
         <v>0.10422163588390501</v>
       </c>
       <c r="G46" s="86">
         <v>0.42857142857142855</v>
       </c>
-      <c r="H46" s="208">
+      <c r="H46" s="207">
         <v>0.1029143897996357</v>
       </c>
       <c r="I46" s="86">
         <v>0.42857142857142855</v>
       </c>
-      <c r="J46" s="208">
+      <c r="J46" s="207">
         <v>0.1029143897996357</v>
       </c>
       <c r="K46" s="86">
@@ -56953,15 +56924,15 @@
       <c r="E47" s="86">
         <v>0</v>
       </c>
-      <c r="F47" s="208">
+      <c r="F47" s="207">
         <v>0.53551912568306015</v>
       </c>
       <c r="G47" s="86"/>
-      <c r="H47" s="208">
+      <c r="H47" s="207">
         <v>0.53551912568306015</v>
       </c>
       <c r="I47" s="86"/>
-      <c r="J47" s="208">
+      <c r="J47" s="207">
         <v>0.53551912568306015</v>
       </c>
       <c r="K47" s="86"/>
@@ -56975,15 +56946,15 @@
       </c>
       <c r="D48" s="83"/>
       <c r="E48" s="86"/>
-      <c r="F48" s="208"/>
+      <c r="F48" s="207"/>
       <c r="G48" s="86">
         <v>1</v>
       </c>
-      <c r="H48" s="208"/>
+      <c r="H48" s="207"/>
       <c r="I48" s="86">
         <v>1</v>
       </c>
-      <c r="J48" s="208"/>
+      <c r="J48" s="207"/>
       <c r="K48" s="86">
         <v>1</v>
       </c>
@@ -57001,19 +56972,19 @@
       <c r="E49" s="86">
         <v>1</v>
       </c>
-      <c r="F49" s="208">
+      <c r="F49" s="207">
         <v>0.96668581275129239</v>
       </c>
       <c r="G49" s="86">
         <v>1</v>
       </c>
-      <c r="H49" s="208">
+      <c r="H49" s="207">
         <v>0.92381919756221431</v>
       </c>
       <c r="I49" s="86">
         <v>1</v>
       </c>
-      <c r="J49" s="208">
+      <c r="J49" s="207">
         <v>0.92381919756221431</v>
       </c>
       <c r="K49" s="86">
@@ -57033,19 +57004,19 @@
       <c r="E50" s="86">
         <v>0.9953146531924667</v>
       </c>
-      <c r="F50" s="208">
+      <c r="F50" s="207">
         <v>0.84062980030721968</v>
       </c>
       <c r="G50" s="86">
         <v>0.9953146531924667</v>
       </c>
-      <c r="H50" s="208">
+      <c r="H50" s="207">
         <v>0.81437427912341409</v>
       </c>
       <c r="I50" s="86">
         <v>0.98448729184925499</v>
       </c>
-      <c r="J50" s="208">
+      <c r="J50" s="207">
         <v>0.81437427912341409</v>
       </c>
       <c r="K50" s="86">
@@ -57065,19 +57036,19 @@
       <c r="E51" s="86">
         <v>1</v>
       </c>
-      <c r="F51" s="208">
+      <c r="F51" s="207">
         <v>1</v>
       </c>
       <c r="G51" s="86">
         <v>1</v>
       </c>
-      <c r="H51" s="208">
+      <c r="H51" s="207">
         <v>0.99916036943744757</v>
       </c>
       <c r="I51" s="86">
         <v>0.98931623931623935</v>
       </c>
-      <c r="J51" s="208">
+      <c r="J51" s="207">
         <v>0.99916036943744757</v>
       </c>
       <c r="K51" s="86">
@@ -57097,19 +57068,19 @@
       <c r="E52" s="86">
         <v>1</v>
       </c>
-      <c r="F52" s="208">
+      <c r="F52" s="207">
         <v>1</v>
       </c>
       <c r="G52" s="86">
         <v>1</v>
       </c>
-      <c r="H52" s="208">
+      <c r="H52" s="207">
         <v>1</v>
       </c>
       <c r="I52" s="86">
         <v>1</v>
       </c>
-      <c r="J52" s="208">
+      <c r="J52" s="207">
         <v>1</v>
       </c>
       <c r="K52" s="86">
@@ -57129,19 +57100,19 @@
       <c r="E53" s="86">
         <v>1</v>
       </c>
-      <c r="F53" s="208">
+      <c r="F53" s="207">
         <v>1</v>
       </c>
       <c r="G53" s="86">
         <v>1</v>
       </c>
-      <c r="H53" s="208">
+      <c r="H53" s="207">
         <v>1</v>
       </c>
       <c r="I53" s="86">
         <v>1</v>
       </c>
-      <c r="J53" s="208">
+      <c r="J53" s="207">
         <v>1</v>
       </c>
       <c r="K53" s="86">
@@ -57161,19 +57132,19 @@
       <c r="E54" s="86">
         <v>0.95864197530864192</v>
       </c>
-      <c r="F54" s="208">
+      <c r="F54" s="207">
         <v>0.95618221258134495</v>
       </c>
       <c r="G54" s="86">
         <v>0.95864197530864192</v>
       </c>
-      <c r="H54" s="208">
+      <c r="H54" s="207">
         <v>0.95211389128559099</v>
       </c>
       <c r="I54" s="86">
         <v>0.91666666666666663</v>
       </c>
-      <c r="J54" s="208">
+      <c r="J54" s="207">
         <v>0.95211389128559099</v>
       </c>
       <c r="K54" s="86">
@@ -57193,19 +57164,19 @@
       <c r="E55" s="86">
         <v>0.9642857142857143</v>
       </c>
-      <c r="F55" s="208">
+      <c r="F55" s="207">
         <v>0.98999090081892627</v>
       </c>
       <c r="G55" s="86">
         <v>0.9642857142857143</v>
       </c>
-      <c r="H55" s="208">
+      <c r="H55" s="207">
         <v>0.95265306122448978</v>
       </c>
       <c r="I55" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="J55" s="208">
+      <c r="J55" s="207">
         <v>0.95265306122448978</v>
       </c>
       <c r="K55" s="86">
@@ -57225,19 +57196,19 @@
       <c r="E56" s="86">
         <v>1</v>
       </c>
-      <c r="F56" s="208">
+      <c r="F56" s="207">
         <v>0.71311475409836067</v>
       </c>
       <c r="G56" s="86">
         <v>1</v>
       </c>
-      <c r="H56" s="208">
+      <c r="H56" s="207">
         <v>0.71311475409836067</v>
       </c>
       <c r="I56" s="86">
         <v>1</v>
       </c>
-      <c r="J56" s="208">
+      <c r="J56" s="207">
         <v>0.71311475409836067</v>
       </c>
       <c r="K56" s="86">
@@ -57257,19 +57228,19 @@
       <c r="E57" s="86">
         <v>1</v>
       </c>
-      <c r="F57" s="208">
+      <c r="F57" s="207">
         <v>0.8949880668257757</v>
       </c>
       <c r="G57" s="86">
         <v>1</v>
       </c>
-      <c r="H57" s="208">
+      <c r="H57" s="207">
         <v>0.83870967741935487</v>
       </c>
       <c r="I57" s="86">
         <v>0.94</v>
       </c>
-      <c r="J57" s="208">
+      <c r="J57" s="207">
         <v>0.83870967741935487</v>
       </c>
       <c r="K57" s="86">
@@ -57289,19 +57260,19 @@
       <c r="E58" s="86">
         <v>1</v>
       </c>
-      <c r="F58" s="208">
+      <c r="F58" s="207">
         <v>1</v>
       </c>
       <c r="G58" s="86">
         <v>1</v>
       </c>
-      <c r="H58" s="208">
+      <c r="H58" s="207">
         <v>1</v>
       </c>
       <c r="I58" s="86">
         <v>1</v>
       </c>
-      <c r="J58" s="208">
+      <c r="J58" s="207">
         <v>1</v>
       </c>
       <c r="K58" s="86">
@@ -57321,15 +57292,15 @@
       <c r="E59" s="86">
         <v>0</v>
       </c>
-      <c r="F59" s="208">
+      <c r="F59" s="207">
         <v>3.5587188612099642E-3</v>
       </c>
       <c r="G59" s="86"/>
-      <c r="H59" s="208">
+      <c r="H59" s="207">
         <v>3.5587188612099642E-3</v>
       </c>
       <c r="I59" s="86"/>
-      <c r="J59" s="208">
+      <c r="J59" s="207">
         <v>3.5587188612099642E-3</v>
       </c>
       <c r="K59" s="86"/>
@@ -57347,19 +57318,19 @@
       <c r="E60" s="86">
         <v>1</v>
       </c>
-      <c r="F60" s="208">
+      <c r="F60" s="207">
         <v>0.97774244833068358</v>
       </c>
       <c r="G60" s="86">
         <v>1</v>
       </c>
-      <c r="H60" s="208">
+      <c r="H60" s="207">
         <v>0.97275204359673029</v>
       </c>
       <c r="I60" s="86">
         <v>1</v>
       </c>
-      <c r="J60" s="208">
+      <c r="J60" s="207">
         <v>0.97275204359673029</v>
       </c>
       <c r="K60" s="86">
@@ -57379,19 +57350,19 @@
       <c r="E61" s="86">
         <v>0.89393939393939392</v>
       </c>
-      <c r="F61" s="208">
+      <c r="F61" s="207">
         <v>0.58857142857142852</v>
       </c>
       <c r="G61" s="86">
         <v>0.89393939393939392</v>
       </c>
-      <c r="H61" s="208">
+      <c r="H61" s="207">
         <v>0.64380952380952383</v>
       </c>
       <c r="I61" s="86">
         <v>0.84545454545454546</v>
       </c>
-      <c r="J61" s="208">
+      <c r="J61" s="207">
         <v>0.64380952380952383</v>
       </c>
       <c r="K61" s="86">
@@ -57411,15 +57382,15 @@
       <c r="E62" s="38">
         <v>0.96299999999999997</v>
       </c>
-      <c r="F62" s="208"/>
+      <c r="F62" s="207"/>
       <c r="G62" s="86"/>
-      <c r="H62" s="208">
+      <c r="H62" s="207">
         <v>0.76666666666666661</v>
       </c>
       <c r="I62" s="86">
         <v>0.96511627906976749</v>
       </c>
-      <c r="J62" s="208">
+      <c r="J62" s="207">
         <v>0</v>
       </c>
       <c r="K62" s="86">
@@ -57439,19 +57410,19 @@
       <c r="E63" s="86">
         <v>1</v>
       </c>
-      <c r="F63" s="208">
+      <c r="F63" s="207">
         <v>0.92890995260663511</v>
       </c>
       <c r="G63" s="86">
         <v>1</v>
       </c>
-      <c r="H63" s="208">
+      <c r="H63" s="207">
         <v>0.82099343955014059</v>
       </c>
       <c r="I63" s="86">
         <v>1</v>
       </c>
-      <c r="J63" s="208">
+      <c r="J63" s="207">
         <v>0.82099343955014059</v>
       </c>
       <c r="K63" s="86">
@@ -57471,19 +57442,19 @@
       <c r="E64" s="86">
         <v>1</v>
       </c>
-      <c r="F64" s="208">
+      <c r="F64" s="207">
         <v>1</v>
       </c>
       <c r="G64" s="86">
         <v>1</v>
       </c>
-      <c r="H64" s="208">
+      <c r="H64" s="207">
         <v>1</v>
       </c>
       <c r="I64" s="86">
         <v>0.95964432284541723</v>
       </c>
-      <c r="J64" s="208">
+      <c r="J64" s="207">
         <v>1</v>
       </c>
       <c r="K64" s="86">
@@ -57503,19 +57474,19 @@
       <c r="E65" s="86">
         <v>0.84</v>
       </c>
-      <c r="F65" s="208">
+      <c r="F65" s="207">
         <v>0.98919308357348701</v>
       </c>
       <c r="G65" s="86">
         <v>0.84</v>
       </c>
-      <c r="H65" s="208">
+      <c r="H65" s="207">
         <v>0.93508936970837253</v>
       </c>
       <c r="I65" s="86">
         <v>0.86956521739130432</v>
       </c>
-      <c r="J65" s="208">
+      <c r="J65" s="207">
         <v>0.93508936970837253</v>
       </c>
       <c r="K65" s="86">
@@ -57535,19 +57506,19 @@
       <c r="E66" s="86">
         <v>1</v>
       </c>
-      <c r="F66" s="208">
+      <c r="F66" s="207">
         <v>1</v>
       </c>
       <c r="G66" s="86">
         <v>1</v>
       </c>
-      <c r="H66" s="208">
+      <c r="H66" s="207">
         <v>1</v>
       </c>
       <c r="I66" s="86">
         <v>1</v>
       </c>
-      <c r="J66" s="208">
+      <c r="J66" s="207">
         <v>1</v>
       </c>
       <c r="K66" s="86">
@@ -57567,19 +57538,19 @@
       <c r="E67" s="86">
         <v>0.6</v>
       </c>
-      <c r="F67" s="208">
+      <c r="F67" s="207">
         <v>0.2847058823529412</v>
       </c>
       <c r="G67" s="86">
         <v>0.6</v>
       </c>
-      <c r="H67" s="208">
+      <c r="H67" s="207">
         <v>0.2847058823529412</v>
       </c>
       <c r="I67" s="86">
         <v>0.6</v>
       </c>
-      <c r="J67" s="208">
+      <c r="J67" s="207">
         <v>0.2847058823529412</v>
       </c>
       <c r="K67" s="86">
@@ -57599,19 +57570,19 @@
       <c r="E68" s="86">
         <v>1</v>
       </c>
-      <c r="F68" s="208">
+      <c r="F68" s="207">
         <v>0.21100917431192662</v>
       </c>
       <c r="G68" s="86">
         <v>1</v>
       </c>
-      <c r="H68" s="208">
+      <c r="H68" s="207">
         <v>0.15181518151815182</v>
       </c>
       <c r="I68" s="86">
         <v>1</v>
       </c>
-      <c r="J68" s="208">
+      <c r="J68" s="207">
         <v>0.15181518151815182</v>
       </c>
       <c r="K68" s="86">
@@ -57631,19 +57602,19 @@
       <c r="E69" s="86">
         <v>1</v>
       </c>
-      <c r="F69" s="208">
+      <c r="F69" s="207">
         <v>1</v>
       </c>
       <c r="G69" s="86">
         <v>1</v>
       </c>
-      <c r="H69" s="208">
+      <c r="H69" s="207">
         <v>1</v>
       </c>
       <c r="I69" s="86">
         <v>1</v>
       </c>
-      <c r="J69" s="208">
+      <c r="J69" s="207">
         <v>1</v>
       </c>
       <c r="K69" s="86">
@@ -57663,19 +57634,19 @@
       <c r="E70" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="F70" s="208">
+      <c r="F70" s="207">
         <v>1</v>
       </c>
       <c r="G70" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="H70" s="208">
+      <c r="H70" s="207">
         <v>1</v>
       </c>
       <c r="I70" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="J70" s="208">
+      <c r="J70" s="207">
         <v>1</v>
       </c>
       <c r="K70" s="86">
@@ -57695,19 +57666,19 @@
       <c r="E71" s="86">
         <v>0.90604575163398693</v>
       </c>
-      <c r="F71" s="208">
+      <c r="F71" s="207">
         <v>0.90638810767376454</v>
       </c>
       <c r="G71" s="86">
         <v>0.90604575163398693</v>
       </c>
-      <c r="H71" s="208">
+      <c r="H71" s="207">
         <v>0.899129746835443</v>
       </c>
       <c r="I71" s="86">
         <v>0.90604575163398693</v>
       </c>
-      <c r="J71" s="208">
+      <c r="J71" s="207">
         <v>0.899129746835443</v>
       </c>
       <c r="K71" s="86">
@@ -57729,26 +57700,26 @@
         <f>AVERAGE(E46,E61,E68)</f>
         <v>0.77417027417027418</v>
       </c>
-      <c r="F72" s="208">
+      <c r="F72" s="207">
         <f t="shared" ref="F72:I72" si="10">AVERAGE(F46,F61,F68)</f>
         <v>0.30126741292242004</v>
       </c>
-      <c r="G72" s="208">
+      <c r="G72" s="207">
         <f t="shared" si="10"/>
         <v>0.77417027417027418</v>
       </c>
-      <c r="H72" s="208">
+      <c r="H72" s="207">
         <f t="shared" si="10"/>
         <v>0.29951303170910376</v>
       </c>
-      <c r="I72" s="208">
+      <c r="I72" s="207">
         <f t="shared" si="10"/>
         <v>0.75800865800865802</v>
       </c>
-      <c r="J72" s="208">
+      <c r="J72" s="207">
         <v>0.29951303170910376</v>
       </c>
-      <c r="K72" s="208">
+      <c r="K72" s="207">
         <v>0.75800865800865802</v>
       </c>
     </row>
@@ -57855,42 +57826,42 @@
       </c>
     </row>
     <row r="77" spans="2:21">
-      <c r="D77" s="333" t="s">
+      <c r="D77" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="E77" s="333"/>
-      <c r="F77" s="333" t="s">
+      <c r="E77" s="334"/>
+      <c r="F77" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="G77" s="333"/>
-      <c r="H77" s="333" t="s">
+      <c r="G77" s="334"/>
+      <c r="H77" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="333"/>
-      <c r="J77" s="333" t="s">
+      <c r="I77" s="334"/>
+      <c r="J77" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="333"/>
-      <c r="L77" s="333" t="s">
+      <c r="K77" s="334"/>
+      <c r="L77" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="333"/>
-      <c r="N77" s="333" t="s">
+      <c r="M77" s="334"/>
+      <c r="N77" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="333"/>
-      <c r="P77" s="333" t="s">
+      <c r="O77" s="334"/>
+      <c r="P77" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="333"/>
-      <c r="R77" s="333" t="s">
+      <c r="Q77" s="334"/>
+      <c r="R77" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="S77" s="333"/>
-      <c r="T77" s="333" t="s">
+      <c r="S77" s="334"/>
+      <c r="T77" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="U77" s="333"/>
+      <c r="U77" s="334"/>
     </row>
     <row r="78" spans="2:21">
       <c r="C78" s="87" t="s">
@@ -58510,49 +58481,49 @@
       </c>
     </row>
     <row r="97" spans="3:28">
-      <c r="D97" s="333" t="s">
+      <c r="D97" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="333"/>
-      <c r="F97" s="333" t="s">
+      <c r="E97" s="334"/>
+      <c r="F97" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="333"/>
-      <c r="H97" s="333" t="s">
+      <c r="G97" s="334"/>
+      <c r="H97" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="I97" s="333"/>
-      <c r="J97" s="333" t="s">
+      <c r="I97" s="334"/>
+      <c r="J97" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="K97" s="333"/>
-      <c r="L97" s="333" t="s">
+      <c r="K97" s="334"/>
+      <c r="L97" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="M97" s="333"/>
-      <c r="N97" s="333" t="s">
+      <c r="M97" s="334"/>
+      <c r="N97" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="O97" s="333"/>
-      <c r="P97" s="333" t="s">
+      <c r="O97" s="334"/>
+      <c r="P97" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="Q97" s="333"/>
-      <c r="R97" s="333" t="s">
+      <c r="Q97" s="334"/>
+      <c r="R97" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="333"/>
-      <c r="T97" s="333" t="s">
+      <c r="S97" s="334"/>
+      <c r="T97" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="U97" s="333"/>
-      <c r="Z97" s="334" t="s">
+      <c r="U97" s="334"/>
+      <c r="Z97" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="AA97" s="336" t="s">
+      <c r="AA97" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="AB97" s="336" t="s">
+      <c r="AB97" s="337" t="s">
         <v>227</v>
       </c>
     </row>
@@ -58614,36 +58585,36 @@
       <c r="U98" s="9">
         <v>19</v>
       </c>
-      <c r="Z98" s="335"/>
-      <c r="AA98" s="337"/>
-      <c r="AB98" s="337"/>
+      <c r="Z98" s="336"/>
+      <c r="AA98" s="338"/>
+      <c r="AB98" s="338"/>
     </row>
     <row r="99" spans="3:28">
-      <c r="C99" s="334" t="s">
+      <c r="C99" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="336" t="s">
+      <c r="D99" s="337" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="336" t="s">
+      <c r="E99" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="F99" s="334" t="s">
+      <c r="F99" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="G99" s="336" t="s">
+      <c r="G99" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="H99" s="334" t="s">
+      <c r="H99" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="I99" s="336" t="s">
+      <c r="I99" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="J99" s="334" t="s">
+      <c r="J99" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="K99" s="336" t="s">
+      <c r="K99" s="337" t="s">
         <v>231</v>
       </c>
       <c r="Z99" s="5" t="s">
@@ -58657,15 +58628,15 @@
       </c>
     </row>
     <row r="100" spans="3:28">
-      <c r="C100" s="335"/>
-      <c r="D100" s="337"/>
-      <c r="E100" s="337"/>
-      <c r="F100" s="335"/>
-      <c r="G100" s="337"/>
-      <c r="H100" s="335"/>
-      <c r="I100" s="337"/>
-      <c r="J100" s="335"/>
-      <c r="K100" s="337"/>
+      <c r="C100" s="336"/>
+      <c r="D100" s="338"/>
+      <c r="E100" s="338"/>
+      <c r="F100" s="336"/>
+      <c r="G100" s="338"/>
+      <c r="H100" s="336"/>
+      <c r="I100" s="338"/>
+      <c r="J100" s="336"/>
+      <c r="K100" s="338"/>
       <c r="Z100" s="6" t="s">
         <v>103</v>
       </c>
@@ -59720,15 +59691,15 @@
       <c r="Z130" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AA130" s="233">
+      <c r="AA130" s="232">
         <f>AA104+AA106+AA107+AA108+AA109+AA110+AA112+AA113+AA116</f>
         <v>7094</v>
       </c>
-      <c r="AB130" s="233">
+      <c r="AB130" s="232">
         <f>AB104+AB106+AB107+AB108+AB109+AB110+AB112+AB113+AB116</f>
         <v>7337</v>
       </c>
-      <c r="AC130" s="234">
+      <c r="AC130" s="233">
         <f>AA130/AB130</f>
         <v>0.96688019626550359</v>
       </c>
@@ -59741,21 +59712,21 @@
         <f>D106+D108+D109+D110+D111+D112+D114+D115+D118</f>
         <v>108093</v>
       </c>
-      <c r="E131" s="186">
+      <c r="E131" s="185">
         <v>0.98193900153348102</v>
       </c>
       <c r="F131" s="7">
         <f>F106+F108+F109+F110+F111+F112+F114+F115+F118</f>
         <v>126970</v>
       </c>
-      <c r="G131" s="235">
+      <c r="G131" s="234">
         <v>0.96688019626550359</v>
       </c>
       <c r="H131" s="7">
         <f>H106+H108+H109+H110+H111+H112+H114+H115+H118</f>
         <v>155745</v>
       </c>
-      <c r="I131" s="235">
+      <c r="I131" s="234">
         <v>0.80558709970474673</v>
       </c>
       <c r="J131" s="7">
@@ -59765,15 +59736,15 @@
       <c r="Z131" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AA131" s="233">
+      <c r="AA131" s="232">
         <f>AA115+AA114+AA111+AA105</f>
         <v>4341</v>
       </c>
-      <c r="AB131" s="233">
+      <c r="AB131" s="232">
         <f>AB115+AB114+AB111+AB105</f>
         <v>2048</v>
       </c>
-      <c r="AC131" s="234">
+      <c r="AC131" s="233">
         <f>AA131/AB131</f>
         <v>2.11962890625</v>
       </c>
@@ -59786,21 +59757,21 @@
         <f>D107+D116+D117+D113</f>
         <v>32428</v>
       </c>
-      <c r="E132" s="186">
+      <c r="E132" s="185">
         <v>2.1794871794871793</v>
       </c>
       <c r="F132" s="7">
         <f>F107+F116+F117+F113</f>
         <v>32719</v>
       </c>
-      <c r="G132" s="235">
+      <c r="G132" s="234">
         <v>2.11962890625</v>
       </c>
       <c r="H132" s="7">
         <f>H107+H116+H117+H113</f>
         <v>34025</v>
       </c>
-      <c r="I132" s="235">
+      <c r="I132" s="234">
         <v>1.7667887667887667</v>
       </c>
       <c r="J132" s="7">
@@ -59814,54 +59785,54 @@
       </c>
     </row>
     <row r="135" spans="2:29">
-      <c r="D135" s="333" t="s">
+      <c r="D135" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="333"/>
-      <c r="F135" s="333" t="s">
+      <c r="E135" s="334"/>
+      <c r="F135" s="334" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="333"/>
-      <c r="H135" s="333" t="s">
+      <c r="G135" s="334"/>
+      <c r="H135" s="334" t="s">
         <v>130</v>
       </c>
-      <c r="I135" s="333"/>
-      <c r="J135" s="333" t="s">
+      <c r="I135" s="334"/>
+      <c r="J135" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="K135" s="333"/>
-      <c r="L135" s="333" t="s">
+      <c r="K135" s="334"/>
+      <c r="L135" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="M135" s="333"/>
-      <c r="N135" s="333" t="s">
+      <c r="M135" s="334"/>
+      <c r="N135" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="O135" s="333"/>
-      <c r="P135" s="333" t="s">
+      <c r="O135" s="334"/>
+      <c r="P135" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="Q135" s="333"/>
-      <c r="R135" s="333" t="s">
+      <c r="Q135" s="334"/>
+      <c r="R135" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="S135" s="333"/>
-      <c r="T135" s="333" t="s">
+      <c r="S135" s="334"/>
+      <c r="T135" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="U135" s="333"/>
-      <c r="V135" s="333" t="s">
+      <c r="U135" s="334"/>
+      <c r="V135" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="W135" s="333"/>
-      <c r="X135" s="333" t="s">
+      <c r="W135" s="334"/>
+      <c r="X135" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="Y135" s="333"/>
-      <c r="Z135" s="333" t="s">
+      <c r="Y135" s="334"/>
+      <c r="Z135" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="AA135" s="333"/>
+      <c r="AA135" s="334"/>
     </row>
     <row r="136" spans="2:29" ht="15.75" thickBot="1">
       <c r="C136" s="9">
@@ -59941,37 +59912,37 @@
       </c>
     </row>
     <row r="137" spans="2:29">
-      <c r="D137" s="200" t="s">
+      <c r="D137" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="E137" s="201" t="s">
+      <c r="E137" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="F137" s="200" t="s">
+      <c r="F137" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="201" t="s">
+      <c r="G137" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="200" t="s">
+      <c r="H137" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="201" t="s">
+      <c r="I137" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="J137" s="200" t="s">
+      <c r="J137" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="K137" s="201" t="s">
+      <c r="K137" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="L137" s="200" t="s">
+      <c r="L137" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="M137" s="201" t="s">
+      <c r="M137" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="N137" s="198" t="s">
+      <c r="N137" s="197" t="s">
         <v>1</v>
       </c>
       <c r="O137" s="82" t="s">
@@ -60015,40 +59986,40 @@
       </c>
     </row>
     <row r="138" spans="2:29">
-      <c r="C138" s="196" t="s">
+      <c r="C138" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="D138" s="202">
+      <c r="D138" s="201">
         <v>0.22648736756316221</v>
       </c>
-      <c r="E138" s="203">
+      <c r="E138" s="202">
         <v>0.24889975550122248</v>
       </c>
-      <c r="F138" s="202">
+      <c r="F138" s="201">
         <v>0.25590872045639773</v>
       </c>
-      <c r="G138" s="203">
+      <c r="G138" s="202">
         <v>0.3310513447432763</v>
       </c>
-      <c r="H138" s="202">
+      <c r="H138" s="201">
         <v>0.28533007334963323</v>
       </c>
-      <c r="I138" s="203">
+      <c r="I138" s="202">
         <v>0.44254278728606355</v>
       </c>
-      <c r="J138" s="202">
+      <c r="J138" s="201">
         <v>0.31475142624286878</v>
       </c>
-      <c r="K138" s="203">
+      <c r="K138" s="202">
         <v>0.58826405867970655</v>
       </c>
-      <c r="L138" s="202">
+      <c r="L138" s="201">
         <v>0.34417277913610428</v>
       </c>
       <c r="M138" s="102">
         <v>0.62640586797066011</v>
       </c>
-      <c r="N138" s="199">
+      <c r="N138" s="198">
         <v>0.37359413202933978</v>
       </c>
       <c r="O138" s="102">
@@ -60083,40 +60054,40 @@
       <c r="AA138" s="78"/>
     </row>
     <row r="139" spans="2:29">
-      <c r="C139" s="197" t="s">
+      <c r="C139" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="D139" s="202">
+      <c r="D139" s="201">
         <v>0.26809076562818163</v>
       </c>
       <c r="E139" s="102">
         <v>0.28313989004276113</v>
       </c>
-      <c r="F139" s="202">
+      <c r="F139" s="201">
         <v>0.29488647933211154</v>
       </c>
       <c r="G139" s="102">
         <v>0.33200977397678683</v>
       </c>
-      <c r="H139" s="202">
+      <c r="H139" s="201">
         <v>0.32168219303604156</v>
       </c>
       <c r="I139" s="102">
         <v>0.38790470372632863</v>
       </c>
-      <c r="J139" s="202">
+      <c r="J139" s="201">
         <v>0.34847790673997153</v>
       </c>
       <c r="K139" s="102">
         <v>0.4621258399511301</v>
       </c>
-      <c r="L139" s="202">
+      <c r="L139" s="201">
         <v>0.3752736204439015</v>
       </c>
       <c r="M139" s="102">
         <v>0.51374465485644472</v>
       </c>
-      <c r="N139" s="199">
+      <c r="N139" s="198">
         <v>0.40206933414783147</v>
       </c>
       <c r="O139" s="102">
@@ -60151,40 +60122,40 @@
       <c r="AA139" s="78"/>
     </row>
     <row r="140" spans="2:29">
-      <c r="C140" s="197" t="s">
+      <c r="C140" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="D140" s="202">
+      <c r="D140" s="201">
         <v>0.33315787212100378</v>
       </c>
       <c r="E140" s="102">
         <v>0.33396356136129252</v>
       </c>
-      <c r="F140" s="202">
+      <c r="F140" s="201">
         <v>0.34386816775524237</v>
       </c>
       <c r="G140" s="102">
         <v>0.36232382261945684</v>
       </c>
-      <c r="H140" s="202">
+      <c r="H140" s="201">
         <v>0.3545784633894809</v>
       </c>
       <c r="I140" s="102">
         <v>0.38037126160192508</v>
       </c>
-      <c r="J140" s="202">
+      <c r="J140" s="201">
         <v>0.36528875902371949</v>
       </c>
       <c r="K140" s="102">
         <v>0.39412169130285324</v>
       </c>
-      <c r="L140" s="202">
+      <c r="L140" s="201">
         <v>0.37599905465795808</v>
       </c>
       <c r="M140" s="102">
         <v>0.40168442763836371</v>
       </c>
-      <c r="N140" s="199">
+      <c r="N140" s="198">
         <v>0.38670935029219661</v>
       </c>
       <c r="O140" s="102">
@@ -60219,40 +60190,40 @@
       <c r="AA140" s="78"/>
     </row>
     <row r="141" spans="2:29">
-      <c r="C141" s="197" t="s">
+      <c r="C141" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="D141" s="202">
+      <c r="D141" s="201">
         <v>0.45315311235887212</v>
       </c>
       <c r="E141" s="102">
         <v>0.44412244158666908</v>
       </c>
-      <c r="F141" s="202">
+      <c r="F141" s="201">
         <v>0.47450039244098285</v>
       </c>
       <c r="G141" s="102">
         <v>0.48215902916138381</v>
       </c>
-      <c r="H141" s="202">
+      <c r="H141" s="201">
         <v>0.49584767252309353</v>
       </c>
       <c r="I141" s="102">
         <v>0.52590110487230579</v>
       </c>
-      <c r="J141" s="202">
+      <c r="J141" s="201">
         <v>0.51719495260520421</v>
       </c>
       <c r="K141" s="102">
         <v>0.55243615287085668</v>
       </c>
-      <c r="L141" s="202">
+      <c r="L141" s="201">
         <v>0.53854223268731494</v>
       </c>
       <c r="M141" s="102">
         <v>0.58911429088933165</v>
       </c>
-      <c r="N141" s="199">
+      <c r="N141" s="198">
         <v>0.55988951276942556</v>
       </c>
       <c r="O141" s="102">
@@ -60287,40 +60258,40 @@
       <c r="AA141" s="78"/>
     </row>
     <row r="142" spans="2:29">
-      <c r="C142" s="197" t="s">
+      <c r="C142" s="196" t="s">
         <v>89</v>
       </c>
-      <c r="D142" s="202">
+      <c r="D142" s="201">
         <v>0.31794261076419866</v>
       </c>
       <c r="E142" s="102">
         <v>0.30936663693131133</v>
       </c>
-      <c r="F142" s="202">
+      <c r="F142" s="201">
         <v>0.33419030627416002</v>
       </c>
       <c r="G142" s="102">
         <v>0.32132024977698481</v>
       </c>
-      <c r="H142" s="202">
+      <c r="H142" s="201">
         <v>0.35043800178412132</v>
       </c>
       <c r="I142" s="102">
         <v>0.33737734165923283</v>
       </c>
-      <c r="J142" s="202">
+      <c r="J142" s="201">
         <v>0.36668569729408268</v>
       </c>
       <c r="K142" s="102">
         <v>0.35093666369313115</v>
       </c>
-      <c r="L142" s="202">
+      <c r="L142" s="201">
         <v>0.38293339280404404</v>
       </c>
       <c r="M142" s="102">
         <v>0.37859054415700266</v>
       </c>
-      <c r="N142" s="199">
+      <c r="N142" s="198">
         <v>0.39918108831400534</v>
       </c>
       <c r="O142" s="102">
@@ -60355,40 +60326,40 @@
       <c r="AA142" s="78"/>
     </row>
     <row r="143" spans="2:29">
-      <c r="C143" s="197" t="s">
+      <c r="C143" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="202">
+      <c r="D143" s="201">
         <v>0.44451454609183316</v>
       </c>
       <c r="E143" s="102">
         <v>0.4647739221871714</v>
       </c>
-      <c r="F143" s="202">
+      <c r="F143" s="201">
         <v>0.46421310900806173</v>
       </c>
       <c r="G143" s="102">
         <v>0.52050473186119872</v>
       </c>
-      <c r="H143" s="202">
+      <c r="H143" s="201">
         <v>0.48391167192429024</v>
       </c>
       <c r="I143" s="102">
         <v>0.59516298633017872</v>
       </c>
-      <c r="J143" s="202">
+      <c r="J143" s="201">
         <v>0.50361023484051881</v>
       </c>
       <c r="K143" s="102">
         <v>0.65825446898002105</v>
       </c>
-      <c r="L143" s="202">
+      <c r="L143" s="201">
         <v>0.52330879775674732</v>
       </c>
       <c r="M143" s="102">
         <v>0.68874868559411151</v>
       </c>
-      <c r="N143" s="199">
+      <c r="N143" s="198">
         <v>0.54300736067297595</v>
       </c>
       <c r="O143" s="102">
@@ -60423,40 +60394,40 @@
       <c r="AA143" s="78"/>
     </row>
     <row r="144" spans="2:29">
-      <c r="C144" s="197" t="s">
+      <c r="C144" s="196" t="s">
         <v>103</v>
       </c>
-      <c r="D144" s="202">
+      <c r="D144" s="201">
         <v>0.49053069272976679</v>
       </c>
       <c r="E144" s="102">
         <v>0.48456790123456789</v>
       </c>
-      <c r="F144" s="202">
+      <c r="F144" s="201">
         <v>0.50781035665294927</v>
       </c>
       <c r="G144" s="102">
         <v>0.49382716049382713</v>
       </c>
-      <c r="H144" s="202">
+      <c r="H144" s="201">
         <v>0.52509002057613174</v>
       </c>
       <c r="I144" s="102">
         <v>0.50102880658436211</v>
       </c>
-      <c r="J144" s="202">
+      <c r="J144" s="201">
         <v>0.54236968449931422</v>
       </c>
       <c r="K144" s="102">
         <v>0.50514403292181065</v>
       </c>
-      <c r="L144" s="202">
+      <c r="L144" s="201">
         <v>0.5596493484224967</v>
       </c>
       <c r="M144" s="102">
         <v>0.52057613168724282</v>
       </c>
-      <c r="N144" s="199">
+      <c r="N144" s="198">
         <v>0.57692901234567906</v>
       </c>
       <c r="O144" s="102">
@@ -60491,40 +60462,40 @@
       <c r="AA144" s="78"/>
     </row>
     <row r="145" spans="3:27">
-      <c r="C145" s="197" t="s">
+      <c r="C145" s="196" t="s">
         <v>102</v>
       </c>
-      <c r="D145" s="202">
+      <c r="D145" s="201">
         <v>0.51041055718475081</v>
       </c>
       <c r="E145" s="102">
         <v>0.49266862170087977</v>
       </c>
-      <c r="F145" s="202">
+      <c r="F145" s="201">
         <v>0.53108504398826983</v>
       </c>
       <c r="G145" s="102">
         <v>0.52785923753665687</v>
       </c>
-      <c r="H145" s="202">
+      <c r="H145" s="201">
         <v>0.55175953079178897</v>
       </c>
       <c r="I145" s="102">
         <v>0.59677419354838712</v>
       </c>
-      <c r="J145" s="202">
+      <c r="J145" s="201">
         <v>0.5724340175953081</v>
       </c>
       <c r="K145" s="102">
         <v>0.63636363636363635</v>
       </c>
-      <c r="L145" s="202">
+      <c r="L145" s="201">
         <v>0.59310850439882712</v>
       </c>
       <c r="M145" s="102">
         <v>0.67155425219941345</v>
       </c>
-      <c r="N145" s="199">
+      <c r="N145" s="198">
         <v>0.61378299120234625</v>
       </c>
       <c r="O145" s="102">
@@ -60559,40 +60530,40 @@
       <c r="AA145" s="78"/>
     </row>
     <row r="146" spans="3:27">
-      <c r="C146" s="197" t="s">
+      <c r="C146" s="196" t="s">
         <v>98</v>
       </c>
-      <c r="D146" s="202">
+      <c r="D146" s="201">
         <v>0.46150990099009898</v>
       </c>
       <c r="E146" s="102">
         <v>0.43564356435643564</v>
       </c>
-      <c r="F146" s="202">
+      <c r="F146" s="201">
         <v>0.48737623762376231</v>
       </c>
       <c r="G146" s="102">
         <v>0.44554455445544555</v>
       </c>
-      <c r="H146" s="202">
+      <c r="H146" s="201">
         <v>0.5132425742574257</v>
       </c>
       <c r="I146" s="102">
         <v>0.44554455445544555</v>
       </c>
-      <c r="J146" s="202">
+      <c r="J146" s="201">
         <v>0.53910891089108903</v>
       </c>
       <c r="K146" s="102">
         <v>0.46534653465346537</v>
       </c>
-      <c r="L146" s="202">
+      <c r="L146" s="201">
         <v>0.56497524752475237</v>
       </c>
       <c r="M146" s="102">
         <v>0.48019801980198018</v>
       </c>
-      <c r="N146" s="199">
+      <c r="N146" s="198">
         <v>0.5908415841584157</v>
       </c>
       <c r="O146" s="102">
@@ -60627,40 +60598,40 @@
       <c r="AA146" s="78"/>
     </row>
     <row r="147" spans="3:27">
-      <c r="C147" s="197" t="s">
+      <c r="C147" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="D147" s="202">
+      <c r="D147" s="201">
         <v>0.38059868875086261</v>
       </c>
       <c r="E147" s="102">
         <v>0.36853002070393376</v>
       </c>
-      <c r="F147" s="202">
+      <c r="F147" s="201">
         <v>0.40716011042097994</v>
       </c>
       <c r="G147" s="102">
         <v>0.41614906832298137</v>
       </c>
-      <c r="H147" s="202">
+      <c r="H147" s="201">
         <v>0.43372153209109721</v>
       </c>
       <c r="I147" s="102">
         <v>0.453416149068323</v>
       </c>
-      <c r="J147" s="202">
+      <c r="J147" s="201">
         <v>0.46028295376121453</v>
       </c>
       <c r="K147" s="102">
         <v>0.48447204968944102</v>
       </c>
-      <c r="L147" s="202">
+      <c r="L147" s="201">
         <v>0.4868443754313318</v>
       </c>
       <c r="M147" s="102">
         <v>0.51345755693581785</v>
       </c>
-      <c r="N147" s="199">
+      <c r="N147" s="198">
         <v>0.51340579710144907</v>
       </c>
       <c r="O147" s="102">
@@ -60695,40 +60666,40 @@
       <c r="AA147" s="78"/>
     </row>
     <row r="148" spans="3:27">
-      <c r="C148" s="197" t="s">
+      <c r="C148" s="196" t="s">
         <v>100</v>
       </c>
-      <c r="D148" s="202">
+      <c r="D148" s="201">
         <v>0.24253921568627451</v>
       </c>
       <c r="E148" s="102">
         <v>0.21411764705882352</v>
       </c>
-      <c r="F148" s="202">
+      <c r="F148" s="201">
         <v>0.28507843137254901</v>
       </c>
       <c r="G148" s="102">
         <v>0.22823529411764706</v>
       </c>
-      <c r="H148" s="202">
+      <c r="H148" s="201">
         <v>0.32761764705882357</v>
       </c>
       <c r="I148" s="102">
         <v>0.25176470588235295</v>
       </c>
-      <c r="J148" s="202">
+      <c r="J148" s="201">
         <v>0.37015686274509807</v>
       </c>
       <c r="K148" s="102">
         <v>0.32705882352941179</v>
       </c>
-      <c r="L148" s="202">
+      <c r="L148" s="201">
         <v>0.41269607843137263</v>
       </c>
       <c r="M148" s="102">
         <v>0.44941176470588234</v>
       </c>
-      <c r="N148" s="199">
+      <c r="N148" s="198">
         <v>0.45523529411764718</v>
       </c>
       <c r="O148" s="102">
@@ -60763,40 +60734,40 @@
       <c r="AA148" s="78"/>
     </row>
     <row r="149" spans="3:27">
-      <c r="C149" s="197" t="s">
+      <c r="C149" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="D149" s="202">
+      <c r="D149" s="201">
         <v>0.60121026011560696</v>
       </c>
       <c r="E149" s="102">
         <v>0.59826589595375723</v>
       </c>
-      <c r="F149" s="202">
+      <c r="F149" s="201">
         <v>0.61427023121387292</v>
       </c>
       <c r="G149" s="102">
         <v>0.60838150289017345</v>
       </c>
-      <c r="H149" s="202">
+      <c r="H149" s="201">
         <v>0.62733020231213887</v>
       </c>
       <c r="I149" s="102">
         <v>0.63294797687861271</v>
       </c>
-      <c r="J149" s="202">
+      <c r="J149" s="201">
         <v>0.64039017341040472</v>
       </c>
       <c r="K149" s="102">
         <v>0.66763005780346818</v>
       </c>
-      <c r="L149" s="202">
+      <c r="L149" s="201">
         <v>0.65345014450867067</v>
       </c>
       <c r="M149" s="102">
         <v>0.68786127167630062</v>
       </c>
-      <c r="N149" s="199">
+      <c r="N149" s="198">
         <v>0.66651011560693663</v>
       </c>
       <c r="O149" s="102">
@@ -60831,40 +60802,40 @@
       <c r="AA149" s="78"/>
     </row>
     <row r="150" spans="3:27">
-      <c r="C150" s="197" t="s">
+      <c r="C150" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="D150" s="202">
+      <c r="D150" s="201">
         <v>0.38766375545851534</v>
       </c>
       <c r="E150" s="102">
         <v>0.38646288209606988</v>
       </c>
-      <c r="F150" s="202">
+      <c r="F150" s="201">
         <v>0.40851528384279479</v>
       </c>
       <c r="G150" s="102">
         <v>0.40393013100436681</v>
       </c>
-      <c r="H150" s="202">
+      <c r="H150" s="201">
         <v>0.42936681222707429</v>
       </c>
       <c r="I150" s="102">
         <v>0.41703056768558949</v>
       </c>
-      <c r="J150" s="202">
+      <c r="J150" s="201">
         <v>0.4502183406113538</v>
       </c>
       <c r="K150" s="102">
         <v>0.43013100436681223</v>
       </c>
-      <c r="L150" s="202">
+      <c r="L150" s="201">
         <v>0.4710698689956333</v>
       </c>
       <c r="M150" s="102">
         <v>0.45633187772925765</v>
       </c>
-      <c r="N150" s="199">
+      <c r="N150" s="198">
         <v>0.49192139737991281</v>
       </c>
       <c r="O150" s="102">
@@ -60899,40 +60870,40 @@
       <c r="AA150" s="78"/>
     </row>
     <row r="151" spans="3:27">
-      <c r="C151" s="197" t="s">
+      <c r="C151" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="202">
+      <c r="D151" s="201">
         <v>0.11193633952254643</v>
       </c>
       <c r="E151" s="102">
         <v>0.11671087533156499</v>
       </c>
-      <c r="F151" s="202">
+      <c r="F151" s="201">
         <v>0.14960212201591513</v>
       </c>
       <c r="G151" s="102">
         <v>0.17771883289124668</v>
       </c>
-      <c r="H151" s="202">
+      <c r="H151" s="201">
         <v>0.18726790450928385</v>
       </c>
       <c r="I151" s="102">
         <v>0.21750663129973474</v>
       </c>
-      <c r="J151" s="202">
+      <c r="J151" s="201">
         <v>0.22493368700265254</v>
       </c>
       <c r="K151" s="102">
         <v>0.27055702917771884</v>
       </c>
-      <c r="L151" s="202">
+      <c r="L151" s="201">
         <v>0.26259946949602125</v>
       </c>
       <c r="M151" s="102">
         <v>0.28912466843501328</v>
       </c>
-      <c r="N151" s="199">
+      <c r="N151" s="198">
         <v>0.30026525198938997</v>
       </c>
       <c r="O151" s="102">
@@ -60967,40 +60938,40 @@
       <c r="AA151" s="78"/>
     </row>
     <row r="152" spans="3:27">
-      <c r="C152" s="197" t="s">
+      <c r="C152" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="202">
+      <c r="D152" s="201">
         <v>5.5670426065162905E-2</v>
       </c>
       <c r="E152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="F152" s="202">
+      <c r="F152" s="201">
         <v>0.10382205513784461</v>
       </c>
       <c r="G152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="H152" s="202">
+      <c r="H152" s="201">
         <v>0.15197368421052634</v>
       </c>
       <c r="I152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="J152" s="202">
+      <c r="J152" s="201">
         <v>0.20012531328320801</v>
       </c>
       <c r="K152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="L152" s="202">
+      <c r="L152" s="201">
         <v>0.24827694235588973</v>
       </c>
       <c r="M152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="N152" s="199">
+      <c r="N152" s="198">
         <v>0.29642857142857149</v>
       </c>
       <c r="O152" s="102">
@@ -61032,20 +61003,20 @@
       <c r="AA152" s="78"/>
     </row>
     <row r="153" spans="3:27">
-      <c r="C153" s="197" t="s">
+      <c r="C153" s="196" t="s">
         <v>189</v>
       </c>
-      <c r="D153" s="202"/>
+      <c r="D153" s="201"/>
       <c r="E153" s="102"/>
-      <c r="F153" s="202"/>
+      <c r="F153" s="201"/>
       <c r="G153" s="102"/>
-      <c r="H153" s="202"/>
+      <c r="H153" s="201"/>
       <c r="I153" s="102"/>
-      <c r="J153" s="202"/>
+      <c r="J153" s="201"/>
       <c r="K153" s="102"/>
-      <c r="L153" s="202"/>
+      <c r="L153" s="201"/>
       <c r="M153" s="102"/>
-      <c r="N153" s="199"/>
+      <c r="N153" s="198"/>
       <c r="O153" s="78"/>
       <c r="P153" s="89"/>
       <c r="Q153" s="78"/>
@@ -61061,40 +61032,40 @@
       <c r="AA153" s="78"/>
     </row>
     <row r="154" spans="3:27" ht="15.75" thickBot="1">
-      <c r="C154" s="197" t="s">
+      <c r="C154" s="196" t="s">
         <v>106</v>
       </c>
-      <c r="D154" s="204">
+      <c r="D154" s="203">
         <v>0.28428908934707903</v>
       </c>
       <c r="E154" s="105">
         <v>0.26804123711340205</v>
       </c>
-      <c r="F154" s="204">
+      <c r="F154" s="203">
         <v>0.31600085910652925</v>
       </c>
       <c r="G154" s="105">
         <v>0.30670103092783507</v>
       </c>
-      <c r="H154" s="204">
+      <c r="H154" s="203">
         <v>0.34771262886597942</v>
       </c>
       <c r="I154" s="105">
         <v>0.32989690721649484</v>
       </c>
-      <c r="J154" s="204">
+      <c r="J154" s="203">
         <v>0.37942439862542965</v>
       </c>
       <c r="K154" s="105">
         <v>0.32989690721649484</v>
       </c>
-      <c r="L154" s="204">
+      <c r="L154" s="203">
         <v>0.41113616838487976</v>
       </c>
       <c r="M154" s="105">
         <v>0.32989690721649484</v>
       </c>
-      <c r="N154" s="199">
+      <c r="N154" s="198">
         <v>0.44284793814432999</v>
       </c>
       <c r="O154" s="102">
@@ -61133,23 +61104,23 @@
     <row r="156" spans="3:27">
       <c r="C156"/>
       <c r="H156"/>
-      <c r="M156" s="232">
+      <c r="M156" s="231">
         <f>M151/L151</f>
         <v>1.101010101010101</v>
       </c>
     </row>
     <row r="157" spans="3:27">
       <c r="C157"/>
-      <c r="K157" s="187"/>
-      <c r="M157" s="232">
+      <c r="K157" s="186"/>
+      <c r="M157" s="231">
         <f>M152/L152</f>
         <v>3.0283911671924287E-2</v>
       </c>
-      <c r="O157" s="232">
+      <c r="O157" s="231">
         <f>O151/Z151</f>
         <v>0.56451612903225812</v>
       </c>
-      <c r="Q157" s="187">
+      <c r="Q157" s="186">
         <f>Q149/P149</f>
         <v>1.0887536216474836</v>
       </c>
@@ -61157,8 +61128,8 @@
     <row r="158" spans="3:27">
       <c r="C158"/>
       <c r="H158"/>
-      <c r="K158" s="187"/>
-      <c r="O158" s="232">
+      <c r="K158" s="186"/>
+      <c r="O158" s="231">
         <f>O152/Z152</f>
         <v>1.2845215157353884E-2</v>
       </c>
@@ -61404,6 +61375,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC823D81-D913-4C46-9160-BA94E154DA55}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="B1:AJ78"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -61490,22 +61462,22 @@
       </c>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="334" t="s">
+      <c r="C3" s="335" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="334" t="s">
+      <c r="D3" s="335" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="336" t="s">
+      <c r="E3" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="336" t="s">
+      <c r="F3" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="336" t="s">
+      <c r="G3" s="337" t="s">
         <v>227</v>
       </c>
       <c r="I3">
@@ -61540,12 +61512,12 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="105">
-      <c r="B4" s="335"/>
-      <c r="C4" s="335"/>
-      <c r="D4" s="335"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
+      <c r="B4" s="336"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
       <c r="I4" t="s">
         <v>127</v>
       </c>
@@ -63319,6 +63291,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E316803E-283F-45C4-AB10-B0C6FF36EAD1}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:V91"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A65" zoomScale="102" workbookViewId="0">
@@ -63428,11 +63401,11 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="18.75">
-      <c r="B6" s="347" t="s">
+      <c r="B6" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="348"/>
-      <c r="D6" s="349"/>
+      <c r="C6" s="349"/>
+      <c r="D6" s="350"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -63624,11 +63597,11 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="18.75">
-      <c r="B21" s="347" t="s">
+      <c r="B21" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="348"/>
-      <c r="D21" s="349"/>
+      <c r="C21" s="349"/>
+      <c r="D21" s="350"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="106" t="s">
@@ -63770,11 +63743,11 @@
       </c>
     </row>
     <row r="35" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B35" s="347" t="s">
+      <c r="B35" s="348" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="348"/>
-      <c r="D35" s="349"/>
+      <c r="C35" s="349"/>
+      <c r="D35" s="350"/>
       <c r="R35" s="109" t="s">
         <v>132</v>
       </c>
@@ -63949,20 +63922,20 @@
     </row>
     <row r="51" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:21" ht="18.75">
-      <c r="B52" s="350" t="s">
+      <c r="B52" s="351" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="351"/>
-      <c r="D52" s="351"/>
-      <c r="E52" s="352"/>
-      <c r="R52" s="188">
+      <c r="C52" s="352"/>
+      <c r="D52" s="352"/>
+      <c r="E52" s="353"/>
+      <c r="R52" s="187">
         <v>0.9</v>
       </c>
       <c r="S52" s="90">
         <f>VLOOKUP(B2,Data!C3:BE22,Data!Q2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="T52" s="173">
+      <c r="T52" s="172">
         <f>S52/R52</f>
         <v>1.1111111111111112</v>
       </c>
@@ -64131,15 +64104,15 @@
     </row>
     <row r="64" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="65" spans="2:15">
-      <c r="C65" s="344" t="s">
+      <c r="C65" s="345" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="345"/>
-      <c r="E65" s="346"/>
-      <c r="M65" s="338" t="s">
+      <c r="D65" s="346"/>
+      <c r="E65" s="347"/>
+      <c r="M65" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="N65" s="339"/>
+      <c r="N65" s="340"/>
       <c r="O65"/>
     </row>
     <row r="66" spans="2:15">
@@ -64147,14 +64120,14 @@
       <c r="C66" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="342" t="s">
+      <c r="D66" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="343"/>
+      <c r="E66" s="344"/>
       <c r="M66" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="N66" s="180" t="s">
+      <c r="N66" s="179" t="s">
         <v>18</v>
       </c>
       <c r="O66"/>
@@ -64172,14 +64145,14 @@
         <f>IF(D67=3,10%,IF(D67=0,"",0%))</f>
         <v>0.1</v>
       </c>
-      <c r="M67" s="176" t="s">
+      <c r="M67" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="N67" s="174">
+      <c r="N67" s="173">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AG2,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O67" s="181">
+      <c r="O67" s="180">
         <f>SUM(N67:N70)</f>
         <v>0.5</v>
       </c>
@@ -64196,14 +64169,14 @@
         <f t="shared" ref="E68:E76" si="2">IF(D68=3,10%,IF(D68=0,"",0%))</f>
         <v>0.1</v>
       </c>
-      <c r="M68" s="176" t="s">
+      <c r="M68" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="N68" s="174">
+      <c r="N68" s="173">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AH2,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O68" s="182">
+      <c r="O68" s="181">
         <f>IF(O67&gt;=100%,0%,100%-O67)</f>
         <v>0.5</v>
       </c>
@@ -64220,14 +64193,14 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="M69" s="176" t="s">
+      <c r="M69" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="N69" s="174" t="str">
+      <c r="N69" s="173" t="str">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AI2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="O69" s="183"/>
+      <c r="O69" s="182"/>
     </row>
     <row r="70" spans="2:15" ht="16.7" customHeight="1" thickBot="1">
       <c r="C70" s="131" t="s">
@@ -64241,14 +64214,14 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="M70" s="177" t="s">
+      <c r="M70" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="N70" s="175" t="str">
+      <c r="N70" s="174" t="str">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AJ2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="O70" s="183"/>
+      <c r="O70" s="182"/>
     </row>
     <row r="71" spans="2:15" ht="16.7" customHeight="1">
       <c r="C71" s="131" t="s">
@@ -64276,7 +64249,7 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="O72" s="183"/>
+      <c r="O72" s="182"/>
     </row>
     <row r="73" spans="2:15" ht="16.7" customHeight="1">
       <c r="C73" s="131" t="s">
@@ -64290,11 +64263,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M73" s="340" t="s">
+      <c r="M73" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="341"/>
-      <c r="O73" s="183"/>
+      <c r="N73" s="342"/>
+      <c r="O73" s="182"/>
     </row>
     <row r="74" spans="2:15" ht="16.7" customHeight="1">
       <c r="C74" s="131" t="s">
@@ -64311,10 +64284,10 @@
       <c r="M74" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="N74" s="180" t="s">
+      <c r="N74" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="O74" s="181">
+      <c r="O74" s="180">
         <f>SUM(N75:N78)</f>
         <v>0.75</v>
       </c>
@@ -64331,14 +64304,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M75" s="176" t="s">
+      <c r="M75" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="N75" s="174">
+      <c r="N75" s="173">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AG21,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O75" s="182">
+      <c r="O75" s="181">
         <f>IF(O74&gt;=100%,0%,100%-O74)</f>
         <v>0.25</v>
       </c>
@@ -64355,22 +64328,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M76" s="176" t="s">
+      <c r="M76" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="N76" s="174">
+      <c r="N76" s="173">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AH21,FALSE)</f>
         <v>0.25</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="2:15" ht="16.7" customHeight="1">
-      <c r="D77" s="214"/>
-      <c r="E77" s="214"/>
-      <c r="M77" s="176" t="s">
+      <c r="D77" s="213"/>
+      <c r="E77" s="213"/>
+      <c r="M77" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="N77" s="174">
+      <c r="N77" s="173">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AI21,FALSE)</f>
         <v>0.25</v>
       </c>
@@ -64385,14 +64358,14 @@
         <f>SUM(E67:E76)</f>
         <v>0.6</v>
       </c>
-      <c r="M78" s="177" t="s">
+      <c r="M78" s="176" t="s">
         <v>153</v>
       </c>
-      <c r="N78" s="175" t="str">
+      <c r="N78" s="174" t="str">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AJ21,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="O78" s="179"/>
+      <c r="O78" s="178"/>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="107" t="s">
@@ -64406,67 +64379,67 @@
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="206" t="s">
+      <c r="B83" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="207"/>
-      <c r="D83" s="207"/>
+      <c r="C83" s="206"/>
+      <c r="D83" s="206"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="206" t="s">
+      <c r="B84" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="207"/>
-      <c r="D84" s="207"/>
+      <c r="C84" s="206"/>
+      <c r="D84" s="206"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="206" t="s">
+      <c r="B85" s="205" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="207"/>
-      <c r="D85" s="207"/>
+      <c r="C85" s="206"/>
+      <c r="D85" s="206"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="206" t="s">
+      <c r="B86" s="205" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="207"/>
-      <c r="D86" s="207"/>
+      <c r="C86" s="206"/>
+      <c r="D86" s="206"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="206" t="s">
+      <c r="B87" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="207"/>
-      <c r="D87" s="207"/>
+      <c r="C87" s="206"/>
+      <c r="D87" s="206"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="206" t="s">
+      <c r="B88" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="207"/>
-      <c r="D88" s="207"/>
+      <c r="C88" s="206"/>
+      <c r="D88" s="206"/>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="206" t="s">
+      <c r="B89" s="205" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="207"/>
-      <c r="D89" s="207"/>
+      <c r="C89" s="206"/>
+      <c r="D89" s="206"/>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="206" t="s">
+      <c r="B90" s="205" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="207"/>
-      <c r="D90" s="207"/>
+      <c r="C90" s="206"/>
+      <c r="D90" s="206"/>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="206" t="s">
+      <c r="B91" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="207"/>
-      <c r="D91" s="207"/>
+      <c r="C91" s="206"/>
+      <c r="D91" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -64539,6 +64512,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B9CBAF11028447B385221D9B36D96A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="185deeeeaa85aa5acc6da7ff5918ca94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22ff7873-98f4-4119-bbca-70544c3aaded" xmlns:ns3="242fb338-6e7f-46c2-a04d-1835f0b57452" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d20db2146c0415d77fbec532ba79aee6" ns2:_="" ns3:_="">
     <xsd:import namespace="22ff7873-98f4-4119-bbca-70544c3aaded"/>
@@ -64773,27 +64766,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9624E47F-8C23-423C-89CF-EE75FCD5D016}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64810,29 +64808,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
-    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AP_OCT_A.xlsx
+++ b/AP_OCT_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA559C4-504A-48B1-8961-636B8FC7E5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22EAC1-0FEC-4A81-B0AE-96ECEDF8F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="DB (2)" sheetId="7" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="263">
   <si>
     <t>PNM</t>
   </si>
@@ -855,6 +855,9 @@
   <si>
     <t>NRC Plan</t>
   </si>
+  <si>
+    <t>Montly Report</t>
+  </si>
 </sst>
 </file>
 
@@ -1022,12 +1025,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1076,6 +1073,13 @@
       <u/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1897,7 +1901,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="355">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2238,9 +2242,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2276,9 +2277,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2341,13 +2339,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2356,7 +2354,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="44" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2368,15 +2366,15 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2433,7 +2431,7 @@
     <xf numFmtId="0" fontId="7" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2494,7 +2492,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="50" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2558,67 +2556,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2693,16 +2643,67 @@
     <xf numFmtId="0" fontId="16" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,28 +2733,34 @@
     <xf numFmtId="0" fontId="7" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2780,19 +2787,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2801,10 +2796,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2847,7 +2848,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44537,7 +44538,7 @@
     <row r="1" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="2" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="3" spans="2:24" ht="34.5">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="169" t="s">
         <v>0</v>
       </c>
     </row>
@@ -44584,11 +44585,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="258" t="s">
+      <c r="V8" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="259"/>
-      <c r="X8" s="260"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -44647,9 +44648,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="261"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263"/>
+      <c r="V9" s="292"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -44675,10 +44676,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.47982216142270862</v>
       </c>
-      <c r="V10" s="264" t="s">
+      <c r="V10" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="265"/>
+      <c r="W10" s="296"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -44707,20 +44708,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="266" t="str">
+      <c r="V11" s="297" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
         <v>NRC Plan</v>
       </c>
-      <c r="W11" s="267"/>
-      <c r="X11" s="270" t="str">
+      <c r="W11" s="298"/>
+      <c r="X11" s="301" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="271"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="302"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -44800,145 +44801,142 @@
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="272" t="s">
+      <c r="C24" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="274"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="305"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="258" t="s">
+      <c r="J24" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="260"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="291"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="258" t="s">
+      <c r="Q24" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="259"/>
-      <c r="U24" s="259"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
+      <c r="R24" s="290"/>
+      <c r="S24" s="290"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="290"/>
+      <c r="V24" s="290"/>
+      <c r="W24" s="291"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="279" t="s">
+      <c r="C25" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280" t="s">
+      <c r="D25" s="262"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="281"/>
+      <c r="H25" s="263"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="279" t="s">
+      <c r="J25" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="280"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="280"/>
-      <c r="N25" s="280" t="s">
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="281"/>
+      <c r="O25" s="263"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="282" t="s">
+      <c r="Q25" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="283"/>
-      <c r="S25" s="283"/>
-      <c r="T25" s="283"/>
-      <c r="U25" s="284"/>
-      <c r="V25" s="285" t="s">
+      <c r="R25" s="265"/>
+      <c r="S25" s="265"/>
+      <c r="T25" s="265"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="286"/>
+      <c r="W25" s="268"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="287" t="str">
+      <c r="C26" s="269" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
-        <v>&gt; All Channels (Phisicals and Digitals)
-&gt; Per model
-&gt; Per month FCST (1 week before starting N month)
-&gt; Per month Results (1 week after N month closure)</v>
-      </c>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="291">
+        <v>Montly Report</v>
+      </c>
+      <c r="D26" s="270"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="270"/>
+      <c r="G26" s="273">
         <v>1</v>
       </c>
-      <c r="H26" s="292"/>
+      <c r="H26" s="274"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="295" t="s">
+      <c r="J26" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="296"/>
-      <c r="L26" s="296"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="299" t="s">
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="281" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="300"/>
+      <c r="O26" s="282"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="303" t="s">
+      <c r="Q26" s="285" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="304"/>
-      <c r="S26" s="304"/>
-      <c r="T26" s="304"/>
-      <c r="U26" s="304"/>
-      <c r="V26" s="275" t="s">
+      <c r="R26" s="286"/>
+      <c r="S26" s="286"/>
+      <c r="T26" s="286"/>
+      <c r="U26" s="286"/>
+      <c r="V26" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="276"/>
+      <c r="W26" s="258"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="291"/>
-      <c r="H27" s="292"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="274"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="297"/>
-      <c r="K27" s="298"/>
-      <c r="L27" s="298"/>
-      <c r="M27" s="298"/>
-      <c r="N27" s="301"/>
-      <c r="O27" s="302"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="283"/>
+      <c r="O27" s="284"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="303"/>
-      <c r="R27" s="304"/>
-      <c r="S27" s="304"/>
-      <c r="T27" s="304"/>
-      <c r="U27" s="304"/>
-      <c r="V27" s="275"/>
-      <c r="W27" s="276"/>
+      <c r="Q27" s="285"/>
+      <c r="R27" s="286"/>
+      <c r="S27" s="286"/>
+      <c r="T27" s="286"/>
+      <c r="U27" s="286"/>
+      <c r="V27" s="257"/>
+      <c r="W27" s="258"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="292"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="270"/>
+      <c r="G28" s="273"/>
+      <c r="H28" s="274"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -44947,23 +44945,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="303"/>
-      <c r="R28" s="304"/>
-      <c r="S28" s="304"/>
-      <c r="T28" s="304"/>
-      <c r="U28" s="304"/>
-      <c r="V28" s="275"/>
-      <c r="W28" s="276"/>
+      <c r="Q28" s="285"/>
+      <c r="R28" s="286"/>
+      <c r="S28" s="286"/>
+      <c r="T28" s="286"/>
+      <c r="U28" s="286"/>
+      <c r="V28" s="257"/>
+      <c r="W28" s="258"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="294"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="276"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -44972,154 +44970,154 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="305"/>
-      <c r="R29" s="306"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="306"/>
-      <c r="V29" s="277"/>
-      <c r="W29" s="278"/>
+      <c r="Q29" s="287"/>
+      <c r="R29" s="288"/>
+      <c r="S29" s="288"/>
+      <c r="T29" s="288"/>
+      <c r="U29" s="288"/>
+      <c r="V29" s="259"/>
+      <c r="W29" s="260"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="182"/>
-      <c r="D34" s="182" t="s">
+      <c r="C34" s="180"/>
+      <c r="D34" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="182" t="s">
+      <c r="E34" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="182" t="s">
+      <c r="F34" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="182" t="s">
+      <c r="G34" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="182" t="s">
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="L34" s="182" t="s">
+      <c r="L34" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="M34" s="182" t="s">
+      <c r="M34" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="182" t="s">
+      <c r="N34" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="O34" s="182"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="182" t="s">
+      <c r="O34" s="180"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="R34" s="182" t="s">
+      <c r="R34" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="S34" s="182" t="s">
+      <c r="S34" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="T34" s="182" t="s">
+      <c r="T34" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="U34" s="182"/>
-      <c r="V34" s="189">
+      <c r="U34" s="180"/>
+      <c r="V34" s="187">
         <v>0.9151999999999999</v>
       </c>
-      <c r="W34" s="189">
+      <c r="W34" s="187">
         <f>IF(V34&gt;=100%,0%,100%-V34)</f>
         <v>8.4800000000000098E-2</v>
       </c>
-      <c r="X34" s="182"/>
+      <c r="X34" s="180"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="182" t="s">
+      <c r="C35" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="190">
+      <c r="D35" s="188">
         <v>1710206</v>
       </c>
-      <c r="E35" s="190">
+      <c r="E35" s="188">
         <v>1426757</v>
       </c>
-      <c r="F35" s="191">
+      <c r="F35" s="189">
         <f>E35/D35</f>
         <v>0.83426031717816451</v>
       </c>
-      <c r="G35" s="188">
+      <c r="G35" s="186">
         <f>IF(F35&gt;=100%,0%,100%-F35)</f>
         <v>0.16573968282183549</v>
       </c>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="182" t="s">
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="192">
+      <c r="K35" s="190">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AK2,FALSE)</f>
         <v>0.77</v>
       </c>
-      <c r="L35" s="192">
+      <c r="L35" s="190">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AL2,FALSE)</f>
         <v>0.76</v>
       </c>
-      <c r="M35" s="188">
+      <c r="M35" s="186">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AM2,FALSE)</f>
         <v>0.98701298701298701</v>
       </c>
-      <c r="N35" s="188">
+      <c r="N35" s="186">
         <f>IF(M35&gt;=100%,0%,100%-M35)</f>
         <v>1.2987012987012991E-2</v>
       </c>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182" t="s">
+      <c r="O35" s="180"/>
+      <c r="P35" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="193">
+      <c r="Q35" s="191">
         <v>906</v>
       </c>
-      <c r="R35" s="193">
+      <c r="R35" s="191">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AP2,FALSE)</f>
         <v>1146</v>
       </c>
-      <c r="S35" s="194">
+      <c r="S35" s="192">
         <f>R35/Q35</f>
         <v>1.2649006622516556</v>
       </c>
-      <c r="T35" s="188">
+      <c r="T35" s="186">
         <f>IF(S35&gt;=100%,0%,100%-S35)</f>
         <v>0</v>
       </c>
-      <c r="U35" s="182"/>
-      <c r="V35" s="182"/>
-      <c r="W35" s="182"/>
-      <c r="X35" s="182"/>
+      <c r="U35" s="180"/>
+      <c r="V35" s="180"/>
+      <c r="W35" s="180"/>
+      <c r="X35" s="180"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="182"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="182"/>
-      <c r="O36" s="182"/>
-      <c r="P36" s="182"/>
-      <c r="Q36" s="182"/>
-      <c r="R36" s="182"/>
-      <c r="S36" s="182"/>
-      <c r="T36" s="182"/>
-      <c r="U36" s="182"/>
-      <c r="V36" s="182"/>
-      <c r="W36" s="182"/>
-      <c r="X36" s="182"/>
+      <c r="C36" s="180"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="180"/>
+      <c r="L36" s="180"/>
+      <c r="M36" s="180"/>
+      <c r="N36" s="180"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
+      <c r="S36" s="180"/>
+      <c r="T36" s="180"/>
+      <c r="U36" s="180"/>
+      <c r="V36" s="180"/>
+      <c r="W36" s="180"/>
+      <c r="X36" s="180"/>
     </row>
     <row r="56" spans="5:9">
       <c r="F56" t="s">
@@ -45179,6 +45177,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="V8:X9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="Q24:W24"/>
     <mergeCell ref="V26:W29"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -45191,13 +45196,6 @@
     <mergeCell ref="J26:M27"/>
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="Q26:U29"/>
-    <mergeCell ref="V8:X9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="Q24:W24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45221,11 +45219,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:BG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="63" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="V15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L18"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4:X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -45436,190 +45434,190 @@
       </c>
     </row>
     <row r="3" spans="2:59">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="162" t="s">
+      <c r="E3" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="183" t="s">
+      <c r="F3" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="184" t="s">
+      <c r="G3" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="184" t="s">
+      <c r="K3" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="162" t="s">
+      <c r="L3" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="162" t="s">
+      <c r="M3" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="183" t="s">
+      <c r="N3" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="184" t="s">
+      <c r="O3" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="162" t="s">
+      <c r="P3" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="162" t="s">
+      <c r="Q3" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="183" t="s">
+      <c r="R3" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="184" t="s">
+      <c r="S3" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="162" t="s">
+      <c r="T3" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="162" t="s">
+      <c r="U3" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="183" t="s">
+      <c r="V3" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="184" t="s">
+      <c r="W3" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="162" t="s">
+      <c r="X3" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="183" t="s">
+      <c r="Y3" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="184" t="s">
+      <c r="Z3" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="162" t="s">
+      <c r="AA3" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="183" t="s">
+      <c r="AB3" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="184" t="s">
+      <c r="AC3" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="162" t="s">
+      <c r="AD3" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="183" t="s">
+      <c r="AE3" s="181" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="184" t="s">
+      <c r="AF3" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="162" t="s">
+      <c r="AG3" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="162" t="s">
+      <c r="AH3" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="183" t="s">
+      <c r="AI3" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="184" t="s">
+      <c r="AJ3" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="AK3" s="162" t="s">
+      <c r="AK3" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="AL3" s="162" t="s">
+      <c r="AL3" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="AM3" s="183" t="s">
+      <c r="AM3" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AN3" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="162" t="s">
+      <c r="AO3" s="160" t="s">
         <v>67</v>
       </c>
-      <c r="AP3" s="162" t="s">
+      <c r="AP3" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="AQ3" s="183" t="s">
+      <c r="AQ3" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AR3" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="AS3" s="162" t="s">
+      <c r="AS3" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="AT3" s="162" t="s">
+      <c r="AT3" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="AU3" s="162" t="s">
+      <c r="AU3" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="AV3" s="162" t="s">
+      <c r="AV3" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="AW3" s="162" t="s">
+      <c r="AW3" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="AX3" s="162" t="s">
+      <c r="AX3" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="AY3" s="162" t="s">
+      <c r="AY3" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="AZ3" s="162" t="s">
+      <c r="AZ3" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="BA3" s="162" t="s">
+      <c r="BA3" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" s="162" t="s">
+      <c r="BB3" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="BC3" s="162" t="s">
+      <c r="BC3" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="BD3" s="162" t="s">
+      <c r="BD3" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="BE3" s="162" t="s">
+      <c r="BE3" s="160" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:59" ht="35.450000000000003" customHeight="1">
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="211">
+      <c r="D4" s="209">
         <v>0.78</v>
       </c>
-      <c r="E4" s="150">
+      <c r="E4" s="149">
         <f>VLOOKUP(C4,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.79100000000000004</v>
       </c>
-      <c r="F4" s="151">
+      <c r="F4" s="150">
         <f>E4/D4</f>
         <v>1.0141025641025641</v>
       </c>
@@ -45627,14 +45625,14 @@
         <f>IF(F4&gt;=100%,6%,F4*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H4" s="211">
+      <c r="H4" s="209">
         <v>0.92</v>
       </c>
-      <c r="I4" s="151">
+      <c r="I4" s="150">
         <f>VLOOKUP(C4,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.95799999999999996</v>
       </c>
-      <c r="J4" s="151">
+      <c r="J4" s="150">
         <f>I4/H4</f>
         <v>1.0413043478260868</v>
       </c>
@@ -45642,27 +45640,27 @@
         <f>IF(J4&gt;=100%,6%,J4*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L4" s="354" t="s">
+      <c r="L4" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="148" t="s">
+      <c r="M4" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="152">
+      <c r="N4" s="151">
         <v>0.1</v>
       </c>
-      <c r="O4" s="150">
+      <c r="O4" s="149">
         <f>IF(N4&gt;=100%,5%,N4*5%/100%)</f>
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="P4" s="152">
+      <c r="P4" s="151">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="153">
+      <c r="Q4" s="152">
         <f>AZ4+BD4</f>
         <v>0.857187139561707</v>
       </c>
-      <c r="R4" s="153">
+      <c r="R4" s="152">
         <f>Q4/P4</f>
         <v>0.95243015506856332</v>
       </c>
@@ -45670,60 +45668,60 @@
         <f>IF(R4&gt;=100%,4%,R4*4%/100%)</f>
         <v>3.8097206202742533E-2</v>
       </c>
-      <c r="T4" s="154">
+      <c r="T4" s="153">
         <v>0.69</v>
       </c>
-      <c r="U4" s="151">
+      <c r="U4" s="150">
         <f>VLOOKUP(C4,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.6284187647165369</v>
       </c>
-      <c r="V4" s="153">
+      <c r="V4" s="152">
         <f>U4/T4</f>
         <v>0.91075183292251727</v>
       </c>
-      <c r="W4" s="151">
+      <c r="W4" s="150">
         <f>IF(V4&gt;=100%,4%,V4*4%/100%)</f>
         <v>3.6430073316900694E-2</v>
       </c>
-      <c r="X4" s="155" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" s="150">
+      <c r="X4" s="353" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y4" s="149">
         <f>VLOOKUP(C4,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="Z4" s="151">
+      <c r="Z4" s="150">
         <f>IF(Y4&gt;=100%,5%,Y4*5%/100%)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA4" s="148" t="s">
+      <c r="AA4" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="AB4" s="152">
+      <c r="AB4" s="151">
         <v>0.5</v>
       </c>
-      <c r="AC4" s="151">
+      <c r="AC4" s="150">
         <f>IF(AB4&gt;=100%,3%,AB4*3%/100%)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD4" s="148" t="s">
+      <c r="AD4" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" s="152">
+      <c r="AE4" s="151">
         <v>0.75</v>
       </c>
-      <c r="AF4" s="151">
+      <c r="AF4" s="150">
         <f>IF(AE4&gt;=100%,7%,AE4*7%/100%)</f>
         <v>5.2500000000000005E-2</v>
       </c>
-      <c r="AG4" s="156">
+      <c r="AG4" s="154">
         <v>22300000</v>
       </c>
-      <c r="AH4" s="156">
+      <c r="AH4" s="154">
         <f>VLOOKUP(C4,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>11072189</v>
       </c>
-      <c r="AI4" s="151">
+      <c r="AI4" s="150">
         <f>AH4/AG4</f>
         <v>0.49651071748878922</v>
       </c>
@@ -45731,14 +45729,14 @@
         <f t="shared" ref="AJ4:AJ6" si="0">IF(AI4&gt;=100%,20%,AI4*20%/100%)</f>
         <v>9.9302143497757844E-2</v>
       </c>
-      <c r="AK4" s="158">
+      <c r="AK4" s="156">
         <v>1</v>
       </c>
-      <c r="AL4" s="159">
+      <c r="AL4" s="157">
         <f>VLOOKUP(C4,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.04</v>
       </c>
-      <c r="AM4" s="151">
+      <c r="AM4" s="150">
         <f>AL4/AK4</f>
         <v>1.04</v>
       </c>
@@ -45746,14 +45744,14 @@
         <f t="shared" ref="AN4:AN6" si="1">IF(AM4&gt;=100%,10%,AM4*10%/100%)</f>
         <v>0.1</v>
       </c>
-      <c r="AO4" s="160">
+      <c r="AO4" s="158">
         <v>13201</v>
       </c>
-      <c r="AP4" s="160">
+      <c r="AP4" s="158">
         <f>VLOOKUP(C4,WB!$B$3:$O$35,WB!$O$2,FALSE)</f>
         <v>7883</v>
       </c>
-      <c r="AQ4" s="150">
+      <c r="AQ4" s="149">
         <f>AP4/AO4</f>
         <v>0.59715173092947504</v>
       </c>
@@ -45761,60 +45759,60 @@
         <f t="shared" ref="AR4:AR6" si="2">IF(AQ4&gt;=100%,30%,AQ4*30%/100%)</f>
         <v>0.17914551927884251</v>
       </c>
-      <c r="AS4" s="149">
+      <c r="AS4" s="148">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AT4" s="149">
+      <c r="AT4" s="148">
         <v>0.41</v>
       </c>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="152">
+      <c r="AU4" s="155"/>
+      <c r="AV4" s="155"/>
+      <c r="AW4" s="151">
         <v>0.9</v>
       </c>
-      <c r="AX4" s="151">
+      <c r="AX4" s="150">
         <f>VLOOKUP(C4,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.98448729184925499</v>
       </c>
-      <c r="AY4" s="153">
+      <c r="AY4" s="152">
         <f>AX4/AW4</f>
         <v>1.0938747687213943</v>
       </c>
-      <c r="AZ4" s="153">
+      <c r="AZ4" s="152">
         <f>IF(AND(BC4&lt;100%,AY4&gt;=100%),45%,AY4*45%/100%)</f>
         <v>0.45</v>
       </c>
-      <c r="BA4" s="152">
+      <c r="BA4" s="151">
         <v>0.9</v>
       </c>
-      <c r="BB4" s="151">
+      <c r="BB4" s="150">
         <f>VLOOKUP(C4,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.81437427912341409</v>
       </c>
-      <c r="BC4" s="153">
+      <c r="BC4" s="152">
         <f>BB4/BA4</f>
         <v>0.90486031013712676</v>
       </c>
-      <c r="BD4" s="161">
+      <c r="BD4" s="159">
         <f>IF(AND(AY4&lt;100%,BC4&gt;=100%),45%,BC4*45%/100%)</f>
         <v>0.40718713956170705</v>
       </c>
-      <c r="BE4" s="153">
+      <c r="BE4" s="152">
         <f>AR4+AN4+AJ4+W4+S4+K4+G4+AF4+AC4+Z4+O4</f>
         <v>0.6704749422962436</v>
       </c>
     </row>
     <row r="5" spans="2:59" ht="36" customHeight="1">
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="169" t="s">
+      <c r="C5" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="145">
+      <c r="D5" s="144">
         <v>0.82</v>
       </c>
-      <c r="E5" s="150">
+      <c r="E5" s="149">
         <f>VLOOKUP(C5,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.84799999999999998</v>
       </c>
@@ -45826,10 +45824,10 @@
         <f>IF(F5&gt;=100%,6%,F5*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H5" s="145">
+      <c r="H5" s="144">
         <v>0.91</v>
       </c>
-      <c r="I5" s="151">
+      <c r="I5" s="150">
         <f>VLOOKUP(C5,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.91800000000000004</v>
       </c>
@@ -45841,7 +45839,7 @@
         <f>IF(J5&gt;=100%,6%,J5*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L5" s="354" t="s">
+      <c r="L5" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M5" s="80" t="s">
@@ -45872,7 +45870,7 @@
       <c r="T5" s="141">
         <v>0.5</v>
       </c>
-      <c r="U5" s="151">
+      <c r="U5" s="150">
         <f>VLOOKUP(C5,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.46404995539696697</v>
       </c>
@@ -45884,8 +45882,8 @@
         <f t="shared" ref="W5:W6" si="9">IF(V5&gt;=100%,4%,V5*4%/100%)</f>
         <v>3.7123996431757358E-2</v>
       </c>
-      <c r="X5" s="155" t="s">
-        <v>86</v>
+      <c r="X5" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y5" s="138">
         <f>VLOOKUP(C5,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -45905,10 +45903,10 @@
         <f t="shared" ref="AC5:AC13" si="11">IF(AB5&gt;=100%,3%,AB5*3%/100%)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD5" s="148" t="s">
+      <c r="AD5" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE5" s="152">
+      <c r="AE5" s="151">
         <v>0.75</v>
       </c>
       <c r="AF5" s="139">
@@ -45918,7 +45916,7 @@
       <c r="AG5" s="10">
         <v>3200000</v>
       </c>
-      <c r="AH5" s="156">
+      <c r="AH5" s="154">
         <f>VLOOKUP(C5,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1360596</v>
       </c>
@@ -45930,10 +45928,10 @@
         <f t="shared" si="0"/>
         <v>8.5037250000000009E-2</v>
       </c>
-      <c r="AK5" s="143">
+      <c r="AK5" s="142">
         <v>0.86</v>
       </c>
-      <c r="AL5" s="159">
+      <c r="AL5" s="157">
         <f>VLOOKUP(C5,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.86</v>
       </c>
@@ -45967,11 +45965,11 @@
         <v>0.35</v>
       </c>
       <c r="AU5" s="78"/>
-      <c r="AV5" s="257"/>
+      <c r="AV5" s="255"/>
       <c r="AW5" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX5" s="151">
+      <c r="AX5" s="150">
         <f>VLOOKUP(C5,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.96511627906976749</v>
       </c>
@@ -45986,7 +45984,7 @@
       <c r="BA5" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB5" s="151">
+      <c r="BB5" s="150">
         <f>VLOOKUP(C5,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.76666666666666661</v>
       </c>
@@ -45994,7 +45992,7 @@
         <f t="shared" ref="BC5:BC22" si="17">BB5/BA5</f>
         <v>0.85185185185185175</v>
       </c>
-      <c r="BD5" s="144">
+      <c r="BD5" s="143">
         <f t="shared" ref="BD5:BD22" si="18">IF(AND(AY5&lt;100%,BC5&gt;=100%),45%,BC5*45%/100%)</f>
         <v>0.3833333333333333</v>
       </c>
@@ -46005,16 +46003,16 @@
       <c r="BG5" s="73"/>
     </row>
     <row r="6" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="144">
         <v>0.92</v>
       </c>
-      <c r="E6" s="150">
+      <c r="E6" s="149">
         <f>VLOOKUP(C6,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.95299999999999996</v>
       </c>
@@ -46026,10 +46024,10 @@
         <f>IF(F6&gt;=100%,6%,F6*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H6" s="145">
+      <c r="H6" s="144">
         <v>0.92</v>
       </c>
-      <c r="I6" s="151">
+      <c r="I6" s="150">
         <f>VLOOKUP(C6,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.93700000000000006</v>
       </c>
@@ -46041,7 +46039,7 @@
         <f>IF(J6&gt;=100%,6%,J6*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L6" s="354" t="s">
+      <c r="L6" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M6" s="80" t="s">
@@ -46072,7 +46070,7 @@
       <c r="T6" s="141">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U6" s="151">
+      <c r="U6" s="150">
         <f>VLOOKUP(C6,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.5916310323762981</v>
       </c>
@@ -46084,8 +46082,8 @@
         <f t="shared" si="9"/>
         <v>0.04</v>
       </c>
-      <c r="X6" s="142" t="s">
-        <v>86</v>
+      <c r="X6" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y6" s="138">
         <f>VLOOKUP(C6,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46105,10 +46103,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD6" s="148" t="s">
+      <c r="AD6" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE6" s="152">
+      <c r="AE6" s="151">
         <v>0.75</v>
       </c>
       <c r="AF6" s="139">
@@ -46118,7 +46116,7 @@
       <c r="AG6" s="10">
         <v>6300000</v>
       </c>
-      <c r="AH6" s="156">
+      <c r="AH6" s="154">
         <f>VLOOKUP(C6,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>4097809</v>
       </c>
@@ -46130,10 +46128,10 @@
         <f t="shared" si="0"/>
         <v>0.1300891746031746</v>
       </c>
-      <c r="AK6" s="143">
+      <c r="AK6" s="142">
         <v>1.32</v>
       </c>
-      <c r="AL6" s="159">
+      <c r="AL6" s="157">
         <f>VLOOKUP(C6,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.33</v>
       </c>
@@ -46171,7 +46169,7 @@
       <c r="AW6" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX6" s="151">
+      <c r="AX6" s="150">
         <f>VLOOKUP(C6,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.98931623931623935</v>
       </c>
@@ -46186,7 +46184,7 @@
       <c r="BA6" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB6" s="151">
+      <c r="BB6" s="150">
         <f>VLOOKUP(C6,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.99916036943744757</v>
       </c>
@@ -46194,7 +46192,7 @@
         <f t="shared" si="17"/>
         <v>1.1101781882638306</v>
       </c>
-      <c r="BD6" s="144">
+      <c r="BD6" s="143">
         <f t="shared" si="18"/>
         <v>0.49958018471872379</v>
       </c>
@@ -46205,16 +46203,16 @@
       <c r="BG6" s="4"/>
     </row>
     <row r="7" spans="2:59" ht="43.35" customHeight="1">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="144">
         <v>0.85</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="149">
         <f>VLOOKUP(C7,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.871</v>
       </c>
@@ -46226,10 +46224,10 @@
         <f>IF(F7&gt;=100%,6%,F7*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H7" s="145">
+      <c r="H7" s="144">
         <v>0.94</v>
       </c>
-      <c r="I7" s="151">
+      <c r="I7" s="150">
         <f>VLOOKUP(C7,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.96299999999999997</v>
       </c>
@@ -46241,7 +46239,7 @@
         <f>IF(J7&gt;=100%,6%,J7*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L7" s="354" t="s">
+      <c r="L7" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M7" s="80" t="s">
@@ -46272,7 +46270,7 @@
       <c r="T7" s="141">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U7" s="151">
+      <c r="U7" s="150">
         <f>VLOOKUP(C7,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.68019559902200488</v>
       </c>
@@ -46284,8 +46282,8 @@
         <f>IF(V7&gt;=100%,4%,V7*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="X7" s="142" t="s">
-        <v>86</v>
+      <c r="X7" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y7" s="138">
         <f>VLOOKUP(C7,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46305,10 +46303,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD7" s="148" t="s">
+      <c r="AD7" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE7" s="152">
+      <c r="AE7" s="151">
         <v>0.75</v>
       </c>
       <c r="AF7" s="139">
@@ -46318,7 +46316,7 @@
       <c r="AG7" s="10">
         <v>4600000</v>
       </c>
-      <c r="AH7" s="156">
+      <c r="AH7" s="154">
         <f>VLOOKUP(C7,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>2441588</v>
       </c>
@@ -46330,10 +46328,10 @@
         <f>IF(AI7&gt;=100%,20%,AI7*20%/100%)</f>
         <v>0.10615600000000001</v>
       </c>
-      <c r="AK7" s="143">
+      <c r="AK7" s="142">
         <v>1.04</v>
       </c>
-      <c r="AL7" s="159">
+      <c r="AL7" s="157">
         <f>VLOOKUP(C7,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.04</v>
       </c>
@@ -46371,7 +46369,7 @@
       <c r="AW7" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX7" s="151">
+      <c r="AX7" s="150">
         <f>VLOOKUP(C7,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.91666666666666663</v>
       </c>
@@ -46386,7 +46384,7 @@
       <c r="BA7" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB7" s="151">
+      <c r="BB7" s="150">
         <f>VLOOKUP(C7,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.95211389128559099</v>
       </c>
@@ -46394,7 +46392,7 @@
         <f t="shared" si="17"/>
         <v>1.0579043236506567</v>
       </c>
-      <c r="BD7" s="144">
+      <c r="BD7" s="143">
         <f t="shared" si="18"/>
         <v>0.47605694564279549</v>
       </c>
@@ -46405,16 +46403,16 @@
       <c r="BG7" s="4"/>
     </row>
     <row r="8" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="144">
         <v>0.86</v>
       </c>
-      <c r="E8" s="150">
+      <c r="E8" s="149">
         <f>VLOOKUP(C8,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.88700000000000001</v>
       </c>
@@ -46426,10 +46424,10 @@
         <f t="shared" ref="G8:G12" si="21">IF(F8&gt;=100%,6%,F8*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H8" s="145">
+      <c r="H8" s="144">
         <v>0.9</v>
       </c>
-      <c r="I8" s="151">
+      <c r="I8" s="150">
         <f>VLOOKUP(C8,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.97</v>
       </c>
@@ -46441,7 +46439,7 @@
         <f t="shared" ref="K8:K12" si="22">IF(J8&gt;=100%,6%,J8*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L8" s="354" t="s">
+      <c r="L8" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M8" s="80" t="s">
@@ -46472,7 +46470,7 @@
       <c r="T8" s="141">
         <v>0.66</v>
       </c>
-      <c r="U8" s="151">
+      <c r="U8" s="150">
         <f>VLOOKUP(C8,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.73817034700315454</v>
       </c>
@@ -46484,8 +46482,8 @@
         <f t="shared" ref="W8:W15" si="24">IF(V8&gt;=100%,4%,V8*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="X8" s="142" t="s">
-        <v>86</v>
+      <c r="X8" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y8" s="138">
         <f>VLOOKUP(C8,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46505,10 +46503,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD8" s="148" t="s">
+      <c r="AD8" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE8" s="152">
+      <c r="AE8" s="151">
         <v>0.75</v>
       </c>
       <c r="AF8" s="139">
@@ -46518,7 +46516,7 @@
       <c r="AG8" s="10">
         <v>5130381</v>
       </c>
-      <c r="AH8" s="156">
+      <c r="AH8" s="154">
         <f>VLOOKUP(C8,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>2215566</v>
       </c>
@@ -46530,10 +46528,10 @@
         <f t="shared" ref="AJ8:AJ12" si="25">IF(AI8&gt;=100%,20%,AI8*20%/100%)</f>
         <v>8.6370427459481092E-2</v>
       </c>
-      <c r="AK8" s="143">
+      <c r="AK8" s="142">
         <v>0.77</v>
       </c>
-      <c r="AL8" s="159">
+      <c r="AL8" s="157">
         <f>VLOOKUP(C8,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.76</v>
       </c>
@@ -46571,7 +46569,7 @@
       <c r="AW8" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX8" s="151">
+      <c r="AX8" s="150">
         <f>VLOOKUP(C8,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.95964432284541723</v>
       </c>
@@ -46586,7 +46584,7 @@
       <c r="BA8" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB8" s="151">
+      <c r="BB8" s="150">
         <f>VLOOKUP(C8,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -46594,7 +46592,7 @@
         <f t="shared" si="17"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BD8" s="144">
+      <c r="BD8" s="143">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
@@ -46605,16 +46603,16 @@
       <c r="BG8" s="4"/>
     </row>
     <row r="9" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B9" s="164" t="s">
+      <c r="B9" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="169" t="s">
+      <c r="C9" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="145">
+      <c r="D9" s="144">
         <v>0.94</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f>VLOOKUP(C9,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.99199999999999999</v>
       </c>
@@ -46626,10 +46624,10 @@
         <f t="shared" si="21"/>
         <v>0.06</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="144">
         <v>0.95</v>
       </c>
-      <c r="I9" s="151">
+      <c r="I9" s="150">
         <f>VLOOKUP(C9,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.98899999999999999</v>
       </c>
@@ -46641,7 +46639,7 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L9" s="354" t="s">
+      <c r="L9" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M9" s="80" t="s">
@@ -46672,7 +46670,7 @@
       <c r="T9" s="141">
         <v>0.45</v>
       </c>
-      <c r="U9" s="151">
+      <c r="U9" s="150">
         <f>VLOOKUP(C9,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.41526297696803027</v>
       </c>
@@ -46684,8 +46682,8 @@
         <f t="shared" si="24"/>
         <v>3.6912264619380471E-2</v>
       </c>
-      <c r="X9" s="142" t="s">
-        <v>86</v>
+      <c r="X9" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y9" s="138">
         <f>VLOOKUP(C9,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46705,10 +46703,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD9" s="148" t="s">
+      <c r="AD9" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE9" s="152">
+      <c r="AE9" s="151">
         <v>0.75</v>
       </c>
       <c r="AF9" s="139">
@@ -46718,7 +46716,7 @@
       <c r="AG9" s="10">
         <v>2730000</v>
       </c>
-      <c r="AH9" s="156">
+      <c r="AH9" s="154">
         <f>VLOOKUP(C9,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1638459</v>
       </c>
@@ -46730,10 +46728,10 @@
         <f t="shared" si="25"/>
         <v>0.12003362637362638</v>
       </c>
-      <c r="AK9" s="143">
+      <c r="AK9" s="142">
         <v>0.85</v>
       </c>
-      <c r="AL9" s="159">
+      <c r="AL9" s="157">
         <f>VLOOKUP(C9,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.85</v>
       </c>
@@ -46771,7 +46769,7 @@
       <c r="AW9" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX9" s="151">
+      <c r="AX9" s="150">
         <f>VLOOKUP(C9,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.90604575163398693</v>
       </c>
@@ -46786,7 +46784,7 @@
       <c r="BA9" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB9" s="151">
+      <c r="BB9" s="150">
         <f>VLOOKUP(C9,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.899129746835443</v>
       </c>
@@ -46794,7 +46792,7 @@
         <f t="shared" si="17"/>
         <v>0.99903305203938109</v>
       </c>
-      <c r="BD9" s="144">
+      <c r="BD9" s="143">
         <f t="shared" si="18"/>
         <v>0.4495648734177215</v>
       </c>
@@ -46805,16 +46803,16 @@
       <c r="BG9" s="4"/>
     </row>
     <row r="10" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="144">
         <v>0.7</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="149">
         <f>VLOOKUP(C10,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.755</v>
       </c>
@@ -46826,10 +46824,10 @@
         <f t="shared" si="21"/>
         <v>0.06</v>
       </c>
-      <c r="H10" s="145">
+      <c r="H10" s="144">
         <v>0.83</v>
       </c>
-      <c r="I10" s="151">
+      <c r="I10" s="150">
         <f>VLOOKUP(C10,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.94899999999999995</v>
       </c>
@@ -46841,7 +46839,7 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L10" s="354" t="s">
+      <c r="L10" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M10" s="80" t="s">
@@ -46872,7 +46870,7 @@
       <c r="T10" s="141">
         <v>0.67</v>
       </c>
-      <c r="U10" s="151">
+      <c r="U10" s="150">
         <f>VLOOKUP(C10,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.54865424430641818</v>
       </c>
@@ -46884,8 +46882,8 @@
         <f t="shared" si="24"/>
         <v>3.2755477272024963E-2</v>
       </c>
-      <c r="X10" s="142" t="s">
-        <v>86</v>
+      <c r="X10" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y10" s="138">
         <f>VLOOKUP(C10,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -46905,10 +46903,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD10" s="148" t="s">
+      <c r="AD10" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE10" s="152">
+      <c r="AE10" s="151">
         <v>0.75</v>
       </c>
       <c r="AF10" s="139">
@@ -46918,7 +46916,7 @@
       <c r="AG10" s="10">
         <v>2582000</v>
       </c>
-      <c r="AH10" s="156">
+      <c r="AH10" s="154">
         <f>VLOOKUP(C10,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1482874</v>
       </c>
@@ -46930,10 +46928,10 @@
         <f t="shared" si="25"/>
         <v>0.11486243222308289</v>
       </c>
-      <c r="AK10" s="143">
+      <c r="AK10" s="142">
         <v>1.02</v>
       </c>
-      <c r="AL10" s="159">
+      <c r="AL10" s="157">
         <f>VLOOKUP(C10,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.94</v>
       </c>
@@ -46971,7 +46969,7 @@
       <c r="AW10" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX10" s="151">
+      <c r="AX10" s="150">
         <f>VLOOKUP(C10,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.96969696969696972</v>
       </c>
@@ -46986,7 +46984,7 @@
       <c r="BA10" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB10" s="151">
+      <c r="BB10" s="150">
         <f>VLOOKUP(C10,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.95265306122448978</v>
       </c>
@@ -46994,7 +46992,7 @@
         <f t="shared" si="17"/>
         <v>1.0585034013605441</v>
       </c>
-      <c r="BD10" s="144">
+      <c r="BD10" s="143">
         <f t="shared" si="18"/>
         <v>0.47632653061224484</v>
       </c>
@@ -47005,16 +47003,16 @@
       <c r="BG10" s="4"/>
     </row>
     <row r="11" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="169" t="s">
+      <c r="C11" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="145">
+      <c r="D11" s="144">
         <v>0.7</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="149">
         <f>VLOOKUP(C11,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.66300000000000003</v>
       </c>
@@ -47026,10 +47024,10 @@
         <f t="shared" si="21"/>
         <v>5.6828571428571437E-2</v>
       </c>
-      <c r="H11" s="145">
+      <c r="H11" s="144">
         <v>0.83</v>
       </c>
-      <c r="I11" s="151">
+      <c r="I11" s="150">
         <f>VLOOKUP(C11,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.99099999999999999</v>
       </c>
@@ -47041,7 +47039,7 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L11" s="354" t="s">
+      <c r="L11" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M11" s="80" t="s">
@@ -47072,7 +47070,7 @@
       <c r="T11" s="141">
         <v>0.62</v>
       </c>
-      <c r="U11" s="151">
+      <c r="U11" s="150">
         <f>VLOOKUP(C11,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.47816593886462883</v>
       </c>
@@ -47084,8 +47082,8 @@
         <f t="shared" si="24"/>
         <v>3.0849415410621216E-2</v>
       </c>
-      <c r="X11" s="142" t="s">
-        <v>86</v>
+      <c r="X11" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y11" s="138">
         <f>VLOOKUP(C11,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47105,10 +47103,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD11" s="148" t="s">
+      <c r="AD11" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE11" s="152">
+      <c r="AE11" s="151">
         <v>0.75</v>
       </c>
       <c r="AF11" s="139">
@@ -47118,7 +47116,7 @@
       <c r="AG11" s="10">
         <v>2642000</v>
       </c>
-      <c r="AH11" s="156">
+      <c r="AH11" s="154">
         <f>VLOOKUP(C11,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1604426</v>
       </c>
@@ -47130,10 +47128,10 @@
         <f t="shared" si="25"/>
         <v>0.12145541256623771</v>
       </c>
-      <c r="AK11" s="143">
+      <c r="AK11" s="142">
         <v>1.17</v>
       </c>
-      <c r="AL11" s="159">
+      <c r="AL11" s="157">
         <f>VLOOKUP(C11,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.19</v>
       </c>
@@ -47171,7 +47169,7 @@
       <c r="AW11" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX11" s="151">
+      <c r="AX11" s="150">
         <f>VLOOKUP(C11,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -47186,7 +47184,7 @@
       <c r="BA11" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB11" s="151">
+      <c r="BB11" s="150">
         <f>VLOOKUP(C11,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.97275204359673029</v>
       </c>
@@ -47194,7 +47192,7 @@
         <f t="shared" si="17"/>
         <v>1.0808356039963669</v>
       </c>
-      <c r="BD11" s="144">
+      <c r="BD11" s="143">
         <f t="shared" si="18"/>
         <v>0.48637602179836514</v>
       </c>
@@ -47205,16 +47203,16 @@
       <c r="BG11" s="4"/>
     </row>
     <row r="12" spans="2:59" ht="42.6" customHeight="1">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="144">
         <v>0.7</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="149">
         <f>VLOOKUP(C12,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.56699999999999995</v>
       </c>
@@ -47226,10 +47224,10 @@
         <f t="shared" si="21"/>
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="H12" s="145">
+      <c r="H12" s="144">
         <v>0.83</v>
       </c>
-      <c r="I12" s="151">
+      <c r="I12" s="150">
         <f>VLOOKUP(C12,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.90300000000000002</v>
       </c>
@@ -47241,7 +47239,7 @@
         <f t="shared" si="22"/>
         <v>0.06</v>
       </c>
-      <c r="L12" s="354" t="s">
+      <c r="L12" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M12" s="80" t="s">
@@ -47272,7 +47270,7 @@
       <c r="T12" s="141">
         <v>0.75</v>
       </c>
-      <c r="U12" s="151">
+      <c r="U12" s="150">
         <f>VLOOKUP(C12,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.54455445544554459</v>
       </c>
@@ -47284,8 +47282,8 @@
         <f t="shared" si="24"/>
         <v>2.9042904290429043E-2</v>
       </c>
-      <c r="X12" s="142" t="s">
-        <v>86</v>
+      <c r="X12" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y12" s="138">
         <f>VLOOKUP(C12,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47305,10 +47303,10 @@
         <f t="shared" si="11"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AD12" s="148" t="s">
+      <c r="AD12" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE12" s="152">
+      <c r="AE12" s="151">
         <v>0.75</v>
       </c>
       <c r="AF12" s="139">
@@ -47318,7 +47316,7 @@
       <c r="AG12" s="10">
         <v>1142000</v>
       </c>
-      <c r="AH12" s="156">
+      <c r="AH12" s="154">
         <f>VLOOKUP(C12,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>579421</v>
       </c>
@@ -47330,10 +47328,10 @@
         <f t="shared" si="25"/>
         <v>0.10147478108581437</v>
       </c>
-      <c r="AK12" s="143">
+      <c r="AK12" s="142">
         <v>0.9</v>
       </c>
-      <c r="AL12" s="159">
+      <c r="AL12" s="157">
         <f>VLOOKUP(C12,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.08</v>
       </c>
@@ -47371,7 +47369,7 @@
       <c r="AW12" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX12" s="151">
+      <c r="AX12" s="150">
         <f>VLOOKUP(C12,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -47386,7 +47384,7 @@
       <c r="BA12" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB12" s="151">
+      <c r="BB12" s="150">
         <f>VLOOKUP(C12,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.82099343955014059</v>
       </c>
@@ -47394,7 +47392,7 @@
         <f t="shared" si="17"/>
         <v>0.91221493283348953</v>
       </c>
-      <c r="BD12" s="144">
+      <c r="BD12" s="143">
         <f t="shared" si="18"/>
         <v>0.4104967197750703</v>
       </c>
@@ -47405,16 +47403,16 @@
       <c r="BG12" s="4"/>
     </row>
     <row r="13" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="144">
         <v>0.7</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="149">
         <f>VLOOKUP(C13,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.76300000000000001</v>
       </c>
@@ -47426,10 +47424,10 @@
         <f>IF(F13&gt;=100%,6%,F13*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H13" s="145">
+      <c r="H13" s="144">
         <v>0.88</v>
       </c>
-      <c r="I13" s="151">
+      <c r="I13" s="150">
         <f>VLOOKUP(C13,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.95599999999999996</v>
       </c>
@@ -47441,7 +47439,7 @@
         <f>IF(J13&gt;=100%,6%,J13*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L13" s="354" t="s">
+      <c r="L13" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M13" s="80" t="s">
@@ -47461,7 +47459,7 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="R13" s="256">
+      <c r="R13" s="254">
         <f t="shared" si="7"/>
         <v>1.1111111111111112</v>
       </c>
@@ -47472,7 +47470,7 @@
       <c r="T13" s="141">
         <v>0.74</v>
       </c>
-      <c r="U13" s="151">
+      <c r="U13" s="150">
         <f>VLOOKUP(C13,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.73988439306358378</v>
       </c>
@@ -47484,8 +47482,8 @@
         <f>IF(V13&gt;=100%,4%,V13*4%/100%)</f>
         <v>3.9993750976409941E-2</v>
       </c>
-      <c r="X13" s="142" t="s">
-        <v>86</v>
+      <c r="X13" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y13" s="138">
         <f>VLOOKUP(C13,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47505,10 +47503,10 @@
         <f t="shared" si="11"/>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AD13" s="148" t="s">
+      <c r="AD13" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE13" s="152">
+      <c r="AE13" s="151">
         <v>0.75</v>
       </c>
       <c r="AF13" s="139">
@@ -47518,7 +47516,7 @@
       <c r="AG13" s="10">
         <v>3400000</v>
       </c>
-      <c r="AH13" s="156">
+      <c r="AH13" s="154">
         <f>VLOOKUP(C13,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1760989</v>
       </c>
@@ -47530,10 +47528,10 @@
         <f>IF(AI13&gt;=100%,20%,AI13*20%/100%)</f>
         <v>0.10358758823529413</v>
       </c>
-      <c r="AK13" s="143">
+      <c r="AK13" s="142">
         <v>1.48</v>
       </c>
-      <c r="AL13" s="159">
+      <c r="AL13" s="157">
         <f>VLOOKUP(C13,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.44</v>
       </c>
@@ -47571,7 +47569,7 @@
       <c r="AW13" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX13" s="151">
+      <c r="AX13" s="150">
         <f>VLOOKUP(C13,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -47586,7 +47584,7 @@
       <c r="BA13" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB13" s="151">
+      <c r="BB13" s="150">
         <f>VLOOKUP(C13,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -47594,7 +47592,7 @@
         <f t="shared" si="17"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BD13" s="144">
+      <c r="BD13" s="143">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
@@ -47605,16 +47603,16 @@
       <c r="BG13" s="4"/>
     </row>
     <row r="14" spans="2:59" ht="41.45" customHeight="1">
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="145">
+      <c r="D14" s="144">
         <v>0.75</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="149">
         <f>VLOOKUP(C14,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.76100000000000001</v>
       </c>
@@ -47626,10 +47624,10 @@
         <f>IF(F14&gt;=100%,6%,F14*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H14" s="145">
+      <c r="H14" s="144">
         <v>0.83</v>
       </c>
-      <c r="I14" s="151">
+      <c r="I14" s="150">
         <f>VLOOKUP(C14,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.878</v>
       </c>
@@ -47641,7 +47639,7 @@
         <f>IF(J14&gt;=100%,6%,J14*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L14" s="354" t="s">
+      <c r="L14" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M14" s="80" t="s">
@@ -47669,10 +47667,10 @@
         <f t="shared" si="29"/>
         <v>3.8637992831541221E-2</v>
       </c>
-      <c r="T14" s="145">
+      <c r="T14" s="144">
         <v>0.71</v>
       </c>
-      <c r="U14" s="151">
+      <c r="U14" s="150">
         <f>VLOOKUP(C14,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.54352941176470593</v>
       </c>
@@ -47684,8 +47682,8 @@
         <f t="shared" si="24"/>
         <v>3.0621375310687659E-2</v>
       </c>
-      <c r="X14" s="142" t="s">
-        <v>86</v>
+      <c r="X14" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y14" s="138">
         <f>VLOOKUP(C14,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47695,17 +47693,17 @@
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA14" s="170" t="s">
+      <c r="AA14" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="170" t="s">
+      <c r="AB14" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AC14" s="170"/>
-      <c r="AD14" s="148" t="s">
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE14" s="152">
+      <c r="AE14" s="151">
         <v>0.75</v>
       </c>
       <c r="AF14" s="139">
@@ -47715,7 +47713,7 @@
       <c r="AG14" s="10">
         <v>2360000</v>
       </c>
-      <c r="AH14" s="156">
+      <c r="AH14" s="154">
         <f>VLOOKUP(C14,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>1705808</v>
       </c>
@@ -47727,10 +47725,10 @@
         <f>IF(AI14&gt;=100%,20%,AI14*20%/100%)</f>
         <v>0.14455999999999999</v>
       </c>
-      <c r="AK14" s="143">
+      <c r="AK14" s="142">
         <v>1.39</v>
       </c>
-      <c r="AL14" s="159">
+      <c r="AL14" s="157">
         <f>VLOOKUP(C14,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.37</v>
       </c>
@@ -47768,7 +47766,7 @@
       <c r="AW14" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX14" s="151">
+      <c r="AX14" s="150">
         <f>VLOOKUP(C14,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.94</v>
       </c>
@@ -47783,7 +47781,7 @@
       <c r="BA14" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB14" s="151">
+      <c r="BB14" s="150">
         <f>VLOOKUP(C14,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.83870967741935487</v>
       </c>
@@ -47791,7 +47789,7 @@
         <f t="shared" si="17"/>
         <v>0.93189964157706096</v>
       </c>
-      <c r="BD14" s="144">
+      <c r="BD14" s="143">
         <f t="shared" si="18"/>
         <v>0.41935483870967744</v>
       </c>
@@ -47802,16 +47800,16 @@
       <c r="BG14" s="4"/>
     </row>
     <row r="15" spans="2:59" ht="40.700000000000003" customHeight="1">
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="169" t="s">
+      <c r="C15" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="145">
+      <c r="D15" s="144">
         <v>0.84</v>
       </c>
-      <c r="E15" s="150">
+      <c r="E15" s="149">
         <f>VLOOKUP(C15,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.89200000000000002</v>
       </c>
@@ -47823,10 +47821,10 @@
         <f>IF(F15&gt;=100%,6%,F15*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H15" s="145">
+      <c r="H15" s="144">
         <v>0.9</v>
       </c>
-      <c r="I15" s="151">
+      <c r="I15" s="150">
         <f>VLOOKUP(C15,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.94499999999999995</v>
       </c>
@@ -47838,7 +47836,7 @@
         <f>IF(J15&gt;=100%,6%,J15*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L15" s="354" t="s">
+      <c r="L15" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M15" s="80" t="s">
@@ -47869,7 +47867,7 @@
       <c r="T15" s="141">
         <v>0.74</v>
       </c>
-      <c r="U15" s="151">
+      <c r="U15" s="150">
         <f>VLOOKUP(C15,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.70674486803519065</v>
       </c>
@@ -47881,8 +47879,8 @@
         <f t="shared" si="24"/>
         <v>3.8202425299199497E-2</v>
       </c>
-      <c r="X15" s="142" t="s">
-        <v>86</v>
+      <c r="X15" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y15" s="138">
         <f>VLOOKUP(C15,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -47892,17 +47890,17 @@
         <f t="shared" si="10"/>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="AA15" s="170" t="s">
+      <c r="AA15" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" s="170" t="s">
+      <c r="AB15" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" s="170"/>
-      <c r="AD15" s="148" t="s">
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE15" s="152">
+      <c r="AE15" s="151">
         <v>0.75</v>
       </c>
       <c r="AF15" s="139">
@@ -47912,7 +47910,7 @@
       <c r="AG15" s="10">
         <v>4850000</v>
       </c>
-      <c r="AH15" s="156">
+      <c r="AH15" s="154">
         <f>VLOOKUP(C15,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>2167868</v>
       </c>
@@ -47924,10 +47922,10 @@
         <f t="shared" ref="AJ15:AJ17" si="31">IF(AI15&gt;=100%,20%,AI15*20%/100%)</f>
         <v>8.9396618556701044E-2</v>
       </c>
-      <c r="AK15" s="143">
+      <c r="AK15" s="142">
         <v>1.27</v>
       </c>
-      <c r="AL15" s="159">
+      <c r="AL15" s="157">
         <f>VLOOKUP(C15,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>1.56</v>
       </c>
@@ -47965,7 +47963,7 @@
       <c r="AW15" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX15" s="151">
+      <c r="AX15" s="150">
         <f>VLOOKUP(C15,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0.86956521739130432</v>
       </c>
@@ -47980,7 +47978,7 @@
       <c r="BA15" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB15" s="151">
+      <c r="BB15" s="150">
         <f>VLOOKUP(C15,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.93508936970837253</v>
       </c>
@@ -47988,7 +47986,7 @@
         <f t="shared" si="17"/>
         <v>1.0389881885648584</v>
       </c>
-      <c r="BD15" s="144">
+      <c r="BD15" s="143">
         <f t="shared" si="18"/>
         <v>0.45</v>
       </c>
@@ -47998,16 +47996,16 @@
       </c>
     </row>
     <row r="16" spans="2:59" ht="40.35" customHeight="1">
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="144">
         <v>0.85</v>
       </c>
-      <c r="E16" s="150">
+      <c r="E16" s="149">
         <f>VLOOKUP(C16,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.89500000000000002</v>
       </c>
@@ -48019,10 +48017,10 @@
         <f>IF(F16&gt;=100%,6%,F16*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="H16" s="145">
+      <c r="H16" s="144">
         <v>0.87</v>
       </c>
-      <c r="I16" s="151">
+      <c r="I16" s="150">
         <f>VLOOKUP(C16,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.93400000000000005</v>
       </c>
@@ -48034,7 +48032,7 @@
         <f>IF(J16&gt;=100%,6%,J16*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L16" s="354" t="s">
+      <c r="L16" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M16" s="80" t="s">
@@ -48065,7 +48063,7 @@
       <c r="T16" s="141">
         <v>0.68</v>
       </c>
-      <c r="U16" s="151">
+      <c r="U16" s="150">
         <f>VLOOKUP(C16,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.55658436213991769</v>
       </c>
@@ -48077,8 +48075,8 @@
         <f>IF(V16&gt;=100%,4%,V16*4%/100%)</f>
         <v>3.274025659646574E-2</v>
       </c>
-      <c r="X16" s="142" t="s">
-        <v>86</v>
+      <c r="X16" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y16" s="138">
         <f>VLOOKUP(C16,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -48088,17 +48086,17 @@
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA16" s="170" t="s">
+      <c r="AA16" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AB16" s="170" t="s">
+      <c r="AB16" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" s="170"/>
-      <c r="AD16" s="148" t="s">
+      <c r="AC16" s="168"/>
+      <c r="AD16" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE16" s="152">
+      <c r="AE16" s="151">
         <v>0.75</v>
       </c>
       <c r="AF16" s="139">
@@ -48108,7 +48106,7 @@
       <c r="AG16" s="10">
         <v>2153000</v>
       </c>
-      <c r="AH16" s="156">
+      <c r="AH16" s="154">
         <f>VLOOKUP(C16,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>862181</v>
       </c>
@@ -48120,10 +48118,10 @@
         <f t="shared" si="31"/>
         <v>8.0091128657686958E-2</v>
       </c>
-      <c r="AK16" s="143">
+      <c r="AK16" s="142">
         <v>0.84</v>
       </c>
-      <c r="AL16" s="159">
+      <c r="AL16" s="157">
         <f>VLOOKUP(C16,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0.81</v>
       </c>
@@ -48161,7 +48159,7 @@
       <c r="AW16" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX16" s="151">
+      <c r="AX16" s="150">
         <f>VLOOKUP(C16,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -48176,7 +48174,7 @@
       <c r="BA16" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB16" s="151">
+      <c r="BB16" s="150">
         <f>VLOOKUP(C16,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.92381919756221431</v>
       </c>
@@ -48184,7 +48182,7 @@
         <f t="shared" si="17"/>
         <v>1.0264657750691271</v>
       </c>
-      <c r="BD16" s="144">
+      <c r="BD16" s="143">
         <f t="shared" si="18"/>
         <v>0.46190959878110721</v>
       </c>
@@ -48194,16 +48192,16 @@
       </c>
     </row>
     <row r="17" spans="2:57" ht="42" customHeight="1">
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="169" t="s">
+      <c r="C17" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="145">
+      <c r="D17" s="144">
         <v>0.7</v>
       </c>
-      <c r="E17" s="150">
+      <c r="E17" s="149">
         <f>VLOOKUP(C17,WB!$C$78:$U$92,WB!$J$76,FALSE)</f>
         <v>0.56200000000000006</v>
       </c>
@@ -48215,10 +48213,10 @@
         <f>IF(F17&gt;=100%,6%,F17*6%/100%)</f>
         <v>4.8171428571428573E-2</v>
       </c>
-      <c r="H17" s="145">
+      <c r="H17" s="144">
         <v>0.88</v>
       </c>
-      <c r="I17" s="151">
+      <c r="I17" s="150">
         <f>VLOOKUP(C17,WB!$C$78:$U$92,WB!$K$76,FALSE)</f>
         <v>0.93</v>
       </c>
@@ -48230,7 +48228,7 @@
         <f>IF(J17&gt;=100%,6%,J17*6%/100%)</f>
         <v>0.06</v>
       </c>
-      <c r="L17" s="354" t="s">
+      <c r="L17" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M17" s="80" t="s">
@@ -48261,7 +48259,7 @@
       <c r="T17" s="141">
         <v>0.53</v>
       </c>
-      <c r="U17" s="151">
+      <c r="U17" s="150">
         <f>VLOOKUP(C17,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0</v>
       </c>
@@ -48273,8 +48271,8 @@
         <f>IF(V17&gt;=100%,4%,V17*4%/100%)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="142" t="s">
-        <v>86</v>
+      <c r="X17" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y17" s="138">
         <f>VLOOKUP(C17,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -48284,17 +48282,17 @@
         <f t="shared" si="10"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AA17" s="170" t="s">
+      <c r="AA17" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AB17" s="170" t="s">
+      <c r="AB17" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AC17" s="170"/>
-      <c r="AD17" s="148" t="s">
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE17" s="152">
+      <c r="AE17" s="151">
         <v>0.75</v>
       </c>
       <c r="AF17" s="139">
@@ -48304,7 +48302,7 @@
       <c r="AG17" s="10">
         <v>700000</v>
       </c>
-      <c r="AH17" s="156">
+      <c r="AH17" s="154">
         <f>VLOOKUP(C17,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>219059</v>
       </c>
@@ -48316,10 +48314,10 @@
         <f t="shared" si="31"/>
         <v>6.2588285714285721E-2</v>
       </c>
-      <c r="AK17" s="143">
+      <c r="AK17" s="142">
         <v>1.03</v>
       </c>
-      <c r="AL17" s="159">
+      <c r="AL17" s="157">
         <f>VLOOKUP(C17,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0</v>
       </c>
@@ -48357,7 +48355,7 @@
       <c r="AW17" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX17" s="151">
+      <c r="AX17" s="150">
         <f>VLOOKUP(C17,WB!$B$42:$U$73,WB!$I$40,FALSE)</f>
         <v>0.95218855218855225</v>
       </c>
@@ -48372,7 +48370,7 @@
       <c r="BA17" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB17" s="151">
+      <c r="BB17" s="150">
         <f>VLOOKUP(C17,WB!$B$42:$U$73,WB!$H$40,FALSE)</f>
         <v>0.6965202562053977</v>
       </c>
@@ -48380,7 +48378,7 @@
         <f t="shared" si="17"/>
         <v>0.77391139578377521</v>
       </c>
-      <c r="BD17" s="144">
+      <c r="BD17" s="143">
         <f t="shared" si="18"/>
         <v>0.34826012810269885</v>
       </c>
@@ -48390,13 +48388,13 @@
       </c>
     </row>
     <row r="18" spans="2:57" ht="58.35" customHeight="1">
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="80" t="s">
@@ -48408,10 +48406,10 @@
       <c r="G18" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="146" t="s">
+      <c r="H18" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="146" t="s">
+      <c r="I18" s="145" t="s">
         <v>107</v>
       </c>
       <c r="J18" s="80" t="s">
@@ -48420,7 +48418,7 @@
       <c r="K18" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="L18" s="354" t="s">
+      <c r="L18" s="256" t="s">
         <v>261</v>
       </c>
       <c r="M18" s="80" t="s">
@@ -48451,7 +48449,7 @@
       <c r="T18" s="141">
         <v>0.63</v>
       </c>
-      <c r="U18" s="151">
+      <c r="U18" s="150">
         <f>VLOOKUP(C18,WB!$C$137:$AA$154,WB!$Q$136,FALSE)</f>
         <v>0.37886597938144329</v>
       </c>
@@ -48463,8 +48461,8 @@
         <f>IF(V18&gt;=100%,5%,V18*5%/100%)</f>
         <v>3.006872852233677E-2</v>
       </c>
-      <c r="X18" s="142" t="s">
-        <v>86</v>
+      <c r="X18" s="353" t="s">
+        <v>262</v>
       </c>
       <c r="Y18" s="138">
         <f>VLOOKUP(C18,WB!$R$3:$AD$18,WB!$AD$2,FALSE)</f>
@@ -48474,17 +48472,17 @@
         <f t="shared" si="10"/>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="AA18" s="170" t="s">
+      <c r="AA18" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AB18" s="170" t="s">
+      <c r="AB18" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="148" t="s">
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="AE18" s="152">
+      <c r="AE18" s="151">
         <v>0.75</v>
       </c>
       <c r="AF18" s="139">
@@ -48494,7 +48492,7 @@
       <c r="AG18" s="10">
         <v>100000</v>
       </c>
-      <c r="AH18" s="156">
+      <c r="AH18" s="154">
         <f>VLOOKUP(C18,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>55143</v>
       </c>
@@ -48506,10 +48504,10 @@
         <f>IF(AI18&gt;=100%,25%,AI18*25%/100%)</f>
         <v>0.13785749999999999</v>
       </c>
-      <c r="AK18" s="143">
+      <c r="AK18" s="142">
         <v>2.02</v>
       </c>
-      <c r="AL18" s="159">
+      <c r="AL18" s="157">
         <f>VLOOKUP(C18,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v>0</v>
       </c>
@@ -48521,7 +48519,7 @@
         <f>IF(AM18&gt;=100%,10%,AM18*10%/100%)</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="146">
+      <c r="AO18" s="145">
         <v>742</v>
       </c>
       <c r="AP18" s="43">
@@ -48536,10 +48534,10 @@
         <f>IF(AQ18&gt;=100%,35%,AQ18*35%/100%)</f>
         <v>0.15094339622641509</v>
       </c>
-      <c r="AS18" s="146" t="s">
+      <c r="AS18" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="AT18" s="146" t="s">
+      <c r="AT18" s="145" t="s">
         <v>101</v>
       </c>
       <c r="AU18" s="78"/>
@@ -48547,7 +48545,7 @@
       <c r="AW18" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX18" s="151">
+      <c r="AX18" s="150">
         <f>VLOOKUP(C18,WB!$B$42:$U$73,WB!$I$40,FALSE)</f>
         <v>0.75800865800865802</v>
       </c>
@@ -48562,7 +48560,7 @@
       <c r="BA18" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB18" s="151">
+      <c r="BB18" s="150">
         <f>VLOOKUP(C18,WB!$B$42:$U$73,WB!$H$40,FALSE)</f>
         <v>0.29951303170910376</v>
       </c>
@@ -48570,7 +48568,7 @@
         <f t="shared" si="17"/>
         <v>0.3327922574545597</v>
       </c>
-      <c r="BD18" s="144">
+      <c r="BD18" s="143">
         <f t="shared" si="18"/>
         <v>0.14975651585455188</v>
       </c>
@@ -48580,13 +48578,13 @@
       </c>
     </row>
     <row r="19" spans="2:57">
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="80" t="s">
@@ -48596,17 +48594,17 @@
         <v>107</v>
       </c>
       <c r="G19" s="139"/>
-      <c r="H19" s="146" t="s">
+      <c r="H19" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="146" t="s">
+      <c r="I19" s="145" t="s">
         <v>101</v>
       </c>
       <c r="J19" s="80" t="s">
         <v>107</v>
       </c>
       <c r="K19" s="80"/>
-      <c r="L19" s="146" t="s">
+      <c r="L19" s="145" t="s">
         <v>101</v>
       </c>
       <c r="M19" s="80"/>
@@ -48636,21 +48634,21 @@
         <v>#N/A</v>
       </c>
       <c r="W19" s="140"/>
-      <c r="X19" s="147" t="s">
+      <c r="X19" s="146" t="s">
         <v>101</v>
       </c>
       <c r="Y19" s="80"/>
       <c r="Z19" s="80"/>
-      <c r="AA19" s="170"/>
-      <c r="AB19" s="170"/>
-      <c r="AC19" s="170"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
+      <c r="AC19" s="168"/>
       <c r="AD19" s="78"/>
       <c r="AE19" s="78"/>
       <c r="AF19" s="78"/>
       <c r="AG19" s="10">
         <v>597149</v>
       </c>
-      <c r="AH19" s="156">
+      <c r="AH19" s="154">
         <f>VLOOKUP(C19,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>290483</v>
       </c>
@@ -48659,10 +48657,10 @@
         <v>0.48644978054053511</v>
       </c>
       <c r="AJ19" s="78"/>
-      <c r="AK19" s="143">
+      <c r="AK19" s="142">
         <v>0.51</v>
       </c>
-      <c r="AL19" s="159" t="str">
+      <c r="AL19" s="157" t="str">
         <f>VLOOKUP(C19,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -48671,7 +48669,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AN19" s="78"/>
-      <c r="AO19" s="146">
+      <c r="AO19" s="145">
         <v>115</v>
       </c>
       <c r="AP19" s="43">
@@ -48683,10 +48681,10 @@
         <v>0.82608695652173914</v>
       </c>
       <c r="AR19" s="78"/>
-      <c r="AS19" s="146" t="s">
+      <c r="AS19" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="AT19" s="146" t="s">
+      <c r="AT19" s="145" t="s">
         <v>101</v>
       </c>
       <c r="AU19" s="78"/>
@@ -48694,7 +48692,7 @@
       <c r="AW19" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX19" s="151">
+      <c r="AX19" s="150">
         <f>VLOOKUP(C19,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0</v>
       </c>
@@ -48702,14 +48700,14 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AZ19" s="144">
+      <c r="AZ19" s="143">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BA19" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB19" s="151">
+      <c r="BB19" s="150">
         <f>VLOOKUP(C19,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>3.5587188612099642E-3</v>
       </c>
@@ -48717,20 +48715,20 @@
         <f t="shared" si="17"/>
         <v>3.9541320680110716E-3</v>
       </c>
-      <c r="BD19" s="144">
+      <c r="BD19" s="143">
         <f t="shared" si="18"/>
         <v>1.7793594306049823E-3</v>
       </c>
       <c r="BE19" s="78"/>
     </row>
     <row r="20" spans="2:57">
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="169" t="s">
+      <c r="C20" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="80" t="s">
@@ -48740,17 +48738,17 @@
         <v>107</v>
       </c>
       <c r="G20" s="139"/>
-      <c r="H20" s="146" t="s">
+      <c r="H20" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="146" t="s">
+      <c r="I20" s="145" t="s">
         <v>101</v>
       </c>
       <c r="J20" s="80" t="s">
         <v>107</v>
       </c>
       <c r="K20" s="80"/>
-      <c r="L20" s="146" t="s">
+      <c r="L20" s="145" t="s">
         <v>101</v>
       </c>
       <c r="M20" s="80"/>
@@ -48780,21 +48778,21 @@
         <v>#N/A</v>
       </c>
       <c r="W20" s="140"/>
-      <c r="X20" s="147" t="s">
+      <c r="X20" s="146" t="s">
         <v>101</v>
       </c>
       <c r="Y20" s="80"/>
       <c r="Z20" s="80"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="170"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
+      <c r="AC20" s="168"/>
       <c r="AD20" s="78"/>
       <c r="AE20" s="78"/>
       <c r="AF20" s="78"/>
       <c r="AG20" s="10">
         <v>320320</v>
       </c>
-      <c r="AH20" s="156">
+      <c r="AH20" s="154">
         <f>VLOOKUP(C20,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>168353</v>
       </c>
@@ -48803,10 +48801,10 @@
         <v>0.52557754745254748</v>
       </c>
       <c r="AJ20" s="78"/>
-      <c r="AK20" s="143">
+      <c r="AK20" s="142">
         <v>0.6</v>
       </c>
-      <c r="AL20" s="159" t="str">
+      <c r="AL20" s="157" t="str">
         <f>VLOOKUP(C20,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -48828,10 +48826,10 @@
       <c r="AR20" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="AS20" s="146" t="s">
+      <c r="AS20" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="AT20" s="146" t="s">
+      <c r="AT20" s="145" t="s">
         <v>101</v>
       </c>
       <c r="AU20" s="78"/>
@@ -48839,7 +48837,7 @@
       <c r="AW20" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX20" s="151">
+      <c r="AX20" s="150">
         <f>VLOOKUP(C20,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -48847,14 +48845,14 @@
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AZ20" s="144">
+      <c r="AZ20" s="143">
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
       <c r="BA20" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB20" s="151">
+      <c r="BB20" s="150">
         <f>VLOOKUP(C20,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.83783783783783783</v>
       </c>
@@ -48862,20 +48860,20 @@
         <f t="shared" si="17"/>
         <v>0.93093093093093093</v>
       </c>
-      <c r="BD20" s="144">
+      <c r="BD20" s="143">
         <f t="shared" si="18"/>
         <v>0.41891891891891891</v>
       </c>
       <c r="BE20" s="78"/>
     </row>
     <row r="21" spans="2:57">
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="169" t="s">
+      <c r="C21" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="80" t="s">
@@ -48885,17 +48883,17 @@
         <v>107</v>
       </c>
       <c r="G21" s="139"/>
-      <c r="H21" s="146" t="s">
+      <c r="H21" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="146" t="s">
+      <c r="I21" s="145" t="s">
         <v>101</v>
       </c>
       <c r="J21" s="80" t="s">
         <v>107</v>
       </c>
       <c r="K21" s="80"/>
-      <c r="L21" s="146" t="s">
+      <c r="L21" s="145" t="s">
         <v>101</v>
       </c>
       <c r="M21" s="80"/>
@@ -48925,21 +48923,21 @@
         <v>#N/A</v>
       </c>
       <c r="W21" s="140"/>
-      <c r="X21" s="147" t="s">
+      <c r="X21" s="146" t="s">
         <v>101</v>
       </c>
       <c r="Y21" s="80"/>
       <c r="Z21" s="80"/>
-      <c r="AA21" s="170"/>
-      <c r="AB21" s="170"/>
-      <c r="AC21" s="170"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
+      <c r="AC21" s="168"/>
       <c r="AD21" s="78"/>
       <c r="AE21" s="78"/>
       <c r="AF21" s="78"/>
       <c r="AG21" s="10">
         <v>113417</v>
       </c>
-      <c r="AH21" s="156">
+      <c r="AH21" s="154">
         <f>VLOOKUP(C21,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>53204</v>
       </c>
@@ -48948,10 +48946,10 @@
         <v>0.4691007520918381</v>
       </c>
       <c r="AJ21" s="78"/>
-      <c r="AK21" s="143">
+      <c r="AK21" s="142">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AL21" s="159" t="str">
+      <c r="AL21" s="157" t="str">
         <f>VLOOKUP(C21,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -48973,10 +48971,10 @@
       <c r="AR21" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="AS21" s="146" t="s">
+      <c r="AS21" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="AT21" s="146" t="s">
+      <c r="AT21" s="145" t="s">
         <v>101</v>
       </c>
       <c r="AU21" s="78"/>
@@ -48984,7 +48982,7 @@
       <c r="AW21" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX21" s="151">
+      <c r="AX21" s="150">
         <f>VLOOKUP(C21,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>0</v>
       </c>
@@ -48992,14 +48990,14 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AZ21" s="144">
+      <c r="AZ21" s="143">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BA21" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB21" s="151">
+      <c r="BB21" s="150">
         <f>VLOOKUP(C21,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>0.53551912568306015</v>
       </c>
@@ -49007,20 +49005,20 @@
         <f t="shared" si="17"/>
         <v>0.59502125075895573</v>
       </c>
-      <c r="BD21" s="144">
+      <c r="BD21" s="143">
         <f t="shared" si="18"/>
         <v>0.26775956284153007</v>
       </c>
       <c r="BE21" s="78"/>
     </row>
     <row r="22" spans="2:57">
-      <c r="B22" s="167" t="s">
+      <c r="B22" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="169" t="s">
+      <c r="C22" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="145" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="80" t="s">
@@ -49030,17 +49028,17 @@
         <v>107</v>
       </c>
       <c r="G22" s="139"/>
-      <c r="H22" s="146" t="s">
+      <c r="H22" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="146" t="s">
+      <c r="I22" s="145" t="s">
         <v>101</v>
       </c>
       <c r="J22" s="80" t="s">
         <v>107</v>
       </c>
       <c r="K22" s="80"/>
-      <c r="L22" s="146" t="s">
+      <c r="L22" s="145" t="s">
         <v>101</v>
       </c>
       <c r="M22" s="80"/>
@@ -49070,21 +49068,21 @@
         <v>#N/A</v>
       </c>
       <c r="W22" s="140"/>
-      <c r="X22" s="147" t="s">
+      <c r="X22" s="146" t="s">
         <v>101</v>
       </c>
       <c r="Y22" s="80"/>
       <c r="Z22" s="80"/>
-      <c r="AA22" s="170"/>
-      <c r="AB22" s="170"/>
-      <c r="AC22" s="170"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
+      <c r="AC22" s="168"/>
       <c r="AD22" s="78"/>
       <c r="AE22" s="78"/>
       <c r="AF22" s="78"/>
       <c r="AG22" s="10">
         <v>266933</v>
       </c>
-      <c r="AH22" s="156">
+      <c r="AH22" s="154">
         <f>VLOOKUP(C22,WB!$C$99:$U$132,WB!$J$98,FALSE)</f>
         <v>177187</v>
       </c>
@@ -49093,10 +49091,10 @@
         <v>0.66378829144392038</v>
       </c>
       <c r="AJ22" s="78"/>
-      <c r="AK22" s="143">
+      <c r="AK22" s="142">
         <v>0.59</v>
       </c>
-      <c r="AL22" s="159" t="str">
+      <c r="AL22" s="157" t="str">
         <f>VLOOKUP(C22,WB!$C$99:$U$132,WB!$K$98,FALSE)</f>
         <v xml:space="preserve"> -   </v>
       </c>
@@ -49118,10 +49116,10 @@
       <c r="AR22" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="AS22" s="146" t="s">
+      <c r="AS22" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="AT22" s="146" t="s">
+      <c r="AT22" s="145" t="s">
         <v>101</v>
       </c>
       <c r="AU22" s="78"/>
@@ -49129,7 +49127,7 @@
       <c r="AW22" s="81">
         <v>0.9</v>
       </c>
-      <c r="AX22" s="151">
+      <c r="AX22" s="150">
         <f>VLOOKUP(C22,WB!$B$42:$U$71,WB!$I$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -49137,14 +49135,14 @@
         <f t="shared" si="20"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="AZ22" s="144">
+      <c r="AZ22" s="143">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="BA22" s="81">
         <v>0.9</v>
       </c>
-      <c r="BB22" s="151">
+      <c r="BB22" s="150">
         <f>VLOOKUP(C22,WB!$B$42:$U$71,WB!$H$40,FALSE)</f>
         <v>1</v>
       </c>
@@ -49152,7 +49150,7 @@
         <f t="shared" si="17"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="BD22" s="144">
+      <c r="BD22" s="143">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
@@ -49230,220 +49228,220 @@
     <row r="7" spans="2:55" ht="28.7" customHeight="1"/>
     <row r="8" spans="2:55" ht="17.45" customHeight="1" thickBot="1"/>
     <row r="9" spans="2:55" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="F9" s="307" t="s">
+      <c r="F9" s="306" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="308"/>
-      <c r="H9" s="308"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
-      <c r="L9" s="308"/>
-      <c r="M9" s="308"/>
-      <c r="N9" s="308"/>
-      <c r="O9" s="308"/>
-      <c r="P9" s="308"/>
-      <c r="Q9" s="308"/>
-      <c r="R9" s="308"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="308"/>
-      <c r="V9" s="308"/>
-      <c r="W9" s="308"/>
-      <c r="X9" s="308"/>
-      <c r="Y9" s="309"/>
-      <c r="Z9" s="310" t="s">
+      <c r="G9" s="307"/>
+      <c r="H9" s="307"/>
+      <c r="I9" s="307"/>
+      <c r="J9" s="307"/>
+      <c r="K9" s="307"/>
+      <c r="L9" s="307"/>
+      <c r="M9" s="307"/>
+      <c r="N9" s="307"/>
+      <c r="O9" s="307"/>
+      <c r="P9" s="307"/>
+      <c r="Q9" s="307"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="307"/>
+      <c r="T9" s="307"/>
+      <c r="U9" s="307"/>
+      <c r="V9" s="307"/>
+      <c r="W9" s="307"/>
+      <c r="X9" s="307"/>
+      <c r="Y9" s="308"/>
+      <c r="Z9" s="309" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="311"/>
-      <c r="AB9" s="311"/>
-      <c r="AC9" s="311"/>
-      <c r="AD9" s="311"/>
-      <c r="AE9" s="311"/>
-      <c r="AF9" s="311"/>
-      <c r="AG9" s="311"/>
-      <c r="AH9" s="312"/>
-      <c r="AI9" s="313" t="s">
+      <c r="AA9" s="310"/>
+      <c r="AB9" s="310"/>
+      <c r="AC9" s="310"/>
+      <c r="AD9" s="310"/>
+      <c r="AE9" s="310"/>
+      <c r="AF9" s="310"/>
+      <c r="AG9" s="310"/>
+      <c r="AH9" s="311"/>
+      <c r="AI9" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="AJ9" s="314"/>
-      <c r="AK9" s="314"/>
-      <c r="AL9" s="314"/>
-      <c r="AM9" s="314"/>
-      <c r="AN9" s="314"/>
-      <c r="AO9" s="314"/>
-      <c r="AP9" s="314"/>
-      <c r="AQ9" s="314"/>
-      <c r="AR9" s="314"/>
-      <c r="AS9" s="314"/>
-      <c r="AT9" s="315"/>
+      <c r="AJ9" s="313"/>
+      <c r="AK9" s="313"/>
+      <c r="AL9" s="313"/>
+      <c r="AM9" s="313"/>
+      <c r="AN9" s="313"/>
+      <c r="AO9" s="313"/>
+      <c r="AP9" s="313"/>
+      <c r="AQ9" s="313"/>
+      <c r="AR9" s="313"/>
+      <c r="AS9" s="313"/>
+      <c r="AT9" s="314"/>
     </row>
     <row r="10" spans="2:55" ht="30.75" thickBot="1">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="225" t="s">
+      <c r="D10" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="226" t="s">
+      <c r="E10" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="244" t="s">
+      <c r="F10" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="245" t="s">
+      <c r="G10" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="245" t="s">
+      <c r="H10" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="245" t="s">
+      <c r="I10" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="245" t="s">
+      <c r="J10" s="243" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="245" t="s">
+      <c r="K10" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="245" t="s">
+      <c r="L10" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="245" t="s">
+      <c r="M10" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="246" t="s">
+      <c r="N10" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="245" t="s">
+      <c r="O10" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="245" t="s">
+      <c r="P10" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="245" t="s">
+      <c r="Q10" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="246" t="s">
+      <c r="R10" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="245" t="s">
+      <c r="S10" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="245" t="s">
+      <c r="T10" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="245" t="s">
+      <c r="U10" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="246" t="s">
+      <c r="V10" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="245" t="s">
+      <c r="W10" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="245" t="s">
+      <c r="X10" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="247" t="s">
+      <c r="Y10" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="251" t="s">
+      <c r="Z10" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="252" t="s">
+      <c r="AA10" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" s="252" t="s">
+      <c r="AB10" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="AC10" s="253" t="s">
+      <c r="AC10" s="251" t="s">
         <v>55</v>
       </c>
-      <c r="AD10" s="252" t="s">
+      <c r="AD10" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="AE10" s="252" t="s">
+      <c r="AE10" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="AF10" s="252" t="s">
+      <c r="AF10" s="250" t="s">
         <v>21</v>
       </c>
-      <c r="AG10" s="252" t="s">
+      <c r="AG10" s="250" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="254" t="s">
+      <c r="AH10" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="AI10" s="248" t="s">
+      <c r="AI10" s="246" t="s">
         <v>60</v>
       </c>
-      <c r="AJ10" s="249" t="s">
+      <c r="AJ10" s="247" t="s">
         <v>61</v>
       </c>
-      <c r="AK10" s="249" t="s">
+      <c r="AK10" s="247" t="s">
         <v>62</v>
       </c>
-      <c r="AL10" s="249" t="s">
+      <c r="AL10" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="AM10" s="249" t="s">
+      <c r="AM10" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="AN10" s="249" t="s">
+      <c r="AN10" s="247" t="s">
         <v>64</v>
       </c>
-      <c r="AO10" s="249" t="s">
+      <c r="AO10" s="247" t="s">
         <v>65</v>
       </c>
-      <c r="AP10" s="249" t="s">
+      <c r="AP10" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="AQ10" s="249" t="s">
+      <c r="AQ10" s="247" t="s">
         <v>67</v>
       </c>
-      <c r="AR10" s="249" t="s">
+      <c r="AR10" s="247" t="s">
         <v>68</v>
       </c>
-      <c r="AS10" s="249" t="s">
+      <c r="AS10" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="AT10" s="250" t="s">
+      <c r="AT10" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="AU10" s="214" t="s">
+      <c r="AU10" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="AV10" s="148" t="s">
+      <c r="AV10" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="AW10" s="148" t="s">
+      <c r="AW10" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="AX10" s="148" t="s">
+      <c r="AX10" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="AY10" s="148" t="s">
+      <c r="AY10" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" s="148" t="s">
+      <c r="AZ10" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="BA10" s="148" t="s">
+      <c r="BA10" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="BB10" s="215" t="s">
+      <c r="BB10" s="213" t="s">
         <v>80</v>
       </c>
-      <c r="BC10" s="236" t="s">
+      <c r="BC10" s="234" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:55" ht="84" hidden="1">
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="80" t="s">
@@ -49452,10 +49450,10 @@
       <c r="D11" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="220" t="s">
+      <c r="E11" s="218" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="222">
+      <c r="F11" s="220">
         <v>0.78</v>
       </c>
       <c r="G11" s="86">
@@ -49479,7 +49477,7 @@
       <c r="M11" s="86">
         <v>0.06</v>
       </c>
-      <c r="N11" s="147" t="s">
+      <c r="N11" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O11" s="80" t="s">
@@ -49515,7 +49513,7 @@
       <c r="Y11" s="125">
         <v>3.4151553095033725E-2</v>
       </c>
-      <c r="Z11" s="209" t="s">
+      <c r="Z11" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA11" s="89">
@@ -49542,7 +49540,7 @@
       <c r="AH11" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI11" s="175">
+      <c r="AI11" s="173">
         <v>22300000</v>
       </c>
       <c r="AJ11" s="80">
@@ -49578,7 +49576,7 @@
       <c r="AT11" s="125">
         <v>0.12044542080145443</v>
       </c>
-      <c r="AU11" s="198">
+      <c r="AU11" s="196">
         <v>0.9</v>
       </c>
       <c r="AV11" s="89">
@@ -49602,12 +49600,12 @@
       <c r="BB11" s="86">
         <v>0.42031490015360984</v>
       </c>
-      <c r="BC11" s="237">
+      <c r="BC11" s="235">
         <v>0.54120496347979752</v>
       </c>
     </row>
     <row r="12" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="80" t="s">
@@ -49616,10 +49614,10 @@
       <c r="D12" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="220" t="s">
+      <c r="E12" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="222">
+      <c r="F12" s="220">
         <v>0.82</v>
       </c>
       <c r="G12" s="86">
@@ -49643,7 +49641,7 @@
       <c r="M12" s="86">
         <v>0.06</v>
       </c>
-      <c r="N12" s="147" t="s">
+      <c r="N12" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O12" s="80" t="s">
@@ -49679,7 +49677,7 @@
       <c r="Y12" s="125">
         <v>3.0287243532560213E-2</v>
       </c>
-      <c r="Z12" s="209" t="s">
+      <c r="Z12" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA12" s="89">
@@ -49706,7 +49704,7 @@
       <c r="AH12" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI12" s="175">
+      <c r="AI12" s="173">
         <v>3200000</v>
       </c>
       <c r="AJ12" s="80">
@@ -49742,7 +49740,7 @@
       <c r="AT12" s="125">
         <v>0.13715228665723717</v>
       </c>
-      <c r="AU12" s="198">
+      <c r="AU12" s="196">
         <v>0.9</v>
       </c>
       <c r="AV12" s="89">
@@ -49763,15 +49761,15 @@
       <c r="BA12" s="89">
         <v>0</v>
       </c>
-      <c r="BB12" s="217">
+      <c r="BB12" s="215">
         <v>0</v>
       </c>
-      <c r="BC12" s="238">
+      <c r="BC12" s="236">
         <v>0.50589246768979734</v>
       </c>
     </row>
     <row r="13" spans="2:55" ht="84" hidden="1">
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="80" t="s">
@@ -49780,10 +49778,10 @@
       <c r="D13" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="220" t="s">
+      <c r="E13" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="222">
+      <c r="F13" s="220">
         <v>0.92</v>
       </c>
       <c r="G13" s="86">
@@ -49807,7 +49805,7 @@
       <c r="M13" s="86">
         <v>0.06</v>
       </c>
-      <c r="N13" s="147" t="s">
+      <c r="N13" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O13" s="80" t="s">
@@ -49843,7 +49841,7 @@
       <c r="Y13" s="125">
         <v>3.6696046775460331E-2</v>
       </c>
-      <c r="Z13" s="209" t="s">
+      <c r="Z13" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA13" s="89">
@@ -49870,7 +49868,7 @@
       <c r="AH13" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI13" s="175">
+      <c r="AI13" s="173">
         <v>6300000</v>
       </c>
       <c r="AJ13" s="80">
@@ -49906,7 +49904,7 @@
       <c r="AT13" s="125">
         <v>0.12916372867014525</v>
       </c>
-      <c r="AU13" s="198">
+      <c r="AU13" s="196">
         <v>0.9</v>
       </c>
       <c r="AV13" s="89">
@@ -49930,12 +49928,12 @@
       <c r="BB13" s="86">
         <v>0.5</v>
       </c>
-      <c r="BC13" s="239">
+      <c r="BC13" s="237">
         <v>0.58386672782655791</v>
       </c>
     </row>
     <row r="14" spans="2:55" ht="84" hidden="1">
-      <c r="B14" s="227" t="s">
+      <c r="B14" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="80" t="s">
@@ -49944,10 +49942,10 @@
       <c r="D14" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="220" t="s">
+      <c r="E14" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="222">
+      <c r="F14" s="220">
         <v>0.85</v>
       </c>
       <c r="G14" s="86">
@@ -49971,7 +49969,7 @@
       <c r="M14" s="86">
         <v>0.06</v>
       </c>
-      <c r="N14" s="147" t="s">
+      <c r="N14" s="146" t="s">
         <v>93</v>
       </c>
       <c r="O14" s="80" t="s">
@@ -50007,7 +50005,7 @@
       <c r="Y14" s="125">
         <v>0.04</v>
       </c>
-      <c r="Z14" s="209" t="s">
+      <c r="Z14" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA14" s="89">
@@ -50034,7 +50032,7 @@
       <c r="AH14" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI14" s="175">
+      <c r="AI14" s="173">
         <v>4600000</v>
       </c>
       <c r="AJ14" s="80">
@@ -50070,7 +50068,7 @@
       <c r="AT14" s="125">
         <v>0.11468571428571428</v>
       </c>
-      <c r="AU14" s="198">
+      <c r="AU14" s="196">
         <v>0.9</v>
       </c>
       <c r="AV14" s="89">
@@ -50094,12 +50092,12 @@
       <c r="BB14" s="86">
         <v>0.47809110629067247</v>
       </c>
-      <c r="BC14" s="240">
+      <c r="BC14" s="238">
         <v>0.54951762732919252</v>
       </c>
     </row>
     <row r="15" spans="2:55" ht="84" hidden="1">
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -50108,10 +50106,10 @@
       <c r="D15" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="220" t="s">
+      <c r="E15" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="222">
+      <c r="F15" s="220">
         <v>0.86</v>
       </c>
       <c r="G15" s="86">
@@ -50135,7 +50133,7 @@
       <c r="M15" s="86">
         <v>0.06</v>
       </c>
-      <c r="N15" s="147" t="s">
+      <c r="N15" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O15" s="80" t="s">
@@ -50171,7 +50169,7 @@
       <c r="Y15" s="125">
         <v>0.04</v>
       </c>
-      <c r="Z15" s="209" t="s">
+      <c r="Z15" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA15" s="89">
@@ -50198,7 +50196,7 @@
       <c r="AH15" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI15" s="175">
+      <c r="AI15" s="173">
         <v>5130381</v>
       </c>
       <c r="AJ15" s="80">
@@ -50234,7 +50232,7 @@
       <c r="AT15" s="125">
         <v>8.6538461538461522E-2</v>
       </c>
-      <c r="AU15" s="198">
+      <c r="AU15" s="196">
         <v>0.9</v>
       </c>
       <c r="AV15" s="89">
@@ -50258,12 +50256,12 @@
       <c r="BB15" s="86">
         <v>0.5</v>
       </c>
-      <c r="BC15" s="241">
+      <c r="BC15" s="239">
         <v>0.50965838528291629</v>
       </c>
     </row>
     <row r="16" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B16" s="227" t="s">
+      <c r="B16" s="225" t="s">
         <v>82</v>
       </c>
       <c r="C16" s="80" t="s">
@@ -50272,10 +50270,10 @@
       <c r="D16" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="220" t="s">
+      <c r="E16" s="218" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="222">
+      <c r="F16" s="220">
         <v>0.94</v>
       </c>
       <c r="G16" s="86">
@@ -50299,7 +50297,7 @@
       <c r="M16" s="86">
         <v>0.06</v>
       </c>
-      <c r="N16" s="147" t="s">
+      <c r="N16" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O16" s="80" t="s">
@@ -50335,7 +50333,7 @@
       <c r="Y16" s="125">
         <v>3.570528245674344E-2</v>
       </c>
-      <c r="Z16" s="209" t="s">
+      <c r="Z16" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA16" s="89">
@@ -50362,7 +50360,7 @@
       <c r="AH16" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI16" s="175">
+      <c r="AI16" s="173">
         <v>2730000</v>
       </c>
       <c r="AJ16" s="80">
@@ -50398,7 +50396,7 @@
       <c r="AT16" s="125">
         <v>8.4272727272727263E-2</v>
       </c>
-      <c r="AU16" s="198">
+      <c r="AU16" s="196">
         <v>0.9</v>
       </c>
       <c r="AV16" s="89">
@@ -50419,15 +50417,15 @@
       <c r="BA16" s="89">
         <v>1.007097897415294</v>
       </c>
-      <c r="BB16" s="217">
+      <c r="BB16" s="215">
         <v>0.45319405383688233</v>
       </c>
-      <c r="BC16" s="238">
+      <c r="BC16" s="236">
         <v>0.53127134306280399</v>
       </c>
     </row>
     <row r="17" spans="2:55" ht="84">
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="80" t="s">
@@ -50436,10 +50434,10 @@
       <c r="D17" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="220" t="s">
+      <c r="E17" s="218" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="222">
+      <c r="F17" s="220">
         <v>0.7</v>
       </c>
       <c r="G17" s="86">
@@ -50463,7 +50461,7 @@
       <c r="M17" s="86">
         <v>0.06</v>
       </c>
-      <c r="N17" s="147" t="s">
+      <c r="N17" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O17" s="80" t="s">
@@ -50499,7 +50497,7 @@
       <c r="Y17" s="125">
         <v>3.0654182503630913E-2</v>
       </c>
-      <c r="Z17" s="209" t="s">
+      <c r="Z17" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA17" s="89">
@@ -50526,7 +50524,7 @@
       <c r="AH17" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI17" s="175">
+      <c r="AI17" s="173">
         <v>2582000</v>
       </c>
       <c r="AJ17" s="80">
@@ -50562,7 +50560,7 @@
       <c r="AT17" s="125">
         <v>0.10431034482758621</v>
       </c>
-      <c r="AU17" s="198">
+      <c r="AU17" s="196">
         <v>0.9</v>
       </c>
       <c r="AV17" s="89">
@@ -50586,12 +50584,12 @@
       <c r="BB17" s="86">
         <v>0.49499545040946313</v>
       </c>
-      <c r="BC17" s="239">
+      <c r="BC17" s="237">
         <v>0.52614363153680321</v>
       </c>
     </row>
     <row r="18" spans="2:55" ht="84">
-      <c r="B18" s="228" t="s">
+      <c r="B18" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="80" t="s">
@@ -50600,10 +50598,10 @@
       <c r="D18" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="220" t="s">
+      <c r="E18" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="222">
+      <c r="F18" s="220">
         <v>0.7</v>
       </c>
       <c r="G18" s="86">
@@ -50627,7 +50625,7 @@
       <c r="M18" s="86">
         <v>0.06</v>
       </c>
-      <c r="N18" s="147" t="s">
+      <c r="N18" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O18" s="80" t="s">
@@ -50663,7 +50661,7 @@
       <c r="Y18" s="125">
         <v>2.9440766305113397E-2</v>
       </c>
-      <c r="Z18" s="209" t="s">
+      <c r="Z18" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA18" s="89">
@@ -50690,7 +50688,7 @@
       <c r="AH18" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI18" s="175">
+      <c r="AI18" s="173">
         <v>2642000</v>
       </c>
       <c r="AJ18" s="80">
@@ -50726,7 +50724,7 @@
       <c r="AT18" s="125">
         <v>0.11164122137404579</v>
       </c>
-      <c r="AU18" s="198">
+      <c r="AU18" s="196">
         <v>0.9</v>
       </c>
       <c r="AV18" s="89">
@@ -50750,12 +50748,12 @@
       <c r="BB18" s="86">
         <v>0.48887122416534173</v>
       </c>
-      <c r="BC18" s="240">
+      <c r="BC18" s="238">
         <v>0.54837886234121169</v>
       </c>
     </row>
     <row r="19" spans="2:55" ht="84">
-      <c r="B19" s="228" t="s">
+      <c r="B19" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="80" t="s">
@@ -50764,10 +50762,10 @@
       <c r="D19" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="220" t="s">
+      <c r="E19" s="218" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="222">
+      <c r="F19" s="220">
         <v>0.7</v>
       </c>
       <c r="G19" s="86">
@@ -50791,7 +50789,7 @@
       <c r="M19" s="86">
         <v>0.06</v>
       </c>
-      <c r="N19" s="147" t="s">
+      <c r="N19" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O19" s="80" t="s">
@@ -50827,7 +50825,7 @@
       <c r="Y19" s="125">
         <v>2.561056105610561E-2</v>
       </c>
-      <c r="Z19" s="209" t="s">
+      <c r="Z19" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA19" s="89">
@@ -50854,7 +50852,7 @@
       <c r="AH19" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI19" s="175">
+      <c r="AI19" s="173">
         <v>1142000</v>
       </c>
       <c r="AJ19" s="80">
@@ -50890,7 +50888,7 @@
       <c r="AT19" s="125">
         <v>0.1097285067873303</v>
       </c>
-      <c r="AU19" s="198">
+      <c r="AU19" s="196">
         <v>0.9</v>
       </c>
       <c r="AV19" s="89">
@@ -50914,12 +50912,12 @@
       <c r="BB19" s="86">
         <v>0.46445497630331756</v>
       </c>
-      <c r="BC19" s="241">
+      <c r="BC19" s="239">
         <v>0.52357394400055368</v>
       </c>
     </row>
     <row r="20" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="80" t="s">
@@ -50928,10 +50926,10 @@
       <c r="D20" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="220" t="s">
+      <c r="E20" s="218" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="222">
+      <c r="F20" s="220">
         <v>0.7</v>
       </c>
       <c r="G20" s="86">
@@ -50955,7 +50953,7 @@
       <c r="M20" s="86">
         <v>0.06</v>
       </c>
-      <c r="N20" s="147" t="s">
+      <c r="N20" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O20" s="80" t="s">
@@ -50991,7 +50989,7 @@
       <c r="Y20" s="125">
         <v>3.718169036088112E-2</v>
       </c>
-      <c r="Z20" s="209" t="s">
+      <c r="Z20" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA20" s="89">
@@ -51018,7 +51016,7 @@
       <c r="AH20" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AI20" s="175">
+      <c r="AI20" s="173">
         <v>3400000</v>
       </c>
       <c r="AJ20" s="80">
@@ -51054,7 +51052,7 @@
       <c r="AT20" s="125">
         <v>9.0376569037656909E-2</v>
       </c>
-      <c r="AU20" s="198">
+      <c r="AU20" s="196">
         <v>0.9</v>
       </c>
       <c r="AV20" s="89">
@@ -51075,15 +51073,15 @@
       <c r="BA20" s="89">
         <v>1.1111111111111112</v>
       </c>
-      <c r="BB20" s="217">
+      <c r="BB20" s="215">
         <v>0.5</v>
       </c>
-      <c r="BC20" s="238">
+      <c r="BC20" s="236">
         <v>0.53743349787230588</v>
       </c>
     </row>
     <row r="21" spans="2:55" ht="84" hidden="1">
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="80" t="s">
@@ -51092,10 +51090,10 @@
       <c r="D21" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="220" t="s">
+      <c r="E21" s="218" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="222">
+      <c r="F21" s="220">
         <v>0.75</v>
       </c>
       <c r="G21" s="86">
@@ -51119,7 +51117,7 @@
       <c r="M21" s="86">
         <v>0.06</v>
       </c>
-      <c r="N21" s="147" t="s">
+      <c r="N21" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O21" s="80" t="s">
@@ -51155,7 +51153,7 @@
       <c r="Y21" s="125">
         <v>2.5318972659486332E-2</v>
       </c>
-      <c r="Z21" s="209" t="s">
+      <c r="Z21" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA21" s="89">
@@ -51182,7 +51180,7 @@
       <c r="AH21" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI21" s="175">
+      <c r="AI21" s="173">
         <v>2360000</v>
       </c>
       <c r="AJ21" s="80">
@@ -51218,7 +51216,7 @@
       <c r="AT21" s="125">
         <v>0.10099999999999999</v>
       </c>
-      <c r="AU21" s="198">
+      <c r="AU21" s="196">
         <v>0.9</v>
       </c>
       <c r="AV21" s="89">
@@ -51242,12 +51240,12 @@
       <c r="BB21" s="86">
         <v>0.44749403341288785</v>
       </c>
-      <c r="BC21" s="237">
+      <c r="BC21" s="235">
         <v>0.56551442541196417</v>
       </c>
     </row>
     <row r="22" spans="2:55" ht="84" hidden="1">
-      <c r="B22" s="228" t="s">
+      <c r="B22" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -51256,10 +51254,10 @@
       <c r="D22" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="220" t="s">
+      <c r="E22" s="218" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="222">
+      <c r="F22" s="220">
         <v>0.84</v>
       </c>
       <c r="G22" s="86">
@@ -51283,7 +51281,7 @@
       <c r="M22" s="86">
         <v>0.06</v>
       </c>
-      <c r="N22" s="147" t="s">
+      <c r="N22" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="80" t="s">
@@ -51319,7 +51317,7 @@
       <c r="Y22" s="125">
         <v>3.6300229848616944E-2</v>
       </c>
-      <c r="Z22" s="209" t="s">
+      <c r="Z22" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA22" s="89">
@@ -51346,7 +51344,7 @@
       <c r="AH22" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI22" s="175">
+      <c r="AI22" s="173">
         <v>4850000</v>
       </c>
       <c r="AJ22" s="80">
@@ -51382,7 +51380,7 @@
       <c r="AT22" s="125">
         <v>8.5956521739130431E-2</v>
       </c>
-      <c r="AU22" s="198">
+      <c r="AU22" s="196">
         <v>0.9</v>
       </c>
       <c r="AV22" s="89">
@@ -51403,15 +51401,15 @@
       <c r="BA22" s="89">
         <v>1.0991034261927632</v>
       </c>
-      <c r="BB22" s="217">
+      <c r="BB22" s="215">
         <v>0.45</v>
       </c>
-      <c r="BC22" s="242">
+      <c r="BC22" s="240">
         <v>0.50410799557400165</v>
       </c>
     </row>
     <row r="23" spans="2:55" ht="84.75" hidden="1" thickBot="1">
-      <c r="B23" s="228" t="s">
+      <c r="B23" s="226" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="80" t="s">
@@ -51420,10 +51418,10 @@
       <c r="D23" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="220" t="s">
+      <c r="E23" s="218" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="222">
+      <c r="F23" s="220">
         <v>0.85</v>
       </c>
       <c r="G23" s="86">
@@ -51447,7 +51445,7 @@
       <c r="M23" s="86">
         <v>0.06</v>
       </c>
-      <c r="N23" s="147" t="s">
+      <c r="N23" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O23" s="80" t="s">
@@ -51483,7 +51481,7 @@
       <c r="Y23" s="125">
         <v>3.0622125393367221E-2</v>
       </c>
-      <c r="Z23" s="209" t="s">
+      <c r="Z23" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA23" s="89">
@@ -51510,7 +51508,7 @@
       <c r="AH23" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI23" s="175">
+      <c r="AI23" s="173">
         <v>2153000</v>
       </c>
       <c r="AJ23" s="80">
@@ -51546,7 +51544,7 @@
       <c r="AT23" s="125">
         <v>0.11972727272727272</v>
       </c>
-      <c r="AU23" s="198">
+      <c r="AU23" s="196">
         <v>0.9</v>
       </c>
       <c r="AV23" s="89">
@@ -51567,15 +51565,15 @@
       <c r="BA23" s="89">
         <v>1.0740953475014359</v>
       </c>
-      <c r="BB23" s="217">
+      <c r="BB23" s="215">
         <v>0.48334290637564614</v>
       </c>
-      <c r="BC23" s="243">
+      <c r="BC23" s="241">
         <v>0.54589441393467575</v>
       </c>
     </row>
     <row r="24" spans="2:55" ht="84">
-      <c r="B24" s="229" t="s">
+      <c r="B24" s="227" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="80" t="s">
@@ -51584,10 +51582,10 @@
       <c r="D24" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="220" t="s">
+      <c r="E24" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="222">
+      <c r="F24" s="220">
         <v>0.7</v>
       </c>
       <c r="G24" s="86">
@@ -51611,7 +51609,7 @@
       <c r="M24" s="86">
         <v>0.06</v>
       </c>
-      <c r="N24" s="147" t="s">
+      <c r="N24" s="146" t="s">
         <v>84</v>
       </c>
       <c r="O24" s="80" t="s">
@@ -51647,7 +51645,7 @@
       <c r="Y24" s="125">
         <v>0</v>
       </c>
-      <c r="Z24" s="209" t="s">
+      <c r="Z24" s="207" t="s">
         <v>86</v>
       </c>
       <c r="AA24" s="89">
@@ -51674,7 +51672,7 @@
       <c r="AH24" s="102">
         <v>0.05</v>
       </c>
-      <c r="AI24" s="175">
+      <c r="AI24" s="173">
         <v>700000</v>
       </c>
       <c r="AJ24" s="80">
@@ -51710,7 +51708,7 @@
       <c r="AT24" s="125">
         <v>0.16099290780141842</v>
       </c>
-      <c r="AU24" s="198">
+      <c r="AU24" s="196">
         <v>0.9</v>
       </c>
       <c r="AV24" s="89">
@@ -51734,24 +51732,24 @@
       <c r="BB24" s="86">
         <v>0.36092198529840736</v>
       </c>
-      <c r="BC24" s="239">
+      <c r="BC24" s="237">
         <v>0.40865388492579208</v>
       </c>
     </row>
     <row r="25" spans="2:55" ht="84.75" thickBot="1">
-      <c r="B25" s="230" t="s">
+      <c r="B25" s="228" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="216" t="s">
+      <c r="C25" s="214" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="216" t="s">
+      <c r="D25" s="214" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="221" t="s">
+      <c r="E25" s="219" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="176" t="s">
+      <c r="F25" s="174" t="s">
         <v>107</v>
       </c>
       <c r="G25" s="122" t="s">
@@ -51775,7 +51773,7 @@
       <c r="M25" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="204" t="s">
+      <c r="N25" s="202" t="s">
         <v>84</v>
       </c>
       <c r="O25" s="122" t="s">
@@ -51802,16 +51800,16 @@
       <c r="V25" s="135">
         <v>0.63</v>
       </c>
-      <c r="W25" s="223">
+      <c r="W25" s="221">
         <v>0.32989690721649484</v>
       </c>
-      <c r="X25" s="223">
+      <c r="X25" s="221">
         <v>0.52364588447062677</v>
       </c>
       <c r="Y25" s="126">
         <v>2.6182294223531341E-2</v>
       </c>
-      <c r="Z25" s="210" t="s">
+      <c r="Z25" s="208" t="s">
         <v>86</v>
       </c>
       <c r="AA25" s="135">
@@ -51838,16 +51836,16 @@
       <c r="AH25" s="105">
         <v>0.05</v>
       </c>
-      <c r="AI25" s="176">
+      <c r="AI25" s="174">
         <v>100000</v>
       </c>
       <c r="AJ25" s="122">
         <v>32719</v>
       </c>
-      <c r="AK25" s="223">
+      <c r="AK25" s="221">
         <v>0.32718999999999998</v>
       </c>
-      <c r="AL25" s="223">
+      <c r="AL25" s="221">
         <v>8.1797499999999995E-2</v>
       </c>
       <c r="AM25" s="122">
@@ -51856,10 +51854,10 @@
       <c r="AN25" s="122">
         <v>0</v>
       </c>
-      <c r="AO25" s="223">
+      <c r="AO25" s="221">
         <v>0</v>
       </c>
-      <c r="AP25" s="223">
+      <c r="AP25" s="221">
         <v>0</v>
       </c>
       <c r="AQ25" s="122">
@@ -51868,37 +51866,37 @@
       <c r="AR25" s="122">
         <v>234</v>
       </c>
-      <c r="AS25" s="223">
+      <c r="AS25" s="221">
         <v>0.31536388140161725</v>
       </c>
       <c r="AT25" s="126">
         <v>0.11037735849056603</v>
       </c>
-      <c r="AU25" s="235">
+      <c r="AU25" s="233">
         <v>0.9</v>
       </c>
-      <c r="AV25" s="218">
+      <c r="AV25" s="216">
         <v>0.77417027417027418</v>
       </c>
-      <c r="AW25" s="218">
+      <c r="AW25" s="216">
         <v>0.86018919352252687</v>
       </c>
-      <c r="AX25" s="219">
+      <c r="AX25" s="217">
         <v>0.38708513708513709</v>
       </c>
-      <c r="AY25" s="218">
+      <c r="AY25" s="216">
         <v>0.9</v>
       </c>
-      <c r="AZ25" s="218">
+      <c r="AZ25" s="216">
         <v>0.30126741292242004</v>
       </c>
-      <c r="BA25" s="218">
+      <c r="BA25" s="216">
         <v>0.33474156991380005</v>
       </c>
-      <c r="BB25" s="219">
+      <c r="BB25" s="217">
         <v>0.15063370646121002</v>
       </c>
-      <c r="BC25" s="241">
+      <c r="BC25" s="239">
         <v>0.3182304218000056</v>
       </c>
     </row>
@@ -51948,7 +51946,7 @@
     <row r="1" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="2" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="3" spans="2:24" ht="34.5">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="169" t="s">
         <v>99</v>
       </c>
     </row>
@@ -51995,11 +51993,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="258" t="s">
+      <c r="V8" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="259"/>
-      <c r="X8" s="260"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="291"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -52059,9 +52057,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>1.5622558975159073E-4</v>
       </c>
-      <c r="V9" s="261"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263"/>
+      <c r="V9" s="292"/>
+      <c r="W9" s="293"/>
+      <c r="X9" s="294"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -52087,10 +52085,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V10" s="264" t="s">
+      <c r="V10" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="265"/>
+      <c r="W10" s="296"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -52119,20 +52117,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="266" t="str">
+      <c r="V11" s="297" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
         <v>NRC Plan</v>
       </c>
-      <c r="W11" s="267"/>
-      <c r="X11" s="332" t="str">
+      <c r="W11" s="298"/>
+      <c r="X11" s="315" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="333"/>
+      <c r="V12" s="299"/>
+      <c r="W12" s="300"/>
+      <c r="X12" s="316"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -52205,161 +52203,158 @@
       </c>
     </row>
     <row r="17" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V17" s="176">
+      <c r="V17" s="174">
         <v>2</v>
       </c>
       <c r="W17" s="122">
         <v>0</v>
       </c>
-      <c r="X17" s="174">
+      <c r="X17" s="172">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="272" t="s">
+      <c r="C24" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="274"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="304"/>
+      <c r="H24" s="305"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="258" t="s">
+      <c r="J24" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="260"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="291"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="258" t="s">
+      <c r="Q24" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="259"/>
-      <c r="U24" s="259"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
+      <c r="R24" s="290"/>
+      <c r="S24" s="290"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="290"/>
+      <c r="V24" s="290"/>
+      <c r="W24" s="291"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="279" t="s">
+      <c r="C25" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280" t="s">
+      <c r="D25" s="262"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="281"/>
+      <c r="H25" s="263"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="279" t="s">
+      <c r="J25" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="280"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="280"/>
-      <c r="N25" s="280" t="s">
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="281"/>
+      <c r="O25" s="263"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="282" t="s">
+      <c r="Q25" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="283"/>
-      <c r="S25" s="283"/>
-      <c r="T25" s="283"/>
-      <c r="U25" s="284"/>
-      <c r="V25" s="285" t="s">
+      <c r="R25" s="265"/>
+      <c r="S25" s="265"/>
+      <c r="T25" s="265"/>
+      <c r="U25" s="266"/>
+      <c r="V25" s="267" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="286"/>
+      <c r="W25" s="268"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="287" t="str">
+      <c r="C26" s="269" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
-        <v>&gt; All Channels (Phisicals and Digitals)
-&gt; Per model
-&gt; Per month FCST (1 week before starting N month)
-&gt; Per month Results (1 week after N month closure)</v>
-      </c>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="324">
+        <v>Montly Report</v>
+      </c>
+      <c r="D26" s="270"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="270"/>
+      <c r="G26" s="325">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!Y2,FALSE)</f>
         <v>0.6</v>
       </c>
-      <c r="H26" s="325"/>
+      <c r="H26" s="326"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="295" t="s">
+      <c r="J26" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="296"/>
-      <c r="L26" s="296"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="328" t="str">
+      <c r="K26" s="278"/>
+      <c r="L26" s="278"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="329" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AA2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="O26" s="329"/>
+      <c r="O26" s="330"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="316" t="s">
+      <c r="Q26" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="317"/>
-      <c r="S26" s="317"/>
-      <c r="T26" s="317"/>
-      <c r="U26" s="317"/>
-      <c r="V26" s="320" t="str">
+      <c r="R26" s="318"/>
+      <c r="S26" s="318"/>
+      <c r="T26" s="318"/>
+      <c r="U26" s="318"/>
+      <c r="V26" s="321" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AD2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="W26" s="321"/>
+      <c r="W26" s="322"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="325"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="326"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="297"/>
-      <c r="K27" s="298"/>
-      <c r="L27" s="298"/>
-      <c r="M27" s="298"/>
-      <c r="N27" s="330"/>
-      <c r="O27" s="331"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="331"/>
+      <c r="O27" s="332"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="316"/>
-      <c r="R27" s="317"/>
-      <c r="S27" s="317"/>
-      <c r="T27" s="317"/>
-      <c r="U27" s="317"/>
-      <c r="V27" s="320"/>
-      <c r="W27" s="321"/>
+      <c r="Q27" s="317"/>
+      <c r="R27" s="318"/>
+      <c r="S27" s="318"/>
+      <c r="T27" s="318"/>
+      <c r="U27" s="318"/>
+      <c r="V27" s="321"/>
+      <c r="W27" s="322"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="325"/>
+      <c r="C28" s="269"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="270"/>
+      <c r="F28" s="270"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="326"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -52368,23 +52363,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="316"/>
-      <c r="R28" s="317"/>
-      <c r="S28" s="317"/>
-      <c r="T28" s="317"/>
-      <c r="U28" s="317"/>
-      <c r="V28" s="320"/>
-      <c r="W28" s="321"/>
+      <c r="Q28" s="317"/>
+      <c r="R28" s="318"/>
+      <c r="S28" s="318"/>
+      <c r="T28" s="318"/>
+      <c r="U28" s="318"/>
+      <c r="V28" s="321"/>
+      <c r="W28" s="322"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="326"/>
-      <c r="H29" s="327"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="272"/>
+      <c r="E29" s="272"/>
+      <c r="F29" s="272"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="328"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -52393,13 +52388,13 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="318"/>
-      <c r="R29" s="319"/>
-      <c r="S29" s="319"/>
-      <c r="T29" s="319"/>
-      <c r="U29" s="319"/>
-      <c r="V29" s="322"/>
-      <c r="W29" s="323"/>
+      <c r="Q29" s="319"/>
+      <c r="R29" s="320"/>
+      <c r="S29" s="320"/>
+      <c r="T29" s="320"/>
+      <c r="U29" s="320"/>
+      <c r="V29" s="323"/>
+      <c r="W29" s="324"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:23">
@@ -52509,6 +52504,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q26:U29"/>
+    <mergeCell ref="V26:W29"/>
+    <mergeCell ref="C26:F29"/>
+    <mergeCell ref="G26:H29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="N26:O27"/>
     <mergeCell ref="V8:X9"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="V11:W12"/>
@@ -52519,15 +52523,6 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="J24:O24"/>
-    <mergeCell ref="Q26:U29"/>
-    <mergeCell ref="V26:W29"/>
-    <mergeCell ref="C26:F29"/>
-    <mergeCell ref="G26:H29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="N26:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52927,34 +52922,34 @@
         <f>SUM(AG4:AJ4)</f>
         <v>0.5</v>
       </c>
-      <c r="AN4" s="212" t="s">
+      <c r="AN4" s="210" t="s">
         <v>155</v>
       </c>
-      <c r="AO4" s="212" t="s">
+      <c r="AO4" s="210" t="s">
         <v>156</v>
       </c>
-      <c r="AP4" s="212" t="s">
+      <c r="AP4" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="AQ4" s="212" t="s">
+      <c r="AQ4" s="210" t="s">
         <v>158</v>
       </c>
-      <c r="AR4" s="212" t="s">
+      <c r="AR4" s="210" t="s">
         <v>159</v>
       </c>
-      <c r="AS4" s="212" t="s">
+      <c r="AS4" s="210" t="s">
         <v>160</v>
       </c>
-      <c r="AT4" s="212" t="s">
+      <c r="AT4" s="210" t="s">
         <v>161</v>
       </c>
-      <c r="AU4" s="212" t="s">
+      <c r="AU4" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="AV4" s="212" t="s">
+      <c r="AV4" s="210" t="s">
         <v>163</v>
       </c>
-      <c r="AW4" s="212" t="s">
+      <c r="AW4" s="210" t="s">
         <v>164</v>
       </c>
     </row>
@@ -53062,34 +53057,34 @@
       <c r="AM5" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="AN5" s="212" t="s">
+      <c r="AN5" s="210" t="s">
         <v>165</v>
       </c>
-      <c r="AO5" s="212" t="s">
+      <c r="AO5" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="AP5" s="212" t="s">
+      <c r="AP5" s="210" t="s">
         <v>167</v>
       </c>
-      <c r="AQ5" s="212" t="s">
+      <c r="AQ5" s="210" t="s">
         <v>168</v>
       </c>
-      <c r="AR5" s="212" t="s">
+      <c r="AR5" s="210" t="s">
         <v>169</v>
       </c>
-      <c r="AS5" s="212" t="s">
+      <c r="AS5" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="AT5" s="212" t="s">
+      <c r="AT5" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="AU5" s="212" t="s">
+      <c r="AU5" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="AV5" s="212" t="s">
+      <c r="AV5" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="AW5" s="212" t="s">
+      <c r="AW5" s="210" t="s">
         <v>174</v>
       </c>
     </row>
@@ -55146,7 +55141,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="Q22" s="177">
+      <c r="Q22" s="175">
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -56563,55 +56558,55 @@
       </c>
     </row>
     <row r="38" spans="2:37">
-      <c r="C38" s="255">
+      <c r="C38" s="253">
         <f>SUM(C4:C35)</f>
         <v>3994</v>
       </c>
-      <c r="D38" s="255">
+      <c r="D38" s="253">
         <f t="shared" ref="D38:N38" si="9">SUM(D4:D35)</f>
         <v>3867</v>
       </c>
-      <c r="E38" s="255">
+      <c r="E38" s="253">
         <f t="shared" si="9"/>
         <v>4062</v>
       </c>
-      <c r="F38" s="255">
+      <c r="F38" s="253">
         <f t="shared" si="9"/>
         <v>3915</v>
       </c>
-      <c r="G38" s="255">
+      <c r="G38" s="253">
         <f t="shared" si="9"/>
         <v>3653</v>
       </c>
-      <c r="H38" s="255">
+      <c r="H38" s="253">
         <f t="shared" si="9"/>
         <v>4196</v>
       </c>
-      <c r="I38" s="255">
+      <c r="I38" s="253">
         <f t="shared" si="9"/>
         <v>3839</v>
       </c>
-      <c r="J38" s="255">
+      <c r="J38" s="253">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="255">
+      <c r="K38" s="253">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L38" s="255">
+      <c r="L38" s="253">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M38" s="255">
+      <c r="M38" s="253">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N38" s="255">
+      <c r="N38" s="253">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O38" s="208">
+      <c r="O38" s="206">
         <f>SUM(O4:O35)</f>
         <v>27526</v>
       </c>
@@ -56684,42 +56679,42 @@
       </c>
     </row>
     <row r="41" spans="2:37">
-      <c r="D41" s="334" t="s">
+      <c r="D41" s="333" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="334"/>
-      <c r="F41" s="334" t="s">
+      <c r="E41" s="333"/>
+      <c r="F41" s="333" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="334"/>
-      <c r="H41" s="334" t="s">
+      <c r="G41" s="333"/>
+      <c r="H41" s="333" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="334"/>
-      <c r="J41" s="334" t="s">
+      <c r="I41" s="333"/>
+      <c r="J41" s="333" t="s">
         <v>134</v>
       </c>
-      <c r="K41" s="334"/>
-      <c r="L41" s="334" t="s">
+      <c r="K41" s="333"/>
+      <c r="L41" s="333" t="s">
         <v>135</v>
       </c>
-      <c r="M41" s="334"/>
-      <c r="N41" s="334" t="s">
+      <c r="M41" s="333"/>
+      <c r="N41" s="333" t="s">
         <v>136</v>
       </c>
-      <c r="O41" s="334"/>
-      <c r="P41" s="334" t="s">
+      <c r="O41" s="333"/>
+      <c r="P41" s="333" t="s">
         <v>137</v>
       </c>
-      <c r="Q41" s="334"/>
-      <c r="R41" s="334" t="s">
+      <c r="Q41" s="333"/>
+      <c r="R41" s="333" t="s">
         <v>138</v>
       </c>
-      <c r="S41" s="334"/>
-      <c r="T41" s="334" t="s">
+      <c r="S41" s="333"/>
+      <c r="T41" s="333" t="s">
         <v>139</v>
       </c>
-      <c r="U41" s="334"/>
+      <c r="U41" s="333"/>
     </row>
     <row r="42" spans="2:37">
       <c r="B42" s="82" t="s">
@@ -56796,19 +56791,19 @@
       <c r="E43" s="86">
         <v>1</v>
       </c>
-      <c r="F43" s="207">
+      <c r="F43" s="205">
         <v>0.43529411764705883</v>
       </c>
       <c r="G43" s="86">
         <v>1</v>
       </c>
-      <c r="H43" s="207">
+      <c r="H43" s="205">
         <v>0.23270440251572327</v>
       </c>
       <c r="I43" s="86">
         <v>1</v>
       </c>
-      <c r="J43" s="207">
+      <c r="J43" s="205">
         <v>0.23270440251572327</v>
       </c>
       <c r="K43" s="86">
@@ -56828,19 +56823,19 @@
       <c r="E44" s="86">
         <v>1</v>
       </c>
-      <c r="F44" s="207">
+      <c r="F44" s="205">
         <v>0.83783783783783783</v>
       </c>
       <c r="G44" s="86">
         <v>1</v>
       </c>
-      <c r="H44" s="207">
+      <c r="H44" s="205">
         <v>0.83783783783783783</v>
       </c>
       <c r="I44" s="86">
         <v>1</v>
       </c>
-      <c r="J44" s="207">
+      <c r="J44" s="205">
         <v>0.83783783783783783</v>
       </c>
       <c r="K44" s="86">
@@ -56860,19 +56855,19 @@
       <c r="E45" s="86">
         <v>1</v>
       </c>
-      <c r="F45" s="207">
+      <c r="F45" s="205">
         <v>0.34163701067615659</v>
       </c>
       <c r="G45" s="86">
         <v>1</v>
       </c>
-      <c r="H45" s="207">
+      <c r="H45" s="205">
         <v>0.34163701067615659</v>
       </c>
       <c r="I45" s="86">
         <v>1</v>
       </c>
-      <c r="J45" s="207">
+      <c r="J45" s="205">
         <v>0.34163701067615659</v>
       </c>
       <c r="K45" s="86">
@@ -56892,19 +56887,19 @@
       <c r="E46" s="86">
         <v>0.42857142857142855</v>
       </c>
-      <c r="F46" s="207">
+      <c r="F46" s="205">
         <v>0.10422163588390501</v>
       </c>
       <c r="G46" s="86">
         <v>0.42857142857142855</v>
       </c>
-      <c r="H46" s="207">
+      <c r="H46" s="205">
         <v>0.1029143897996357</v>
       </c>
       <c r="I46" s="86">
         <v>0.42857142857142855</v>
       </c>
-      <c r="J46" s="207">
+      <c r="J46" s="205">
         <v>0.1029143897996357</v>
       </c>
       <c r="K46" s="86">
@@ -56924,15 +56919,15 @@
       <c r="E47" s="86">
         <v>0</v>
       </c>
-      <c r="F47" s="207">
+      <c r="F47" s="205">
         <v>0.53551912568306015</v>
       </c>
       <c r="G47" s="86"/>
-      <c r="H47" s="207">
+      <c r="H47" s="205">
         <v>0.53551912568306015</v>
       </c>
       <c r="I47" s="86"/>
-      <c r="J47" s="207">
+      <c r="J47" s="205">
         <v>0.53551912568306015</v>
       </c>
       <c r="K47" s="86"/>
@@ -56946,15 +56941,15 @@
       </c>
       <c r="D48" s="83"/>
       <c r="E48" s="86"/>
-      <c r="F48" s="207"/>
+      <c r="F48" s="205"/>
       <c r="G48" s="86">
         <v>1</v>
       </c>
-      <c r="H48" s="207"/>
+      <c r="H48" s="205"/>
       <c r="I48" s="86">
         <v>1</v>
       </c>
-      <c r="J48" s="207"/>
+      <c r="J48" s="205"/>
       <c r="K48" s="86">
         <v>1</v>
       </c>
@@ -56972,19 +56967,19 @@
       <c r="E49" s="86">
         <v>1</v>
       </c>
-      <c r="F49" s="207">
+      <c r="F49" s="205">
         <v>0.96668581275129239</v>
       </c>
       <c r="G49" s="86">
         <v>1</v>
       </c>
-      <c r="H49" s="207">
+      <c r="H49" s="205">
         <v>0.92381919756221431</v>
       </c>
       <c r="I49" s="86">
         <v>1</v>
       </c>
-      <c r="J49" s="207">
+      <c r="J49" s="205">
         <v>0.92381919756221431</v>
       </c>
       <c r="K49" s="86">
@@ -57004,19 +56999,19 @@
       <c r="E50" s="86">
         <v>0.9953146531924667</v>
       </c>
-      <c r="F50" s="207">
+      <c r="F50" s="205">
         <v>0.84062980030721968</v>
       </c>
       <c r="G50" s="86">
         <v>0.9953146531924667</v>
       </c>
-      <c r="H50" s="207">
+      <c r="H50" s="205">
         <v>0.81437427912341409</v>
       </c>
       <c r="I50" s="86">
         <v>0.98448729184925499</v>
       </c>
-      <c r="J50" s="207">
+      <c r="J50" s="205">
         <v>0.81437427912341409</v>
       </c>
       <c r="K50" s="86">
@@ -57036,19 +57031,19 @@
       <c r="E51" s="86">
         <v>1</v>
       </c>
-      <c r="F51" s="207">
+      <c r="F51" s="205">
         <v>1</v>
       </c>
       <c r="G51" s="86">
         <v>1</v>
       </c>
-      <c r="H51" s="207">
+      <c r="H51" s="205">
         <v>0.99916036943744757</v>
       </c>
       <c r="I51" s="86">
         <v>0.98931623931623935</v>
       </c>
-      <c r="J51" s="207">
+      <c r="J51" s="205">
         <v>0.99916036943744757</v>
       </c>
       <c r="K51" s="86">
@@ -57068,19 +57063,19 @@
       <c r="E52" s="86">
         <v>1</v>
       </c>
-      <c r="F52" s="207">
+      <c r="F52" s="205">
         <v>1</v>
       </c>
       <c r="G52" s="86">
         <v>1</v>
       </c>
-      <c r="H52" s="207">
+      <c r="H52" s="205">
         <v>1</v>
       </c>
       <c r="I52" s="86">
         <v>1</v>
       </c>
-      <c r="J52" s="207">
+      <c r="J52" s="205">
         <v>1</v>
       </c>
       <c r="K52" s="86">
@@ -57100,19 +57095,19 @@
       <c r="E53" s="86">
         <v>1</v>
       </c>
-      <c r="F53" s="207">
+      <c r="F53" s="205">
         <v>1</v>
       </c>
       <c r="G53" s="86">
         <v>1</v>
       </c>
-      <c r="H53" s="207">
+      <c r="H53" s="205">
         <v>1</v>
       </c>
       <c r="I53" s="86">
         <v>1</v>
       </c>
-      <c r="J53" s="207">
+      <c r="J53" s="205">
         <v>1</v>
       </c>
       <c r="K53" s="86">
@@ -57132,19 +57127,19 @@
       <c r="E54" s="86">
         <v>0.95864197530864192</v>
       </c>
-      <c r="F54" s="207">
+      <c r="F54" s="205">
         <v>0.95618221258134495</v>
       </c>
       <c r="G54" s="86">
         <v>0.95864197530864192</v>
       </c>
-      <c r="H54" s="207">
+      <c r="H54" s="205">
         <v>0.95211389128559099</v>
       </c>
       <c r="I54" s="86">
         <v>0.91666666666666663</v>
       </c>
-      <c r="J54" s="207">
+      <c r="J54" s="205">
         <v>0.95211389128559099</v>
       </c>
       <c r="K54" s="86">
@@ -57164,19 +57159,19 @@
       <c r="E55" s="86">
         <v>0.9642857142857143</v>
       </c>
-      <c r="F55" s="207">
+      <c r="F55" s="205">
         <v>0.98999090081892627</v>
       </c>
       <c r="G55" s="86">
         <v>0.9642857142857143</v>
       </c>
-      <c r="H55" s="207">
+      <c r="H55" s="205">
         <v>0.95265306122448978</v>
       </c>
       <c r="I55" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="J55" s="207">
+      <c r="J55" s="205">
         <v>0.95265306122448978</v>
       </c>
       <c r="K55" s="86">
@@ -57196,19 +57191,19 @@
       <c r="E56" s="86">
         <v>1</v>
       </c>
-      <c r="F56" s="207">
+      <c r="F56" s="205">
         <v>0.71311475409836067</v>
       </c>
       <c r="G56" s="86">
         <v>1</v>
       </c>
-      <c r="H56" s="207">
+      <c r="H56" s="205">
         <v>0.71311475409836067</v>
       </c>
       <c r="I56" s="86">
         <v>1</v>
       </c>
-      <c r="J56" s="207">
+      <c r="J56" s="205">
         <v>0.71311475409836067</v>
       </c>
       <c r="K56" s="86">
@@ -57228,19 +57223,19 @@
       <c r="E57" s="86">
         <v>1</v>
       </c>
-      <c r="F57" s="207">
+      <c r="F57" s="205">
         <v>0.8949880668257757</v>
       </c>
       <c r="G57" s="86">
         <v>1</v>
       </c>
-      <c r="H57" s="207">
+      <c r="H57" s="205">
         <v>0.83870967741935487</v>
       </c>
       <c r="I57" s="86">
         <v>0.94</v>
       </c>
-      <c r="J57" s="207">
+      <c r="J57" s="205">
         <v>0.83870967741935487</v>
       </c>
       <c r="K57" s="86">
@@ -57260,19 +57255,19 @@
       <c r="E58" s="86">
         <v>1</v>
       </c>
-      <c r="F58" s="207">
+      <c r="F58" s="205">
         <v>1</v>
       </c>
       <c r="G58" s="86">
         <v>1</v>
       </c>
-      <c r="H58" s="207">
+      <c r="H58" s="205">
         <v>1</v>
       </c>
       <c r="I58" s="86">
         <v>1</v>
       </c>
-      <c r="J58" s="207">
+      <c r="J58" s="205">
         <v>1</v>
       </c>
       <c r="K58" s="86">
@@ -57292,15 +57287,15 @@
       <c r="E59" s="86">
         <v>0</v>
       </c>
-      <c r="F59" s="207">
+      <c r="F59" s="205">
         <v>3.5587188612099642E-3</v>
       </c>
       <c r="G59" s="86"/>
-      <c r="H59" s="207">
+      <c r="H59" s="205">
         <v>3.5587188612099642E-3</v>
       </c>
       <c r="I59" s="86"/>
-      <c r="J59" s="207">
+      <c r="J59" s="205">
         <v>3.5587188612099642E-3</v>
       </c>
       <c r="K59" s="86"/>
@@ -57318,19 +57313,19 @@
       <c r="E60" s="86">
         <v>1</v>
       </c>
-      <c r="F60" s="207">
+      <c r="F60" s="205">
         <v>0.97774244833068358</v>
       </c>
       <c r="G60" s="86">
         <v>1</v>
       </c>
-      <c r="H60" s="207">
+      <c r="H60" s="205">
         <v>0.97275204359673029</v>
       </c>
       <c r="I60" s="86">
         <v>1</v>
       </c>
-      <c r="J60" s="207">
+      <c r="J60" s="205">
         <v>0.97275204359673029</v>
       </c>
       <c r="K60" s="86">
@@ -57350,19 +57345,19 @@
       <c r="E61" s="86">
         <v>0.89393939393939392</v>
       </c>
-      <c r="F61" s="207">
+      <c r="F61" s="205">
         <v>0.58857142857142852</v>
       </c>
       <c r="G61" s="86">
         <v>0.89393939393939392</v>
       </c>
-      <c r="H61" s="207">
+      <c r="H61" s="205">
         <v>0.64380952380952383</v>
       </c>
       <c r="I61" s="86">
         <v>0.84545454545454546</v>
       </c>
-      <c r="J61" s="207">
+      <c r="J61" s="205">
         <v>0.64380952380952383</v>
       </c>
       <c r="K61" s="86">
@@ -57382,15 +57377,15 @@
       <c r="E62" s="38">
         <v>0.96299999999999997</v>
       </c>
-      <c r="F62" s="207"/>
+      <c r="F62" s="205"/>
       <c r="G62" s="86"/>
-      <c r="H62" s="207">
+      <c r="H62" s="205">
         <v>0.76666666666666661</v>
       </c>
       <c r="I62" s="86">
         <v>0.96511627906976749</v>
       </c>
-      <c r="J62" s="207">
+      <c r="J62" s="205">
         <v>0</v>
       </c>
       <c r="K62" s="86">
@@ -57410,19 +57405,19 @@
       <c r="E63" s="86">
         <v>1</v>
       </c>
-      <c r="F63" s="207">
+      <c r="F63" s="205">
         <v>0.92890995260663511</v>
       </c>
       <c r="G63" s="86">
         <v>1</v>
       </c>
-      <c r="H63" s="207">
+      <c r="H63" s="205">
         <v>0.82099343955014059</v>
       </c>
       <c r="I63" s="86">
         <v>1</v>
       </c>
-      <c r="J63" s="207">
+      <c r="J63" s="205">
         <v>0.82099343955014059</v>
       </c>
       <c r="K63" s="86">
@@ -57442,19 +57437,19 @@
       <c r="E64" s="86">
         <v>1</v>
       </c>
-      <c r="F64" s="207">
+      <c r="F64" s="205">
         <v>1</v>
       </c>
       <c r="G64" s="86">
         <v>1</v>
       </c>
-      <c r="H64" s="207">
+      <c r="H64" s="205">
         <v>1</v>
       </c>
       <c r="I64" s="86">
         <v>0.95964432284541723</v>
       </c>
-      <c r="J64" s="207">
+      <c r="J64" s="205">
         <v>1</v>
       </c>
       <c r="K64" s="86">
@@ -57474,19 +57469,19 @@
       <c r="E65" s="86">
         <v>0.84</v>
       </c>
-      <c r="F65" s="207">
+      <c r="F65" s="205">
         <v>0.98919308357348701</v>
       </c>
       <c r="G65" s="86">
         <v>0.84</v>
       </c>
-      <c r="H65" s="207">
+      <c r="H65" s="205">
         <v>0.93508936970837253</v>
       </c>
       <c r="I65" s="86">
         <v>0.86956521739130432</v>
       </c>
-      <c r="J65" s="207">
+      <c r="J65" s="205">
         <v>0.93508936970837253</v>
       </c>
       <c r="K65" s="86">
@@ -57506,19 +57501,19 @@
       <c r="E66" s="86">
         <v>1</v>
       </c>
-      <c r="F66" s="207">
+      <c r="F66" s="205">
         <v>1</v>
       </c>
       <c r="G66" s="86">
         <v>1</v>
       </c>
-      <c r="H66" s="207">
+      <c r="H66" s="205">
         <v>1</v>
       </c>
       <c r="I66" s="86">
         <v>1</v>
       </c>
-      <c r="J66" s="207">
+      <c r="J66" s="205">
         <v>1</v>
       </c>
       <c r="K66" s="86">
@@ -57538,19 +57533,19 @@
       <c r="E67" s="86">
         <v>0.6</v>
       </c>
-      <c r="F67" s="207">
+      <c r="F67" s="205">
         <v>0.2847058823529412</v>
       </c>
       <c r="G67" s="86">
         <v>0.6</v>
       </c>
-      <c r="H67" s="207">
+      <c r="H67" s="205">
         <v>0.2847058823529412</v>
       </c>
       <c r="I67" s="86">
         <v>0.6</v>
       </c>
-      <c r="J67" s="207">
+      <c r="J67" s="205">
         <v>0.2847058823529412</v>
       </c>
       <c r="K67" s="86">
@@ -57570,19 +57565,19 @@
       <c r="E68" s="86">
         <v>1</v>
       </c>
-      <c r="F68" s="207">
+      <c r="F68" s="205">
         <v>0.21100917431192662</v>
       </c>
       <c r="G68" s="86">
         <v>1</v>
       </c>
-      <c r="H68" s="207">
+      <c r="H68" s="205">
         <v>0.15181518151815182</v>
       </c>
       <c r="I68" s="86">
         <v>1</v>
       </c>
-      <c r="J68" s="207">
+      <c r="J68" s="205">
         <v>0.15181518151815182</v>
       </c>
       <c r="K68" s="86">
@@ -57602,19 +57597,19 @@
       <c r="E69" s="86">
         <v>1</v>
       </c>
-      <c r="F69" s="207">
+      <c r="F69" s="205">
         <v>1</v>
       </c>
       <c r="G69" s="86">
         <v>1</v>
       </c>
-      <c r="H69" s="207">
+      <c r="H69" s="205">
         <v>1</v>
       </c>
       <c r="I69" s="86">
         <v>1</v>
       </c>
-      <c r="J69" s="207">
+      <c r="J69" s="205">
         <v>1</v>
       </c>
       <c r="K69" s="86">
@@ -57634,19 +57629,19 @@
       <c r="E70" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="F70" s="207">
+      <c r="F70" s="205">
         <v>1</v>
       </c>
       <c r="G70" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="H70" s="207">
+      <c r="H70" s="205">
         <v>1</v>
       </c>
       <c r="I70" s="86">
         <v>0.96969696969696972</v>
       </c>
-      <c r="J70" s="207">
+      <c r="J70" s="205">
         <v>1</v>
       </c>
       <c r="K70" s="86">
@@ -57666,19 +57661,19 @@
       <c r="E71" s="86">
         <v>0.90604575163398693</v>
       </c>
-      <c r="F71" s="207">
+      <c r="F71" s="205">
         <v>0.90638810767376454</v>
       </c>
       <c r="G71" s="86">
         <v>0.90604575163398693</v>
       </c>
-      <c r="H71" s="207">
+      <c r="H71" s="205">
         <v>0.899129746835443</v>
       </c>
       <c r="I71" s="86">
         <v>0.90604575163398693</v>
       </c>
-      <c r="J71" s="207">
+      <c r="J71" s="205">
         <v>0.899129746835443</v>
       </c>
       <c r="K71" s="86">
@@ -57700,26 +57695,26 @@
         <f>AVERAGE(E46,E61,E68)</f>
         <v>0.77417027417027418</v>
       </c>
-      <c r="F72" s="207">
+      <c r="F72" s="205">
         <f t="shared" ref="F72:I72" si="10">AVERAGE(F46,F61,F68)</f>
         <v>0.30126741292242004</v>
       </c>
-      <c r="G72" s="207">
+      <c r="G72" s="205">
         <f t="shared" si="10"/>
         <v>0.77417027417027418</v>
       </c>
-      <c r="H72" s="207">
+      <c r="H72" s="205">
         <f t="shared" si="10"/>
         <v>0.29951303170910376</v>
       </c>
-      <c r="I72" s="207">
+      <c r="I72" s="205">
         <f t="shared" si="10"/>
         <v>0.75800865800865802</v>
       </c>
-      <c r="J72" s="207">
+      <c r="J72" s="205">
         <v>0.29951303170910376</v>
       </c>
-      <c r="K72" s="207">
+      <c r="K72" s="205">
         <v>0.75800865800865802</v>
       </c>
     </row>
@@ -57826,42 +57821,42 @@
       </c>
     </row>
     <row r="77" spans="2:21">
-      <c r="D77" s="334" t="s">
+      <c r="D77" s="333" t="s">
         <v>191</v>
       </c>
-      <c r="E77" s="334"/>
-      <c r="F77" s="334" t="s">
+      <c r="E77" s="333"/>
+      <c r="F77" s="333" t="s">
         <v>132</v>
       </c>
-      <c r="G77" s="334"/>
-      <c r="H77" s="334" t="s">
+      <c r="G77" s="333"/>
+      <c r="H77" s="333" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="334"/>
-      <c r="J77" s="334" t="s">
+      <c r="I77" s="333"/>
+      <c r="J77" s="333" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="334"/>
-      <c r="L77" s="334" t="s">
+      <c r="K77" s="333"/>
+      <c r="L77" s="333" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="334"/>
-      <c r="N77" s="334" t="s">
+      <c r="M77" s="333"/>
+      <c r="N77" s="333" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="334"/>
-      <c r="P77" s="334" t="s">
+      <c r="O77" s="333"/>
+      <c r="P77" s="333" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="334"/>
-      <c r="R77" s="334" t="s">
+      <c r="Q77" s="333"/>
+      <c r="R77" s="333" t="s">
         <v>138</v>
       </c>
-      <c r="S77" s="334"/>
-      <c r="T77" s="334" t="s">
+      <c r="S77" s="333"/>
+      <c r="T77" s="333" t="s">
         <v>139</v>
       </c>
-      <c r="U77" s="334"/>
+      <c r="U77" s="333"/>
     </row>
     <row r="78" spans="2:21">
       <c r="C78" s="87" t="s">
@@ -58481,49 +58476,49 @@
       </c>
     </row>
     <row r="97" spans="3:28">
-      <c r="D97" s="334" t="s">
+      <c r="D97" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="334"/>
-      <c r="F97" s="334" t="s">
+      <c r="E97" s="333"/>
+      <c r="F97" s="333" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="334"/>
-      <c r="H97" s="334" t="s">
+      <c r="G97" s="333"/>
+      <c r="H97" s="333" t="s">
         <v>133</v>
       </c>
-      <c r="I97" s="334"/>
-      <c r="J97" s="334" t="s">
+      <c r="I97" s="333"/>
+      <c r="J97" s="333" t="s">
         <v>134</v>
       </c>
-      <c r="K97" s="334"/>
-      <c r="L97" s="334" t="s">
+      <c r="K97" s="333"/>
+      <c r="L97" s="333" t="s">
         <v>135</v>
       </c>
-      <c r="M97" s="334"/>
-      <c r="N97" s="334" t="s">
+      <c r="M97" s="333"/>
+      <c r="N97" s="333" t="s">
         <v>136</v>
       </c>
-      <c r="O97" s="334"/>
-      <c r="P97" s="334" t="s">
+      <c r="O97" s="333"/>
+      <c r="P97" s="333" t="s">
         <v>137</v>
       </c>
-      <c r="Q97" s="334"/>
-      <c r="R97" s="334" t="s">
+      <c r="Q97" s="333"/>
+      <c r="R97" s="333" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="334"/>
-      <c r="T97" s="334" t="s">
+      <c r="S97" s="333"/>
+      <c r="T97" s="333" t="s">
         <v>139</v>
       </c>
-      <c r="U97" s="334"/>
-      <c r="Z97" s="335" t="s">
+      <c r="U97" s="333"/>
+      <c r="Z97" s="336" t="s">
         <v>127</v>
       </c>
-      <c r="AA97" s="337" t="s">
+      <c r="AA97" s="334" t="s">
         <v>226</v>
       </c>
-      <c r="AB97" s="337" t="s">
+      <c r="AB97" s="334" t="s">
         <v>227</v>
       </c>
     </row>
@@ -58585,36 +58580,36 @@
       <c r="U98" s="9">
         <v>19</v>
       </c>
-      <c r="Z98" s="336"/>
-      <c r="AA98" s="338"/>
-      <c r="AB98" s="338"/>
+      <c r="Z98" s="337"/>
+      <c r="AA98" s="335"/>
+      <c r="AB98" s="335"/>
     </row>
     <row r="99" spans="3:28">
-      <c r="C99" s="335" t="s">
+      <c r="C99" s="336" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="337" t="s">
+      <c r="D99" s="334" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="337" t="s">
+      <c r="E99" s="334" t="s">
         <v>229</v>
       </c>
-      <c r="F99" s="335" t="s">
+      <c r="F99" s="336" t="s">
         <v>230</v>
       </c>
-      <c r="G99" s="337" t="s">
+      <c r="G99" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="H99" s="335" t="s">
+      <c r="H99" s="336" t="s">
         <v>230</v>
       </c>
-      <c r="I99" s="337" t="s">
+      <c r="I99" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="J99" s="335" t="s">
+      <c r="J99" s="336" t="s">
         <v>230</v>
       </c>
-      <c r="K99" s="337" t="s">
+      <c r="K99" s="334" t="s">
         <v>231</v>
       </c>
       <c r="Z99" s="5" t="s">
@@ -58628,15 +58623,15 @@
       </c>
     </row>
     <row r="100" spans="3:28">
-      <c r="C100" s="336"/>
-      <c r="D100" s="338"/>
-      <c r="E100" s="338"/>
-      <c r="F100" s="336"/>
-      <c r="G100" s="338"/>
-      <c r="H100" s="336"/>
-      <c r="I100" s="338"/>
-      <c r="J100" s="336"/>
-      <c r="K100" s="338"/>
+      <c r="C100" s="337"/>
+      <c r="D100" s="335"/>
+      <c r="E100" s="335"/>
+      <c r="F100" s="337"/>
+      <c r="G100" s="335"/>
+      <c r="H100" s="337"/>
+      <c r="I100" s="335"/>
+      <c r="J100" s="337"/>
+      <c r="K100" s="335"/>
       <c r="Z100" s="6" t="s">
         <v>103</v>
       </c>
@@ -59691,15 +59686,15 @@
       <c r="Z130" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AA130" s="232">
+      <c r="AA130" s="230">
         <f>AA104+AA106+AA107+AA108+AA109+AA110+AA112+AA113+AA116</f>
         <v>7094</v>
       </c>
-      <c r="AB130" s="232">
+      <c r="AB130" s="230">
         <f>AB104+AB106+AB107+AB108+AB109+AB110+AB112+AB113+AB116</f>
         <v>7337</v>
       </c>
-      <c r="AC130" s="233">
+      <c r="AC130" s="231">
         <f>AA130/AB130</f>
         <v>0.96688019626550359</v>
       </c>
@@ -59712,21 +59707,21 @@
         <f>D106+D108+D109+D110+D111+D112+D114+D115+D118</f>
         <v>108093</v>
       </c>
-      <c r="E131" s="185">
+      <c r="E131" s="183">
         <v>0.98193900153348102</v>
       </c>
       <c r="F131" s="7">
         <f>F106+F108+F109+F110+F111+F112+F114+F115+F118</f>
         <v>126970</v>
       </c>
-      <c r="G131" s="234">
+      <c r="G131" s="232">
         <v>0.96688019626550359</v>
       </c>
       <c r="H131" s="7">
         <f>H106+H108+H109+H110+H111+H112+H114+H115+H118</f>
         <v>155745</v>
       </c>
-      <c r="I131" s="234">
+      <c r="I131" s="232">
         <v>0.80558709970474673</v>
       </c>
       <c r="J131" s="7">
@@ -59736,15 +59731,15 @@
       <c r="Z131" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AA131" s="232">
+      <c r="AA131" s="230">
         <f>AA115+AA114+AA111+AA105</f>
         <v>4341</v>
       </c>
-      <c r="AB131" s="232">
+      <c r="AB131" s="230">
         <f>AB115+AB114+AB111+AB105</f>
         <v>2048</v>
       </c>
-      <c r="AC131" s="233">
+      <c r="AC131" s="231">
         <f>AA131/AB131</f>
         <v>2.11962890625</v>
       </c>
@@ -59757,21 +59752,21 @@
         <f>D107+D116+D117+D113</f>
         <v>32428</v>
       </c>
-      <c r="E132" s="185">
+      <c r="E132" s="183">
         <v>2.1794871794871793</v>
       </c>
       <c r="F132" s="7">
         <f>F107+F116+F117+F113</f>
         <v>32719</v>
       </c>
-      <c r="G132" s="234">
+      <c r="G132" s="232">
         <v>2.11962890625</v>
       </c>
       <c r="H132" s="7">
         <f>H107+H116+H117+H113</f>
         <v>34025</v>
       </c>
-      <c r="I132" s="234">
+      <c r="I132" s="232">
         <v>1.7667887667887667</v>
       </c>
       <c r="J132" s="7">
@@ -59785,54 +59780,54 @@
       </c>
     </row>
     <row r="135" spans="2:29">
-      <c r="D135" s="334" t="s">
+      <c r="D135" s="333" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="334"/>
-      <c r="F135" s="334" t="s">
+      <c r="E135" s="333"/>
+      <c r="F135" s="333" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="334"/>
-      <c r="H135" s="334" t="s">
+      <c r="G135" s="333"/>
+      <c r="H135" s="333" t="s">
         <v>130</v>
       </c>
-      <c r="I135" s="334"/>
-      <c r="J135" s="334" t="s">
+      <c r="I135" s="333"/>
+      <c r="J135" s="333" t="s">
         <v>131</v>
       </c>
-      <c r="K135" s="334"/>
-      <c r="L135" s="334" t="s">
+      <c r="K135" s="333"/>
+      <c r="L135" s="333" t="s">
         <v>132</v>
       </c>
-      <c r="M135" s="334"/>
-      <c r="N135" s="334" t="s">
+      <c r="M135" s="333"/>
+      <c r="N135" s="333" t="s">
         <v>133</v>
       </c>
-      <c r="O135" s="334"/>
-      <c r="P135" s="334" t="s">
+      <c r="O135" s="333"/>
+      <c r="P135" s="333" t="s">
         <v>134</v>
       </c>
-      <c r="Q135" s="334"/>
-      <c r="R135" s="334" t="s">
+      <c r="Q135" s="333"/>
+      <c r="R135" s="333" t="s">
         <v>135</v>
       </c>
-      <c r="S135" s="334"/>
-      <c r="T135" s="334" t="s">
+      <c r="S135" s="333"/>
+      <c r="T135" s="333" t="s">
         <v>136</v>
       </c>
-      <c r="U135" s="334"/>
-      <c r="V135" s="334" t="s">
+      <c r="U135" s="333"/>
+      <c r="V135" s="333" t="s">
         <v>137</v>
       </c>
-      <c r="W135" s="334"/>
-      <c r="X135" s="334" t="s">
+      <c r="W135" s="333"/>
+      <c r="X135" s="333" t="s">
         <v>138</v>
       </c>
-      <c r="Y135" s="334"/>
-      <c r="Z135" s="334" t="s">
+      <c r="Y135" s="333"/>
+      <c r="Z135" s="333" t="s">
         <v>139</v>
       </c>
-      <c r="AA135" s="334"/>
+      <c r="AA135" s="333"/>
     </row>
     <row r="136" spans="2:29" ht="15.75" thickBot="1">
       <c r="C136" s="9">
@@ -59912,37 +59907,37 @@
       </c>
     </row>
     <row r="137" spans="2:29">
-      <c r="D137" s="199" t="s">
+      <c r="D137" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="E137" s="200" t="s">
+      <c r="E137" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="F137" s="199" t="s">
+      <c r="F137" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="G137" s="200" t="s">
+      <c r="G137" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="199" t="s">
+      <c r="H137" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="200" t="s">
+      <c r="I137" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="J137" s="199" t="s">
+      <c r="J137" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="K137" s="200" t="s">
+      <c r="K137" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="L137" s="199" t="s">
+      <c r="L137" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="M137" s="200" t="s">
+      <c r="M137" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="N137" s="197" t="s">
+      <c r="N137" s="195" t="s">
         <v>1</v>
       </c>
       <c r="O137" s="82" t="s">
@@ -59986,40 +59981,40 @@
       </c>
     </row>
     <row r="138" spans="2:29">
-      <c r="C138" s="195" t="s">
+      <c r="C138" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="D138" s="201">
+      <c r="D138" s="199">
         <v>0.22648736756316221</v>
       </c>
-      <c r="E138" s="202">
+      <c r="E138" s="200">
         <v>0.24889975550122248</v>
       </c>
-      <c r="F138" s="201">
+      <c r="F138" s="199">
         <v>0.25590872045639773</v>
       </c>
-      <c r="G138" s="202">
+      <c r="G138" s="200">
         <v>0.3310513447432763</v>
       </c>
-      <c r="H138" s="201">
+      <c r="H138" s="199">
         <v>0.28533007334963323</v>
       </c>
-      <c r="I138" s="202">
+      <c r="I138" s="200">
         <v>0.44254278728606355</v>
       </c>
-      <c r="J138" s="201">
+      <c r="J138" s="199">
         <v>0.31475142624286878</v>
       </c>
-      <c r="K138" s="202">
+      <c r="K138" s="200">
         <v>0.58826405867970655</v>
       </c>
-      <c r="L138" s="201">
+      <c r="L138" s="199">
         <v>0.34417277913610428</v>
       </c>
       <c r="M138" s="102">
         <v>0.62640586797066011</v>
       </c>
-      <c r="N138" s="198">
+      <c r="N138" s="196">
         <v>0.37359413202933978</v>
       </c>
       <c r="O138" s="102">
@@ -60054,40 +60049,40 @@
       <c r="AA138" s="78"/>
     </row>
     <row r="139" spans="2:29">
-      <c r="C139" s="196" t="s">
+      <c r="C139" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="D139" s="201">
+      <c r="D139" s="199">
         <v>0.26809076562818163</v>
       </c>
       <c r="E139" s="102">
         <v>0.28313989004276113</v>
       </c>
-      <c r="F139" s="201">
+      <c r="F139" s="199">
         <v>0.29488647933211154</v>
       </c>
       <c r="G139" s="102">
         <v>0.33200977397678683</v>
       </c>
-      <c r="H139" s="201">
+      <c r="H139" s="199">
         <v>0.32168219303604156</v>
       </c>
       <c r="I139" s="102">
         <v>0.38790470372632863</v>
       </c>
-      <c r="J139" s="201">
+      <c r="J139" s="199">
         <v>0.34847790673997153</v>
       </c>
       <c r="K139" s="102">
         <v>0.4621258399511301</v>
       </c>
-      <c r="L139" s="201">
+      <c r="L139" s="199">
         <v>0.3752736204439015</v>
       </c>
       <c r="M139" s="102">
         <v>0.51374465485644472</v>
       </c>
-      <c r="N139" s="198">
+      <c r="N139" s="196">
         <v>0.40206933414783147</v>
       </c>
       <c r="O139" s="102">
@@ -60122,40 +60117,40 @@
       <c r="AA139" s="78"/>
     </row>
     <row r="140" spans="2:29">
-      <c r="C140" s="196" t="s">
+      <c r="C140" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="D140" s="201">
+      <c r="D140" s="199">
         <v>0.33315787212100378</v>
       </c>
       <c r="E140" s="102">
         <v>0.33396356136129252</v>
       </c>
-      <c r="F140" s="201">
+      <c r="F140" s="199">
         <v>0.34386816775524237</v>
       </c>
       <c r="G140" s="102">
         <v>0.36232382261945684</v>
       </c>
-      <c r="H140" s="201">
+      <c r="H140" s="199">
         <v>0.3545784633894809</v>
       </c>
       <c r="I140" s="102">
         <v>0.38037126160192508</v>
       </c>
-      <c r="J140" s="201">
+      <c r="J140" s="199">
         <v>0.36528875902371949</v>
       </c>
       <c r="K140" s="102">
         <v>0.39412169130285324</v>
       </c>
-      <c r="L140" s="201">
+      <c r="L140" s="199">
         <v>0.37599905465795808</v>
       </c>
       <c r="M140" s="102">
         <v>0.40168442763836371</v>
       </c>
-      <c r="N140" s="198">
+      <c r="N140" s="196">
         <v>0.38670935029219661</v>
       </c>
       <c r="O140" s="102">
@@ -60190,40 +60185,40 @@
       <c r="AA140" s="78"/>
     </row>
     <row r="141" spans="2:29">
-      <c r="C141" s="196" t="s">
+      <c r="C141" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="D141" s="201">
+      <c r="D141" s="199">
         <v>0.45315311235887212</v>
       </c>
       <c r="E141" s="102">
         <v>0.44412244158666908</v>
       </c>
-      <c r="F141" s="201">
+      <c r="F141" s="199">
         <v>0.47450039244098285</v>
       </c>
       <c r="G141" s="102">
         <v>0.48215902916138381</v>
       </c>
-      <c r="H141" s="201">
+      <c r="H141" s="199">
         <v>0.49584767252309353</v>
       </c>
       <c r="I141" s="102">
         <v>0.52590110487230579</v>
       </c>
-      <c r="J141" s="201">
+      <c r="J141" s="199">
         <v>0.51719495260520421</v>
       </c>
       <c r="K141" s="102">
         <v>0.55243615287085668</v>
       </c>
-      <c r="L141" s="201">
+      <c r="L141" s="199">
         <v>0.53854223268731494</v>
       </c>
       <c r="M141" s="102">
         <v>0.58911429088933165</v>
       </c>
-      <c r="N141" s="198">
+      <c r="N141" s="196">
         <v>0.55988951276942556</v>
       </c>
       <c r="O141" s="102">
@@ -60258,40 +60253,40 @@
       <c r="AA141" s="78"/>
     </row>
     <row r="142" spans="2:29">
-      <c r="C142" s="196" t="s">
+      <c r="C142" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="D142" s="201">
+      <c r="D142" s="199">
         <v>0.31794261076419866</v>
       </c>
       <c r="E142" s="102">
         <v>0.30936663693131133</v>
       </c>
-      <c r="F142" s="201">
+      <c r="F142" s="199">
         <v>0.33419030627416002</v>
       </c>
       <c r="G142" s="102">
         <v>0.32132024977698481</v>
       </c>
-      <c r="H142" s="201">
+      <c r="H142" s="199">
         <v>0.35043800178412132</v>
       </c>
       <c r="I142" s="102">
         <v>0.33737734165923283</v>
       </c>
-      <c r="J142" s="201">
+      <c r="J142" s="199">
         <v>0.36668569729408268</v>
       </c>
       <c r="K142" s="102">
         <v>0.35093666369313115</v>
       </c>
-      <c r="L142" s="201">
+      <c r="L142" s="199">
         <v>0.38293339280404404</v>
       </c>
       <c r="M142" s="102">
         <v>0.37859054415700266</v>
       </c>
-      <c r="N142" s="198">
+      <c r="N142" s="196">
         <v>0.39918108831400534</v>
       </c>
       <c r="O142" s="102">
@@ -60326,40 +60321,40 @@
       <c r="AA142" s="78"/>
     </row>
     <row r="143" spans="2:29">
-      <c r="C143" s="196" t="s">
+      <c r="C143" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="201">
+      <c r="D143" s="199">
         <v>0.44451454609183316</v>
       </c>
       <c r="E143" s="102">
         <v>0.4647739221871714</v>
       </c>
-      <c r="F143" s="201">
+      <c r="F143" s="199">
         <v>0.46421310900806173</v>
       </c>
       <c r="G143" s="102">
         <v>0.52050473186119872</v>
       </c>
-      <c r="H143" s="201">
+      <c r="H143" s="199">
         <v>0.48391167192429024</v>
       </c>
       <c r="I143" s="102">
         <v>0.59516298633017872</v>
       </c>
-      <c r="J143" s="201">
+      <c r="J143" s="199">
         <v>0.50361023484051881</v>
       </c>
       <c r="K143" s="102">
         <v>0.65825446898002105</v>
       </c>
-      <c r="L143" s="201">
+      <c r="L143" s="199">
         <v>0.52330879775674732</v>
       </c>
       <c r="M143" s="102">
         <v>0.68874868559411151</v>
       </c>
-      <c r="N143" s="198">
+      <c r="N143" s="196">
         <v>0.54300736067297595</v>
       </c>
       <c r="O143" s="102">
@@ -60394,40 +60389,40 @@
       <c r="AA143" s="78"/>
     </row>
     <row r="144" spans="2:29">
-      <c r="C144" s="196" t="s">
+      <c r="C144" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="D144" s="201">
+      <c r="D144" s="199">
         <v>0.49053069272976679</v>
       </c>
       <c r="E144" s="102">
         <v>0.48456790123456789</v>
       </c>
-      <c r="F144" s="201">
+      <c r="F144" s="199">
         <v>0.50781035665294927</v>
       </c>
       <c r="G144" s="102">
         <v>0.49382716049382713</v>
       </c>
-      <c r="H144" s="201">
+      <c r="H144" s="199">
         <v>0.52509002057613174</v>
       </c>
       <c r="I144" s="102">
         <v>0.50102880658436211</v>
       </c>
-      <c r="J144" s="201">
+      <c r="J144" s="199">
         <v>0.54236968449931422</v>
       </c>
       <c r="K144" s="102">
         <v>0.50514403292181065</v>
       </c>
-      <c r="L144" s="201">
+      <c r="L144" s="199">
         <v>0.5596493484224967</v>
       </c>
       <c r="M144" s="102">
         <v>0.52057613168724282</v>
       </c>
-      <c r="N144" s="198">
+      <c r="N144" s="196">
         <v>0.57692901234567906</v>
       </c>
       <c r="O144" s="102">
@@ -60462,40 +60457,40 @@
       <c r="AA144" s="78"/>
     </row>
     <row r="145" spans="3:27">
-      <c r="C145" s="196" t="s">
+      <c r="C145" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="D145" s="201">
+      <c r="D145" s="199">
         <v>0.51041055718475081</v>
       </c>
       <c r="E145" s="102">
         <v>0.49266862170087977</v>
       </c>
-      <c r="F145" s="201">
+      <c r="F145" s="199">
         <v>0.53108504398826983</v>
       </c>
       <c r="G145" s="102">
         <v>0.52785923753665687</v>
       </c>
-      <c r="H145" s="201">
+      <c r="H145" s="199">
         <v>0.55175953079178897</v>
       </c>
       <c r="I145" s="102">
         <v>0.59677419354838712</v>
       </c>
-      <c r="J145" s="201">
+      <c r="J145" s="199">
         <v>0.5724340175953081</v>
       </c>
       <c r="K145" s="102">
         <v>0.63636363636363635</v>
       </c>
-      <c r="L145" s="201">
+      <c r="L145" s="199">
         <v>0.59310850439882712</v>
       </c>
       <c r="M145" s="102">
         <v>0.67155425219941345</v>
       </c>
-      <c r="N145" s="198">
+      <c r="N145" s="196">
         <v>0.61378299120234625</v>
       </c>
       <c r="O145" s="102">
@@ -60530,40 +60525,40 @@
       <c r="AA145" s="78"/>
     </row>
     <row r="146" spans="3:27">
-      <c r="C146" s="196" t="s">
+      <c r="C146" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="D146" s="201">
+      <c r="D146" s="199">
         <v>0.46150990099009898</v>
       </c>
       <c r="E146" s="102">
         <v>0.43564356435643564</v>
       </c>
-      <c r="F146" s="201">
+      <c r="F146" s="199">
         <v>0.48737623762376231</v>
       </c>
       <c r="G146" s="102">
         <v>0.44554455445544555</v>
       </c>
-      <c r="H146" s="201">
+      <c r="H146" s="199">
         <v>0.5132425742574257</v>
       </c>
       <c r="I146" s="102">
         <v>0.44554455445544555</v>
       </c>
-      <c r="J146" s="201">
+      <c r="J146" s="199">
         <v>0.53910891089108903</v>
       </c>
       <c r="K146" s="102">
         <v>0.46534653465346537</v>
       </c>
-      <c r="L146" s="201">
+      <c r="L146" s="199">
         <v>0.56497524752475237</v>
       </c>
       <c r="M146" s="102">
         <v>0.48019801980198018</v>
       </c>
-      <c r="N146" s="198">
+      <c r="N146" s="196">
         <v>0.5908415841584157</v>
       </c>
       <c r="O146" s="102">
@@ -60598,40 +60593,40 @@
       <c r="AA146" s="78"/>
     </row>
     <row r="147" spans="3:27">
-      <c r="C147" s="196" t="s">
+      <c r="C147" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="D147" s="201">
+      <c r="D147" s="199">
         <v>0.38059868875086261</v>
       </c>
       <c r="E147" s="102">
         <v>0.36853002070393376</v>
       </c>
-      <c r="F147" s="201">
+      <c r="F147" s="199">
         <v>0.40716011042097994</v>
       </c>
       <c r="G147" s="102">
         <v>0.41614906832298137</v>
       </c>
-      <c r="H147" s="201">
+      <c r="H147" s="199">
         <v>0.43372153209109721</v>
       </c>
       <c r="I147" s="102">
         <v>0.453416149068323</v>
       </c>
-      <c r="J147" s="201">
+      <c r="J147" s="199">
         <v>0.46028295376121453</v>
       </c>
       <c r="K147" s="102">
         <v>0.48447204968944102</v>
       </c>
-      <c r="L147" s="201">
+      <c r="L147" s="199">
         <v>0.4868443754313318</v>
       </c>
       <c r="M147" s="102">
         <v>0.51345755693581785</v>
       </c>
-      <c r="N147" s="198">
+      <c r="N147" s="196">
         <v>0.51340579710144907</v>
       </c>
       <c r="O147" s="102">
@@ -60666,40 +60661,40 @@
       <c r="AA147" s="78"/>
     </row>
     <row r="148" spans="3:27">
-      <c r="C148" s="196" t="s">
+      <c r="C148" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="D148" s="201">
+      <c r="D148" s="199">
         <v>0.24253921568627451</v>
       </c>
       <c r="E148" s="102">
         <v>0.21411764705882352</v>
       </c>
-      <c r="F148" s="201">
+      <c r="F148" s="199">
         <v>0.28507843137254901</v>
       </c>
       <c r="G148" s="102">
         <v>0.22823529411764706</v>
       </c>
-      <c r="H148" s="201">
+      <c r="H148" s="199">
         <v>0.32761764705882357</v>
       </c>
       <c r="I148" s="102">
         <v>0.25176470588235295</v>
       </c>
-      <c r="J148" s="201">
+      <c r="J148" s="199">
         <v>0.37015686274509807</v>
       </c>
       <c r="K148" s="102">
         <v>0.32705882352941179</v>
       </c>
-      <c r="L148" s="201">
+      <c r="L148" s="199">
         <v>0.41269607843137263</v>
       </c>
       <c r="M148" s="102">
         <v>0.44941176470588234</v>
       </c>
-      <c r="N148" s="198">
+      <c r="N148" s="196">
         <v>0.45523529411764718</v>
       </c>
       <c r="O148" s="102">
@@ -60734,40 +60729,40 @@
       <c r="AA148" s="78"/>
     </row>
     <row r="149" spans="3:27">
-      <c r="C149" s="196" t="s">
+      <c r="C149" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="D149" s="201">
+      <c r="D149" s="199">
         <v>0.60121026011560696</v>
       </c>
       <c r="E149" s="102">
         <v>0.59826589595375723</v>
       </c>
-      <c r="F149" s="201">
+      <c r="F149" s="199">
         <v>0.61427023121387292</v>
       </c>
       <c r="G149" s="102">
         <v>0.60838150289017345</v>
       </c>
-      <c r="H149" s="201">
+      <c r="H149" s="199">
         <v>0.62733020231213887</v>
       </c>
       <c r="I149" s="102">
         <v>0.63294797687861271</v>
       </c>
-      <c r="J149" s="201">
+      <c r="J149" s="199">
         <v>0.64039017341040472</v>
       </c>
       <c r="K149" s="102">
         <v>0.66763005780346818</v>
       </c>
-      <c r="L149" s="201">
+      <c r="L149" s="199">
         <v>0.65345014450867067</v>
       </c>
       <c r="M149" s="102">
         <v>0.68786127167630062</v>
       </c>
-      <c r="N149" s="198">
+      <c r="N149" s="196">
         <v>0.66651011560693663</v>
       </c>
       <c r="O149" s="102">
@@ -60802,40 +60797,40 @@
       <c r="AA149" s="78"/>
     </row>
     <row r="150" spans="3:27">
-      <c r="C150" s="196" t="s">
+      <c r="C150" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="D150" s="201">
+      <c r="D150" s="199">
         <v>0.38766375545851534</v>
       </c>
       <c r="E150" s="102">
         <v>0.38646288209606988</v>
       </c>
-      <c r="F150" s="201">
+      <c r="F150" s="199">
         <v>0.40851528384279479</v>
       </c>
       <c r="G150" s="102">
         <v>0.40393013100436681</v>
       </c>
-      <c r="H150" s="201">
+      <c r="H150" s="199">
         <v>0.42936681222707429</v>
       </c>
       <c r="I150" s="102">
         <v>0.41703056768558949</v>
       </c>
-      <c r="J150" s="201">
+      <c r="J150" s="199">
         <v>0.4502183406113538</v>
       </c>
       <c r="K150" s="102">
         <v>0.43013100436681223</v>
       </c>
-      <c r="L150" s="201">
+      <c r="L150" s="199">
         <v>0.4710698689956333</v>
       </c>
       <c r="M150" s="102">
         <v>0.45633187772925765</v>
       </c>
-      <c r="N150" s="198">
+      <c r="N150" s="196">
         <v>0.49192139737991281</v>
       </c>
       <c r="O150" s="102">
@@ -60870,40 +60865,40 @@
       <c r="AA150" s="78"/>
     </row>
     <row r="151" spans="3:27">
-      <c r="C151" s="196" t="s">
+      <c r="C151" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="201">
+      <c r="D151" s="199">
         <v>0.11193633952254643</v>
       </c>
       <c r="E151" s="102">
         <v>0.11671087533156499</v>
       </c>
-      <c r="F151" s="201">
+      <c r="F151" s="199">
         <v>0.14960212201591513</v>
       </c>
       <c r="G151" s="102">
         <v>0.17771883289124668</v>
       </c>
-      <c r="H151" s="201">
+      <c r="H151" s="199">
         <v>0.18726790450928385</v>
       </c>
       <c r="I151" s="102">
         <v>0.21750663129973474</v>
       </c>
-      <c r="J151" s="201">
+      <c r="J151" s="199">
         <v>0.22493368700265254</v>
       </c>
       <c r="K151" s="102">
         <v>0.27055702917771884</v>
       </c>
-      <c r="L151" s="201">
+      <c r="L151" s="199">
         <v>0.26259946949602125</v>
       </c>
       <c r="M151" s="102">
         <v>0.28912466843501328</v>
       </c>
-      <c r="N151" s="198">
+      <c r="N151" s="196">
         <v>0.30026525198938997</v>
       </c>
       <c r="O151" s="102">
@@ -60938,40 +60933,40 @@
       <c r="AA151" s="78"/>
     </row>
     <row r="152" spans="3:27">
-      <c r="C152" s="196" t="s">
+      <c r="C152" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="D152" s="201">
+      <c r="D152" s="199">
         <v>5.5670426065162905E-2</v>
       </c>
       <c r="E152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="F152" s="201">
+      <c r="F152" s="199">
         <v>0.10382205513784461</v>
       </c>
       <c r="G152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="H152" s="201">
+      <c r="H152" s="199">
         <v>0.15197368421052634</v>
       </c>
       <c r="I152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="J152" s="201">
+      <c r="J152" s="199">
         <v>0.20012531328320801</v>
       </c>
       <c r="K152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="L152" s="201">
+      <c r="L152" s="199">
         <v>0.24827694235588973</v>
       </c>
       <c r="M152" s="102">
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="N152" s="198">
+      <c r="N152" s="196">
         <v>0.29642857142857149</v>
       </c>
       <c r="O152" s="102">
@@ -61003,20 +60998,20 @@
       <c r="AA152" s="78"/>
     </row>
     <row r="153" spans="3:27">
-      <c r="C153" s="196" t="s">
+      <c r="C153" s="194" t="s">
         <v>189</v>
       </c>
-      <c r="D153" s="201"/>
+      <c r="D153" s="199"/>
       <c r="E153" s="102"/>
-      <c r="F153" s="201"/>
+      <c r="F153" s="199"/>
       <c r="G153" s="102"/>
-      <c r="H153" s="201"/>
+      <c r="H153" s="199"/>
       <c r="I153" s="102"/>
-      <c r="J153" s="201"/>
+      <c r="J153" s="199"/>
       <c r="K153" s="102"/>
-      <c r="L153" s="201"/>
+      <c r="L153" s="199"/>
       <c r="M153" s="102"/>
-      <c r="N153" s="198"/>
+      <c r="N153" s="196"/>
       <c r="O153" s="78"/>
       <c r="P153" s="89"/>
       <c r="Q153" s="78"/>
@@ -61032,40 +61027,40 @@
       <c r="AA153" s="78"/>
     </row>
     <row r="154" spans="3:27" ht="15.75" thickBot="1">
-      <c r="C154" s="196" t="s">
+      <c r="C154" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="D154" s="203">
+      <c r="D154" s="201">
         <v>0.28428908934707903</v>
       </c>
       <c r="E154" s="105">
         <v>0.26804123711340205</v>
       </c>
-      <c r="F154" s="203">
+      <c r="F154" s="201">
         <v>0.31600085910652925</v>
       </c>
       <c r="G154" s="105">
         <v>0.30670103092783507</v>
       </c>
-      <c r="H154" s="203">
+      <c r="H154" s="201">
         <v>0.34771262886597942</v>
       </c>
       <c r="I154" s="105">
         <v>0.32989690721649484</v>
       </c>
-      <c r="J154" s="203">
+      <c r="J154" s="201">
         <v>0.37942439862542965</v>
       </c>
       <c r="K154" s="105">
         <v>0.32989690721649484</v>
       </c>
-      <c r="L154" s="203">
+      <c r="L154" s="201">
         <v>0.41113616838487976</v>
       </c>
       <c r="M154" s="105">
         <v>0.32989690721649484</v>
       </c>
-      <c r="N154" s="198">
+      <c r="N154" s="196">
         <v>0.44284793814432999</v>
       </c>
       <c r="O154" s="102">
@@ -61104,23 +61099,23 @@
     <row r="156" spans="3:27">
       <c r="C156"/>
       <c r="H156"/>
-      <c r="M156" s="231">
+      <c r="M156" s="229">
         <f>M151/L151</f>
         <v>1.101010101010101</v>
       </c>
     </row>
     <row r="157" spans="3:27">
       <c r="C157"/>
-      <c r="K157" s="186"/>
-      <c r="M157" s="231">
+      <c r="K157" s="184"/>
+      <c r="M157" s="229">
         <f>M152/L152</f>
         <v>3.0283911671924287E-2</v>
       </c>
-      <c r="O157" s="231">
+      <c r="O157" s="229">
         <f>O151/Z151</f>
         <v>0.56451612903225812</v>
       </c>
-      <c r="Q157" s="186">
+      <c r="Q157" s="184">
         <f>Q149/P149</f>
         <v>1.0887536216474836</v>
       </c>
@@ -61128,8 +61123,8 @@
     <row r="158" spans="3:27">
       <c r="C158"/>
       <c r="H158"/>
-      <c r="K158" s="186"/>
-      <c r="O158" s="231">
+      <c r="K158" s="184"/>
+      <c r="O158" s="229">
         <f>O152/Z152</f>
         <v>1.2845215157353884E-2</v>
       </c>
@@ -61280,12 +61275,38 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="AA97:AA98"/>
-    <mergeCell ref="AB97:AB98"/>
-    <mergeCell ref="Z97:Z98"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="H135:I135"/>
@@ -61299,38 +61320,12 @@
     <mergeCell ref="I99:I100"/>
     <mergeCell ref="J99:J100"/>
     <mergeCell ref="K99:K100"/>
-    <mergeCell ref="T97:U97"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="AA97:AA98"/>
+    <mergeCell ref="AB97:AB98"/>
+    <mergeCell ref="Z97:Z98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="S22:AC36">
@@ -61462,22 +61457,22 @@
       </c>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="336" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="336" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="335" t="s">
+      <c r="D3" s="336" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="337" t="s">
+      <c r="E3" s="334" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="337" t="s">
+      <c r="F3" s="334" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="337" t="s">
+      <c r="G3" s="334" t="s">
         <v>227</v>
       </c>
       <c r="I3">
@@ -61512,12 +61507,12 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="105">
-      <c r="B4" s="336"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
+      <c r="B4" s="337"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
       <c r="I4" t="s">
         <v>127</v>
       </c>
@@ -63401,11 +63396,11 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="18.75">
-      <c r="B6" s="348" t="s">
+      <c r="B6" s="347" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="349"/>
-      <c r="D6" s="350"/>
+      <c r="C6" s="348"/>
+      <c r="D6" s="349"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -63597,11 +63592,11 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="18.75">
-      <c r="B21" s="348" t="s">
+      <c r="B21" s="347" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="349"/>
-      <c r="D21" s="350"/>
+      <c r="C21" s="348"/>
+      <c r="D21" s="349"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="106" t="s">
@@ -63743,11 +63738,11 @@
       </c>
     </row>
     <row r="35" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B35" s="348" t="s">
+      <c r="B35" s="347" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="349"/>
-      <c r="D35" s="350"/>
+      <c r="C35" s="348"/>
+      <c r="D35" s="349"/>
       <c r="R35" s="109" t="s">
         <v>132</v>
       </c>
@@ -63922,20 +63917,20 @@
     </row>
     <row r="51" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:21" ht="18.75">
-      <c r="B52" s="351" t="s">
+      <c r="B52" s="350" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="352"/>
-      <c r="D52" s="352"/>
-      <c r="E52" s="353"/>
-      <c r="R52" s="187">
+      <c r="C52" s="351"/>
+      <c r="D52" s="351"/>
+      <c r="E52" s="352"/>
+      <c r="R52" s="185">
         <v>0.9</v>
       </c>
       <c r="S52" s="90">
         <f>VLOOKUP(B2,Data!C3:BE22,Data!Q2,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="T52" s="172">
+      <c r="T52" s="170">
         <f>S52/R52</f>
         <v>1.1111111111111112</v>
       </c>
@@ -64104,15 +64099,15 @@
     </row>
     <row r="64" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="65" spans="2:15">
-      <c r="C65" s="345" t="s">
+      <c r="C65" s="344" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="346"/>
-      <c r="E65" s="347"/>
-      <c r="M65" s="339" t="s">
+      <c r="D65" s="345"/>
+      <c r="E65" s="346"/>
+      <c r="M65" s="338" t="s">
         <v>55</v>
       </c>
-      <c r="N65" s="340"/>
+      <c r="N65" s="339"/>
       <c r="O65"/>
     </row>
     <row r="66" spans="2:15">
@@ -64120,14 +64115,14 @@
       <c r="C66" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="343" t="s">
+      <c r="D66" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="344"/>
+      <c r="E66" s="343"/>
       <c r="M66" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="N66" s="179" t="s">
+      <c r="N66" s="177" t="s">
         <v>18</v>
       </c>
       <c r="O66"/>
@@ -64145,14 +64140,14 @@
         <f>IF(D67=3,10%,IF(D67=0,"",0%))</f>
         <v>0.1</v>
       </c>
-      <c r="M67" s="175" t="s">
+      <c r="M67" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="N67" s="173">
+      <c r="N67" s="171">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AG2,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O67" s="180">
+      <c r="O67" s="178">
         <f>SUM(N67:N70)</f>
         <v>0.5</v>
       </c>
@@ -64169,14 +64164,14 @@
         <f t="shared" ref="E68:E76" si="2">IF(D68=3,10%,IF(D68=0,"",0%))</f>
         <v>0.1</v>
       </c>
-      <c r="M68" s="175" t="s">
+      <c r="M68" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="N68" s="173">
+      <c r="N68" s="171">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AH2,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O68" s="181">
+      <c r="O68" s="179">
         <f>IF(O67&gt;=100%,0%,100%-O67)</f>
         <v>0.5</v>
       </c>
@@ -64193,14 +64188,14 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="M69" s="175" t="s">
+      <c r="M69" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="N69" s="173" t="str">
+      <c r="N69" s="171" t="str">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AI2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="O69" s="182"/>
+      <c r="O69" s="180"/>
     </row>
     <row r="70" spans="2:15" ht="16.7" customHeight="1" thickBot="1">
       <c r="C70" s="131" t="s">
@@ -64214,14 +64209,14 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="M70" s="176" t="s">
+      <c r="M70" s="174" t="s">
         <v>153</v>
       </c>
-      <c r="N70" s="174" t="str">
+      <c r="N70" s="172" t="str">
         <f>VLOOKUP($B$2,WB!$AF$3:$AK$18,WB!AJ2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="O70" s="182"/>
+      <c r="O70" s="180"/>
     </row>
     <row r="71" spans="2:15" ht="16.7" customHeight="1">
       <c r="C71" s="131" t="s">
@@ -64249,7 +64244,7 @@
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="O72" s="182"/>
+      <c r="O72" s="180"/>
     </row>
     <row r="73" spans="2:15" ht="16.7" customHeight="1">
       <c r="C73" s="131" t="s">
@@ -64263,11 +64258,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M73" s="341" t="s">
+      <c r="M73" s="340" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="342"/>
-      <c r="O73" s="182"/>
+      <c r="N73" s="341"/>
+      <c r="O73" s="180"/>
     </row>
     <row r="74" spans="2:15" ht="16.7" customHeight="1">
       <c r="C74" s="131" t="s">
@@ -64284,10 +64279,10 @@
       <c r="M74" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="N74" s="179" t="s">
+      <c r="N74" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="O74" s="180">
+      <c r="O74" s="178">
         <f>SUM(N75:N78)</f>
         <v>0.75</v>
       </c>
@@ -64304,14 +64299,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M75" s="175" t="s">
+      <c r="M75" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="N75" s="173">
+      <c r="N75" s="171">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AG21,FALSE)</f>
         <v>0.25</v>
       </c>
-      <c r="O75" s="181">
+      <c r="O75" s="179">
         <f>IF(O74&gt;=100%,0%,100%-O74)</f>
         <v>0.25</v>
       </c>
@@ -64328,22 +64323,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M76" s="175" t="s">
+      <c r="M76" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="N76" s="173">
+      <c r="N76" s="171">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AH21,FALSE)</f>
         <v>0.25</v>
       </c>
       <c r="O76"/>
     </row>
     <row r="77" spans="2:15" ht="16.7" customHeight="1">
-      <c r="D77" s="213"/>
-      <c r="E77" s="213"/>
-      <c r="M77" s="175" t="s">
+      <c r="D77" s="211"/>
+      <c r="E77" s="211"/>
+      <c r="M77" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="N77" s="173">
+      <c r="N77" s="171">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AI21,FALSE)</f>
         <v>0.25</v>
       </c>
@@ -64358,14 +64353,14 @@
         <f>SUM(E67:E76)</f>
         <v>0.6</v>
       </c>
-      <c r="M78" s="176" t="s">
+      <c r="M78" s="174" t="s">
         <v>153</v>
       </c>
-      <c r="N78" s="174" t="str">
+      <c r="N78" s="172" t="str">
         <f>VLOOKUP($B$2,WB!$AF$22:$AK$37,WB!AJ21,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="O78" s="178"/>
+      <c r="O78" s="176"/>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="107" t="s">
@@ -64379,67 +64374,67 @@
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="205" t="s">
+      <c r="B83" s="203" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="206"/>
-      <c r="D83" s="206"/>
+      <c r="C83" s="204"/>
+      <c r="D83" s="204"/>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="205" t="s">
+      <c r="B84" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="206"/>
-      <c r="D84" s="206"/>
+      <c r="C84" s="204"/>
+      <c r="D84" s="204"/>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="205" t="s">
+      <c r="B85" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="206"/>
-      <c r="D85" s="206"/>
+      <c r="C85" s="204"/>
+      <c r="D85" s="204"/>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="205" t="s">
+      <c r="B86" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="206"/>
-      <c r="D86" s="206"/>
+      <c r="C86" s="204"/>
+      <c r="D86" s="204"/>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="205" t="s">
+      <c r="B87" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="C87" s="206"/>
-      <c r="D87" s="206"/>
+      <c r="C87" s="204"/>
+      <c r="D87" s="204"/>
     </row>
     <row r="88" spans="2:4">
-      <c r="B88" s="205" t="s">
+      <c r="B88" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="C88" s="206"/>
-      <c r="D88" s="206"/>
+      <c r="C88" s="204"/>
+      <c r="D88" s="204"/>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="205" t="s">
+      <c r="B89" s="203" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="206"/>
-      <c r="D89" s="206"/>
+      <c r="C89" s="204"/>
+      <c r="D89" s="204"/>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="205" t="s">
+      <c r="B90" s="203" t="s">
         <v>138</v>
       </c>
-      <c r="C90" s="206"/>
-      <c r="D90" s="206"/>
+      <c r="C90" s="204"/>
+      <c r="D90" s="204"/>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="205" t="s">
+      <c r="B91" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="206"/>
-      <c r="D91" s="206"/>
+      <c r="C91" s="204"/>
+      <c r="D91" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -64512,26 +64507,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B9CBAF11028447B385221D9B36D96A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="185deeeeaa85aa5acc6da7ff5918ca94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22ff7873-98f4-4119-bbca-70544c3aaded" xmlns:ns3="242fb338-6e7f-46c2-a04d-1835f0b57452" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d20db2146c0415d77fbec532ba79aee6" ns2:_="" ns3:_="">
     <xsd:import namespace="22ff7873-98f4-4119-bbca-70544c3aaded"/>
@@ -64766,32 +64741,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9624E47F-8C23-423C-89CF-EE75FCD5D016}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64808,4 +64778,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AP_OCT_A.xlsx
+++ b/AP_OCT_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22EAC1-0FEC-4A81-B0AE-96ECEDF8F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B93DC-9E56-4BDB-9468-AFBEF3CDC588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="264">
   <si>
     <t>PNM</t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>Montly Report</t>
+  </si>
+  <si>
+    <t>NRC-Imp</t>
   </si>
 </sst>
 </file>
@@ -2559,6 +2562,60 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2655,57 +2712,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,12 +2737,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2787,7 +2787,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,12 +2807,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2846,9 +2852,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -44585,11 +44588,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="289" t="s">
+      <c r="V8" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="260"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -44648,9 +44651,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="292"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="263"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -44676,10 +44679,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.47982216142270862</v>
       </c>
-      <c r="V10" s="295" t="s">
+      <c r="V10" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="296"/>
+      <c r="W10" s="265"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -44708,20 +44711,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="297" t="str">
+      <c r="V11" s="266" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
         <v>NRC Plan</v>
       </c>
-      <c r="W11" s="298"/>
-      <c r="X11" s="301" t="str">
+      <c r="W11" s="267"/>
+      <c r="X11" s="270" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="299"/>
-      <c r="W12" s="300"/>
-      <c r="X12" s="302"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="271"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -44801,142 +44804,142 @@
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="303" t="s">
+      <c r="C24" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="304"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="305"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="274"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="289" t="s">
+      <c r="J24" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="290"/>
-      <c r="N24" s="290"/>
-      <c r="O24" s="291"/>
+      <c r="K24" s="259"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="260"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="289" t="s">
+      <c r="Q24" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="290"/>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="290"/>
-      <c r="W24" s="291"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="259"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="261" t="s">
+      <c r="C25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="262"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262" t="s">
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="263"/>
+      <c r="H25" s="281"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="261" t="s">
+      <c r="J25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262" t="s">
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="263"/>
+      <c r="O25" s="281"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="264" t="s">
+      <c r="Q25" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="265"/>
-      <c r="S25" s="265"/>
-      <c r="T25" s="265"/>
-      <c r="U25" s="266"/>
-      <c r="V25" s="267" t="s">
+      <c r="R25" s="283"/>
+      <c r="S25" s="283"/>
+      <c r="T25" s="283"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="268"/>
+      <c r="W25" s="286"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="269" t="str">
+      <c r="C26" s="287" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
         <v>Montly Report</v>
       </c>
-      <c r="D26" s="270"/>
-      <c r="E26" s="270"/>
-      <c r="F26" s="270"/>
-      <c r="G26" s="273">
+      <c r="D26" s="288"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="291">
         <v>1</v>
       </c>
-      <c r="H26" s="274"/>
+      <c r="H26" s="292"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="277" t="s">
+      <c r="J26" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="281" t="s">
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="299" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="282"/>
+      <c r="O26" s="300"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="285" t="s">
+      <c r="Q26" s="303" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="286"/>
-      <c r="S26" s="286"/>
-      <c r="T26" s="286"/>
-      <c r="U26" s="286"/>
-      <c r="V26" s="257" t="s">
+      <c r="R26" s="304"/>
+      <c r="S26" s="304"/>
+      <c r="T26" s="304"/>
+      <c r="U26" s="304"/>
+      <c r="V26" s="275" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="258"/>
+      <c r="W26" s="276"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="274"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="291"/>
+      <c r="H27" s="292"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="283"/>
-      <c r="O27" s="284"/>
+      <c r="J27" s="297"/>
+      <c r="K27" s="298"/>
+      <c r="L27" s="298"/>
+      <c r="M27" s="298"/>
+      <c r="N27" s="301"/>
+      <c r="O27" s="302"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="285"/>
-      <c r="R27" s="286"/>
-      <c r="S27" s="286"/>
-      <c r="T27" s="286"/>
-      <c r="U27" s="286"/>
-      <c r="V27" s="257"/>
-      <c r="W27" s="258"/>
+      <c r="Q27" s="303"/>
+      <c r="R27" s="304"/>
+      <c r="S27" s="304"/>
+      <c r="T27" s="304"/>
+      <c r="U27" s="304"/>
+      <c r="V27" s="275"/>
+      <c r="W27" s="276"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="270"/>
-      <c r="G28" s="273"/>
-      <c r="H28" s="274"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="292"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -44945,23 +44948,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="285"/>
-      <c r="R28" s="286"/>
-      <c r="S28" s="286"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="286"/>
-      <c r="V28" s="257"/>
-      <c r="W28" s="258"/>
+      <c r="Q28" s="303"/>
+      <c r="R28" s="304"/>
+      <c r="S28" s="304"/>
+      <c r="T28" s="304"/>
+      <c r="U28" s="304"/>
+      <c r="V28" s="275"/>
+      <c r="W28" s="276"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="272"/>
-      <c r="E29" s="272"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="275"/>
-      <c r="H29" s="276"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="294"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -44970,13 +44973,13 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="287"/>
-      <c r="R29" s="288"/>
-      <c r="S29" s="288"/>
-      <c r="T29" s="288"/>
-      <c r="U29" s="288"/>
-      <c r="V29" s="259"/>
-      <c r="W29" s="260"/>
+      <c r="Q29" s="305"/>
+      <c r="R29" s="306"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="306"/>
+      <c r="V29" s="277"/>
+      <c r="W29" s="278"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:24">
@@ -45177,13 +45180,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="V8:X9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="Q24:W24"/>
     <mergeCell ref="V26:W29"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -45196,6 +45192,13 @@
     <mergeCell ref="J26:M27"/>
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="Q26:U29"/>
+    <mergeCell ref="V8:X9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="Q24:W24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45219,11 +45222,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B1:BG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="V15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4:X18"/>
+      <selection pane="bottomRight" activeCell="BI6" sqref="BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -45602,6 +45605,9 @@
       <c r="BE3" s="160" t="s">
         <v>81</v>
       </c>
+      <c r="BF3" s="160" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="4" spans="2:59" ht="35.450000000000003" customHeight="1">
       <c r="B4" s="161" t="s">
@@ -45683,7 +45689,7 @@
         <f>IF(V4&gt;=100%,4%,V4*4%/100%)</f>
         <v>3.6430073316900694E-2</v>
       </c>
-      <c r="X4" s="353" t="s">
+      <c r="X4" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y4" s="149">
@@ -45801,6 +45807,9 @@
         <f>AR4+AN4+AJ4+W4+S4+K4+G4+AF4+AC4+Z4+O4</f>
         <v>0.6704749422962436</v>
       </c>
+      <c r="BF4" s="152">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="5" spans="2:59" ht="36" customHeight="1">
       <c r="B5" s="162" t="s">
@@ -45882,7 +45891,7 @@
         <f t="shared" ref="W5:W6" si="9">IF(V5&gt;=100%,4%,V5*4%/100%)</f>
         <v>3.7123996431757358E-2</v>
       </c>
-      <c r="X5" s="353" t="s">
+      <c r="X5" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y5" s="138">
@@ -46000,6 +46009,7 @@
         <f t="shared" ref="BE5:BE6" si="19">AR5+AN5+AJ5+W5+S5+K5+G5+AF5+AC5+Z5+O5</f>
         <v>0.65170771298317443</v>
       </c>
+      <c r="BF5" s="140"/>
       <c r="BG5" s="73"/>
     </row>
     <row r="6" spans="2:59" ht="40.35" customHeight="1">
@@ -46082,7 +46092,7 @@
         <f t="shared" si="9"/>
         <v>0.04</v>
       </c>
-      <c r="X6" s="353" t="s">
+      <c r="X6" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y6" s="138">
@@ -46199,6 +46209,9 @@
       <c r="BE6" s="140">
         <f t="shared" si="19"/>
         <v>0.69821391018348777</v>
+      </c>
+      <c r="BF6" s="140">
+        <v>0.7</v>
       </c>
       <c r="BG6" s="4"/>
     </row>
@@ -46282,7 +46295,7 @@
         <f>IF(V7&gt;=100%,4%,V7*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="X7" s="353" t="s">
+      <c r="X7" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y7" s="138">
@@ -46399,6 +46412,9 @@
       <c r="BE7" s="140">
         <f>AR7+AN7+AJ7+W7+S7+K7+G7+AF7+AC7+Z7+O7</f>
         <v>0.65931314285714293</v>
+      </c>
+      <c r="BF7" s="140" t="s">
+        <v>107</v>
       </c>
       <c r="BG7" s="4"/>
     </row>
@@ -46482,7 +46498,7 @@
         <f t="shared" ref="W8:W15" si="24">IF(V8&gt;=100%,4%,V8*4%/100%)</f>
         <v>0.04</v>
       </c>
-      <c r="X8" s="353" t="s">
+      <c r="X8" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y8" s="138">
@@ -46599,6 +46615,9 @@
       <c r="BE8" s="140">
         <f t="shared" ref="BE8:BE17" si="28">AR8+AN8+AJ8+W8+S8+K8+G8+AF8+AC8+Z8+O8</f>
         <v>0.61480249539154896</v>
+      </c>
+      <c r="BF8" s="140">
+        <v>0.8</v>
       </c>
       <c r="BG8" s="4"/>
     </row>
@@ -46682,7 +46701,7 @@
         <f t="shared" si="24"/>
         <v>3.6912264619380471E-2</v>
       </c>
-      <c r="X9" s="353" t="s">
+      <c r="X9" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y9" s="138">
@@ -46799,6 +46818,9 @@
       <c r="BE9" s="140">
         <f t="shared" si="28"/>
         <v>0.62979018839743095</v>
+      </c>
+      <c r="BF9" s="140">
+        <v>0.4</v>
       </c>
       <c r="BG9" s="4"/>
     </row>
@@ -46882,7 +46904,7 @@
         <f t="shared" si="24"/>
         <v>3.2755477272024963E-2</v>
       </c>
-      <c r="X10" s="353" t="s">
+      <c r="X10" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y10" s="138">
@@ -46999,6 +47021,9 @@
       <c r="BE10" s="140">
         <f t="shared" si="28"/>
         <v>0.63988560967862951</v>
+      </c>
+      <c r="BF10" s="140">
+        <v>0.2</v>
       </c>
       <c r="BG10" s="4"/>
     </row>
@@ -47082,7 +47107,7 @@
         <f t="shared" si="24"/>
         <v>3.0849415410621216E-2</v>
       </c>
-      <c r="X11" s="353" t="s">
+      <c r="X11" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y11" s="138">
@@ -47199,6 +47224,9 @@
       <c r="BE11" s="140">
         <f t="shared" si="28"/>
         <v>0.66980133833672806</v>
+      </c>
+      <c r="BF11" s="140">
+        <v>0.2</v>
       </c>
       <c r="BG11" s="4"/>
     </row>
@@ -47282,7 +47310,7 @@
         <f t="shared" si="24"/>
         <v>2.9042904290429043E-2</v>
       </c>
-      <c r="X12" s="353" t="s">
+      <c r="X12" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y12" s="138">
@@ -47399,6 +47427,9 @@
       <c r="BE12" s="140">
         <f t="shared" si="28"/>
         <v>0.62440949534513046</v>
+      </c>
+      <c r="BF12" s="140">
+        <v>0.9</v>
       </c>
       <c r="BG12" s="4"/>
     </row>
@@ -47482,7 +47513,7 @@
         <f>IF(V13&gt;=100%,4%,V13*4%/100%)</f>
         <v>3.9993750976409941E-2</v>
       </c>
-      <c r="X13" s="353" t="s">
+      <c r="X13" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y13" s="138">
@@ -47599,6 +47630,9 @@
       <c r="BE13" s="140">
         <f t="shared" si="28"/>
         <v>0.63514641893577961</v>
+      </c>
+      <c r="BF13" s="140">
+        <v>0.7</v>
       </c>
       <c r="BG13" s="4"/>
     </row>
@@ -47682,7 +47716,7 @@
         <f t="shared" si="24"/>
         <v>3.0621375310687659E-2</v>
       </c>
-      <c r="X14" s="353" t="s">
+      <c r="X14" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y14" s="138">
@@ -47796,6 +47830,9 @@
       <c r="BE14" s="140">
         <f>AR14+AN14+AJ14+W14+S14+K14+G14+AF14+AC14+Z14+O14</f>
         <v>0.68300551922136554</v>
+      </c>
+      <c r="BF14" s="140">
+        <v>0.3</v>
       </c>
       <c r="BG14" s="4"/>
     </row>
@@ -47879,7 +47916,7 @@
         <f t="shared" si="24"/>
         <v>3.8202425299199497E-2</v>
       </c>
-      <c r="X15" s="353" t="s">
+      <c r="X15" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y15" s="138">
@@ -47994,6 +48031,7 @@
         <f t="shared" si="28"/>
         <v>0.61531401970131105</v>
       </c>
+      <c r="BF15" s="140"/>
     </row>
     <row r="16" spans="2:59" ht="40.35" customHeight="1">
       <c r="B16" s="163" t="s">
@@ -48075,7 +48113,7 @@
         <f>IF(V16&gt;=100%,4%,V16*4%/100%)</f>
         <v>3.274025659646574E-2</v>
       </c>
-      <c r="X16" s="353" t="s">
+      <c r="X16" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y16" s="138">
@@ -48190,8 +48228,11 @@
         <f t="shared" si="28"/>
         <v>0.64253268395545149</v>
       </c>
+      <c r="BF16" s="140">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="17" spans="2:57" ht="42" customHeight="1">
+    <row r="17" spans="2:58" ht="42" customHeight="1">
       <c r="B17" s="164" t="s">
         <v>104</v>
       </c>
@@ -48271,7 +48312,7 @@
         <f>IF(V17&gt;=100%,4%,V17*4%/100%)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="353" t="s">
+      <c r="X17" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y17" s="138">
@@ -48386,8 +48427,11 @@
         <f t="shared" si="28"/>
         <v>0.49421666560564514</v>
       </c>
+      <c r="BF17" s="140">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="18" spans="2:57" ht="58.35" customHeight="1">
+    <row r="18" spans="2:58" ht="58.35" customHeight="1">
       <c r="B18" s="164" t="s">
         <v>104</v>
       </c>
@@ -48461,7 +48505,7 @@
         <f>IF(V18&gt;=100%,5%,V18*5%/100%)</f>
         <v>3.006872852233677E-2</v>
       </c>
-      <c r="X18" s="353" t="s">
+      <c r="X18" s="257" t="s">
         <v>262</v>
       </c>
       <c r="Y18" s="138">
@@ -48576,8 +48620,11 @@
         <f>AR18+AN18+AJ18+W18+S18+AF18+Z18+O18</f>
         <v>0.44824522724091193</v>
       </c>
+      <c r="BF18" s="140">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="19" spans="2:57">
+    <row r="19" spans="2:58">
       <c r="B19" s="165" t="s">
         <v>108</v>
       </c>
@@ -48720,8 +48767,9 @@
         <v>1.7793594306049823E-3</v>
       </c>
       <c r="BE19" s="78"/>
+      <c r="BF19" s="78"/>
     </row>
-    <row r="20" spans="2:57">
+    <row r="20" spans="2:58">
       <c r="B20" s="165" t="s">
         <v>108</v>
       </c>
@@ -48865,8 +48913,9 @@
         <v>0.41891891891891891</v>
       </c>
       <c r="BE20" s="78"/>
+      <c r="BF20" s="78"/>
     </row>
-    <row r="21" spans="2:57">
+    <row r="21" spans="2:58">
       <c r="B21" s="165" t="s">
         <v>108</v>
       </c>
@@ -49010,8 +49059,9 @@
         <v>0.26775956284153007</v>
       </c>
       <c r="BE21" s="78"/>
+      <c r="BF21" s="78"/>
     </row>
-    <row r="22" spans="2:57">
+    <row r="22" spans="2:58">
       <c r="B22" s="165" t="s">
         <v>108</v>
       </c>
@@ -49155,6 +49205,7 @@
         <v>0.5</v>
       </c>
       <c r="BE22" s="78"/>
+      <c r="BF22" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -49228,53 +49279,53 @@
     <row r="7" spans="2:55" ht="28.7" customHeight="1"/>
     <row r="8" spans="2:55" ht="17.45" customHeight="1" thickBot="1"/>
     <row r="9" spans="2:55" ht="16.350000000000001" customHeight="1" thickBot="1">
-      <c r="F9" s="306" t="s">
+      <c r="F9" s="307" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="307"/>
-      <c r="H9" s="307"/>
-      <c r="I9" s="307"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="307"/>
-      <c r="L9" s="307"/>
-      <c r="M9" s="307"/>
-      <c r="N9" s="307"/>
-      <c r="O9" s="307"/>
-      <c r="P9" s="307"/>
-      <c r="Q9" s="307"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="307"/>
-      <c r="T9" s="307"/>
-      <c r="U9" s="307"/>
-      <c r="V9" s="307"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="308"/>
-      <c r="Z9" s="309" t="s">
+      <c r="G9" s="308"/>
+      <c r="H9" s="308"/>
+      <c r="I9" s="308"/>
+      <c r="J9" s="308"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="308"/>
+      <c r="N9" s="308"/>
+      <c r="O9" s="308"/>
+      <c r="P9" s="308"/>
+      <c r="Q9" s="308"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="308"/>
+      <c r="V9" s="308"/>
+      <c r="W9" s="308"/>
+      <c r="X9" s="308"/>
+      <c r="Y9" s="309"/>
+      <c r="Z9" s="310" t="s">
         <v>114</v>
       </c>
-      <c r="AA9" s="310"/>
-      <c r="AB9" s="310"/>
-      <c r="AC9" s="310"/>
-      <c r="AD9" s="310"/>
-      <c r="AE9" s="310"/>
-      <c r="AF9" s="310"/>
-      <c r="AG9" s="310"/>
-      <c r="AH9" s="311"/>
-      <c r="AI9" s="312" t="s">
+      <c r="AA9" s="311"/>
+      <c r="AB9" s="311"/>
+      <c r="AC9" s="311"/>
+      <c r="AD9" s="311"/>
+      <c r="AE9" s="311"/>
+      <c r="AF9" s="311"/>
+      <c r="AG9" s="311"/>
+      <c r="AH9" s="312"/>
+      <c r="AI9" s="313" t="s">
         <v>115</v>
       </c>
-      <c r="AJ9" s="313"/>
-      <c r="AK9" s="313"/>
-      <c r="AL9" s="313"/>
-      <c r="AM9" s="313"/>
-      <c r="AN9" s="313"/>
-      <c r="AO9" s="313"/>
-      <c r="AP9" s="313"/>
-      <c r="AQ9" s="313"/>
-      <c r="AR9" s="313"/>
-      <c r="AS9" s="313"/>
-      <c r="AT9" s="314"/>
+      <c r="AJ9" s="314"/>
+      <c r="AK9" s="314"/>
+      <c r="AL9" s="314"/>
+      <c r="AM9" s="314"/>
+      <c r="AN9" s="314"/>
+      <c r="AO9" s="314"/>
+      <c r="AP9" s="314"/>
+      <c r="AQ9" s="314"/>
+      <c r="AR9" s="314"/>
+      <c r="AS9" s="314"/>
+      <c r="AT9" s="315"/>
     </row>
     <row r="10" spans="2:55" ht="30.75" thickBot="1">
       <c r="B10" s="222" t="s">
@@ -51993,11 +52044,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="289" t="s">
+      <c r="V8" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="290"/>
-      <c r="X8" s="291"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="260"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -52057,9 +52108,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>1.5622558975159073E-4</v>
       </c>
-      <c r="V9" s="292"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="294"/>
+      <c r="V9" s="261"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="263"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -52085,10 +52136,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V10" s="295" t="s">
+      <c r="V10" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="296"/>
+      <c r="W10" s="265"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -52117,20 +52168,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="297" t="str">
+      <c r="V11" s="266" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
         <v>NRC Plan</v>
       </c>
-      <c r="W11" s="298"/>
-      <c r="X11" s="315" t="str">
+      <c r="W11" s="267"/>
+      <c r="X11" s="332" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="299"/>
-      <c r="W12" s="300"/>
-      <c r="X12" s="316"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="333"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -52216,145 +52267,145 @@
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="303" t="s">
+      <c r="C24" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="304"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="305"/>
+      <c r="D24" s="273"/>
+      <c r="E24" s="273"/>
+      <c r="F24" s="273"/>
+      <c r="G24" s="273"/>
+      <c r="H24" s="274"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="289" t="s">
+      <c r="J24" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="290"/>
-      <c r="N24" s="290"/>
-      <c r="O24" s="291"/>
+      <c r="K24" s="259"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="260"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="289" t="s">
+      <c r="Q24" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="290"/>
-      <c r="S24" s="290"/>
-      <c r="T24" s="290"/>
-      <c r="U24" s="290"/>
-      <c r="V24" s="290"/>
-      <c r="W24" s="291"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="259"/>
+      <c r="U24" s="259"/>
+      <c r="V24" s="259"/>
+      <c r="W24" s="260"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="261" t="s">
+      <c r="C25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="262"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262" t="s">
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="263"/>
+      <c r="H25" s="281"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="261" t="s">
+      <c r="J25" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262" t="s">
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="263"/>
+      <c r="O25" s="281"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="264" t="s">
+      <c r="Q25" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="265"/>
-      <c r="S25" s="265"/>
-      <c r="T25" s="265"/>
-      <c r="U25" s="266"/>
-      <c r="V25" s="267" t="s">
+      <c r="R25" s="283"/>
+      <c r="S25" s="283"/>
+      <c r="T25" s="283"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="268"/>
+      <c r="W25" s="286"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="269" t="str">
+      <c r="C26" s="287" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
         <v>Montly Report</v>
       </c>
-      <c r="D26" s="270"/>
-      <c r="E26" s="270"/>
-      <c r="F26" s="270"/>
-      <c r="G26" s="325">
+      <c r="D26" s="288"/>
+      <c r="E26" s="288"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="324">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!Y2,FALSE)</f>
         <v>0.6</v>
       </c>
-      <c r="H26" s="326"/>
+      <c r="H26" s="325"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="277" t="s">
+      <c r="J26" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="278"/>
-      <c r="L26" s="278"/>
-      <c r="M26" s="278"/>
-      <c r="N26" s="329" t="str">
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="328" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AA2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="O26" s="330"/>
+      <c r="O26" s="329"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="317" t="s">
+      <c r="Q26" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="318"/>
-      <c r="S26" s="318"/>
-      <c r="T26" s="318"/>
-      <c r="U26" s="318"/>
-      <c r="V26" s="321" t="str">
+      <c r="R26" s="317"/>
+      <c r="S26" s="317"/>
+      <c r="T26" s="317"/>
+      <c r="U26" s="317"/>
+      <c r="V26" s="320" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AD2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="W26" s="322"/>
+      <c r="W26" s="321"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="326"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="324"/>
+      <c r="H27" s="325"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="331"/>
-      <c r="O27" s="332"/>
+      <c r="J27" s="297"/>
+      <c r="K27" s="298"/>
+      <c r="L27" s="298"/>
+      <c r="M27" s="298"/>
+      <c r="N27" s="330"/>
+      <c r="O27" s="331"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="317"/>
-      <c r="R27" s="318"/>
-      <c r="S27" s="318"/>
-      <c r="T27" s="318"/>
-      <c r="U27" s="318"/>
-      <c r="V27" s="321"/>
-      <c r="W27" s="322"/>
+      <c r="Q27" s="316"/>
+      <c r="R27" s="317"/>
+      <c r="S27" s="317"/>
+      <c r="T27" s="317"/>
+      <c r="U27" s="317"/>
+      <c r="V27" s="320"/>
+      <c r="W27" s="321"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="270"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="326"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="324"/>
+      <c r="H28" s="325"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -52363,23 +52414,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="317"/>
-      <c r="R28" s="318"/>
-      <c r="S28" s="318"/>
-      <c r="T28" s="318"/>
-      <c r="U28" s="318"/>
-      <c r="V28" s="321"/>
-      <c r="W28" s="322"/>
+      <c r="Q28" s="316"/>
+      <c r="R28" s="317"/>
+      <c r="S28" s="317"/>
+      <c r="T28" s="317"/>
+      <c r="U28" s="317"/>
+      <c r="V28" s="320"/>
+      <c r="W28" s="321"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="272"/>
-      <c r="E29" s="272"/>
-      <c r="F29" s="272"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="328"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="327"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -52388,13 +52439,13 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="319"/>
-      <c r="R29" s="320"/>
-      <c r="S29" s="320"/>
-      <c r="T29" s="320"/>
-      <c r="U29" s="320"/>
-      <c r="V29" s="323"/>
-      <c r="W29" s="324"/>
+      <c r="Q29" s="318"/>
+      <c r="R29" s="319"/>
+      <c r="S29" s="319"/>
+      <c r="T29" s="319"/>
+      <c r="U29" s="319"/>
+      <c r="V29" s="322"/>
+      <c r="W29" s="323"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:23">
@@ -52504,15 +52555,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="Q26:U29"/>
-    <mergeCell ref="V26:W29"/>
-    <mergeCell ref="C26:F29"/>
-    <mergeCell ref="G26:H29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="N26:O27"/>
     <mergeCell ref="V8:X9"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="V11:W12"/>
@@ -52523,6 +52565,15 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="J24:O24"/>
+    <mergeCell ref="Q26:U29"/>
+    <mergeCell ref="V26:W29"/>
+    <mergeCell ref="C26:F29"/>
+    <mergeCell ref="G26:H29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="N26:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -56679,42 +56730,42 @@
       </c>
     </row>
     <row r="41" spans="2:37">
-      <c r="D41" s="333" t="s">
+      <c r="D41" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="333"/>
-      <c r="F41" s="333" t="s">
+      <c r="E41" s="334"/>
+      <c r="F41" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="333"/>
-      <c r="H41" s="333" t="s">
+      <c r="G41" s="334"/>
+      <c r="H41" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="333"/>
-      <c r="J41" s="333" t="s">
+      <c r="I41" s="334"/>
+      <c r="J41" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="K41" s="333"/>
-      <c r="L41" s="333" t="s">
+      <c r="K41" s="334"/>
+      <c r="L41" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="M41" s="333"/>
-      <c r="N41" s="333" t="s">
+      <c r="M41" s="334"/>
+      <c r="N41" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="O41" s="333"/>
-      <c r="P41" s="333" t="s">
+      <c r="O41" s="334"/>
+      <c r="P41" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="Q41" s="333"/>
-      <c r="R41" s="333" t="s">
+      <c r="Q41" s="334"/>
+      <c r="R41" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="S41" s="333"/>
-      <c r="T41" s="333" t="s">
+      <c r="S41" s="334"/>
+      <c r="T41" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="U41" s="333"/>
+      <c r="U41" s="334"/>
     </row>
     <row r="42" spans="2:37">
       <c r="B42" s="82" t="s">
@@ -57821,42 +57872,42 @@
       </c>
     </row>
     <row r="77" spans="2:21">
-      <c r="D77" s="333" t="s">
+      <c r="D77" s="334" t="s">
         <v>191</v>
       </c>
-      <c r="E77" s="333"/>
-      <c r="F77" s="333" t="s">
+      <c r="E77" s="334"/>
+      <c r="F77" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="G77" s="333"/>
-      <c r="H77" s="333" t="s">
+      <c r="G77" s="334"/>
+      <c r="H77" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="333"/>
-      <c r="J77" s="333" t="s">
+      <c r="I77" s="334"/>
+      <c r="J77" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="333"/>
-      <c r="L77" s="333" t="s">
+      <c r="K77" s="334"/>
+      <c r="L77" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="333"/>
-      <c r="N77" s="333" t="s">
+      <c r="M77" s="334"/>
+      <c r="N77" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="333"/>
-      <c r="P77" s="333" t="s">
+      <c r="O77" s="334"/>
+      <c r="P77" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="333"/>
-      <c r="R77" s="333" t="s">
+      <c r="Q77" s="334"/>
+      <c r="R77" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="S77" s="333"/>
-      <c r="T77" s="333" t="s">
+      <c r="S77" s="334"/>
+      <c r="T77" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="U77" s="333"/>
+      <c r="U77" s="334"/>
     </row>
     <row r="78" spans="2:21">
       <c r="C78" s="87" t="s">
@@ -58476,49 +58527,49 @@
       </c>
     </row>
     <row r="97" spans="3:28">
-      <c r="D97" s="333" t="s">
+      <c r="D97" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="333"/>
-      <c r="F97" s="333" t="s">
+      <c r="E97" s="334"/>
+      <c r="F97" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="G97" s="333"/>
-      <c r="H97" s="333" t="s">
+      <c r="G97" s="334"/>
+      <c r="H97" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="I97" s="333"/>
-      <c r="J97" s="333" t="s">
+      <c r="I97" s="334"/>
+      <c r="J97" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="K97" s="333"/>
-      <c r="L97" s="333" t="s">
+      <c r="K97" s="334"/>
+      <c r="L97" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="M97" s="333"/>
-      <c r="N97" s="333" t="s">
+      <c r="M97" s="334"/>
+      <c r="N97" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="O97" s="333"/>
-      <c r="P97" s="333" t="s">
+      <c r="O97" s="334"/>
+      <c r="P97" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="Q97" s="333"/>
-      <c r="R97" s="333" t="s">
+      <c r="Q97" s="334"/>
+      <c r="R97" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="S97" s="333"/>
-      <c r="T97" s="333" t="s">
+      <c r="S97" s="334"/>
+      <c r="T97" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="U97" s="333"/>
-      <c r="Z97" s="336" t="s">
+      <c r="U97" s="334"/>
+      <c r="Z97" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="AA97" s="334" t="s">
+      <c r="AA97" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="AB97" s="334" t="s">
+      <c r="AB97" s="337" t="s">
         <v>227</v>
       </c>
     </row>
@@ -58580,36 +58631,36 @@
       <c r="U98" s="9">
         <v>19</v>
       </c>
-      <c r="Z98" s="337"/>
-      <c r="AA98" s="335"/>
-      <c r="AB98" s="335"/>
+      <c r="Z98" s="336"/>
+      <c r="AA98" s="338"/>
+      <c r="AB98" s="338"/>
     </row>
     <row r="99" spans="3:28">
-      <c r="C99" s="336" t="s">
+      <c r="C99" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="334" t="s">
+      <c r="D99" s="337" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="334" t="s">
+      <c r="E99" s="337" t="s">
         <v>229</v>
       </c>
-      <c r="F99" s="336" t="s">
+      <c r="F99" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="G99" s="334" t="s">
+      <c r="G99" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="H99" s="336" t="s">
+      <c r="H99" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="I99" s="334" t="s">
+      <c r="I99" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="J99" s="336" t="s">
+      <c r="J99" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="K99" s="334" t="s">
+      <c r="K99" s="337" t="s">
         <v>231</v>
       </c>
       <c r="Z99" s="5" t="s">
@@ -58623,15 +58674,15 @@
       </c>
     </row>
     <row r="100" spans="3:28">
-      <c r="C100" s="337"/>
-      <c r="D100" s="335"/>
-      <c r="E100" s="335"/>
-      <c r="F100" s="337"/>
-      <c r="G100" s="335"/>
-      <c r="H100" s="337"/>
-      <c r="I100" s="335"/>
-      <c r="J100" s="337"/>
-      <c r="K100" s="335"/>
+      <c r="C100" s="336"/>
+      <c r="D100" s="338"/>
+      <c r="E100" s="338"/>
+      <c r="F100" s="336"/>
+      <c r="G100" s="338"/>
+      <c r="H100" s="336"/>
+      <c r="I100" s="338"/>
+      <c r="J100" s="336"/>
+      <c r="K100" s="338"/>
       <c r="Z100" s="6" t="s">
         <v>103</v>
       </c>
@@ -59780,54 +59831,54 @@
       </c>
     </row>
     <row r="135" spans="2:29">
-      <c r="D135" s="333" t="s">
+      <c r="D135" s="334" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="333"/>
-      <c r="F135" s="333" t="s">
+      <c r="E135" s="334"/>
+      <c r="F135" s="334" t="s">
         <v>129</v>
       </c>
-      <c r="G135" s="333"/>
-      <c r="H135" s="333" t="s">
+      <c r="G135" s="334"/>
+      <c r="H135" s="334" t="s">
         <v>130</v>
       </c>
-      <c r="I135" s="333"/>
-      <c r="J135" s="333" t="s">
+      <c r="I135" s="334"/>
+      <c r="J135" s="334" t="s">
         <v>131</v>
       </c>
-      <c r="K135" s="333"/>
-      <c r="L135" s="333" t="s">
+      <c r="K135" s="334"/>
+      <c r="L135" s="334" t="s">
         <v>132</v>
       </c>
-      <c r="M135" s="333"/>
-      <c r="N135" s="333" t="s">
+      <c r="M135" s="334"/>
+      <c r="N135" s="334" t="s">
         <v>133</v>
       </c>
-      <c r="O135" s="333"/>
-      <c r="P135" s="333" t="s">
+      <c r="O135" s="334"/>
+      <c r="P135" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="Q135" s="333"/>
-      <c r="R135" s="333" t="s">
+      <c r="Q135" s="334"/>
+      <c r="R135" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="S135" s="333"/>
-      <c r="T135" s="333" t="s">
+      <c r="S135" s="334"/>
+      <c r="T135" s="334" t="s">
         <v>136</v>
       </c>
-      <c r="U135" s="333"/>
-      <c r="V135" s="333" t="s">
+      <c r="U135" s="334"/>
+      <c r="V135" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="W135" s="333"/>
-      <c r="X135" s="333" t="s">
+      <c r="W135" s="334"/>
+      <c r="X135" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="Y135" s="333"/>
-      <c r="Z135" s="333" t="s">
+      <c r="Y135" s="334"/>
+      <c r="Z135" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="AA135" s="333"/>
+      <c r="AA135" s="334"/>
     </row>
     <row r="136" spans="2:29" ht="15.75" thickBot="1">
       <c r="C136" s="9">
@@ -61275,38 +61326,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="T97:U97"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="AA97:AA98"/>
+    <mergeCell ref="AB97:AB98"/>
+    <mergeCell ref="Z97:Z98"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="H135:I135"/>
@@ -61320,12 +61345,38 @@
     <mergeCell ref="I99:I100"/>
     <mergeCell ref="J99:J100"/>
     <mergeCell ref="K99:K100"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="AA97:AA98"/>
-    <mergeCell ref="AB97:AB98"/>
-    <mergeCell ref="Z97:Z98"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="S22:AC36">
@@ -61457,22 +61508,22 @@
       </c>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="336" t="s">
+      <c r="B3" s="335" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="335" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="336" t="s">
+      <c r="D3" s="335" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="334" t="s">
+      <c r="E3" s="337" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="334" t="s">
+      <c r="F3" s="337" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="334" t="s">
+      <c r="G3" s="337" t="s">
         <v>227</v>
       </c>
       <c r="I3">
@@ -61507,12 +61558,12 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="105">
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335"/>
+      <c r="B4" s="336"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
+      <c r="G4" s="338"/>
       <c r="I4" t="s">
         <v>127</v>
       </c>
@@ -63396,11 +63447,11 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="18.75">
-      <c r="B6" s="347" t="s">
+      <c r="B6" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="348"/>
-      <c r="D6" s="349"/>
+      <c r="C6" s="349"/>
+      <c r="D6" s="350"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -63592,11 +63643,11 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="18.75">
-      <c r="B21" s="347" t="s">
+      <c r="B21" s="348" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="348"/>
-      <c r="D21" s="349"/>
+      <c r="C21" s="349"/>
+      <c r="D21" s="350"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="106" t="s">
@@ -63738,11 +63789,11 @@
       </c>
     </row>
     <row r="35" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B35" s="347" t="s">
+      <c r="B35" s="348" t="s">
         <v>233</v>
       </c>
-      <c r="C35" s="348"/>
-      <c r="D35" s="349"/>
+      <c r="C35" s="349"/>
+      <c r="D35" s="350"/>
       <c r="R35" s="109" t="s">
         <v>132</v>
       </c>
@@ -63917,12 +63968,12 @@
     </row>
     <row r="51" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:21" ht="18.75">
-      <c r="B52" s="350" t="s">
+      <c r="B52" s="351" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="351"/>
-      <c r="D52" s="351"/>
-      <c r="E52" s="352"/>
+      <c r="C52" s="352"/>
+      <c r="D52" s="352"/>
+      <c r="E52" s="353"/>
       <c r="R52" s="185">
         <v>0.9</v>
       </c>
@@ -64099,15 +64150,15 @@
     </row>
     <row r="64" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="65" spans="2:15">
-      <c r="C65" s="344" t="s">
+      <c r="C65" s="345" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="345"/>
-      <c r="E65" s="346"/>
-      <c r="M65" s="338" t="s">
+      <c r="D65" s="346"/>
+      <c r="E65" s="347"/>
+      <c r="M65" s="339" t="s">
         <v>55</v>
       </c>
-      <c r="N65" s="339"/>
+      <c r="N65" s="340"/>
       <c r="O65"/>
     </row>
     <row r="66" spans="2:15">
@@ -64115,10 +64166,10 @@
       <c r="C66" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="342" t="s">
+      <c r="D66" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="343"/>
+      <c r="E66" s="344"/>
       <c r="M66" s="106" t="s">
         <v>1</v>
       </c>
@@ -64258,10 +64309,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M73" s="340" t="s">
+      <c r="M73" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="341"/>
+      <c r="N73" s="342"/>
       <c r="O73" s="180"/>
     </row>
     <row r="74" spans="2:15" ht="16.7" customHeight="1">
@@ -64507,6 +64558,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B9CBAF11028447B385221D9B36D96A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="185deeeeaa85aa5acc6da7ff5918ca94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22ff7873-98f4-4119-bbca-70544c3aaded" xmlns:ns3="242fb338-6e7f-46c2-a04d-1835f0b57452" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d20db2146c0415d77fbec532ba79aee6" ns2:_="" ns3:_="">
     <xsd:import namespace="22ff7873-98f4-4119-bbca-70544c3aaded"/>
@@ -64741,27 +64812,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9624E47F-8C23-423C-89CF-EE75FCD5D016}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64778,29 +64854,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AP_OCT_A.xlsx
+++ b/AP_OCT_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B93DC-9E56-4BDB-9468-AFBEF3CDC588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12E724D-9BD2-4203-BD81-E517514D204A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="DB (2)" sheetId="7" state="hidden" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="Slicer_Priority">#N/A</definedName>
     <definedName name="Slicer_RAM">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="264">
   <si>
     <t>PNM</t>
   </si>
@@ -5958,10 +5958,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.97297297297297292</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7027027027027084E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6191,10 +6191,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.41422594142259417</c:v>
+                  <c:v>0.59715173092947504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58577405857740583</c:v>
+                  <c:v>0.40284826907052496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,7 +6474,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>1.0141025641025641</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6758,7 +6758,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0863636363636364</c:v>
+                  <c:v>1.0413043478260868</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7048,10 +7048,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.99984377441024841</c:v>
+                  <c:v>0.91075183292251727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5622558975159073E-4</c:v>
+                  <c:v>8.9248167077482732E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7247,10 +7247,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.98448729184925499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.81437427912341409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7775,10 +7775,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>0.95243015506856332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.7569844931436678E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8006,10 +8006,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.51793794117647063</c:v>
+                  <c:v>0.49651071748878922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48206205882352937</c:v>
+                  <c:v>0.50348928251121072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8430,10 +8430,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.63514641893577961</c:v>
+                  <c:v>0.6704749422962436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36485358106422039</c:v>
+                  <c:v>0.3295250577037564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8607,10 +8607,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.63514641893577961</c:v>
+                  <c:v>0.6704749422962436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36485358106422039</c:v>
+                  <c:v>0.3295250577037564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -38879,7 +38879,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>70.0%</a:t>
+              <a:t>78.0%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -39014,7 +39014,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>76.3%</a:t>
+            <a:t>79.1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600">
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -39206,7 +39206,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>95.6%</a:t>
+            <a:t>95.8%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600">
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -39379,7 +39379,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>88.0%</a:t>
+              <a:t>92.0%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -39571,7 +39571,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>74.0%</a:t>
+              <a:t>69.0%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1100" b="1">
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -39775,7 +39775,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>74.0%</a:t>
+            <a:t>62.8%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600">
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -39996,7 +39996,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>100.0%</a:t>
+            <a:t>85.7%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2800">
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -40477,7 +40477,7 @@
                   <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>3.40M</a:t>
+                <a:t>22.30M</a:t>
               </a:fld>
               <a:endParaRPr lang="en-US" sz="1200" b="1">
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -40672,7 +40672,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>1.76M</a:t>
+              <a:t>11.07M</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="3600">
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -40753,7 +40753,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1.44</a:t>
+            <a:t>1.04</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600">
             <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -40926,7 +40926,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>1.48</a:t>
+              <a:t>1.00</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1200" b="1">
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
@@ -41061,7 +41061,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>990</a:t>
+            <a:t>7,883</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600"/>
         </a:p>
@@ -41156,7 +41156,7 @@
                 <a:cs typeface="Calibri"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2,390</a:t>
+              <a:t>13,201</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1200" b="1"/>
           </a:p>
@@ -41361,7 +41361,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>666804</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>454347</xdr:rowOff>
+      <xdr:rowOff>435297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -41540,7 +41540,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>63.5%</a:t>
+            <a:t>67.0%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="4200" kern="1200"/>
         </a:p>
@@ -43821,6 +43821,10 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
       <sheetName val="Grupo Q"/>
+      <sheetName val="NOV"/>
+      <sheetName val="AP25NOV"/>
+      <sheetName val="DEC"/>
+      <sheetName val="AP25DEC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -44049,6 +44053,8 @@
           <cell r="W19" t="str">
             <v>Massy</v>
           </cell>
+          <cell r="X19"/>
+          <cell r="Y19"/>
           <cell r="Z19">
             <v>0.75887761572606216</v>
           </cell>
@@ -44088,6 +44094,10 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -45223,10 +45233,10 @@
   <dimension ref="B1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AZ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BI6" sqref="BI6"/>
+      <selection pane="bottomRight" activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -51978,7 +51988,7 @@
   <dimension ref="B1:X35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="76" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -51998,7 +52008,7 @@
     <row r="2" spans="2:24" ht="10.7" customHeight="1"/>
     <row r="3" spans="2:24" ht="34.5">
       <c r="B3" s="169" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:24" ht="15.75" thickBot="1">
@@ -52056,15 +52066,15 @@
       </c>
       <c r="C9" s="3">
         <f>VLOOKUP(B3,Data!$C$3:$BE$22,Data!D2,FALSE)</f>
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="D9" s="3">
         <f>VLOOKUP(B3,Data!$C$3:$BE$22,Data!E2,FALSE)</f>
-        <v>0.76300000000000001</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="E9" s="3">
         <f>VLOOKUP(B3,Data!$C$3:$BE$22,Data!F2,FALSE)</f>
-        <v>1.0900000000000001</v>
+        <v>1.0141025641025641</v>
       </c>
       <c r="F9" s="3">
         <f>IF(E9&gt;=100%,0%,100%-E9)</f>
@@ -52075,15 +52085,15 @@
       </c>
       <c r="H9" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!H2,FALSE)</f>
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="I9" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!I2,FALSE)</f>
-        <v>0.95599999999999996</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J9" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!J2,FALSE)</f>
-        <v>1.0863636363636364</v>
+        <v>1.0413043478260868</v>
       </c>
       <c r="K9" s="3">
         <f>IF(J9&gt;=100%,0%,100%-J9)</f>
@@ -52094,19 +52104,19 @@
       </c>
       <c r="M9" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!T2,FALSE)</f>
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="N9" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!U2,FALSE)</f>
-        <v>0.73988439306358378</v>
+        <v>0.6284187647165369</v>
       </c>
       <c r="O9" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!V2,FALSE)</f>
-        <v>0.99984377441024841</v>
+        <v>0.91075183292251727</v>
       </c>
       <c r="P9" s="3">
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
-        <v>1.5622558975159073E-4</v>
+        <v>8.9248167077482732E-2</v>
       </c>
       <c r="V9" s="261"/>
       <c r="W9" s="262"/>
@@ -52122,11 +52132,11 @@
       </c>
       <c r="N10" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AX2,FALSE)</f>
-        <v>1</v>
+        <v>0.98448729184925499</v>
       </c>
       <c r="O10" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AY2,FALSE)</f>
-        <v>1.1111111111111112</v>
+        <v>1.0938747687213943</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" ref="P10:P11" si="0">IF(O10&gt;=100%,0%,100%-O10)</f>
@@ -52134,7 +52144,7 @@
       </c>
       <c r="Q10" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="V10" s="264" t="s">
         <v>1</v>
@@ -52154,19 +52164,19 @@
       </c>
       <c r="N11" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BB2,FALSE)</f>
-        <v>1</v>
+        <v>0.81437427912341409</v>
       </c>
       <c r="O11" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BC2,FALSE)</f>
-        <v>1.1111111111111112</v>
+        <v>0.90486031013712676</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5139689862873245E-2</v>
       </c>
       <c r="Q11" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
-        <v>0.5</v>
+        <v>0.40718713956170705</v>
       </c>
       <c r="V11" s="266" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
@@ -52209,26 +52219,26 @@
       </c>
       <c r="M14" s="46">
         <f>N10</f>
-        <v>1</v>
+        <v>0.98448729184925499</v>
       </c>
       <c r="N14" s="46">
         <f>N11</f>
-        <v>1</v>
+        <v>0.81437427912341409</v>
       </c>
       <c r="O14" s="50">
         <v>0.9</v>
       </c>
       <c r="P14" s="46">
         <f>Q10+Q11</f>
-        <v>1</v>
+        <v>0.857187139561707</v>
       </c>
       <c r="Q14" s="45">
         <f>P14/O14</f>
-        <v>1.1111111111111112</v>
+        <v>0.95243015506856332</v>
       </c>
       <c r="R14" s="3">
         <f>IF(Q14&gt;=100%,0%,100%-Q14)</f>
-        <v>0</v>
+        <v>4.7569844931436678E-2</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="15.75" thickBot="1">
@@ -52343,7 +52353,7 @@
       <c r="F26" s="288"/>
       <c r="G26" s="324">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!Y2,FALSE)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="325"/>
       <c r="I26" s="74"/>
@@ -52355,7 +52365,7 @@
       <c r="M26" s="296"/>
       <c r="N26" s="328" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AA2,FALSE)</f>
-        <v>Q3</v>
+        <v>Q2</v>
       </c>
       <c r="O26" s="329"/>
       <c r="P26" s="74"/>
@@ -52487,11 +52497,11 @@
       </c>
       <c r="V34" s="123">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!BE2,FALSE)</f>
-        <v>0.63514641893577961</v>
+        <v>0.6704749422962436</v>
       </c>
       <c r="W34" s="123">
         <f>IF(V34&gt;=100%,0%,100%-V34)</f>
-        <v>0.36485358106422039</v>
+        <v>0.3295250577037564</v>
       </c>
     </row>
     <row r="35" spans="3:23">
@@ -52500,57 +52510,57 @@
       </c>
       <c r="D35" s="52">
         <f>VLOOKUP(B3,Data!$C$3:$BE$22,Data!AG2,FALSE)</f>
-        <v>3400000</v>
+        <v>22300000</v>
       </c>
       <c r="E35" s="52">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AH2,FALSE)</f>
-        <v>1760989</v>
+        <v>11072189</v>
       </c>
       <c r="F35" s="53">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AI2,FALSE)</f>
-        <v>0.51793794117647063</v>
+        <v>0.49651071748878922</v>
       </c>
       <c r="G35" s="3">
         <f>IF(F35&gt;=100%,0%,100%-F35)</f>
-        <v>0.48206205882352937</v>
+        <v>0.50348928251121072</v>
       </c>
       <c r="J35" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="54">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AK2,FALSE)</f>
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="L35" s="54">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AL2,FALSE)</f>
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="M35" s="3">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AM2,FALSE)</f>
-        <v>0.97297297297297292</v>
+        <v>1.04</v>
       </c>
       <c r="N35" s="3">
         <f>IF(M35&gt;=100%,0%,100%-M35)</f>
-        <v>2.7027027027027084E-2</v>
+        <v>0</v>
       </c>
       <c r="P35" t="s">
         <v>27</v>
       </c>
       <c r="Q35" s="55">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AO2,FALSE)</f>
-        <v>2390</v>
+        <v>13201</v>
       </c>
       <c r="R35" s="55">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AP2,FALSE)</f>
-        <v>990</v>
+        <v>7883</v>
       </c>
       <c r="S35" s="56">
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AQ2,FALSE)</f>
-        <v>0.41422594142259417</v>
+        <v>0.59715173092947504</v>
       </c>
       <c r="T35" s="3">
         <f>IF(S35&gt;=100%,0%,100%-S35)</f>
-        <v>0.58577405857740583</v>
+        <v>0.40284826907052496</v>
       </c>
     </row>
   </sheetData>
@@ -63340,7 +63350,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:V91"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A65" zoomScale="102" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="102" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>

--- a/AP_OCT_A.xlsx
+++ b/AP_OCT_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Desktop\Propuesta graficas DND\Dashboard_NIBU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3788c24686780f/Escritorio/Nissan/Dashboard_NIBU/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B93DC-9E56-4BDB-9468-AFBEF3CDC588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{7269C79B-1F81-48BE-9D00-6D51E83CC0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="DB (2)" sheetId="7" state="hidden" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="264">
   <si>
     <t>PNM</t>
   </si>
@@ -2565,57 +2565,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2712,6 +2661,57 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2737,6 +2737,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2787,19 +2793,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,6 +2801,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="47" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -43821,6 +43821,10 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
       <sheetName val="Grupo Q"/>
+      <sheetName val="NOV"/>
+      <sheetName val="AP25NOV"/>
+      <sheetName val="DEC"/>
+      <sheetName val="AP25DEC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -44049,6 +44053,8 @@
           <cell r="W19" t="str">
             <v>Massy</v>
           </cell>
+          <cell r="X19"/>
+          <cell r="Y19"/>
           <cell r="Z19">
             <v>0.75887761572606216</v>
           </cell>
@@ -44088,6 +44094,10 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -44588,11 +44598,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="258" t="s">
+      <c r="V8" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="259"/>
-      <c r="X8" s="260"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="292"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -44651,9 +44661,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="261"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="294"/>
+      <c r="X9" s="295"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -44679,10 +44689,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.47982216142270862</v>
       </c>
-      <c r="V10" s="264" t="s">
+      <c r="V10" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="265"/>
+      <c r="W10" s="297"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -44711,20 +44721,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="266" t="str">
+      <c r="V11" s="298" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
         <v>NRC Plan</v>
       </c>
-      <c r="W11" s="267"/>
-      <c r="X11" s="270" t="str">
+      <c r="W11" s="299"/>
+      <c r="X11" s="302" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="271"/>
+      <c r="V12" s="300"/>
+      <c r="W12" s="301"/>
+      <c r="X12" s="303"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -44804,142 +44814,142 @@
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="272" t="s">
+      <c r="C24" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="274"/>
+      <c r="D24" s="305"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="306"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="258" t="s">
+      <c r="J24" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="260"/>
+      <c r="K24" s="291"/>
+      <c r="L24" s="291"/>
+      <c r="M24" s="291"/>
+      <c r="N24" s="291"/>
+      <c r="O24" s="292"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="258" t="s">
+      <c r="Q24" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="259"/>
-      <c r="U24" s="259"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
+      <c r="R24" s="291"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="291"/>
+      <c r="U24" s="291"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="292"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="279" t="s">
+      <c r="C25" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280" t="s">
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="281"/>
+      <c r="H25" s="264"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="279" t="s">
+      <c r="J25" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="280"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="280"/>
-      <c r="N25" s="280" t="s">
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="281"/>
+      <c r="O25" s="264"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="282" t="s">
+      <c r="Q25" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="283"/>
-      <c r="S25" s="283"/>
-      <c r="T25" s="283"/>
-      <c r="U25" s="284"/>
-      <c r="V25" s="285" t="s">
+      <c r="R25" s="266"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="266"/>
+      <c r="U25" s="267"/>
+      <c r="V25" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="286"/>
+      <c r="W25" s="269"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="287" t="str">
+      <c r="C26" s="270" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
         <v>Montly Report</v>
       </c>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="291">
+      <c r="D26" s="271"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="274">
         <v>1</v>
       </c>
-      <c r="H26" s="292"/>
+      <c r="H26" s="275"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="295" t="s">
+      <c r="J26" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="296"/>
-      <c r="L26" s="296"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="299" t="s">
+      <c r="K26" s="279"/>
+      <c r="L26" s="279"/>
+      <c r="M26" s="279"/>
+      <c r="N26" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="300"/>
+      <c r="O26" s="283"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="303" t="s">
+      <c r="Q26" s="286" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="304"/>
-      <c r="S26" s="304"/>
-      <c r="T26" s="304"/>
-      <c r="U26" s="304"/>
-      <c r="V26" s="275" t="s">
+      <c r="R26" s="287"/>
+      <c r="S26" s="287"/>
+      <c r="T26" s="287"/>
+      <c r="U26" s="287"/>
+      <c r="V26" s="258" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="276"/>
+      <c r="W26" s="259"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="291"/>
-      <c r="H27" s="292"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="275"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="297"/>
-      <c r="K27" s="298"/>
-      <c r="L27" s="298"/>
-      <c r="M27" s="298"/>
-      <c r="N27" s="301"/>
-      <c r="O27" s="302"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="284"/>
+      <c r="O27" s="285"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="303"/>
-      <c r="R27" s="304"/>
-      <c r="S27" s="304"/>
-      <c r="T27" s="304"/>
-      <c r="U27" s="304"/>
-      <c r="V27" s="275"/>
-      <c r="W27" s="276"/>
+      <c r="Q27" s="286"/>
+      <c r="R27" s="287"/>
+      <c r="S27" s="287"/>
+      <c r="T27" s="287"/>
+      <c r="U27" s="287"/>
+      <c r="V27" s="258"/>
+      <c r="W27" s="259"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="291"/>
-      <c r="H28" s="292"/>
+      <c r="C28" s="270"/>
+      <c r="D28" s="271"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="271"/>
+      <c r="G28" s="274"/>
+      <c r="H28" s="275"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -44948,23 +44958,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="303"/>
-      <c r="R28" s="304"/>
-      <c r="S28" s="304"/>
-      <c r="T28" s="304"/>
-      <c r="U28" s="304"/>
-      <c r="V28" s="275"/>
-      <c r="W28" s="276"/>
+      <c r="Q28" s="286"/>
+      <c r="R28" s="287"/>
+      <c r="S28" s="287"/>
+      <c r="T28" s="287"/>
+      <c r="U28" s="287"/>
+      <c r="V28" s="258"/>
+      <c r="W28" s="259"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="294"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="273"/>
+      <c r="F29" s="273"/>
+      <c r="G29" s="276"/>
+      <c r="H29" s="277"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -44973,13 +44983,13 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="305"/>
-      <c r="R29" s="306"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="306"/>
-      <c r="V29" s="277"/>
-      <c r="W29" s="278"/>
+      <c r="Q29" s="288"/>
+      <c r="R29" s="289"/>
+      <c r="S29" s="289"/>
+      <c r="T29" s="289"/>
+      <c r="U29" s="289"/>
+      <c r="V29" s="260"/>
+      <c r="W29" s="261"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:24">
@@ -45180,6 +45190,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="V8:X9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="Q24:W24"/>
     <mergeCell ref="V26:W29"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:H25"/>
@@ -45192,13 +45209,6 @@
     <mergeCell ref="J26:M27"/>
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="Q26:U29"/>
-    <mergeCell ref="V8:X9"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W12"/>
-    <mergeCell ref="X11:X12"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="Q24:W24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -45223,7 +45233,7 @@
   <dimension ref="B1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AY4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AY13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="BI6" sqref="BI6"/>
@@ -52044,11 +52054,11 @@
       <c r="P8" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="258" t="s">
+      <c r="V8" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="W8" s="259"/>
-      <c r="X8" s="260"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="292"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="44" t="s">
@@ -52108,9 +52118,9 @@
         <f>IF(O9&gt;=100%,0%,100%-O9)</f>
         <v>1.5622558975159073E-4</v>
       </c>
-      <c r="V9" s="261"/>
-      <c r="W9" s="262"/>
-      <c r="X9" s="263"/>
+      <c r="V9" s="293"/>
+      <c r="W9" s="294"/>
+      <c r="X9" s="295"/>
     </row>
     <row r="10" spans="2:24">
       <c r="L10" t="s">
@@ -52136,10 +52146,10 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!AZ2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V10" s="264" t="s">
+      <c r="V10" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="W10" s="265"/>
+      <c r="W10" s="297"/>
       <c r="X10" s="121" t="s">
         <v>10</v>
       </c>
@@ -52168,20 +52178,20 @@
         <f>VLOOKUP($B$3,Data!$C$3:$BE$22,Data!BD2,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="V11" s="266" t="str">
+      <c r="V11" s="298" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!L2,FALSE)</f>
         <v>NRC Plan</v>
       </c>
-      <c r="W11" s="267"/>
-      <c r="X11" s="332" t="str">
+      <c r="W11" s="299"/>
+      <c r="X11" s="316" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!M2,FALSE)</f>
         <v>Signed</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1">
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="333"/>
+      <c r="V12" s="300"/>
+      <c r="W12" s="301"/>
+      <c r="X12" s="317"/>
     </row>
     <row r="13" spans="2:24">
       <c r="M13" t="s">
@@ -52267,145 +52277,145 @@
     <row r="23" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="24" spans="2:24" ht="18.75">
       <c r="B24" s="74"/>
-      <c r="C24" s="272" t="s">
+      <c r="C24" s="304" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="273"/>
-      <c r="E24" s="273"/>
-      <c r="F24" s="273"/>
-      <c r="G24" s="273"/>
-      <c r="H24" s="274"/>
+      <c r="D24" s="305"/>
+      <c r="E24" s="305"/>
+      <c r="F24" s="305"/>
+      <c r="G24" s="305"/>
+      <c r="H24" s="306"/>
       <c r="I24" s="74"/>
-      <c r="J24" s="258" t="s">
+      <c r="J24" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="260"/>
+      <c r="K24" s="291"/>
+      <c r="L24" s="291"/>
+      <c r="M24" s="291"/>
+      <c r="N24" s="291"/>
+      <c r="O24" s="292"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="258" t="s">
+      <c r="Q24" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="259"/>
-      <c r="U24" s="259"/>
-      <c r="V24" s="259"/>
-      <c r="W24" s="260"/>
+      <c r="R24" s="291"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="291"/>
+      <c r="U24" s="291"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="292"/>
     </row>
     <row r="25" spans="2:24" ht="16.7" customHeight="1">
       <c r="B25" s="74"/>
-      <c r="C25" s="279" t="s">
+      <c r="C25" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280" t="s">
+      <c r="D25" s="263"/>
+      <c r="E25" s="263"/>
+      <c r="F25" s="263"/>
+      <c r="G25" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="281"/>
+      <c r="H25" s="264"/>
       <c r="I25" s="74"/>
-      <c r="J25" s="279" t="s">
+      <c r="J25" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="280"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="280"/>
-      <c r="N25" s="280" t="s">
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="O25" s="281"/>
+      <c r="O25" s="264"/>
       <c r="P25" s="74"/>
-      <c r="Q25" s="282" t="s">
+      <c r="Q25" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="R25" s="283"/>
-      <c r="S25" s="283"/>
-      <c r="T25" s="283"/>
-      <c r="U25" s="284"/>
-      <c r="V25" s="285" t="s">
+      <c r="R25" s="266"/>
+      <c r="S25" s="266"/>
+      <c r="T25" s="266"/>
+      <c r="U25" s="267"/>
+      <c r="V25" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="W25" s="286"/>
+      <c r="W25" s="269"/>
       <c r="X25" s="74"/>
     </row>
     <row r="26" spans="2:24">
       <c r="B26" s="74"/>
-      <c r="C26" s="287" t="str">
+      <c r="C26" s="270" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!X2,FALSE)</f>
         <v>Montly Report</v>
       </c>
-      <c r="D26" s="288"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="324">
+      <c r="D26" s="271"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="271"/>
+      <c r="G26" s="326">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!Y2,FALSE)</f>
         <v>0.6</v>
       </c>
-      <c r="H26" s="325"/>
+      <c r="H26" s="327"/>
       <c r="I26" s="74"/>
-      <c r="J26" s="295" t="s">
+      <c r="J26" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="296"/>
-      <c r="L26" s="296"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="328" t="str">
+      <c r="K26" s="279"/>
+      <c r="L26" s="279"/>
+      <c r="M26" s="279"/>
+      <c r="N26" s="330" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AA2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="O26" s="329"/>
+      <c r="O26" s="331"/>
       <c r="P26" s="74"/>
-      <c r="Q26" s="316" t="s">
+      <c r="Q26" s="318" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="317"/>
-      <c r="S26" s="317"/>
-      <c r="T26" s="317"/>
-      <c r="U26" s="317"/>
-      <c r="V26" s="320" t="str">
+      <c r="R26" s="319"/>
+      <c r="S26" s="319"/>
+      <c r="T26" s="319"/>
+      <c r="U26" s="319"/>
+      <c r="V26" s="322" t="str">
         <f>VLOOKUP(B3,Data!C3:BE22,Data!AD2,FALSE)</f>
         <v>Q3</v>
       </c>
-      <c r="W26" s="321"/>
+      <c r="W26" s="323"/>
       <c r="X26" s="74"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="325"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="326"/>
+      <c r="H27" s="327"/>
       <c r="I27" s="74"/>
-      <c r="J27" s="297"/>
-      <c r="K27" s="298"/>
-      <c r="L27" s="298"/>
-      <c r="M27" s="298"/>
-      <c r="N27" s="330"/>
-      <c r="O27" s="331"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="332"/>
+      <c r="O27" s="333"/>
       <c r="P27" s="74"/>
-      <c r="Q27" s="316"/>
-      <c r="R27" s="317"/>
-      <c r="S27" s="317"/>
-      <c r="T27" s="317"/>
-      <c r="U27" s="317"/>
-      <c r="V27" s="320"/>
-      <c r="W27" s="321"/>
+      <c r="Q27" s="318"/>
+      <c r="R27" s="319"/>
+      <c r="S27" s="319"/>
+      <c r="T27" s="319"/>
+      <c r="U27" s="319"/>
+      <c r="V27" s="322"/>
+      <c r="W27" s="323"/>
       <c r="X27" s="74"/>
     </row>
     <row r="28" spans="2:24">
       <c r="B28" s="74"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="324"/>
-      <c r="H28" s="325"/>
+      <c r="C28" s="270"/>
+      <c r="D28" s="271"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="271"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="327"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
@@ -52414,23 +52424,23 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
       <c r="P28" s="74"/>
-      <c r="Q28" s="316"/>
-      <c r="R28" s="317"/>
-      <c r="S28" s="317"/>
-      <c r="T28" s="317"/>
-      <c r="U28" s="317"/>
-      <c r="V28" s="320"/>
-      <c r="W28" s="321"/>
+      <c r="Q28" s="318"/>
+      <c r="R28" s="319"/>
+      <c r="S28" s="319"/>
+      <c r="T28" s="319"/>
+      <c r="U28" s="319"/>
+      <c r="V28" s="322"/>
+      <c r="W28" s="323"/>
       <c r="X28" s="74"/>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="289"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="326"/>
-      <c r="H29" s="327"/>
+      <c r="C29" s="272"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="273"/>
+      <c r="F29" s="273"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="329"/>
       <c r="I29" s="74"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
@@ -52439,13 +52449,13 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
       <c r="P29" s="74"/>
-      <c r="Q29" s="318"/>
-      <c r="R29" s="319"/>
-      <c r="S29" s="319"/>
-      <c r="T29" s="319"/>
-      <c r="U29" s="319"/>
-      <c r="V29" s="322"/>
-      <c r="W29" s="323"/>
+      <c r="Q29" s="320"/>
+      <c r="R29" s="321"/>
+      <c r="S29" s="321"/>
+      <c r="T29" s="321"/>
+      <c r="U29" s="321"/>
+      <c r="V29" s="324"/>
+      <c r="W29" s="325"/>
       <c r="X29" s="74"/>
     </row>
     <row r="34" spans="3:23">
@@ -52555,6 +52565,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q26:U29"/>
+    <mergeCell ref="V26:W29"/>
+    <mergeCell ref="C26:F29"/>
+    <mergeCell ref="G26:H29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="N26:O27"/>
     <mergeCell ref="V8:X9"/>
     <mergeCell ref="V10:W10"/>
     <mergeCell ref="V11:W12"/>
@@ -52565,15 +52584,6 @@
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="J24:O24"/>
-    <mergeCell ref="Q26:U29"/>
-    <mergeCell ref="V26:W29"/>
-    <mergeCell ref="C26:F29"/>
-    <mergeCell ref="G26:H29"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="J26:M27"/>
-    <mergeCell ref="N26:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -58563,13 +58573,13 @@
         <v>139</v>
       </c>
       <c r="U97" s="334"/>
-      <c r="Z97" s="335" t="s">
+      <c r="Z97" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="AA97" s="337" t="s">
+      <c r="AA97" s="335" t="s">
         <v>226</v>
       </c>
-      <c r="AB97" s="337" t="s">
+      <c r="AB97" s="335" t="s">
         <v>227</v>
       </c>
     </row>
@@ -58631,36 +58641,36 @@
       <c r="U98" s="9">
         <v>19</v>
       </c>
-      <c r="Z98" s="336"/>
-      <c r="AA98" s="338"/>
-      <c r="AB98" s="338"/>
+      <c r="Z98" s="338"/>
+      <c r="AA98" s="336"/>
+      <c r="AB98" s="336"/>
     </row>
     <row r="99" spans="3:28">
-      <c r="C99" s="335" t="s">
+      <c r="C99" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="337" t="s">
+      <c r="D99" s="335" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="337" t="s">
+      <c r="E99" s="335" t="s">
         <v>229</v>
       </c>
-      <c r="F99" s="335" t="s">
+      <c r="F99" s="337" t="s">
         <v>230</v>
       </c>
-      <c r="G99" s="337" t="s">
+      <c r="G99" s="335" t="s">
         <v>231</v>
       </c>
-      <c r="H99" s="335" t="s">
+      <c r="H99" s="337" t="s">
         <v>230</v>
       </c>
-      <c r="I99" s="337" t="s">
+      <c r="I99" s="335" t="s">
         <v>231</v>
       </c>
-      <c r="J99" s="335" t="s">
+      <c r="J99" s="337" t="s">
         <v>230</v>
       </c>
-      <c r="K99" s="337" t="s">
+      <c r="K99" s="335" t="s">
         <v>231</v>
       </c>
       <c r="Z99" s="5" t="s">
@@ -58674,15 +58684,15 @@
       </c>
     </row>
     <row r="100" spans="3:28">
-      <c r="C100" s="336"/>
-      <c r="D100" s="338"/>
-      <c r="E100" s="338"/>
-      <c r="F100" s="336"/>
-      <c r="G100" s="338"/>
-      <c r="H100" s="336"/>
-      <c r="I100" s="338"/>
-      <c r="J100" s="336"/>
-      <c r="K100" s="338"/>
+      <c r="C100" s="338"/>
+      <c r="D100" s="336"/>
+      <c r="E100" s="336"/>
+      <c r="F100" s="338"/>
+      <c r="G100" s="336"/>
+      <c r="H100" s="338"/>
+      <c r="I100" s="336"/>
+      <c r="J100" s="338"/>
+      <c r="K100" s="336"/>
       <c r="Z100" s="6" t="s">
         <v>103</v>
       </c>
@@ -61326,12 +61336,38 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="AA97:AA98"/>
-    <mergeCell ref="AB97:AB98"/>
-    <mergeCell ref="Z97:Z98"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="H135:I135"/>
@@ -61345,38 +61381,12 @@
     <mergeCell ref="I99:I100"/>
     <mergeCell ref="J99:J100"/>
     <mergeCell ref="K99:K100"/>
-    <mergeCell ref="T97:U97"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="AA97:AA98"/>
+    <mergeCell ref="AB97:AB98"/>
+    <mergeCell ref="Z97:Z98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="S22:AC36">
@@ -61508,22 +61518,22 @@
       </c>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="335" t="s">
+      <c r="B3" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="335" t="s">
+      <c r="C3" s="337" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="335" t="s">
+      <c r="D3" s="337" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="337" t="s">
+      <c r="E3" s="335" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="337" t="s">
+      <c r="F3" s="335" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="337" t="s">
+      <c r="G3" s="335" t="s">
         <v>227</v>
       </c>
       <c r="I3">
@@ -61558,12 +61568,12 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="105">
-      <c r="B4" s="336"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="336"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="338"/>
-      <c r="G4" s="338"/>
+      <c r="B4" s="338"/>
+      <c r="C4" s="338"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="336"/>
       <c r="I4" t="s">
         <v>127</v>
       </c>
@@ -64558,26 +64568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1B9CBAF11028447B385221D9B36D96A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="185deeeeaa85aa5acc6da7ff5918ca94">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22ff7873-98f4-4119-bbca-70544c3aaded" xmlns:ns3="242fb338-6e7f-46c2-a04d-1835f0b57452" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d20db2146c0415d77fbec532ba79aee6" ns2:_="" ns3:_="">
     <xsd:import namespace="22ff7873-98f4-4119-bbca-70544c3aaded"/>
@@ -64812,32 +64802,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="242fb338-6e7f-46c2-a04d-1835f0b57452" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="22ff7873-98f4-4119-bbca-70544c3aaded">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9624E47F-8C23-423C-89CF-EE75FCD5D016}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -64854,4 +64839,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05AA3BD3-FC33-49C7-8FFA-720A09098D3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64E66E15-4778-4129-99C9-A55E38F0DC34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="242fb338-6e7f-46c2-a04d-1835f0b57452"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="22ff7873-98f4-4119-bbca-70544c3aaded"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>